--- a/课程跟踪.xlsx
+++ b/课程跟踪.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="18360"/>
+    <workbookView windowWidth="21380" windowHeight="14740"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -567,10 +567,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -602,24 +602,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -627,7 +626,7 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -641,16 +640,46 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -666,52 +695,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -725,14 +717,22 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="36">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -765,97 +765,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -873,7 +789,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -885,37 +885,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -927,19 +915,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1036,36 +1030,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1077,17 +1041,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1115,157 +1068,198 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="34" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1329,12 +1323,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1342,9 +1330,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2389,7 +2374,7 @@
       <c r="J35" s="17"/>
       <c r="K35" s="17"/>
       <c r="L35" s="17" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="36" ht="22" spans="1:12">
@@ -2411,7 +2396,7 @@
       <c r="J36" s="17"/>
       <c r="K36" s="17"/>
       <c r="L36" s="17" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="37" ht="22" spans="2:12">
@@ -2479,8 +2464,8 @@
       <c r="K39" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="L39" s="18" t="s">
-        <v>10</v>
+      <c r="L39" s="16" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="40" ht="22" spans="2:12">
@@ -2944,7 +2929,7 @@
       <c r="D65" s="20"/>
       <c r="E65" s="20"/>
       <c r="F65" s="20"/>
-      <c r="G65" s="25"/>
+      <c r="G65" s="23"/>
       <c r="H65" s="13">
         <v>43427</v>
       </c>
@@ -2970,7 +2955,7 @@
       <c r="D66" s="20"/>
       <c r="E66" s="20"/>
       <c r="F66" s="20"/>
-      <c r="G66" s="25"/>
+      <c r="G66" s="23"/>
       <c r="H66" s="13">
         <v>43427</v>
       </c>
@@ -2996,7 +2981,7 @@
       <c r="D67" s="20"/>
       <c r="E67" s="20"/>
       <c r="F67" s="20"/>
-      <c r="G67" s="25"/>
+      <c r="G67" s="23"/>
       <c r="H67" s="13">
         <v>43427</v>
       </c>
@@ -3022,7 +3007,7 @@
       <c r="D68" s="20"/>
       <c r="E68" s="20"/>
       <c r="F68" s="20"/>
-      <c r="G68" s="25"/>
+      <c r="G68" s="23"/>
       <c r="H68" s="13">
         <v>43427</v>
       </c>
@@ -3048,7 +3033,7 @@
       <c r="D69" s="20"/>
       <c r="E69" s="20"/>
       <c r="F69" s="20"/>
-      <c r="G69" s="25"/>
+      <c r="G69" s="23"/>
       <c r="H69" s="13">
         <v>43451</v>
       </c>
@@ -3084,7 +3069,7 @@
       <c r="D72" s="20"/>
       <c r="E72" s="20"/>
       <c r="F72" s="20"/>
-      <c r="G72" s="25"/>
+      <c r="G72" s="23"/>
       <c r="H72" s="13">
         <v>43486</v>
       </c>
@@ -3110,7 +3095,7 @@
       <c r="D73" s="20"/>
       <c r="E73" s="20"/>
       <c r="F73" s="20"/>
-      <c r="G73" s="25"/>
+      <c r="G73" s="23"/>
       <c r="H73" s="13">
         <v>43486</v>
       </c>
@@ -3136,7 +3121,7 @@
       <c r="D74" s="20"/>
       <c r="E74" s="20"/>
       <c r="F74" s="20"/>
-      <c r="G74" s="25"/>
+      <c r="G74" s="23"/>
       <c r="H74" s="13">
         <v>43486</v>
       </c>
@@ -3162,7 +3147,7 @@
       <c r="D75" s="20"/>
       <c r="E75" s="20"/>
       <c r="F75" s="20"/>
-      <c r="G75" s="25"/>
+      <c r="G75" s="23"/>
       <c r="H75" s="13">
         <v>43486</v>
       </c>
@@ -3188,7 +3173,7 @@
       <c r="D76" s="20"/>
       <c r="E76" s="20"/>
       <c r="F76" s="20"/>
-      <c r="G76" s="25"/>
+      <c r="G76" s="23"/>
       <c r="H76" s="13">
         <v>43486</v>
       </c>
@@ -3214,7 +3199,7 @@
       <c r="D77" s="20"/>
       <c r="E77" s="20"/>
       <c r="F77" s="20"/>
-      <c r="G77" s="25"/>
+      <c r="G77" s="23"/>
       <c r="H77" s="13">
         <v>43486</v>
       </c>
@@ -3237,7 +3222,7 @@
       <c r="D78" s="20"/>
       <c r="E78" s="20"/>
       <c r="F78" s="20"/>
-      <c r="G78" s="25"/>
+      <c r="G78" s="23"/>
       <c r="H78" s="13">
         <v>43493</v>
       </c>
@@ -3260,7 +3245,7 @@
       <c r="D79" s="20"/>
       <c r="E79" s="20"/>
       <c r="F79" s="20"/>
-      <c r="G79" s="25"/>
+      <c r="G79" s="23"/>
       <c r="H79" s="13">
         <v>43493</v>
       </c>
@@ -3283,7 +3268,7 @@
       <c r="D80" s="20"/>
       <c r="E80" s="20"/>
       <c r="F80" s="20"/>
-      <c r="G80" s="25"/>
+      <c r="G80" s="23"/>
       <c r="H80" s="13">
         <v>43493</v>
       </c>
@@ -3319,7 +3304,7 @@
       <c r="D83" s="20"/>
       <c r="E83" s="20"/>
       <c r="F83" s="20"/>
-      <c r="G83" s="25"/>
+      <c r="G83" s="23"/>
       <c r="H83" s="13">
         <v>43487</v>
       </c>
@@ -3355,7 +3340,7 @@
       <c r="D86" s="20"/>
       <c r="E86" s="20"/>
       <c r="F86" s="20"/>
-      <c r="G86" s="25"/>
+      <c r="G86" s="23"/>
       <c r="H86" s="13">
         <v>43487</v>
       </c>
@@ -3381,7 +3366,7 @@
       <c r="D87" s="20"/>
       <c r="E87" s="20"/>
       <c r="F87" s="20"/>
-      <c r="G87" s="25"/>
+      <c r="G87" s="23"/>
       <c r="H87" s="13">
         <v>43487</v>
       </c>
@@ -3400,14 +3385,14 @@
       <c r="A88" s="2">
         <v>46</v>
       </c>
-      <c r="B88" s="21" t="s">
+      <c r="B88" s="19" t="s">
         <v>81</v>
       </c>
-      <c r="C88" s="22"/>
-      <c r="D88" s="22"/>
-      <c r="E88" s="22"/>
-      <c r="F88" s="22"/>
-      <c r="G88" s="26"/>
+      <c r="C88" s="20"/>
+      <c r="D88" s="20"/>
+      <c r="E88" s="20"/>
+      <c r="F88" s="20"/>
+      <c r="G88" s="23"/>
       <c r="H88" s="13">
         <v>43493</v>
       </c>
@@ -3426,14 +3411,14 @@
       <c r="A89" s="2">
         <v>47</v>
       </c>
-      <c r="B89" s="21" t="s">
+      <c r="B89" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C89" s="22"/>
-      <c r="D89" s="22"/>
-      <c r="E89" s="22"/>
-      <c r="F89" s="22"/>
-      <c r="G89" s="26"/>
+      <c r="C89" s="20"/>
+      <c r="D89" s="20"/>
+      <c r="E89" s="20"/>
+      <c r="F89" s="20"/>
+      <c r="G89" s="23"/>
       <c r="H89" s="13">
         <v>43493</v>
       </c>
@@ -3462,14 +3447,14 @@
       <c r="A92" s="2">
         <v>48</v>
       </c>
-      <c r="B92" s="23" t="s">
+      <c r="B92" s="21" t="s">
         <v>84</v>
       </c>
-      <c r="C92" s="24"/>
-      <c r="D92" s="24"/>
-      <c r="E92" s="24"/>
-      <c r="F92" s="24"/>
-      <c r="G92" s="27"/>
+      <c r="C92" s="22"/>
+      <c r="D92" s="22"/>
+      <c r="E92" s="22"/>
+      <c r="F92" s="22"/>
+      <c r="G92" s="24"/>
       <c r="H92" s="12"/>
       <c r="I92" s="12"/>
       <c r="J92" s="12"/>
@@ -3484,14 +3469,14 @@
       <c r="A93" s="2">
         <v>49</v>
       </c>
-      <c r="B93" s="23" t="s">
+      <c r="B93" s="21" t="s">
         <v>85</v>
       </c>
-      <c r="C93" s="24"/>
-      <c r="D93" s="24"/>
-      <c r="E93" s="24"/>
-      <c r="F93" s="24"/>
-      <c r="G93" s="27"/>
+      <c r="C93" s="22"/>
+      <c r="D93" s="22"/>
+      <c r="E93" s="22"/>
+      <c r="F93" s="22"/>
+      <c r="G93" s="24"/>
       <c r="H93" s="12"/>
       <c r="I93" s="12"/>
       <c r="J93" s="12"/>
@@ -3506,14 +3491,14 @@
       <c r="A94" s="2">
         <v>50</v>
       </c>
-      <c r="B94" s="23" t="s">
+      <c r="B94" s="21" t="s">
         <v>86</v>
       </c>
-      <c r="C94" s="24"/>
-      <c r="D94" s="24"/>
-      <c r="E94" s="24"/>
-      <c r="F94" s="24"/>
-      <c r="G94" s="27"/>
+      <c r="C94" s="22"/>
+      <c r="D94" s="22"/>
+      <c r="E94" s="22"/>
+      <c r="F94" s="22"/>
+      <c r="G94" s="24"/>
       <c r="H94" s="12"/>
       <c r="I94" s="12"/>
       <c r="J94" s="12"/>
@@ -3528,14 +3513,14 @@
       <c r="A95" s="2">
         <v>51</v>
       </c>
-      <c r="B95" s="23" t="s">
+      <c r="B95" s="21" t="s">
         <v>87</v>
       </c>
-      <c r="C95" s="24"/>
-      <c r="D95" s="24"/>
-      <c r="E95" s="24"/>
-      <c r="F95" s="24"/>
-      <c r="G95" s="27"/>
+      <c r="C95" s="22"/>
+      <c r="D95" s="22"/>
+      <c r="E95" s="22"/>
+      <c r="F95" s="22"/>
+      <c r="G95" s="24"/>
       <c r="H95" s="12"/>
       <c r="I95" s="12"/>
       <c r="J95" s="12"/>
@@ -3550,14 +3535,14 @@
       <c r="A96" s="2">
         <v>52</v>
       </c>
-      <c r="B96" s="23" t="s">
+      <c r="B96" s="21" t="s">
         <v>88</v>
       </c>
-      <c r="C96" s="24"/>
-      <c r="D96" s="24"/>
-      <c r="E96" s="24"/>
-      <c r="F96" s="24"/>
-      <c r="G96" s="27"/>
+      <c r="C96" s="22"/>
+      <c r="D96" s="22"/>
+      <c r="E96" s="22"/>
+      <c r="F96" s="22"/>
+      <c r="G96" s="24"/>
       <c r="H96" s="12"/>
       <c r="I96" s="12"/>
       <c r="J96" s="12"/>
@@ -3572,14 +3557,14 @@
       <c r="A97" s="2">
         <v>53</v>
       </c>
-      <c r="B97" s="23" t="s">
+      <c r="B97" s="21" t="s">
         <v>89</v>
       </c>
-      <c r="C97" s="24"/>
-      <c r="D97" s="24"/>
-      <c r="E97" s="24"/>
-      <c r="F97" s="24"/>
-      <c r="G97" s="27"/>
+      <c r="C97" s="22"/>
+      <c r="D97" s="22"/>
+      <c r="E97" s="22"/>
+      <c r="F97" s="22"/>
+      <c r="G97" s="24"/>
       <c r="H97" s="12"/>
       <c r="I97" s="12"/>
       <c r="J97" s="12"/>
@@ -3594,14 +3579,14 @@
       <c r="A98" s="2">
         <v>54</v>
       </c>
-      <c r="B98" s="23" t="s">
+      <c r="B98" s="21" t="s">
         <v>90</v>
       </c>
-      <c r="C98" s="24"/>
-      <c r="D98" s="24"/>
-      <c r="E98" s="24"/>
-      <c r="F98" s="24"/>
-      <c r="G98" s="27"/>
+      <c r="C98" s="22"/>
+      <c r="D98" s="22"/>
+      <c r="E98" s="22"/>
+      <c r="F98" s="22"/>
+      <c r="G98" s="24"/>
       <c r="H98" s="12"/>
       <c r="I98" s="12"/>
       <c r="J98" s="12"/>
@@ -3616,14 +3601,14 @@
       <c r="A99" s="2">
         <v>55</v>
       </c>
-      <c r="B99" s="23" t="s">
+      <c r="B99" s="21" t="s">
         <v>91</v>
       </c>
-      <c r="C99" s="24"/>
-      <c r="D99" s="24"/>
-      <c r="E99" s="24"/>
-      <c r="F99" s="24"/>
-      <c r="G99" s="27"/>
+      <c r="C99" s="22"/>
+      <c r="D99" s="22"/>
+      <c r="E99" s="22"/>
+      <c r="F99" s="22"/>
+      <c r="G99" s="24"/>
       <c r="H99" s="12"/>
       <c r="I99" s="12"/>
       <c r="J99" s="12"/>
@@ -3638,14 +3623,14 @@
       <c r="A100" s="2">
         <v>56</v>
       </c>
-      <c r="B100" s="23" t="s">
+      <c r="B100" s="21" t="s">
         <v>92</v>
       </c>
-      <c r="C100" s="24"/>
-      <c r="D100" s="24"/>
-      <c r="E100" s="24"/>
-      <c r="F100" s="24"/>
-      <c r="G100" s="27"/>
+      <c r="C100" s="22"/>
+      <c r="D100" s="22"/>
+      <c r="E100" s="22"/>
+      <c r="F100" s="22"/>
+      <c r="G100" s="24"/>
       <c r="H100" s="12"/>
       <c r="I100" s="12"/>
       <c r="J100" s="12"/>
@@ -3670,14 +3655,14 @@
       <c r="A103" s="2">
         <v>57</v>
       </c>
-      <c r="B103" s="23" t="s">
+      <c r="B103" s="21" t="s">
         <v>94</v>
       </c>
-      <c r="C103" s="24"/>
-      <c r="D103" s="24"/>
-      <c r="E103" s="24"/>
-      <c r="F103" s="24"/>
-      <c r="G103" s="27"/>
+      <c r="C103" s="22"/>
+      <c r="D103" s="22"/>
+      <c r="E103" s="22"/>
+      <c r="F103" s="22"/>
+      <c r="G103" s="24"/>
       <c r="H103" s="12"/>
       <c r="I103" s="12"/>
       <c r="J103" s="12"/>
@@ -3692,14 +3677,14 @@
       <c r="A104" s="2">
         <v>58</v>
       </c>
-      <c r="B104" s="23" t="s">
+      <c r="B104" s="21" t="s">
         <v>95</v>
       </c>
-      <c r="C104" s="24"/>
-      <c r="D104" s="24"/>
-      <c r="E104" s="24"/>
-      <c r="F104" s="24"/>
-      <c r="G104" s="27"/>
+      <c r="C104" s="22"/>
+      <c r="D104" s="22"/>
+      <c r="E104" s="22"/>
+      <c r="F104" s="22"/>
+      <c r="G104" s="24"/>
       <c r="H104" s="12"/>
       <c r="I104" s="12"/>
       <c r="J104" s="12"/>
@@ -3714,14 +3699,14 @@
       <c r="A105" s="2">
         <v>59</v>
       </c>
-      <c r="B105" s="23" t="s">
+      <c r="B105" s="21" t="s">
         <v>96</v>
       </c>
-      <c r="C105" s="24"/>
-      <c r="D105" s="24"/>
-      <c r="E105" s="24"/>
-      <c r="F105" s="24"/>
-      <c r="G105" s="27"/>
+      <c r="C105" s="22"/>
+      <c r="D105" s="22"/>
+      <c r="E105" s="22"/>
+      <c r="F105" s="22"/>
+      <c r="G105" s="24"/>
       <c r="H105" s="12"/>
       <c r="I105" s="12"/>
       <c r="J105" s="12"/>
@@ -3736,14 +3721,14 @@
       <c r="A106" s="2">
         <v>60</v>
       </c>
-      <c r="B106" s="23" t="s">
+      <c r="B106" s="21" t="s">
         <v>97</v>
       </c>
-      <c r="C106" s="24"/>
-      <c r="D106" s="24"/>
-      <c r="E106" s="24"/>
-      <c r="F106" s="24"/>
-      <c r="G106" s="27"/>
+      <c r="C106" s="22"/>
+      <c r="D106" s="22"/>
+      <c r="E106" s="22"/>
+      <c r="F106" s="22"/>
+      <c r="G106" s="24"/>
       <c r="H106" s="12"/>
       <c r="I106" s="12"/>
       <c r="J106" s="12"/>
@@ -3768,14 +3753,14 @@
       <c r="A109" s="2">
         <v>61</v>
       </c>
-      <c r="B109" s="23" t="s">
+      <c r="B109" s="21" t="s">
         <v>99</v>
       </c>
-      <c r="C109" s="24"/>
-      <c r="D109" s="24"/>
-      <c r="E109" s="24"/>
-      <c r="F109" s="24"/>
-      <c r="G109" s="27"/>
+      <c r="C109" s="22"/>
+      <c r="D109" s="22"/>
+      <c r="E109" s="22"/>
+      <c r="F109" s="22"/>
+      <c r="G109" s="24"/>
       <c r="H109" s="12"/>
       <c r="I109" s="12"/>
       <c r="J109" s="12"/>
@@ -3800,14 +3785,14 @@
       <c r="A112" s="2">
         <v>62</v>
       </c>
-      <c r="B112" s="23" t="s">
+      <c r="B112" s="21" t="s">
         <v>101</v>
       </c>
-      <c r="C112" s="24"/>
-      <c r="D112" s="24"/>
-      <c r="E112" s="24"/>
-      <c r="F112" s="24"/>
-      <c r="G112" s="27"/>
+      <c r="C112" s="22"/>
+      <c r="D112" s="22"/>
+      <c r="E112" s="22"/>
+      <c r="F112" s="22"/>
+      <c r="G112" s="24"/>
       <c r="H112" s="12"/>
       <c r="I112" s="12"/>
       <c r="J112" s="12"/>
@@ -3822,14 +3807,14 @@
       <c r="A113" s="2">
         <v>63</v>
       </c>
-      <c r="B113" s="23" t="s">
+      <c r="B113" s="21" t="s">
         <v>102</v>
       </c>
-      <c r="C113" s="24"/>
-      <c r="D113" s="24"/>
-      <c r="E113" s="24"/>
-      <c r="F113" s="24"/>
-      <c r="G113" s="27"/>
+      <c r="C113" s="22"/>
+      <c r="D113" s="22"/>
+      <c r="E113" s="22"/>
+      <c r="F113" s="22"/>
+      <c r="G113" s="24"/>
       <c r="H113" s="12"/>
       <c r="I113" s="12"/>
       <c r="J113" s="12"/>
@@ -3844,14 +3829,14 @@
       <c r="A114" s="2">
         <v>64</v>
       </c>
-      <c r="B114" s="23" t="s">
+      <c r="B114" s="21" t="s">
         <v>103</v>
       </c>
-      <c r="C114" s="24"/>
-      <c r="D114" s="24"/>
-      <c r="E114" s="24"/>
-      <c r="F114" s="24"/>
-      <c r="G114" s="27"/>
+      <c r="C114" s="22"/>
+      <c r="D114" s="22"/>
+      <c r="E114" s="22"/>
+      <c r="F114" s="22"/>
+      <c r="G114" s="24"/>
       <c r="H114" s="12"/>
       <c r="I114" s="12"/>
       <c r="J114" s="12"/>
@@ -3866,14 +3851,14 @@
       <c r="A115" s="2">
         <v>65</v>
       </c>
-      <c r="B115" s="23" t="s">
+      <c r="B115" s="21" t="s">
         <v>104</v>
       </c>
-      <c r="C115" s="24"/>
-      <c r="D115" s="24"/>
-      <c r="E115" s="24"/>
-      <c r="F115" s="24"/>
-      <c r="G115" s="27"/>
+      <c r="C115" s="22"/>
+      <c r="D115" s="22"/>
+      <c r="E115" s="22"/>
+      <c r="F115" s="22"/>
+      <c r="G115" s="24"/>
       <c r="H115" s="12"/>
       <c r="I115" s="12"/>
       <c r="J115" s="12"/>
@@ -3888,14 +3873,14 @@
       <c r="A116" s="2">
         <v>66</v>
       </c>
-      <c r="B116" s="23" t="s">
+      <c r="B116" s="21" t="s">
         <v>105</v>
       </c>
-      <c r="C116" s="24"/>
-      <c r="D116" s="24"/>
-      <c r="E116" s="24"/>
-      <c r="F116" s="24"/>
-      <c r="G116" s="27"/>
+      <c r="C116" s="22"/>
+      <c r="D116" s="22"/>
+      <c r="E116" s="22"/>
+      <c r="F116" s="22"/>
+      <c r="G116" s="24"/>
       <c r="H116" s="12"/>
       <c r="I116" s="12"/>
       <c r="J116" s="12"/>
@@ -3910,14 +3895,14 @@
       <c r="A117" s="2">
         <v>67</v>
       </c>
-      <c r="B117" s="23" t="s">
+      <c r="B117" s="21" t="s">
         <v>106</v>
       </c>
-      <c r="C117" s="24"/>
-      <c r="D117" s="24"/>
-      <c r="E117" s="24"/>
-      <c r="F117" s="24"/>
-      <c r="G117" s="27"/>
+      <c r="C117" s="22"/>
+      <c r="D117" s="22"/>
+      <c r="E117" s="22"/>
+      <c r="F117" s="22"/>
+      <c r="G117" s="24"/>
       <c r="H117" s="12"/>
       <c r="I117" s="12"/>
       <c r="J117" s="12"/>
@@ -3942,14 +3927,14 @@
       <c r="A120" s="2">
         <v>68</v>
       </c>
-      <c r="B120" s="23" t="s">
+      <c r="B120" s="21" t="s">
         <v>108</v>
       </c>
-      <c r="C120" s="24"/>
-      <c r="D120" s="24"/>
-      <c r="E120" s="24"/>
-      <c r="F120" s="24"/>
-      <c r="G120" s="27"/>
+      <c r="C120" s="22"/>
+      <c r="D120" s="22"/>
+      <c r="E120" s="22"/>
+      <c r="F120" s="22"/>
+      <c r="G120" s="24"/>
       <c r="H120" s="12"/>
       <c r="I120" s="12"/>
       <c r="J120" s="12"/>
@@ -3964,14 +3949,14 @@
       <c r="A121" s="2">
         <v>69</v>
       </c>
-      <c r="B121" s="23" t="s">
+      <c r="B121" s="21" t="s">
         <v>109</v>
       </c>
-      <c r="C121" s="24"/>
-      <c r="D121" s="24"/>
-      <c r="E121" s="24"/>
-      <c r="F121" s="24"/>
-      <c r="G121" s="27"/>
+      <c r="C121" s="22"/>
+      <c r="D121" s="22"/>
+      <c r="E121" s="22"/>
+      <c r="F121" s="22"/>
+      <c r="G121" s="24"/>
       <c r="H121" s="12"/>
       <c r="I121" s="12"/>
       <c r="J121" s="12"/>
@@ -3986,14 +3971,14 @@
       <c r="A122" s="2">
         <v>70</v>
       </c>
-      <c r="B122" s="23" t="s">
+      <c r="B122" s="21" t="s">
         <v>110</v>
       </c>
-      <c r="C122" s="24"/>
-      <c r="D122" s="24"/>
-      <c r="E122" s="24"/>
-      <c r="F122" s="24"/>
-      <c r="G122" s="27"/>
+      <c r="C122" s="22"/>
+      <c r="D122" s="22"/>
+      <c r="E122" s="22"/>
+      <c r="F122" s="22"/>
+      <c r="G122" s="24"/>
       <c r="H122" s="12"/>
       <c r="I122" s="12"/>
       <c r="J122" s="12"/>
@@ -4008,14 +3993,14 @@
       <c r="A123" s="2">
         <v>71</v>
       </c>
-      <c r="B123" s="23" t="s">
+      <c r="B123" s="21" t="s">
         <v>111</v>
       </c>
-      <c r="C123" s="24"/>
-      <c r="D123" s="24"/>
-      <c r="E123" s="24"/>
-      <c r="F123" s="24"/>
-      <c r="G123" s="27"/>
+      <c r="C123" s="22"/>
+      <c r="D123" s="22"/>
+      <c r="E123" s="22"/>
+      <c r="F123" s="22"/>
+      <c r="G123" s="24"/>
       <c r="H123" s="12"/>
       <c r="I123" s="12"/>
       <c r="J123" s="12"/>
@@ -4030,14 +4015,14 @@
       <c r="A124" s="2">
         <v>72</v>
       </c>
-      <c r="B124" s="23" t="s">
+      <c r="B124" s="21" t="s">
         <v>112</v>
       </c>
-      <c r="C124" s="24"/>
-      <c r="D124" s="24"/>
-      <c r="E124" s="24"/>
-      <c r="F124" s="24"/>
-      <c r="G124" s="27"/>
+      <c r="C124" s="22"/>
+      <c r="D124" s="22"/>
+      <c r="E124" s="22"/>
+      <c r="F124" s="22"/>
+      <c r="G124" s="24"/>
       <c r="H124" s="12"/>
       <c r="I124" s="12"/>
       <c r="J124" s="12"/>
@@ -4062,14 +4047,14 @@
       <c r="A127" s="2">
         <v>73</v>
       </c>
-      <c r="B127" s="23" t="s">
+      <c r="B127" s="21" t="s">
         <v>114</v>
       </c>
-      <c r="C127" s="24"/>
-      <c r="D127" s="24"/>
-      <c r="E127" s="24"/>
-      <c r="F127" s="24"/>
-      <c r="G127" s="27"/>
+      <c r="C127" s="22"/>
+      <c r="D127" s="22"/>
+      <c r="E127" s="22"/>
+      <c r="F127" s="22"/>
+      <c r="G127" s="24"/>
       <c r="H127" s="12"/>
       <c r="I127" s="12"/>
       <c r="J127" s="12"/>
@@ -4084,14 +4069,14 @@
       <c r="A128" s="2">
         <v>74</v>
       </c>
-      <c r="B128" s="23" t="s">
+      <c r="B128" s="21" t="s">
         <v>115</v>
       </c>
-      <c r="C128" s="24"/>
-      <c r="D128" s="24"/>
-      <c r="E128" s="24"/>
-      <c r="F128" s="24"/>
-      <c r="G128" s="27"/>
+      <c r="C128" s="22"/>
+      <c r="D128" s="22"/>
+      <c r="E128" s="22"/>
+      <c r="F128" s="22"/>
+      <c r="G128" s="24"/>
       <c r="H128" s="12"/>
       <c r="I128" s="12"/>
       <c r="J128" s="12"/>
@@ -4106,14 +4091,14 @@
       <c r="A129" s="2">
         <v>75</v>
       </c>
-      <c r="B129" s="23" t="s">
+      <c r="B129" s="21" t="s">
         <v>116</v>
       </c>
-      <c r="C129" s="24"/>
-      <c r="D129" s="24"/>
-      <c r="E129" s="24"/>
-      <c r="F129" s="24"/>
-      <c r="G129" s="27"/>
+      <c r="C129" s="22"/>
+      <c r="D129" s="22"/>
+      <c r="E129" s="22"/>
+      <c r="F129" s="22"/>
+      <c r="G129" s="24"/>
       <c r="H129" s="12"/>
       <c r="I129" s="12"/>
       <c r="J129" s="12"/>
@@ -4128,14 +4113,14 @@
       <c r="A130" s="2">
         <v>76</v>
       </c>
-      <c r="B130" s="23" t="s">
+      <c r="B130" s="21" t="s">
         <v>117</v>
       </c>
-      <c r="C130" s="24"/>
-      <c r="D130" s="24"/>
-      <c r="E130" s="24"/>
-      <c r="F130" s="24"/>
-      <c r="G130" s="27"/>
+      <c r="C130" s="22"/>
+      <c r="D130" s="22"/>
+      <c r="E130" s="22"/>
+      <c r="F130" s="22"/>
+      <c r="G130" s="24"/>
       <c r="H130" s="12"/>
       <c r="I130" s="12"/>
       <c r="J130" s="12"/>
@@ -4150,14 +4135,14 @@
       <c r="A131" s="2">
         <v>77</v>
       </c>
-      <c r="B131" s="23" t="s">
+      <c r="B131" s="21" t="s">
         <v>118</v>
       </c>
-      <c r="C131" s="24"/>
-      <c r="D131" s="24"/>
-      <c r="E131" s="24"/>
-      <c r="F131" s="24"/>
-      <c r="G131" s="27"/>
+      <c r="C131" s="22"/>
+      <c r="D131" s="22"/>
+      <c r="E131" s="22"/>
+      <c r="F131" s="22"/>
+      <c r="G131" s="24"/>
       <c r="H131" s="12"/>
       <c r="I131" s="12"/>
       <c r="J131" s="12"/>
@@ -4172,14 +4157,14 @@
       <c r="A132" s="2">
         <v>78</v>
       </c>
-      <c r="B132" s="23" t="s">
+      <c r="B132" s="21" t="s">
         <v>119</v>
       </c>
-      <c r="C132" s="24"/>
-      <c r="D132" s="24"/>
-      <c r="E132" s="24"/>
-      <c r="F132" s="24"/>
-      <c r="G132" s="27"/>
+      <c r="C132" s="22"/>
+      <c r="D132" s="22"/>
+      <c r="E132" s="22"/>
+      <c r="F132" s="22"/>
+      <c r="G132" s="24"/>
       <c r="H132" s="12"/>
       <c r="I132" s="12"/>
       <c r="J132" s="12"/>
@@ -4204,14 +4189,14 @@
       <c r="A135" s="2">
         <v>79</v>
       </c>
-      <c r="B135" s="23" t="s">
+      <c r="B135" s="21" t="s">
         <v>121</v>
       </c>
-      <c r="C135" s="24"/>
-      <c r="D135" s="24"/>
-      <c r="E135" s="24"/>
-      <c r="F135" s="24"/>
-      <c r="G135" s="27"/>
+      <c r="C135" s="22"/>
+      <c r="D135" s="22"/>
+      <c r="E135" s="22"/>
+      <c r="F135" s="22"/>
+      <c r="G135" s="24"/>
       <c r="H135" s="12"/>
       <c r="I135" s="12"/>
       <c r="J135" s="12"/>
@@ -4226,14 +4211,14 @@
       <c r="A136" s="2">
         <v>80</v>
       </c>
-      <c r="B136" s="23" t="s">
+      <c r="B136" s="21" t="s">
         <v>122</v>
       </c>
-      <c r="C136" s="24"/>
-      <c r="D136" s="24"/>
-      <c r="E136" s="24"/>
-      <c r="F136" s="24"/>
-      <c r="G136" s="27"/>
+      <c r="C136" s="22"/>
+      <c r="D136" s="22"/>
+      <c r="E136" s="22"/>
+      <c r="F136" s="22"/>
+      <c r="G136" s="24"/>
       <c r="H136" s="12"/>
       <c r="I136" s="12"/>
       <c r="J136" s="12"/>
@@ -4248,14 +4233,14 @@
       <c r="A137" s="2">
         <v>81</v>
       </c>
-      <c r="B137" s="23" t="s">
+      <c r="B137" s="21" t="s">
         <v>123</v>
       </c>
-      <c r="C137" s="24"/>
-      <c r="D137" s="24"/>
-      <c r="E137" s="24"/>
-      <c r="F137" s="24"/>
-      <c r="G137" s="27"/>
+      <c r="C137" s="22"/>
+      <c r="D137" s="22"/>
+      <c r="E137" s="22"/>
+      <c r="F137" s="22"/>
+      <c r="G137" s="24"/>
       <c r="H137" s="12"/>
       <c r="I137" s="12"/>
       <c r="J137" s="12"/>
@@ -4270,14 +4255,14 @@
       <c r="A138" s="2">
         <v>82</v>
       </c>
-      <c r="B138" s="23" t="s">
+      <c r="B138" s="21" t="s">
         <v>124</v>
       </c>
-      <c r="C138" s="24"/>
-      <c r="D138" s="24"/>
-      <c r="E138" s="24"/>
-      <c r="F138" s="24"/>
-      <c r="G138" s="27"/>
+      <c r="C138" s="22"/>
+      <c r="D138" s="22"/>
+      <c r="E138" s="22"/>
+      <c r="F138" s="22"/>
+      <c r="G138" s="24"/>
       <c r="H138" s="12"/>
       <c r="I138" s="12"/>
       <c r="J138" s="12"/>
@@ -4292,14 +4277,14 @@
       <c r="A139" s="2">
         <v>83</v>
       </c>
-      <c r="B139" s="23" t="s">
+      <c r="B139" s="21" t="s">
         <v>125</v>
       </c>
-      <c r="C139" s="24"/>
-      <c r="D139" s="24"/>
-      <c r="E139" s="24"/>
-      <c r="F139" s="24"/>
-      <c r="G139" s="27"/>
+      <c r="C139" s="22"/>
+      <c r="D139" s="22"/>
+      <c r="E139" s="22"/>
+      <c r="F139" s="22"/>
+      <c r="G139" s="24"/>
       <c r="H139" s="12"/>
       <c r="I139" s="12"/>
       <c r="J139" s="12"/>
@@ -4324,14 +4309,14 @@
       <c r="A142" s="2">
         <v>84</v>
       </c>
-      <c r="B142" s="23" t="s">
+      <c r="B142" s="21" t="s">
         <v>127</v>
       </c>
-      <c r="C142" s="24"/>
-      <c r="D142" s="24"/>
-      <c r="E142" s="24"/>
-      <c r="F142" s="24"/>
-      <c r="G142" s="27"/>
+      <c r="C142" s="22"/>
+      <c r="D142" s="22"/>
+      <c r="E142" s="22"/>
+      <c r="F142" s="22"/>
+      <c r="G142" s="24"/>
       <c r="H142" s="12"/>
       <c r="I142" s="12"/>
       <c r="J142" s="12"/>
@@ -4346,14 +4331,14 @@
       <c r="A143" s="2">
         <v>85</v>
       </c>
-      <c r="B143" s="23" t="s">
+      <c r="B143" s="21" t="s">
         <v>128</v>
       </c>
-      <c r="C143" s="24"/>
-      <c r="D143" s="24"/>
-      <c r="E143" s="24"/>
-      <c r="F143" s="24"/>
-      <c r="G143" s="27"/>
+      <c r="C143" s="22"/>
+      <c r="D143" s="22"/>
+      <c r="E143" s="22"/>
+      <c r="F143" s="22"/>
+      <c r="G143" s="24"/>
       <c r="H143" s="12"/>
       <c r="I143" s="12"/>
       <c r="J143" s="12"/>
@@ -4368,14 +4353,14 @@
       <c r="A144" s="2">
         <v>86</v>
       </c>
-      <c r="B144" s="23" t="s">
+      <c r="B144" s="21" t="s">
         <v>129</v>
       </c>
-      <c r="C144" s="24"/>
-      <c r="D144" s="24"/>
-      <c r="E144" s="24"/>
-      <c r="F144" s="24"/>
-      <c r="G144" s="27"/>
+      <c r="C144" s="22"/>
+      <c r="D144" s="22"/>
+      <c r="E144" s="22"/>
+      <c r="F144" s="22"/>
+      <c r="G144" s="24"/>
       <c r="H144" s="12"/>
       <c r="I144" s="12"/>
       <c r="J144" s="12"/>
@@ -4390,14 +4375,14 @@
       <c r="A145" s="2">
         <v>87</v>
       </c>
-      <c r="B145" s="23" t="s">
+      <c r="B145" s="21" t="s">
         <v>130</v>
       </c>
-      <c r="C145" s="24"/>
-      <c r="D145" s="24"/>
-      <c r="E145" s="24"/>
-      <c r="F145" s="24"/>
-      <c r="G145" s="27"/>
+      <c r="C145" s="22"/>
+      <c r="D145" s="22"/>
+      <c r="E145" s="22"/>
+      <c r="F145" s="22"/>
+      <c r="G145" s="24"/>
       <c r="H145" s="12"/>
       <c r="I145" s="12"/>
       <c r="J145" s="12"/>
@@ -4412,14 +4397,14 @@
       <c r="A146" s="2">
         <v>88</v>
       </c>
-      <c r="B146" s="23" t="s">
+      <c r="B146" s="21" t="s">
         <v>131</v>
       </c>
-      <c r="C146" s="24"/>
-      <c r="D146" s="24"/>
-      <c r="E146" s="24"/>
-      <c r="F146" s="24"/>
-      <c r="G146" s="27"/>
+      <c r="C146" s="22"/>
+      <c r="D146" s="22"/>
+      <c r="E146" s="22"/>
+      <c r="F146" s="22"/>
+      <c r="G146" s="24"/>
       <c r="H146" s="12"/>
       <c r="I146" s="12"/>
       <c r="J146" s="12"/>
@@ -4434,14 +4419,14 @@
       <c r="A147" s="2">
         <v>89</v>
       </c>
-      <c r="B147" s="23" t="s">
+      <c r="B147" s="21" t="s">
         <v>132</v>
       </c>
-      <c r="C147" s="24"/>
-      <c r="D147" s="24"/>
-      <c r="E147" s="24"/>
-      <c r="F147" s="24"/>
-      <c r="G147" s="27"/>
+      <c r="C147" s="22"/>
+      <c r="D147" s="22"/>
+      <c r="E147" s="22"/>
+      <c r="F147" s="22"/>
+      <c r="G147" s="24"/>
       <c r="H147" s="12"/>
       <c r="I147" s="12"/>
       <c r="J147" s="12"/>
@@ -4466,14 +4451,14 @@
       <c r="A150" s="2">
         <v>90</v>
       </c>
-      <c r="B150" s="23" t="s">
+      <c r="B150" s="21" t="s">
         <v>134</v>
       </c>
-      <c r="C150" s="24"/>
-      <c r="D150" s="24"/>
-      <c r="E150" s="24"/>
-      <c r="F150" s="24"/>
-      <c r="G150" s="27"/>
+      <c r="C150" s="22"/>
+      <c r="D150" s="22"/>
+      <c r="E150" s="22"/>
+      <c r="F150" s="22"/>
+      <c r="G150" s="24"/>
       <c r="H150" s="12"/>
       <c r="I150" s="12"/>
       <c r="J150" s="12"/>
@@ -4488,14 +4473,14 @@
       <c r="A151" s="2">
         <v>91</v>
       </c>
-      <c r="B151" s="23" t="s">
+      <c r="B151" s="21" t="s">
         <v>135</v>
       </c>
-      <c r="C151" s="24"/>
-      <c r="D151" s="24"/>
-      <c r="E151" s="24"/>
-      <c r="F151" s="24"/>
-      <c r="G151" s="27"/>
+      <c r="C151" s="22"/>
+      <c r="D151" s="22"/>
+      <c r="E151" s="22"/>
+      <c r="F151" s="22"/>
+      <c r="G151" s="24"/>
       <c r="H151" s="12"/>
       <c r="I151" s="12"/>
       <c r="J151" s="12"/>
@@ -4520,14 +4505,14 @@
       <c r="A154" s="2">
         <v>92</v>
       </c>
-      <c r="B154" s="23" t="s">
+      <c r="B154" s="21" t="s">
         <v>137</v>
       </c>
-      <c r="C154" s="24"/>
-      <c r="D154" s="24"/>
-      <c r="E154" s="24"/>
-      <c r="F154" s="24"/>
-      <c r="G154" s="27"/>
+      <c r="C154" s="22"/>
+      <c r="D154" s="22"/>
+      <c r="E154" s="22"/>
+      <c r="F154" s="22"/>
+      <c r="G154" s="24"/>
       <c r="H154" s="12"/>
       <c r="I154" s="12"/>
       <c r="J154" s="12"/>
@@ -4542,14 +4527,14 @@
       <c r="A155" s="2">
         <v>93</v>
       </c>
-      <c r="B155" s="23" t="s">
+      <c r="B155" s="21" t="s">
         <v>138</v>
       </c>
-      <c r="C155" s="24"/>
-      <c r="D155" s="24"/>
-      <c r="E155" s="24"/>
-      <c r="F155" s="24"/>
-      <c r="G155" s="27"/>
+      <c r="C155" s="22"/>
+      <c r="D155" s="22"/>
+      <c r="E155" s="22"/>
+      <c r="F155" s="22"/>
+      <c r="G155" s="24"/>
       <c r="H155" s="12"/>
       <c r="I155" s="12"/>
       <c r="J155" s="12"/>
@@ -4564,14 +4549,14 @@
       <c r="A156" s="2">
         <v>94</v>
       </c>
-      <c r="B156" s="23" t="s">
+      <c r="B156" s="21" t="s">
         <v>139</v>
       </c>
-      <c r="C156" s="24"/>
-      <c r="D156" s="24"/>
-      <c r="E156" s="24"/>
-      <c r="F156" s="24"/>
-      <c r="G156" s="27"/>
+      <c r="C156" s="22"/>
+      <c r="D156" s="22"/>
+      <c r="E156" s="22"/>
+      <c r="F156" s="22"/>
+      <c r="G156" s="24"/>
       <c r="H156" s="12"/>
       <c r="I156" s="12"/>
       <c r="J156" s="12"/>
@@ -4586,14 +4571,14 @@
       <c r="A157" s="2">
         <v>95</v>
       </c>
-      <c r="B157" s="23" t="s">
+      <c r="B157" s="21" t="s">
         <v>140</v>
       </c>
-      <c r="C157" s="24"/>
-      <c r="D157" s="24"/>
-      <c r="E157" s="24"/>
-      <c r="F157" s="24"/>
-      <c r="G157" s="27"/>
+      <c r="C157" s="22"/>
+      <c r="D157" s="22"/>
+      <c r="E157" s="22"/>
+      <c r="F157" s="22"/>
+      <c r="G157" s="24"/>
       <c r="H157" s="12"/>
       <c r="I157" s="12"/>
       <c r="J157" s="12"/>
@@ -4625,7 +4610,7 @@
       <c r="D160" s="20"/>
       <c r="E160" s="20"/>
       <c r="F160" s="20"/>
-      <c r="G160" s="25"/>
+      <c r="G160" s="23"/>
       <c r="H160" s="13">
         <v>43424</v>
       </c>
@@ -4644,14 +4629,14 @@
       <c r="A161" s="2">
         <v>97</v>
       </c>
-      <c r="B161" s="28" t="s">
+      <c r="B161" s="25" t="s">
         <v>143</v>
       </c>
-      <c r="C161" s="29"/>
-      <c r="D161" s="29"/>
-      <c r="E161" s="29"/>
-      <c r="F161" s="29"/>
-      <c r="G161" s="30"/>
+      <c r="C161" s="26"/>
+      <c r="D161" s="26"/>
+      <c r="E161" s="26"/>
+      <c r="F161" s="26"/>
+      <c r="G161" s="27"/>
       <c r="H161" s="13">
         <v>43451</v>
       </c>
@@ -4680,14 +4665,14 @@
       <c r="A164" s="2">
         <v>98</v>
       </c>
-      <c r="B164" s="23" t="s">
+      <c r="B164" s="21" t="s">
         <v>145</v>
       </c>
-      <c r="C164" s="24"/>
-      <c r="D164" s="24"/>
-      <c r="E164" s="24"/>
-      <c r="F164" s="24"/>
-      <c r="G164" s="27"/>
+      <c r="C164" s="22"/>
+      <c r="D164" s="22"/>
+      <c r="E164" s="22"/>
+      <c r="F164" s="22"/>
+      <c r="G164" s="24"/>
       <c r="H164" s="12"/>
       <c r="I164" s="12"/>
       <c r="J164" s="12"/>
@@ -4702,14 +4687,14 @@
       <c r="A165" s="2">
         <v>99</v>
       </c>
-      <c r="B165" s="23" t="s">
+      <c r="B165" s="21" t="s">
         <v>146</v>
       </c>
-      <c r="C165" s="24"/>
-      <c r="D165" s="24"/>
-      <c r="E165" s="24"/>
-      <c r="F165" s="24"/>
-      <c r="G165" s="27"/>
+      <c r="C165" s="22"/>
+      <c r="D165" s="22"/>
+      <c r="E165" s="22"/>
+      <c r="F165" s="22"/>
+      <c r="G165" s="24"/>
       <c r="H165" s="12"/>
       <c r="I165" s="12"/>
       <c r="J165" s="12"/>
@@ -4724,14 +4709,14 @@
       <c r="A166" s="2">
         <v>100</v>
       </c>
-      <c r="B166" s="23" t="s">
+      <c r="B166" s="21" t="s">
         <v>147</v>
       </c>
-      <c r="C166" s="24"/>
-      <c r="D166" s="24"/>
-      <c r="E166" s="24"/>
-      <c r="F166" s="24"/>
-      <c r="G166" s="27"/>
+      <c r="C166" s="22"/>
+      <c r="D166" s="22"/>
+      <c r="E166" s="22"/>
+      <c r="F166" s="22"/>
+      <c r="G166" s="24"/>
       <c r="H166" s="12"/>
       <c r="I166" s="12"/>
       <c r="J166" s="12"/>
@@ -4746,14 +4731,14 @@
       <c r="A167" s="2">
         <v>101</v>
       </c>
-      <c r="B167" s="23" t="s">
+      <c r="B167" s="21" t="s">
         <v>148</v>
       </c>
-      <c r="C167" s="24"/>
-      <c r="D167" s="24"/>
-      <c r="E167" s="24"/>
-      <c r="F167" s="24"/>
-      <c r="G167" s="27"/>
+      <c r="C167" s="22"/>
+      <c r="D167" s="22"/>
+      <c r="E167" s="22"/>
+      <c r="F167" s="22"/>
+      <c r="G167" s="24"/>
       <c r="H167" s="12"/>
       <c r="I167" s="12"/>
       <c r="J167" s="12"/>
@@ -4778,14 +4763,14 @@
       <c r="A170" s="2">
         <v>102</v>
       </c>
-      <c r="B170" s="23" t="s">
+      <c r="B170" s="21" t="s">
         <v>150</v>
       </c>
-      <c r="C170" s="24"/>
-      <c r="D170" s="24"/>
-      <c r="E170" s="24"/>
-      <c r="F170" s="24"/>
-      <c r="G170" s="27"/>
+      <c r="C170" s="22"/>
+      <c r="D170" s="22"/>
+      <c r="E170" s="22"/>
+      <c r="F170" s="22"/>
+      <c r="G170" s="24"/>
       <c r="H170" s="12"/>
       <c r="I170" s="12"/>
       <c r="J170" s="12"/>
@@ -4800,14 +4785,14 @@
       <c r="A171" s="2">
         <v>103</v>
       </c>
-      <c r="B171" s="23" t="s">
+      <c r="B171" s="21" t="s">
         <v>151</v>
       </c>
-      <c r="C171" s="24"/>
-      <c r="D171" s="24"/>
-      <c r="E171" s="24"/>
-      <c r="F171" s="24"/>
-      <c r="G171" s="27"/>
+      <c r="C171" s="22"/>
+      <c r="D171" s="22"/>
+      <c r="E171" s="22"/>
+      <c r="F171" s="22"/>
+      <c r="G171" s="24"/>
       <c r="H171" s="12"/>
       <c r="I171" s="12"/>
       <c r="J171" s="12"/>
@@ -4822,14 +4807,14 @@
       <c r="A172" s="2">
         <v>104</v>
       </c>
-      <c r="B172" s="23" t="s">
+      <c r="B172" s="21" t="s">
         <v>152</v>
       </c>
-      <c r="C172" s="24"/>
-      <c r="D172" s="24"/>
-      <c r="E172" s="24"/>
-      <c r="F172" s="24"/>
-      <c r="G172" s="27"/>
+      <c r="C172" s="22"/>
+      <c r="D172" s="22"/>
+      <c r="E172" s="22"/>
+      <c r="F172" s="22"/>
+      <c r="G172" s="24"/>
       <c r="H172" s="12"/>
       <c r="I172" s="12"/>
       <c r="J172" s="12"/>
@@ -4844,14 +4829,14 @@
       <c r="A173" s="2">
         <v>105</v>
       </c>
-      <c r="B173" s="23" t="s">
+      <c r="B173" s="21" t="s">
         <v>153</v>
       </c>
-      <c r="C173" s="24"/>
-      <c r="D173" s="24"/>
-      <c r="E173" s="24"/>
-      <c r="F173" s="24"/>
-      <c r="G173" s="27"/>
+      <c r="C173" s="22"/>
+      <c r="D173" s="22"/>
+      <c r="E173" s="22"/>
+      <c r="F173" s="22"/>
+      <c r="G173" s="24"/>
       <c r="H173" s="12"/>
       <c r="I173" s="12"/>
       <c r="J173" s="12"/>
@@ -4883,7 +4868,7 @@
       <c r="D176" s="20"/>
       <c r="E176" s="20"/>
       <c r="F176" s="20"/>
-      <c r="G176" s="25"/>
+      <c r="G176" s="23"/>
       <c r="H176" s="13">
         <v>43424</v>
       </c>
@@ -4891,7 +4876,7 @@
       <c r="J176" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="K176" s="31" t="s">
+      <c r="K176" s="28" t="s">
         <v>9</v>
       </c>
       <c r="L176" s="18" t="s">
@@ -4912,14 +4897,14 @@
       <c r="A179" s="2">
         <v>107</v>
       </c>
-      <c r="B179" s="23" t="s">
+      <c r="B179" s="21" t="s">
         <v>157</v>
       </c>
-      <c r="C179" s="24"/>
-      <c r="D179" s="24"/>
-      <c r="E179" s="24"/>
-      <c r="F179" s="24"/>
-      <c r="G179" s="27"/>
+      <c r="C179" s="22"/>
+      <c r="D179" s="22"/>
+      <c r="E179" s="22"/>
+      <c r="F179" s="22"/>
+      <c r="G179" s="24"/>
       <c r="H179" s="12"/>
       <c r="I179" s="12"/>
       <c r="J179" s="12"/>
@@ -4934,14 +4919,14 @@
       <c r="A180" s="2">
         <v>108</v>
       </c>
-      <c r="B180" s="23" t="s">
+      <c r="B180" s="21" t="s">
         <v>158</v>
       </c>
-      <c r="C180" s="24"/>
-      <c r="D180" s="24"/>
-      <c r="E180" s="24"/>
-      <c r="F180" s="24"/>
-      <c r="G180" s="27"/>
+      <c r="C180" s="22"/>
+      <c r="D180" s="22"/>
+      <c r="E180" s="22"/>
+      <c r="F180" s="22"/>
+      <c r="G180" s="24"/>
       <c r="H180" s="12"/>
       <c r="I180" s="12"/>
       <c r="J180" s="12"/>
@@ -4956,14 +4941,14 @@
       <c r="A181" s="2">
         <v>109</v>
       </c>
-      <c r="B181" s="23" t="s">
+      <c r="B181" s="21" t="s">
         <v>159</v>
       </c>
-      <c r="C181" s="24"/>
-      <c r="D181" s="24"/>
-      <c r="E181" s="24"/>
-      <c r="F181" s="24"/>
-      <c r="G181" s="27"/>
+      <c r="C181" s="22"/>
+      <c r="D181" s="22"/>
+      <c r="E181" s="22"/>
+      <c r="F181" s="22"/>
+      <c r="G181" s="24"/>
       <c r="H181" s="12"/>
       <c r="I181" s="12"/>
       <c r="J181" s="12"/>
@@ -4978,14 +4963,14 @@
       <c r="A182" s="2">
         <v>110</v>
       </c>
-      <c r="B182" s="23" t="s">
+      <c r="B182" s="21" t="s">
         <v>160</v>
       </c>
-      <c r="C182" s="24"/>
-      <c r="D182" s="24"/>
-      <c r="E182" s="24"/>
-      <c r="F182" s="24"/>
-      <c r="G182" s="27"/>
+      <c r="C182" s="22"/>
+      <c r="D182" s="22"/>
+      <c r="E182" s="22"/>
+      <c r="F182" s="22"/>
+      <c r="G182" s="24"/>
       <c r="H182" s="12"/>
       <c r="I182" s="12"/>
       <c r="J182" s="12"/>
@@ -5017,7 +5002,7 @@
       <c r="D185" s="20"/>
       <c r="E185" s="20"/>
       <c r="F185" s="20"/>
-      <c r="G185" s="25"/>
+      <c r="G185" s="23"/>
       <c r="H185" s="13">
         <v>43451</v>
       </c>
@@ -5046,14 +5031,14 @@
       <c r="A188" s="2">
         <v>112</v>
       </c>
-      <c r="B188" s="23" t="s">
+      <c r="B188" s="21" t="s">
         <v>164</v>
       </c>
-      <c r="C188" s="24"/>
-      <c r="D188" s="24"/>
-      <c r="E188" s="24"/>
-      <c r="F188" s="24"/>
-      <c r="G188" s="27"/>
+      <c r="C188" s="22"/>
+      <c r="D188" s="22"/>
+      <c r="E188" s="22"/>
+      <c r="F188" s="22"/>
+      <c r="G188" s="24"/>
       <c r="H188" s="12"/>
       <c r="I188" s="12"/>
       <c r="J188" s="12"/>
@@ -5068,14 +5053,14 @@
       <c r="A189" s="2">
         <v>113</v>
       </c>
-      <c r="B189" s="23" t="s">
+      <c r="B189" s="21" t="s">
         <v>165</v>
       </c>
-      <c r="C189" s="24"/>
-      <c r="D189" s="24"/>
-      <c r="E189" s="24"/>
-      <c r="F189" s="24"/>
-      <c r="G189" s="27"/>
+      <c r="C189" s="22"/>
+      <c r="D189" s="22"/>
+      <c r="E189" s="22"/>
+      <c r="F189" s="22"/>
+      <c r="G189" s="24"/>
       <c r="H189" s="12"/>
       <c r="I189" s="12"/>
       <c r="J189" s="12"/>
@@ -5090,14 +5075,14 @@
       <c r="A190" s="2">
         <v>114</v>
       </c>
-      <c r="B190" s="23" t="s">
+      <c r="B190" s="21" t="s">
         <v>166</v>
       </c>
-      <c r="C190" s="24"/>
-      <c r="D190" s="24"/>
-      <c r="E190" s="24"/>
-      <c r="F190" s="24"/>
-      <c r="G190" s="27"/>
+      <c r="C190" s="22"/>
+      <c r="D190" s="22"/>
+      <c r="E190" s="22"/>
+      <c r="F190" s="22"/>
+      <c r="G190" s="24"/>
       <c r="H190" s="12"/>
       <c r="I190" s="12"/>
       <c r="J190" s="12"/>
@@ -5112,14 +5097,14 @@
       <c r="A191" s="2">
         <v>115</v>
       </c>
-      <c r="B191" s="23" t="s">
+      <c r="B191" s="21" t="s">
         <v>167</v>
       </c>
-      <c r="C191" s="24"/>
-      <c r="D191" s="24"/>
-      <c r="E191" s="24"/>
-      <c r="F191" s="24"/>
-      <c r="G191" s="27"/>
+      <c r="C191" s="22"/>
+      <c r="D191" s="22"/>
+      <c r="E191" s="22"/>
+      <c r="F191" s="22"/>
+      <c r="G191" s="24"/>
       <c r="H191" s="12"/>
       <c r="I191" s="12"/>
       <c r="J191" s="12"/>
@@ -5151,7 +5136,7 @@
       <c r="D194" s="20"/>
       <c r="E194" s="20"/>
       <c r="F194" s="20"/>
-      <c r="G194" s="25"/>
+      <c r="G194" s="23"/>
       <c r="H194" s="13">
         <v>43451</v>
       </c>
@@ -5180,14 +5165,14 @@
       <c r="A197" s="2">
         <v>117</v>
       </c>
-      <c r="B197" s="23" t="s">
+      <c r="B197" s="21" t="s">
         <v>171</v>
       </c>
-      <c r="C197" s="24"/>
-      <c r="D197" s="24"/>
-      <c r="E197" s="24"/>
-      <c r="F197" s="24"/>
-      <c r="G197" s="27"/>
+      <c r="C197" s="22"/>
+      <c r="D197" s="22"/>
+      <c r="E197" s="22"/>
+      <c r="F197" s="22"/>
+      <c r="G197" s="24"/>
       <c r="H197" s="12"/>
       <c r="I197" s="12"/>
       <c r="J197" s="12"/>
@@ -5202,14 +5187,14 @@
       <c r="A198" s="2">
         <v>118</v>
       </c>
-      <c r="B198" s="23" t="s">
+      <c r="B198" s="21" t="s">
         <v>172</v>
       </c>
-      <c r="C198" s="24"/>
-      <c r="D198" s="24"/>
-      <c r="E198" s="24"/>
-      <c r="F198" s="24"/>
-      <c r="G198" s="27"/>
+      <c r="C198" s="22"/>
+      <c r="D198" s="22"/>
+      <c r="E198" s="22"/>
+      <c r="F198" s="22"/>
+      <c r="G198" s="24"/>
       <c r="H198" s="12"/>
       <c r="I198" s="12"/>
       <c r="J198" s="12"/>
@@ -5224,14 +5209,14 @@
       <c r="A199" s="2">
         <v>119</v>
       </c>
-      <c r="B199" s="23" t="s">
+      <c r="B199" s="21" t="s">
         <v>173</v>
       </c>
-      <c r="C199" s="24"/>
-      <c r="D199" s="24"/>
-      <c r="E199" s="24"/>
-      <c r="F199" s="24"/>
-      <c r="G199" s="27"/>
+      <c r="C199" s="22"/>
+      <c r="D199" s="22"/>
+      <c r="E199" s="22"/>
+      <c r="F199" s="22"/>
+      <c r="G199" s="24"/>
       <c r="H199" s="12"/>
       <c r="I199" s="12"/>
       <c r="J199" s="12"/>
@@ -5246,14 +5231,14 @@
       <c r="A200" s="2">
         <v>120</v>
       </c>
-      <c r="B200" s="23" t="s">
+      <c r="B200" s="21" t="s">
         <v>174</v>
       </c>
-      <c r="C200" s="24"/>
-      <c r="D200" s="24"/>
-      <c r="E200" s="24"/>
-      <c r="F200" s="24"/>
-      <c r="G200" s="27"/>
+      <c r="C200" s="22"/>
+      <c r="D200" s="22"/>
+      <c r="E200" s="22"/>
+      <c r="F200" s="22"/>
+      <c r="G200" s="24"/>
       <c r="H200" s="12"/>
       <c r="I200" s="12"/>
       <c r="J200" s="12"/>
@@ -5278,14 +5263,14 @@
       <c r="A203" s="2">
         <v>121</v>
       </c>
-      <c r="B203" s="23" t="s">
+      <c r="B203" s="21" t="s">
         <v>176</v>
       </c>
-      <c r="C203" s="24"/>
-      <c r="D203" s="24"/>
-      <c r="E203" s="24"/>
-      <c r="F203" s="24"/>
-      <c r="G203" s="27"/>
+      <c r="C203" s="22"/>
+      <c r="D203" s="22"/>
+      <c r="E203" s="22"/>
+      <c r="F203" s="22"/>
+      <c r="G203" s="24"/>
       <c r="H203" s="12"/>
       <c r="I203" s="12"/>
       <c r="J203" s="12"/>
@@ -5300,14 +5285,14 @@
       <c r="A204" s="2">
         <v>122</v>
       </c>
-      <c r="B204" s="23" t="s">
+      <c r="B204" s="21" t="s">
         <v>177</v>
       </c>
-      <c r="C204" s="24"/>
-      <c r="D204" s="24"/>
-      <c r="E204" s="24"/>
-      <c r="F204" s="24"/>
-      <c r="G204" s="27"/>
+      <c r="C204" s="22"/>
+      <c r="D204" s="22"/>
+      <c r="E204" s="22"/>
+      <c r="F204" s="22"/>
+      <c r="G204" s="24"/>
       <c r="H204" s="12"/>
       <c r="I204" s="12"/>
       <c r="J204" s="12"/>
@@ -5322,14 +5307,14 @@
       <c r="A205" s="2">
         <v>123</v>
       </c>
-      <c r="B205" s="23" t="s">
+      <c r="B205" s="21" t="s">
         <v>178</v>
       </c>
-      <c r="C205" s="24"/>
-      <c r="D205" s="24"/>
-      <c r="E205" s="24"/>
-      <c r="F205" s="24"/>
-      <c r="G205" s="27"/>
+      <c r="C205" s="22"/>
+      <c r="D205" s="22"/>
+      <c r="E205" s="22"/>
+      <c r="F205" s="22"/>
+      <c r="G205" s="24"/>
       <c r="H205" s="12"/>
       <c r="I205" s="12"/>
       <c r="J205" s="12"/>
@@ -5344,14 +5329,14 @@
       <c r="A206" s="2">
         <v>124</v>
       </c>
-      <c r="B206" s="23" t="s">
+      <c r="B206" s="21" t="s">
         <v>179</v>
       </c>
-      <c r="C206" s="24"/>
-      <c r="D206" s="24"/>
-      <c r="E206" s="24"/>
-      <c r="F206" s="24"/>
-      <c r="G206" s="27"/>
+      <c r="C206" s="22"/>
+      <c r="D206" s="22"/>
+      <c r="E206" s="22"/>
+      <c r="F206" s="22"/>
+      <c r="G206" s="24"/>
       <c r="H206" s="12"/>
       <c r="I206" s="12"/>
       <c r="J206" s="12"/>
@@ -5366,14 +5351,14 @@
       <c r="A207" s="2">
         <v>125</v>
       </c>
-      <c r="B207" s="23" t="s">
+      <c r="B207" s="21" t="s">
         <v>180</v>
       </c>
-      <c r="C207" s="24"/>
-      <c r="D207" s="24"/>
-      <c r="E207" s="24"/>
-      <c r="F207" s="24"/>
-      <c r="G207" s="27"/>
+      <c r="C207" s="22"/>
+      <c r="D207" s="22"/>
+      <c r="E207" s="22"/>
+      <c r="F207" s="22"/>
+      <c r="G207" s="24"/>
       <c r="H207" s="12"/>
       <c r="I207" s="12"/>
       <c r="J207" s="12"/>
@@ -5562,7 +5547,7 @@
     <mergeCell ref="B207:G207"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I3 J3 K3 L3 J17 L21 J22 K22:L22 J23 K23:L23 K30 J56 K56 L56 L61 J62 K62 L62 J69 K69 J78:K78 L78 J79:K79 L79 J80:K80 L80 J83 K83 L83 J86 K86 L86 K87:L87 J109 K109:L109 J160:K160 J161 K161 J176 K176 L176 J185 K185:L185 J194 K194:L194 I6:I14 J6:J10 J11:J14 J18:J21 J26:J30 J37:J41 J45:J50 J59:J61 J65:J68 J87:J89 J92:J100 J103:J106 J112:J117 J120:J124 J127:J132 J135:J139 J142:J147 J150:J151 J154:J157 J164:J167 J170:J173 J179:J182 J188:J191 J197:J200 J203:J207 K6:K10 K11:K14 K17:K21 K26:K29 K37:K41 K45:K50 K59:K61 K65:K68 K88:K89 L6:L14 L17:L20 L26:L30 L33:L34 L35:L36 L37:L38 L39:L41 L45:L48 L49:L50 L53:L55 L59:L60 L65:L69 L72:L73 L74:L77 L88:L89 L160:L161 J33:K36 J53:K55 J72:K77 K164:L167 K92:L100 K103:L106 K112:L117 K120:L124 K127:L132 K135:L139 K142:L147 K150:L151 K154:L157 K170:L173 K179:L182 K188:L191 K197:L200 K203:L207">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I3 J3 K3 L3 J17 L21 J22 K22:L22 J23 K23:L23 K30 L39 J56 K56 L56 L61 J62 K62 L62 J69 K69 J78:K78 L78 J79:K79 L79 J80:K80 L80 J83 K83 L83 J86 K86 L86 K87:L87 J109 K109:L109 J160:K160 J161 K161 J176 K176 L176 J185 K185:L185 J194 K194:L194 I6:I14 J6:J10 J11:J14 J18:J21 J26:J30 J37:J41 J45:J50 J59:J61 J65:J68 J87:J89 J92:J100 J103:J106 J112:J117 J120:J124 J127:J132 J135:J139 J142:J147 J150:J151 J154:J157 J164:J167 J170:J173 J179:J182 J188:J191 J197:J200 J203:J207 K6:K10 K11:K14 K17:K21 K26:K29 K37:K41 K45:K50 K59:K61 K65:K68 K88:K89 L6:L14 L17:L20 L26:L30 L33:L34 L35:L36 L37:L38 L40:L41 L45:L48 L49:L50 L53:L55 L59:L60 L65:L69 L72:L73 L74:L77 L88:L89 L160:L161 J33:K36 J53:K55 J72:K77 K164:L167 K92:L100 K103:L106 K112:L117 K120:L124 K127:L132 K135:L139 K142:L147 K150:L151 K154:L157 K170:L173 K179:L182 K188:L191 K197:L200 K203:L207">
       <formula1>$S$3:$S$4</formula1>
     </dataValidation>
   </dataValidations>

--- a/课程跟踪.xlsx
+++ b/课程跟踪.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21380" windowHeight="15180"/>
+    <workbookView windowWidth="21360" windowHeight="17100"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -310,7 +310,7 @@
     <t>【录播】Selenium grid浏览器集群管理（9分钟）</t>
   </si>
   <si>
-    <t>【直播】Selenium项目实战演练(1月27日 10:00-18:00)</t>
+    <t>【直播】Selenium项目实战演练(2月17日 10:00-18:00)</t>
   </si>
   <si>
     <t>15 专项测试</t>
@@ -579,10 +579,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -629,16 +629,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -652,16 +659,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -685,17 +684,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -707,10 +699,17 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -723,24 +722,25 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -783,13 +783,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -807,55 +903,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -867,85 +945,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1098,15 +1098,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -1121,132 +1112,141 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1255,16 +1255,16 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -3713,7 +3713,9 @@
       <c r="G103" s="26"/>
       <c r="H103" s="12"/>
       <c r="I103" s="12"/>
-      <c r="J103" s="12"/>
+      <c r="J103" s="12" t="s">
+        <v>10</v>
+      </c>
       <c r="K103" s="12" t="s">
         <v>10</v>
       </c>
@@ -3773,25 +3775,29 @@
         <v>10</v>
       </c>
     </row>
-    <row r="106" spans="1:12">
+    <row r="106" ht="22" spans="1:12">
       <c r="A106" s="2">
         <v>60</v>
       </c>
-      <c r="B106" s="21" t="s">
+      <c r="B106" s="19" t="s">
         <v>97</v>
       </c>
-      <c r="C106" s="22"/>
-      <c r="D106" s="22"/>
-      <c r="E106" s="22"/>
-      <c r="F106" s="22"/>
-      <c r="G106" s="26"/>
-      <c r="H106" s="12"/>
+      <c r="C106" s="20"/>
+      <c r="D106" s="20"/>
+      <c r="E106" s="20"/>
+      <c r="F106" s="20"/>
+      <c r="G106" s="25"/>
+      <c r="H106" s="13">
+        <v>43513</v>
+      </c>
       <c r="I106" s="12"/>
-      <c r="J106" s="12"/>
+      <c r="J106" s="12" t="s">
+        <v>9</v>
+      </c>
       <c r="K106" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="L106" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="L106" s="18" t="s">
         <v>10</v>
       </c>
     </row>
@@ -3831,25 +3837,29 @@
         <v>10</v>
       </c>
     </row>
-    <row r="110" spans="1:12">
+    <row r="110" ht="22" spans="1:12">
       <c r="A110" s="2">
         <v>61</v>
       </c>
-      <c r="B110" s="21" t="s">
+      <c r="B110" s="19" t="s">
         <v>100</v>
       </c>
-      <c r="C110" s="22"/>
-      <c r="D110" s="22"/>
-      <c r="E110" s="22"/>
-      <c r="F110" s="22"/>
-      <c r="G110" s="26"/>
-      <c r="H110" s="12"/>
+      <c r="C110" s="20"/>
+      <c r="D110" s="20"/>
+      <c r="E110" s="20"/>
+      <c r="F110" s="20"/>
+      <c r="G110" s="25"/>
+      <c r="H110" s="13">
+        <v>43513</v>
+      </c>
       <c r="I110" s="12"/>
-      <c r="J110" s="12"/>
+      <c r="J110" s="12" t="s">
+        <v>9</v>
+      </c>
       <c r="K110" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="L110" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="L110" s="18" t="s">
         <v>10</v>
       </c>
     </row>
@@ -5738,7 +5748,7 @@
     <mergeCell ref="B211:G211"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I3 J3 K3 L3 J17 L21 J22 K22:L22 J23 K23:L23 K30 L39 L53 J56 K56 L56 L61 J62 K62 L62 J69 K69 J78:K78 L78 J79:K79 L79 J80:K80 L80 J83 K83 L83 J86 K86 L86 K87:L87 J103 K103:L103 J106 K106:L106 J109 K109 L109 J110 K110:L110 J123 J124 J125 K125:L125 J136 J137 J138 J139 J140 J141 L141 J142 L142 J143 L143 J154 L154 J155 L155 J164:K164 J165 K165 J180 K180 L180 J189 K189:L189 J198 K198:L198 I6:I14 J6:J10 J11:J14 J18:J21 J26:J30 J37:J41 J45:J50 J59:J61 J65:J68 J87:J89 J92:J100 J104:J105 J113:J118 J121:J122 J128:J133 J146:J151 J158:J161 J168:J171 J174:J177 J183:J186 J192:J195 J201:J204 J207:J211 K6:K10 K11:K14 K17:K21 K26:K29 K37:K41 K45:K50 K59:K61 K65:K68 K88:K89 K92:K100 K104:K105 K123:K124 K136:K143 K154:K155 L6:L14 L17:L20 L26:L30 L33:L34 L35:L36 L37:L38 L40:L41 L45:L48 L49:L50 L54:L55 L59:L60 L65:L69 L72:L73 L74:L77 L88:L89 L92:L100 L104:L105 L123:L124 L136:L140 L164:L165 J33:K36 J53:K55 J72:K77 K113:L118 K128:L133 K168:L171 K146:L151 K158:L161 K174:L177 K183:L186 K192:L195 K201:L204 K207:L211 K121:L122">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I3 J3 K3 L3 J17 L21 J22 K22:L22 J23 K23:L23 K30 L39 L53 J56 K56 L56 L61 J62 K62 L62 J69 K69 J78:K78 L78 J79:K79 L79 J80:K80 L80 J83 K83 L83 J86 K86 L86 K87:L87 J103 K103:L103 J106 K106 L106 J109 K109 L109 J110 K110 L110 J123 J124 J125 K125:L125 J136 J137 J138 J139 J140 J141 L141 J142 L142 J143 L143 J154 L154 J155 L155 J164:K164 J165 K165 J180 K180 L180 J189 K189:L189 J198 K198:L198 I6:I14 J6:J10 J11:J14 J18:J21 J26:J30 J37:J41 J45:J50 J59:J61 J65:J68 J87:J89 J92:J100 J104:J105 J113:J118 J121:J122 J128:J133 J146:J151 J158:J161 J168:J171 J174:J177 J183:J186 J192:J195 J201:J204 J207:J211 K6:K10 K11:K14 K17:K21 K26:K29 K37:K41 K45:K50 K59:K61 K65:K68 K88:K89 K92:K100 K104:K105 K123:K124 K136:K143 K154:K155 L6:L14 L17:L20 L26:L30 L33:L34 L35:L36 L37:L38 L40:L41 L45:L48 L49:L50 L54:L55 L59:L60 L65:L69 L72:L73 L74:L77 L88:L89 L92:L100 L104:L105 L123:L124 L136:L140 L164:L165 J33:K36 J53:K55 J72:K77 K113:L118 K128:L133 K168:L171 K146:L151 K158:L161 K174:L177 K183:L186 K192:L195 K201:L204 K207:L211 K121:L122">
       <formula1>$S$3:$S$4</formula1>
     </dataValidation>
   </dataValidations>

--- a/课程跟踪.xlsx
+++ b/课程跟踪.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21360" windowHeight="17100"/>
+    <workbookView windowWidth="23300" windowHeight="10560"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -579,10 +579,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -601,21 +601,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -630,15 +616,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -651,6 +636,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -659,8 +652,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -683,16 +684,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -713,7 +707,13 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -721,26 +721,26 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -777,7 +777,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -789,7 +789,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -801,13 +807,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -825,13 +843,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -843,7 +855,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -855,19 +867,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -885,43 +903,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -933,19 +945,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1027,32 +1027,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1098,17 +1089,26 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1126,148 +1126,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1748,7 +1748,9 @@
       <c r="H3" s="13">
         <v>43443</v>
       </c>
-      <c r="I3" s="12"/>
+      <c r="I3" s="12" t="s">
+        <v>9</v>
+      </c>
       <c r="J3" s="12" t="s">
         <v>9</v>
       </c>
@@ -1792,7 +1794,9 @@
       <c r="H6" s="13">
         <v>43434</v>
       </c>
-      <c r="I6" s="12"/>
+      <c r="I6" s="12" t="s">
+        <v>9</v>
+      </c>
       <c r="J6" s="12" t="s">
         <v>9</v>
       </c>
@@ -1818,7 +1822,9 @@
       <c r="H7" s="13">
         <v>43434</v>
       </c>
-      <c r="I7" s="12"/>
+      <c r="I7" s="12" t="s">
+        <v>9</v>
+      </c>
       <c r="J7" s="12" t="s">
         <v>9</v>
       </c>
@@ -1844,7 +1850,9 @@
       <c r="H8" s="13">
         <v>43434</v>
       </c>
-      <c r="I8" s="12"/>
+      <c r="I8" s="12" t="s">
+        <v>9</v>
+      </c>
       <c r="J8" s="12" t="s">
         <v>9</v>
       </c>
@@ -1870,7 +1878,9 @@
       <c r="H9" s="13">
         <v>43434</v>
       </c>
-      <c r="I9" s="12"/>
+      <c r="I9" s="12" t="s">
+        <v>9</v>
+      </c>
       <c r="J9" s="12" t="s">
         <v>9</v>
       </c>
@@ -1896,7 +1906,9 @@
       <c r="H10" s="13">
         <v>43434</v>
       </c>
-      <c r="I10" s="12"/>
+      <c r="I10" s="12" t="s">
+        <v>9</v>
+      </c>
       <c r="J10" s="12" t="s">
         <v>9</v>
       </c>
@@ -1922,7 +1934,9 @@
       <c r="H11" s="13">
         <v>43450</v>
       </c>
-      <c r="I11" s="12"/>
+      <c r="I11" s="12" t="s">
+        <v>9</v>
+      </c>
       <c r="J11" s="12" t="s">
         <v>9</v>
       </c>
@@ -1948,7 +1962,9 @@
       <c r="H12" s="13">
         <v>43450</v>
       </c>
-      <c r="I12" s="12"/>
+      <c r="I12" s="12" t="s">
+        <v>9</v>
+      </c>
       <c r="J12" s="12" t="s">
         <v>9</v>
       </c>
@@ -1974,7 +1990,9 @@
       <c r="H13" s="13">
         <v>43450</v>
       </c>
-      <c r="I13" s="12"/>
+      <c r="I13" s="12" t="s">
+        <v>9</v>
+      </c>
       <c r="J13" s="12" t="s">
         <v>9</v>
       </c>
@@ -2000,7 +2018,9 @@
       <c r="H14" s="13">
         <v>43450</v>
       </c>
-      <c r="I14" s="12"/>
+      <c r="I14" s="12" t="s">
+        <v>9</v>
+      </c>
       <c r="J14" s="12" t="s">
         <v>9</v>
       </c>
@@ -2042,7 +2062,9 @@
       <c r="H17" s="13">
         <v>43471</v>
       </c>
-      <c r="I17" s="13"/>
+      <c r="I17" s="12" t="s">
+        <v>9</v>
+      </c>
       <c r="J17" s="12" t="s">
         <v>9</v>
       </c>
@@ -2068,7 +2090,9 @@
       <c r="H18" s="13">
         <v>43471</v>
       </c>
-      <c r="I18" s="13"/>
+      <c r="I18" s="12" t="s">
+        <v>9</v>
+      </c>
       <c r="J18" s="12" t="s">
         <v>9</v>
       </c>
@@ -2094,7 +2118,9 @@
       <c r="H19" s="13">
         <v>43471</v>
       </c>
-      <c r="I19" s="13"/>
+      <c r="I19" s="12" t="s">
+        <v>9</v>
+      </c>
       <c r="J19" s="12" t="s">
         <v>9</v>
       </c>
@@ -2120,7 +2146,9 @@
       <c r="H20" s="13">
         <v>43471</v>
       </c>
-      <c r="I20" s="13"/>
+      <c r="I20" s="12" t="s">
+        <v>9</v>
+      </c>
       <c r="J20" s="12" t="s">
         <v>9</v>
       </c>
@@ -2146,7 +2174,9 @@
       <c r="H21" s="13">
         <v>43471</v>
       </c>
-      <c r="I21" s="13"/>
+      <c r="I21" s="12" t="s">
+        <v>9</v>
+      </c>
       <c r="J21" s="12" t="s">
         <v>9</v>
       </c>
@@ -2198,7 +2228,9 @@
       <c r="H26" s="13">
         <v>43457</v>
       </c>
-      <c r="I26" s="13"/>
+      <c r="I26" s="12" t="s">
+        <v>9</v>
+      </c>
       <c r="J26" s="12" t="s">
         <v>9</v>
       </c>
@@ -2224,7 +2256,9 @@
       <c r="H27" s="13">
         <v>43457</v>
       </c>
-      <c r="I27" s="13"/>
+      <c r="I27" s="12" t="s">
+        <v>9</v>
+      </c>
       <c r="J27" s="12" t="s">
         <v>9</v>
       </c>
@@ -2250,7 +2284,9 @@
       <c r="H28" s="13">
         <v>43457</v>
       </c>
-      <c r="I28" s="13"/>
+      <c r="I28" s="12" t="s">
+        <v>9</v>
+      </c>
       <c r="J28" s="12" t="s">
         <v>9</v>
       </c>
@@ -2276,7 +2312,9 @@
       <c r="H29" s="13">
         <v>43457</v>
       </c>
-      <c r="I29" s="13"/>
+      <c r="I29" s="12" t="s">
+        <v>9</v>
+      </c>
       <c r="J29" s="12" t="s">
         <v>9</v>
       </c>
@@ -2302,7 +2340,9 @@
       <c r="H30" s="13">
         <v>43457</v>
       </c>
-      <c r="I30" s="13"/>
+      <c r="I30" s="12" t="s">
+        <v>9</v>
+      </c>
       <c r="J30" s="12" t="s">
         <v>9</v>
       </c>
@@ -2338,7 +2378,9 @@
       <c r="H33" s="15">
         <v>43424</v>
       </c>
-      <c r="I33" s="15"/>
+      <c r="I33" s="17" t="s">
+        <v>9</v>
+      </c>
       <c r="J33" s="17"/>
       <c r="K33" s="17"/>
       <c r="L33" s="17" t="s">
@@ -2360,7 +2402,9 @@
       <c r="H34" s="15">
         <v>43424</v>
       </c>
-      <c r="I34" s="15"/>
+      <c r="I34" s="17" t="s">
+        <v>9</v>
+      </c>
       <c r="J34" s="17"/>
       <c r="K34" s="17"/>
       <c r="L34" s="17" t="s">
@@ -2382,7 +2426,9 @@
       <c r="H35" s="15">
         <v>43424</v>
       </c>
-      <c r="I35" s="15"/>
+      <c r="I35" s="17" t="s">
+        <v>9</v>
+      </c>
       <c r="J35" s="17"/>
       <c r="K35" s="17"/>
       <c r="L35" s="17" t="s">
@@ -2404,7 +2450,9 @@
       <c r="H36" s="15">
         <v>43424</v>
       </c>
-      <c r="I36" s="15"/>
+      <c r="I36" s="17" t="s">
+        <v>9</v>
+      </c>
       <c r="J36" s="17"/>
       <c r="K36" s="17"/>
       <c r="L36" s="17" t="s">
@@ -2423,7 +2471,9 @@
       <c r="H37" s="13">
         <v>43434</v>
       </c>
-      <c r="I37" s="13"/>
+      <c r="I37" s="12" t="s">
+        <v>9</v>
+      </c>
       <c r="J37" s="12" t="s">
         <v>9</v>
       </c>
@@ -2446,7 +2496,9 @@
       <c r="H38" s="13">
         <v>43434</v>
       </c>
-      <c r="I38" s="13"/>
+      <c r="I38" s="12" t="s">
+        <v>9</v>
+      </c>
       <c r="J38" s="12" t="s">
         <v>9</v>
       </c>
@@ -2469,7 +2521,9 @@
       <c r="H39" s="13">
         <v>43434</v>
       </c>
-      <c r="I39" s="13"/>
+      <c r="I39" s="12" t="s">
+        <v>9</v>
+      </c>
       <c r="J39" s="12" t="s">
         <v>9</v>
       </c>
@@ -2492,7 +2546,9 @@
       <c r="H40" s="13">
         <v>43434</v>
       </c>
-      <c r="I40" s="13"/>
+      <c r="I40" s="12" t="s">
+        <v>9</v>
+      </c>
       <c r="J40" s="12" t="s">
         <v>9</v>
       </c>
@@ -2515,7 +2571,9 @@
       <c r="H41" s="13">
         <v>43434</v>
       </c>
-      <c r="I41" s="13"/>
+      <c r="I41" s="12" t="s">
+        <v>9</v>
+      </c>
       <c r="J41" s="12" t="s">
         <v>9</v>
       </c>
@@ -2551,7 +2609,9 @@
       <c r="H45" s="13">
         <v>43113</v>
       </c>
-      <c r="I45" s="13"/>
+      <c r="I45" s="12" t="s">
+        <v>9</v>
+      </c>
       <c r="J45" s="12" t="s">
         <v>9</v>
       </c>
@@ -2577,7 +2637,9 @@
       <c r="H46" s="13">
         <v>43113</v>
       </c>
-      <c r="I46" s="13"/>
+      <c r="I46" s="12" t="s">
+        <v>9</v>
+      </c>
       <c r="J46" s="12" t="s">
         <v>9</v>
       </c>
@@ -2603,7 +2665,9 @@
       <c r="H47" s="13">
         <v>43113</v>
       </c>
-      <c r="I47" s="13"/>
+      <c r="I47" s="12" t="s">
+        <v>9</v>
+      </c>
       <c r="J47" s="12" t="s">
         <v>9</v>
       </c>
@@ -2629,7 +2693,9 @@
       <c r="H48" s="13">
         <v>43113</v>
       </c>
-      <c r="I48" s="13"/>
+      <c r="I48" s="12" t="s">
+        <v>9</v>
+      </c>
       <c r="J48" s="12" t="s">
         <v>9</v>
       </c>
@@ -2655,7 +2721,9 @@
       <c r="H49" s="13">
         <v>43113</v>
       </c>
-      <c r="I49" s="13"/>
+      <c r="I49" s="12" t="s">
+        <v>9</v>
+      </c>
       <c r="J49" s="12" t="s">
         <v>9</v>
       </c>
@@ -2681,7 +2749,9 @@
       <c r="H50" s="13">
         <v>43113</v>
       </c>
-      <c r="I50" s="13"/>
+      <c r="I50" s="12" t="s">
+        <v>9</v>
+      </c>
       <c r="J50" s="12" t="s">
         <v>9</v>
       </c>
@@ -2717,7 +2787,9 @@
       <c r="H53" s="13">
         <v>43424</v>
       </c>
-      <c r="I53" s="13"/>
+      <c r="I53" s="12" t="s">
+        <v>9</v>
+      </c>
       <c r="J53" s="12" t="s">
         <v>9</v>
       </c>
@@ -2743,15 +2815,17 @@
       <c r="H54" s="13">
         <v>43424</v>
       </c>
-      <c r="I54" s="13"/>
+      <c r="I54" s="12" t="s">
+        <v>9</v>
+      </c>
       <c r="J54" s="12" t="s">
         <v>9</v>
       </c>
       <c r="K54" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="L54" s="18" t="s">
-        <v>10</v>
+      <c r="L54" s="16" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="55" ht="22" spans="1:12">
@@ -2769,7 +2843,9 @@
       <c r="H55" s="13">
         <v>43424</v>
       </c>
-      <c r="I55" s="13"/>
+      <c r="I55" s="12" t="s">
+        <v>9</v>
+      </c>
       <c r="J55" s="12" t="s">
         <v>9</v>
       </c>
@@ -2795,7 +2871,9 @@
       <c r="H56" s="13">
         <v>43119</v>
       </c>
-      <c r="I56" s="13"/>
+      <c r="I56" s="12" t="s">
+        <v>9</v>
+      </c>
       <c r="J56" s="12" t="s">
         <v>9</v>
       </c>
@@ -2831,7 +2909,9 @@
       <c r="H59" s="13">
         <v>43425</v>
       </c>
-      <c r="I59" s="13"/>
+      <c r="I59" s="12" t="s">
+        <v>9</v>
+      </c>
       <c r="J59" s="12" t="s">
         <v>9</v>
       </c>
@@ -2857,7 +2937,9 @@
       <c r="H60" s="13">
         <v>43425</v>
       </c>
-      <c r="I60" s="13"/>
+      <c r="I60" s="12" t="s">
+        <v>9</v>
+      </c>
       <c r="J60" s="12" t="s">
         <v>9</v>
       </c>
@@ -2883,7 +2965,9 @@
       <c r="H61" s="13">
         <v>43425</v>
       </c>
-      <c r="I61" s="13"/>
+      <c r="I61" s="12" t="s">
+        <v>9</v>
+      </c>
       <c r="J61" s="12" t="s">
         <v>9</v>
       </c>
@@ -2909,7 +2993,9 @@
       <c r="H62" s="13">
         <v>43486</v>
       </c>
-      <c r="I62" s="13"/>
+      <c r="I62" s="12" t="s">
+        <v>9</v>
+      </c>
       <c r="J62" s="12" t="s">
         <v>9</v>
       </c>
@@ -2945,7 +3031,9 @@
       <c r="H65" s="13">
         <v>43427</v>
       </c>
-      <c r="I65" s="13"/>
+      <c r="I65" s="12" t="s">
+        <v>9</v>
+      </c>
       <c r="J65" s="12" t="s">
         <v>9</v>
       </c>
@@ -2971,7 +3059,9 @@
       <c r="H66" s="13">
         <v>43427</v>
       </c>
-      <c r="I66" s="13"/>
+      <c r="I66" s="12" t="s">
+        <v>9</v>
+      </c>
       <c r="J66" s="12" t="s">
         <v>9</v>
       </c>
@@ -2997,7 +3087,9 @@
       <c r="H67" s="13">
         <v>43427</v>
       </c>
-      <c r="I67" s="13"/>
+      <c r="I67" s="12" t="s">
+        <v>9</v>
+      </c>
       <c r="J67" s="12" t="s">
         <v>9</v>
       </c>
@@ -3023,7 +3115,9 @@
       <c r="H68" s="13">
         <v>43427</v>
       </c>
-      <c r="I68" s="13"/>
+      <c r="I68" s="12" t="s">
+        <v>9</v>
+      </c>
       <c r="J68" s="12" t="s">
         <v>9</v>
       </c>
@@ -3049,7 +3143,9 @@
       <c r="H69" s="13">
         <v>43451</v>
       </c>
-      <c r="I69" s="13"/>
+      <c r="I69" s="12" t="s">
+        <v>9</v>
+      </c>
       <c r="J69" s="12" t="s">
         <v>9</v>
       </c>
@@ -3085,7 +3181,9 @@
       <c r="H72" s="13">
         <v>43486</v>
       </c>
-      <c r="I72" s="13"/>
+      <c r="I72" s="12" t="s">
+        <v>9</v>
+      </c>
       <c r="J72" s="12" t="s">
         <v>9</v>
       </c>
@@ -3111,7 +3209,9 @@
       <c r="H73" s="13">
         <v>43486</v>
       </c>
-      <c r="I73" s="13"/>
+      <c r="I73" s="12" t="s">
+        <v>9</v>
+      </c>
       <c r="J73" s="12" t="s">
         <v>9</v>
       </c>
@@ -3137,7 +3237,9 @@
       <c r="H74" s="13">
         <v>43486</v>
       </c>
-      <c r="I74" s="13"/>
+      <c r="I74" s="12" t="s">
+        <v>9</v>
+      </c>
       <c r="J74" s="12" t="s">
         <v>9</v>
       </c>
@@ -3163,7 +3265,9 @@
       <c r="H75" s="13">
         <v>43486</v>
       </c>
-      <c r="I75" s="13"/>
+      <c r="I75" s="12" t="s">
+        <v>9</v>
+      </c>
       <c r="J75" s="12" t="s">
         <v>9</v>
       </c>
@@ -3189,7 +3293,9 @@
       <c r="H76" s="13">
         <v>43486</v>
       </c>
-      <c r="I76" s="13"/>
+      <c r="I76" s="12" t="s">
+        <v>9</v>
+      </c>
       <c r="J76" s="12" t="s">
         <v>9</v>
       </c>
@@ -3215,7 +3321,9 @@
       <c r="H77" s="13">
         <v>43486</v>
       </c>
-      <c r="I77" s="13"/>
+      <c r="I77" s="12" t="s">
+        <v>9</v>
+      </c>
       <c r="J77" s="12" t="s">
         <v>9</v>
       </c>
@@ -3238,7 +3346,9 @@
       <c r="H78" s="13">
         <v>43493</v>
       </c>
-      <c r="I78" s="13"/>
+      <c r="I78" s="12" t="s">
+        <v>9</v>
+      </c>
       <c r="J78" s="12" t="s">
         <v>9</v>
       </c>
@@ -3261,7 +3371,9 @@
       <c r="H79" s="13">
         <v>43493</v>
       </c>
-      <c r="I79" s="13"/>
+      <c r="I79" s="12" t="s">
+        <v>9</v>
+      </c>
       <c r="J79" s="12" t="s">
         <v>9</v>
       </c>
@@ -3284,7 +3396,9 @@
       <c r="H80" s="13">
         <v>43493</v>
       </c>
-      <c r="I80" s="13"/>
+      <c r="I80" s="12" t="s">
+        <v>9</v>
+      </c>
       <c r="J80" s="12" t="s">
         <v>9</v>
       </c>
@@ -3320,7 +3434,9 @@
       <c r="H83" s="13">
         <v>43487</v>
       </c>
-      <c r="I83" s="13"/>
+      <c r="I83" s="12" t="s">
+        <v>9</v>
+      </c>
       <c r="J83" s="12" t="s">
         <v>9</v>
       </c>
@@ -3356,7 +3472,9 @@
       <c r="H86" s="13">
         <v>43487</v>
       </c>
-      <c r="I86" s="13"/>
+      <c r="I86" s="12" t="s">
+        <v>9</v>
+      </c>
       <c r="J86" s="12" t="s">
         <v>9</v>
       </c>
@@ -3382,7 +3500,9 @@
       <c r="H87" s="13">
         <v>43487</v>
       </c>
-      <c r="I87" s="13"/>
+      <c r="I87" s="12" t="s">
+        <v>9</v>
+      </c>
       <c r="J87" s="12" t="s">
         <v>9</v>
       </c>
@@ -3408,7 +3528,9 @@
       <c r="H88" s="13">
         <v>43493</v>
       </c>
-      <c r="I88" s="13"/>
+      <c r="I88" s="12" t="s">
+        <v>9</v>
+      </c>
       <c r="J88" s="12" t="s">
         <v>9</v>
       </c>
@@ -3434,7 +3556,9 @@
       <c r="H89" s="13">
         <v>43493</v>
       </c>
-      <c r="I89" s="13"/>
+      <c r="I89" s="12" t="s">
+        <v>9</v>
+      </c>
       <c r="J89" s="12" t="s">
         <v>9</v>
       </c>
@@ -3470,7 +3594,9 @@
       <c r="H92" s="13">
         <v>43498</v>
       </c>
-      <c r="I92" s="12"/>
+      <c r="I92" s="12" t="s">
+        <v>9</v>
+      </c>
       <c r="J92" s="12" t="s">
         <v>9</v>
       </c>
@@ -3496,7 +3622,9 @@
       <c r="H93" s="13">
         <v>43498</v>
       </c>
-      <c r="I93" s="12"/>
+      <c r="I93" s="12" t="s">
+        <v>9</v>
+      </c>
       <c r="J93" s="12" t="s">
         <v>9</v>
       </c>
@@ -3522,7 +3650,9 @@
       <c r="H94" s="13">
         <v>43498</v>
       </c>
-      <c r="I94" s="12"/>
+      <c r="I94" s="12" t="s">
+        <v>9</v>
+      </c>
       <c r="J94" s="12" t="s">
         <v>9</v>
       </c>
@@ -3548,7 +3678,9 @@
       <c r="H95" s="13">
         <v>43498</v>
       </c>
-      <c r="I95" s="12"/>
+      <c r="I95" s="12" t="s">
+        <v>9</v>
+      </c>
       <c r="J95" s="12" t="s">
         <v>9</v>
       </c>
@@ -3574,7 +3706,9 @@
       <c r="H96" s="13">
         <v>43498</v>
       </c>
-      <c r="I96" s="12"/>
+      <c r="I96" s="12" t="s">
+        <v>9</v>
+      </c>
       <c r="J96" s="12" t="s">
         <v>9</v>
       </c>
@@ -3600,7 +3734,9 @@
       <c r="H97" s="13">
         <v>43498</v>
       </c>
-      <c r="I97" s="12"/>
+      <c r="I97" s="12" t="s">
+        <v>9</v>
+      </c>
       <c r="J97" s="12" t="s">
         <v>9</v>
       </c>
@@ -3626,7 +3762,9 @@
       <c r="H98" s="13">
         <v>43498</v>
       </c>
-      <c r="I98" s="12"/>
+      <c r="I98" s="12" t="s">
+        <v>9</v>
+      </c>
       <c r="J98" s="12" t="s">
         <v>9</v>
       </c>
@@ -3652,7 +3790,9 @@
       <c r="H99" s="13">
         <v>43498</v>
       </c>
-      <c r="I99" s="12"/>
+      <c r="I99" s="12" t="s">
+        <v>9</v>
+      </c>
       <c r="J99" s="12" t="s">
         <v>9</v>
       </c>
@@ -3678,7 +3818,9 @@
       <c r="H100" s="13">
         <v>43498</v>
       </c>
-      <c r="I100" s="12"/>
+      <c r="I100" s="12" t="s">
+        <v>9</v>
+      </c>
       <c r="J100" s="12" t="s">
         <v>9</v>
       </c>
@@ -3738,7 +3880,9 @@
       <c r="H104" s="13">
         <v>43498</v>
       </c>
-      <c r="I104" s="12"/>
+      <c r="I104" s="12" t="s">
+        <v>9</v>
+      </c>
       <c r="J104" s="12" t="s">
         <v>9</v>
       </c>
@@ -3764,7 +3908,9 @@
       <c r="H105" s="13">
         <v>43498</v>
       </c>
-      <c r="I105" s="12"/>
+      <c r="I105" s="12" t="s">
+        <v>9</v>
+      </c>
       <c r="J105" s="12" t="s">
         <v>9</v>
       </c>
@@ -3790,7 +3936,9 @@
       <c r="H106" s="13">
         <v>43513</v>
       </c>
-      <c r="I106" s="12"/>
+      <c r="I106" s="12" t="s">
+        <v>9</v>
+      </c>
       <c r="J106" s="12" t="s">
         <v>9</v>
       </c>
@@ -3826,7 +3974,9 @@
       <c r="H109" s="13">
         <v>43498</v>
       </c>
-      <c r="I109" s="12"/>
+      <c r="I109" s="12" t="s">
+        <v>9</v>
+      </c>
       <c r="J109" s="12" t="s">
         <v>9</v>
       </c>
@@ -3852,7 +4002,9 @@
       <c r="H110" s="13">
         <v>43513</v>
       </c>
-      <c r="I110" s="12"/>
+      <c r="I110" s="12" t="s">
+        <v>9</v>
+      </c>
       <c r="J110" s="12" t="s">
         <v>9</v>
       </c>
@@ -4074,7 +4226,9 @@
       <c r="H123" s="13">
         <v>43498</v>
       </c>
-      <c r="I123" s="12"/>
+      <c r="I123" s="12" t="s">
+        <v>9</v>
+      </c>
       <c r="J123" s="12" t="s">
         <v>9</v>
       </c>
@@ -4100,7 +4254,9 @@
       <c r="H124" s="13">
         <v>43498</v>
       </c>
-      <c r="I124" s="12"/>
+      <c r="I124" s="12" t="s">
+        <v>9</v>
+      </c>
       <c r="J124" s="12" t="s">
         <v>9</v>
       </c>
@@ -4300,7 +4456,9 @@
       <c r="H136" s="13">
         <v>43498</v>
       </c>
-      <c r="I136" s="12"/>
+      <c r="I136" s="12" t="s">
+        <v>9</v>
+      </c>
       <c r="J136" s="12" t="s">
         <v>9</v>
       </c>
@@ -4326,7 +4484,9 @@
       <c r="H137" s="13">
         <v>43498</v>
       </c>
-      <c r="I137" s="12"/>
+      <c r="I137" s="12" t="s">
+        <v>9</v>
+      </c>
       <c r="J137" s="12" t="s">
         <v>9</v>
       </c>
@@ -4352,7 +4512,9 @@
       <c r="H138" s="13">
         <v>43498</v>
       </c>
-      <c r="I138" s="12"/>
+      <c r="I138" s="12" t="s">
+        <v>9</v>
+      </c>
       <c r="J138" s="12" t="s">
         <v>9</v>
       </c>
@@ -4378,7 +4540,9 @@
       <c r="H139" s="13">
         <v>43498</v>
       </c>
-      <c r="I139" s="12"/>
+      <c r="I139" s="12" t="s">
+        <v>9</v>
+      </c>
       <c r="J139" s="12" t="s">
         <v>9</v>
       </c>
@@ -4404,7 +4568,9 @@
       <c r="H140" s="13">
         <v>43498</v>
       </c>
-      <c r="I140" s="12"/>
+      <c r="I140" s="12" t="s">
+        <v>9</v>
+      </c>
       <c r="J140" s="12" t="s">
         <v>9</v>
       </c>
@@ -4427,7 +4593,9 @@
       <c r="H141" s="13">
         <v>43498</v>
       </c>
-      <c r="I141" s="12"/>
+      <c r="I141" s="12" t="s">
+        <v>9</v>
+      </c>
       <c r="J141" s="12" t="s">
         <v>9</v>
       </c>
@@ -4450,7 +4618,9 @@
       <c r="H142" s="13">
         <v>43498</v>
       </c>
-      <c r="I142" s="12"/>
+      <c r="I142" s="12" t="s">
+        <v>9</v>
+      </c>
       <c r="J142" s="12" t="s">
         <v>9</v>
       </c>
@@ -4473,7 +4643,9 @@
       <c r="H143" s="13">
         <v>43498</v>
       </c>
-      <c r="I143" s="12"/>
+      <c r="I143" s="12" t="s">
+        <v>9</v>
+      </c>
       <c r="J143" s="12" t="s">
         <v>9</v>
       </c>
@@ -4651,7 +4823,9 @@
       <c r="H154" s="13">
         <v>43498</v>
       </c>
-      <c r="I154" s="12"/>
+      <c r="I154" s="12" t="s">
+        <v>9</v>
+      </c>
       <c r="J154" s="12" t="s">
         <v>9</v>
       </c>
@@ -4677,7 +4851,9 @@
       <c r="H155" s="13">
         <v>43498</v>
       </c>
-      <c r="I155" s="12"/>
+      <c r="I155" s="12" t="s">
+        <v>9</v>
+      </c>
       <c r="J155" s="12" t="s">
         <v>9</v>
       </c>
@@ -4811,7 +4987,9 @@
       <c r="H164" s="13">
         <v>43424</v>
       </c>
-      <c r="I164" s="13"/>
+      <c r="I164" s="12" t="s">
+        <v>9</v>
+      </c>
       <c r="J164" s="12" t="s">
         <v>9</v>
       </c>
@@ -4837,7 +5015,9 @@
       <c r="H165" s="13">
         <v>43451</v>
       </c>
-      <c r="I165" s="13"/>
+      <c r="I165" s="12" t="s">
+        <v>9</v>
+      </c>
       <c r="J165" s="12" t="s">
         <v>9</v>
       </c>
@@ -5069,7 +5249,9 @@
       <c r="H180" s="13">
         <v>43424</v>
       </c>
-      <c r="I180" s="13"/>
+      <c r="I180" s="12" t="s">
+        <v>9</v>
+      </c>
       <c r="J180" s="12" t="s">
         <v>9</v>
       </c>
@@ -5203,7 +5385,9 @@
       <c r="H189" s="13">
         <v>43451</v>
       </c>
-      <c r="I189" s="13"/>
+      <c r="I189" s="12" t="s">
+        <v>9</v>
+      </c>
       <c r="J189" s="12" t="s">
         <v>9</v>
       </c>
@@ -5337,7 +5521,9 @@
       <c r="H198" s="13">
         <v>43451</v>
       </c>
-      <c r="I198" s="13"/>
+      <c r="I198" s="12" t="s">
+        <v>9</v>
+      </c>
       <c r="J198" s="12" t="s">
         <v>9</v>
       </c>
@@ -5748,7 +5934,7 @@
     <mergeCell ref="B211:G211"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I3 J3 K3 L3 J17 L21 J22 K22:L22 J23 K23:L23 K30 L39 L53 J56 K56 L56 L61 J62 K62 L62 J69 K69 J78:K78 L78 J79:K79 L79 J80:K80 L80 J83 K83 L83 J86 K86 L86 K87:L87 J103 K103:L103 J106 K106 L106 J109 K109 L109 J110 K110 L110 J123 J124 J125 K125:L125 J136 J137 J138 J139 J140 J141 L141 J142 L142 J143 L143 J154 L154 J155 L155 J164:K164 J165 K165 J180 K180 L180 J189 K189:L189 J198 K198:L198 I6:I14 J6:J10 J11:J14 J18:J21 J26:J30 J37:J41 J45:J50 J59:J61 J65:J68 J87:J89 J92:J100 J104:J105 J113:J118 J121:J122 J128:J133 J146:J151 J158:J161 J168:J171 J174:J177 J183:J186 J192:J195 J201:J204 J207:J211 K6:K10 K11:K14 K17:K21 K26:K29 K37:K41 K45:K50 K59:K61 K65:K68 K88:K89 K92:K100 K104:K105 K123:K124 K136:K143 K154:K155 L6:L14 L17:L20 L26:L30 L33:L34 L35:L36 L37:L38 L40:L41 L45:L48 L49:L50 L54:L55 L59:L60 L65:L69 L72:L73 L74:L77 L88:L89 L92:L100 L104:L105 L123:L124 L136:L140 L164:L165 J33:K36 J53:K55 J72:K77 K113:L118 K128:L133 K168:L171 K146:L151 K158:L161 K174:L177 K183:L186 K192:L195 K201:L204 K207:L211 K121:L122">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I3 J3 K3 L3 J17 L21 J22 K22:L22 J23 K23:L23 K30 I33 L39 L53 L54 L55 J56 K56 L56 L61 J62 K62 L62 J69 K69 J78:K78 L78 J79:K79 L79 J80:K80 L80 I83 J83 K83 L83 J86 K86 L86 K87:L87 J103 K103:L103 J106 K106 L106 J109 K109 L109 J110 K110 L110 J123 J124 J125 K125:L125 J136 J137 J138 J139 J140 J141 L141 J142 L142 J143 L143 J154 L154 J155 L155 J164:K164 J165 K165 I180 J180 K180 L180 I189 J189 K189:L189 I198 J198 K198:L198 I6:I14 I17:I21 I26:I30 I34:I36 I37:I41 I45:I50 I53:I56 I59:I62 I65:I69 I72:I80 I86:I89 I92:I100 I104:I106 I109:I110 I123:I124 I136:I143 I154:I155 I164:I165 J6:J10 J11:J14 J18:J21 J26:J30 J37:J41 J45:J50 J59:J61 J65:J68 J87:J89 J92:J100 J104:J105 J113:J118 J121:J122 J128:J133 J146:J151 J158:J161 J168:J171 J174:J177 J183:J186 J192:J195 J201:J204 J207:J211 K6:K10 K11:K14 K17:K21 K26:K29 K37:K41 K45:K50 K59:K61 K65:K68 K88:K89 K92:K100 K104:K105 K123:K124 K136:K143 K154:K155 L6:L14 L17:L20 L26:L30 L33:L34 L35:L36 L37:L38 L40:L41 L45:L48 L49:L50 L59:L60 L65:L69 L72:L73 L74:L77 L88:L89 L92:L100 L104:L105 L123:L124 L136:L140 L164:L165 J33:K36 J53:K55 J72:K77 K113:L118 K128:L133 K168:L171 K146:L151 K158:L161 K174:L177 K183:L186 K192:L195 K201:L204 K207:L211 K121:L122">
       <formula1>$S$3:$S$4</formula1>
     </dataValidation>
   </dataValidations>

--- a/课程跟踪.xlsx
+++ b/课程跟踪.xlsx
@@ -4,20 +4,20 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23300" windowHeight="10560"/>
+    <workbookView windowWidth="24920" windowHeight="12840"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$H$1:$L$211</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$H$1:$L$220</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -313,6 +313,15 @@
     <t>【直播】Selenium项目实战演练(2月17日 10:00-18:00)</t>
   </si>
   <si>
+    <t>0224Selenium实战补充（一）</t>
+  </si>
+  <si>
+    <t>0224Selenium实战补充（二）</t>
+  </si>
+  <si>
+    <t>0224Selenium实战补充（三）</t>
+  </si>
+  <si>
     <t>15 专项测试</t>
   </si>
   <si>
@@ -320,6 +329,21 @@
   </si>
   <si>
     <t>【录播】移动专项测试（下）（9分钟）</t>
+  </si>
+  <si>
+    <t>16 Docker实战</t>
+  </si>
+  <si>
+    <t>【直播】Docker实战（一）(3月3日 14:00-15:00)</t>
+  </si>
+  <si>
+    <t>【直播】Docker实战（二）(3月3日 15:00-16:00)</t>
+  </si>
+  <si>
+    <t>【直播】Docker实战（三）(3月3日 16:00-17:00)</t>
+  </si>
+  <si>
+    <t>【直播】Docker实战（四）(3月3日 17:00-18:00)</t>
   </si>
   <si>
     <t>16 App性能分析与弱网测试实战</t>
@@ -580,9 +604,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -601,6 +625,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -608,22 +639,15 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -636,14 +660,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -652,16 +668,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -684,17 +692,31 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -707,25 +729,11 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -737,10 +745,26 @@
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -777,55 +801,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -849,13 +837,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -867,19 +855,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -891,61 +969,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1027,23 +1051,19 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1078,13 +1098,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1092,8 +1116,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1126,152 +1150,152 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1341,6 +1365,9 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1355,6 +1382,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1678,21 +1708,21 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:S211"/>
+  <dimension ref="A1:S220"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
       <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33333333333333" defaultRowHeight="19"/>
+  <sheetFormatPr defaultColWidth="9.33035714285714" defaultRowHeight="17.6"/>
   <cols>
-    <col min="1" max="1" width="9.33333333333333" style="2"/>
-    <col min="7" max="7" width="16.9416666666667" customWidth="1"/>
+    <col min="1" max="1" width="9.33035714285714" style="2"/>
+    <col min="7" max="7" width="16.9375" customWidth="1"/>
     <col min="8" max="9" width="13.5" style="2"/>
-    <col min="10" max="11" width="13.8333333333333" style="2" customWidth="1"/>
-    <col min="12" max="12" width="9.33333333333333" style="2"/>
+    <col min="10" max="11" width="13.8303571428571" style="2" customWidth="1"/>
+    <col min="12" max="12" width="9.33035714285714" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
@@ -1733,7 +1763,7 @@
       <c r="F2" s="4"/>
       <c r="G2" s="4"/>
     </row>
-    <row r="3" ht="22" spans="1:19">
+    <row r="3" ht="20.4" spans="1:19">
       <c r="A3" s="2">
         <v>1</v>
       </c>
@@ -1779,7 +1809,7 @@
       <c r="F5" s="6"/>
       <c r="G5" s="6"/>
     </row>
-    <row r="6" ht="22" spans="1:12">
+    <row r="6" ht="20.4" spans="1:12">
       <c r="A6" s="2">
         <v>2</v>
       </c>
@@ -1807,7 +1837,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" ht="22" spans="1:12">
+    <row r="7" ht="20.4" spans="1:12">
       <c r="A7" s="2">
         <v>3</v>
       </c>
@@ -1835,7 +1865,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" ht="22" spans="1:12">
+    <row r="8" ht="20.4" spans="1:12">
       <c r="A8" s="2">
         <v>4</v>
       </c>
@@ -1863,7 +1893,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" ht="22" spans="1:12">
+    <row r="9" ht="20.4" spans="1:12">
       <c r="A9" s="2">
         <v>5</v>
       </c>
@@ -1891,7 +1921,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" ht="22" spans="1:12">
+    <row r="10" ht="20.4" spans="1:12">
       <c r="A10" s="2">
         <v>6</v>
       </c>
@@ -1919,7 +1949,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" ht="22" spans="1:12">
+    <row r="11" ht="20.4" spans="1:12">
       <c r="A11" s="2">
         <v>7</v>
       </c>
@@ -1947,7 +1977,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" ht="22" spans="1:12">
+    <row r="12" ht="20.4" spans="1:12">
       <c r="A12" s="2">
         <v>8</v>
       </c>
@@ -1975,7 +2005,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" ht="22" spans="1:12">
+    <row r="13" ht="20.4" spans="1:12">
       <c r="A13" s="2">
         <v>9</v>
       </c>
@@ -2003,7 +2033,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" ht="22" spans="1:12">
+    <row r="14" ht="20.4" spans="1:12">
       <c r="A14" s="2">
         <v>10</v>
       </c>
@@ -2047,7 +2077,7 @@
       <c r="K16" s="7"/>
       <c r="L16" s="7"/>
     </row>
-    <row r="17" ht="22" spans="1:12">
+    <row r="17" ht="20.4" spans="1:12">
       <c r="A17" s="2">
         <v>11</v>
       </c>
@@ -2075,7 +2105,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="18" ht="22" spans="1:12">
+    <row r="18" ht="20.4" spans="1:12">
       <c r="A18" s="2">
         <v>12</v>
       </c>
@@ -2103,7 +2133,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="19" ht="22" spans="1:12">
+    <row r="19" ht="20.4" spans="1:12">
       <c r="A19" s="2">
         <v>13</v>
       </c>
@@ -2131,7 +2161,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="20" ht="22" spans="1:12">
+    <row r="20" ht="20.4" spans="1:12">
       <c r="A20" s="2">
         <v>14</v>
       </c>
@@ -2159,7 +2189,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="21" ht="22" spans="1:12">
+    <row r="21" ht="20.4" spans="1:12">
       <c r="A21" s="2">
         <v>15</v>
       </c>
@@ -2213,7 +2243,7 @@
       <c r="F25" s="9"/>
       <c r="G25" s="14"/>
     </row>
-    <row r="26" ht="22" spans="1:12">
+    <row r="26" ht="20.4" spans="1:12">
       <c r="A26" s="2">
         <v>16</v>
       </c>
@@ -2241,7 +2271,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="27" ht="22" spans="1:12">
+    <row r="27" ht="20.4" spans="1:12">
       <c r="A27" s="2">
         <v>17</v>
       </c>
@@ -2269,7 +2299,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="28" ht="22" spans="1:12">
+    <row r="28" ht="20.4" spans="1:12">
       <c r="A28" s="2">
         <v>18</v>
       </c>
@@ -2297,7 +2327,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="29" ht="22" spans="1:12">
+    <row r="29" ht="20.4" spans="1:12">
       <c r="A29" s="2">
         <v>19</v>
       </c>
@@ -2325,7 +2355,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="30" ht="22" spans="1:12">
+    <row r="30" ht="20.4" spans="1:12">
       <c r="A30" s="2">
         <v>20</v>
       </c>
@@ -2363,10 +2393,7 @@
       <c r="F32" s="9"/>
       <c r="G32" s="14"/>
     </row>
-    <row r="33" ht="22" spans="1:12">
-      <c r="A33" s="2">
-        <v>14</v>
-      </c>
+    <row r="33" ht="20.4" spans="2:12">
       <c r="B33" s="11" t="s">
         <v>34</v>
       </c>
@@ -2387,10 +2414,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="34" ht="22" spans="1:12">
-      <c r="A34" s="2">
-        <v>15</v>
-      </c>
+    <row r="34" ht="20.4" spans="2:12">
       <c r="B34" s="11" t="s">
         <v>35</v>
       </c>
@@ -2411,10 +2435,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="35" ht="22" spans="1:12">
-      <c r="A35" s="2">
-        <v>16</v>
-      </c>
+    <row r="35" ht="20.4" spans="2:12">
       <c r="B35" s="11" t="s">
         <v>36</v>
       </c>
@@ -2435,10 +2456,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="36" ht="22" spans="1:12">
-      <c r="A36" s="2">
-        <v>17</v>
-      </c>
+    <row r="36" ht="20.4" spans="2:12">
       <c r="B36" s="11" t="s">
         <v>37</v>
       </c>
@@ -2459,7 +2477,10 @@
         <v>9</v>
       </c>
     </row>
-    <row r="37" ht="22" spans="2:12">
+    <row r="37" ht="20.4" spans="1:12">
+      <c r="A37" s="2">
+        <v>21</v>
+      </c>
       <c r="B37" s="5" t="s">
         <v>38</v>
       </c>
@@ -2484,7 +2505,10 @@
         <v>9</v>
       </c>
     </row>
-    <row r="38" ht="22" spans="2:12">
+    <row r="38" ht="20.4" spans="1:12">
+      <c r="A38" s="2">
+        <v>22</v>
+      </c>
       <c r="B38" s="5" t="s">
         <v>39</v>
       </c>
@@ -2509,7 +2533,10 @@
         <v>9</v>
       </c>
     </row>
-    <row r="39" ht="22" spans="2:12">
+    <row r="39" ht="20.4" spans="1:12">
+      <c r="A39" s="2">
+        <v>23</v>
+      </c>
       <c r="B39" s="5" t="s">
         <v>40</v>
       </c>
@@ -2534,7 +2561,10 @@
         <v>9</v>
       </c>
     </row>
-    <row r="40" ht="22" spans="2:12">
+    <row r="40" ht="20.4" spans="1:12">
+      <c r="A40" s="2">
+        <v>24</v>
+      </c>
       <c r="B40" s="5" t="s">
         <v>41</v>
       </c>
@@ -2559,7 +2589,10 @@
         <v>10</v>
       </c>
     </row>
-    <row r="41" ht="22" spans="2:12">
+    <row r="41" ht="20.4" spans="1:12">
+      <c r="A41" s="2">
+        <v>25</v>
+      </c>
       <c r="B41" s="5" t="s">
         <v>42</v>
       </c>
@@ -2594,9 +2627,9 @@
       <c r="F44" s="9"/>
       <c r="G44" s="14"/>
     </row>
-    <row r="45" ht="22" spans="1:12">
+    <row r="45" ht="20.4" spans="1:12">
       <c r="A45" s="2">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="B45" s="5" t="s">
         <v>44</v>
@@ -2622,9 +2655,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="46" ht="22" spans="1:12">
+    <row r="46" ht="20.4" spans="1:12">
       <c r="A46" s="2">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="B46" s="5" t="s">
         <v>45</v>
@@ -2650,9 +2683,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="47" ht="22" spans="1:12">
+    <row r="47" ht="20.4" spans="1:12">
       <c r="A47" s="2">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="B47" s="5" t="s">
         <v>46</v>
@@ -2678,9 +2711,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="48" ht="22" spans="1:12">
+    <row r="48" ht="20.4" spans="1:12">
       <c r="A48" s="2">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="B48" s="5" t="s">
         <v>47</v>
@@ -2706,9 +2739,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="49" ht="22" spans="1:12">
+    <row r="49" ht="20.4" spans="1:12">
       <c r="A49" s="2">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="B49" s="5" t="s">
         <v>48</v>
@@ -2734,9 +2767,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="50" ht="22" spans="1:12">
+    <row r="50" ht="20.4" spans="1:12">
       <c r="A50" s="2">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="B50" s="5" t="s">
         <v>49</v>
@@ -2772,9 +2805,9 @@
       <c r="F52" s="9"/>
       <c r="G52" s="14"/>
     </row>
-    <row r="53" ht="22" spans="1:12">
+    <row r="53" ht="20.4" spans="1:12">
       <c r="A53" s="2">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="B53" s="5" t="s">
         <v>51</v>
@@ -2800,9 +2833,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="54" ht="22" spans="1:12">
+    <row r="54" ht="20.4" spans="1:12">
       <c r="A54" s="2">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="B54" s="5" t="s">
         <v>52</v>
@@ -2828,9 +2861,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="55" ht="22" spans="1:12">
+    <row r="55" ht="20.4" spans="1:12">
       <c r="A55" s="2">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="B55" s="5" t="s">
         <v>53</v>
@@ -2852,13 +2885,13 @@
       <c r="K55" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="L55" s="18" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="56" ht="22" spans="1:12">
+      <c r="L55" s="16" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="56" ht="20.4" spans="1:12">
       <c r="A56" s="2">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="B56" s="5" t="s">
         <v>54</v>
@@ -2880,8 +2913,8 @@
       <c r="K56" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="L56" s="18" t="s">
-        <v>10</v>
+      <c r="L56" s="16" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="58" spans="2:7">
@@ -2894,9 +2927,9 @@
       <c r="F58" s="9"/>
       <c r="G58" s="14"/>
     </row>
-    <row r="59" ht="22" spans="1:12">
+    <row r="59" ht="20.4" spans="1:12">
       <c r="A59" s="2">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="B59" s="5" t="s">
         <v>56</v>
@@ -2922,9 +2955,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="60" ht="22" spans="1:12">
+    <row r="60" ht="20.4" spans="1:12">
       <c r="A60" s="2">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="B60" s="5" t="s">
         <v>57</v>
@@ -2950,9 +2983,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="61" ht="22" spans="1:12">
+    <row r="61" ht="20.4" spans="1:12">
       <c r="A61" s="2">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="B61" s="5" t="s">
         <v>58</v>
@@ -2978,9 +3011,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="62" ht="22" spans="1:12">
+    <row r="62" ht="20.4" spans="1:12">
       <c r="A62" s="2">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="B62" s="5" t="s">
         <v>59</v>
@@ -3016,9 +3049,9 @@
       <c r="F64" s="9"/>
       <c r="G64" s="14"/>
     </row>
-    <row r="65" ht="22" spans="1:12">
+    <row r="65" ht="20.4" spans="1:12">
       <c r="A65" s="2">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="B65" s="19" t="s">
         <v>61</v>
@@ -3027,7 +3060,7 @@
       <c r="D65" s="20"/>
       <c r="E65" s="20"/>
       <c r="F65" s="20"/>
-      <c r="G65" s="25"/>
+      <c r="G65" s="26"/>
       <c r="H65" s="13">
         <v>43427</v>
       </c>
@@ -3040,13 +3073,13 @@
       <c r="K65" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="L65" s="18" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="66" ht="22" spans="1:12">
+      <c r="L65" s="16" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="66" ht="20.4" spans="1:12">
       <c r="A66" s="2">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="B66" s="19" t="s">
         <v>62</v>
@@ -3055,7 +3088,7 @@
       <c r="D66" s="20"/>
       <c r="E66" s="20"/>
       <c r="F66" s="20"/>
-      <c r="G66" s="25"/>
+      <c r="G66" s="26"/>
       <c r="H66" s="13">
         <v>43427</v>
       </c>
@@ -3072,9 +3105,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="67" ht="22" spans="1:12">
+    <row r="67" ht="20.4" spans="1:12">
       <c r="A67" s="2">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="B67" s="19" t="s">
         <v>63</v>
@@ -3083,7 +3116,7 @@
       <c r="D67" s="20"/>
       <c r="E67" s="20"/>
       <c r="F67" s="20"/>
-      <c r="G67" s="25"/>
+      <c r="G67" s="26"/>
       <c r="H67" s="13">
         <v>43427</v>
       </c>
@@ -3100,9 +3133,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="68" ht="22" spans="1:12">
+    <row r="68" ht="20.4" spans="1:12">
       <c r="A68" s="2">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="B68" s="19" t="s">
         <v>64</v>
@@ -3111,7 +3144,7 @@
       <c r="D68" s="20"/>
       <c r="E68" s="20"/>
       <c r="F68" s="20"/>
-      <c r="G68" s="25"/>
+      <c r="G68" s="26"/>
       <c r="H68" s="13">
         <v>43427</v>
       </c>
@@ -3128,9 +3161,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="69" ht="22" spans="1:12">
+    <row r="69" ht="20.4" spans="1:12">
       <c r="A69" s="2">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="B69" s="19" t="s">
         <v>65</v>
@@ -3139,7 +3172,7 @@
       <c r="D69" s="20"/>
       <c r="E69" s="20"/>
       <c r="F69" s="20"/>
-      <c r="G69" s="25"/>
+      <c r="G69" s="26"/>
       <c r="H69" s="13">
         <v>43451</v>
       </c>
@@ -3166,9 +3199,9 @@
       <c r="F71" s="9"/>
       <c r="G71" s="14"/>
     </row>
-    <row r="72" ht="22" spans="1:12">
+    <row r="72" ht="20.4" spans="1:12">
       <c r="A72" s="2">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="B72" s="19" t="s">
         <v>67</v>
@@ -3177,7 +3210,7 @@
       <c r="D72" s="20"/>
       <c r="E72" s="20"/>
       <c r="F72" s="20"/>
-      <c r="G72" s="25"/>
+      <c r="G72" s="26"/>
       <c r="H72" s="13">
         <v>43486</v>
       </c>
@@ -3194,9 +3227,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="73" ht="22" spans="1:12">
+    <row r="73" ht="20.4" spans="1:12">
       <c r="A73" s="2">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="B73" s="19" t="s">
         <v>68</v>
@@ -3205,7 +3238,7 @@
       <c r="D73" s="20"/>
       <c r="E73" s="20"/>
       <c r="F73" s="20"/>
-      <c r="G73" s="25"/>
+      <c r="G73" s="26"/>
       <c r="H73" s="13">
         <v>43486</v>
       </c>
@@ -3222,9 +3255,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="74" ht="22" spans="1:12">
+    <row r="74" ht="20.4" spans="1:12">
       <c r="A74" s="2">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="B74" s="19" t="s">
         <v>69</v>
@@ -3233,7 +3266,7 @@
       <c r="D74" s="20"/>
       <c r="E74" s="20"/>
       <c r="F74" s="20"/>
-      <c r="G74" s="25"/>
+      <c r="G74" s="26"/>
       <c r="H74" s="13">
         <v>43486</v>
       </c>
@@ -3250,9 +3283,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="75" ht="22" spans="1:12">
+    <row r="75" ht="20.4" spans="1:12">
       <c r="A75" s="2">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="B75" s="19" t="s">
         <v>70</v>
@@ -3261,7 +3294,7 @@
       <c r="D75" s="20"/>
       <c r="E75" s="20"/>
       <c r="F75" s="20"/>
-      <c r="G75" s="25"/>
+      <c r="G75" s="26"/>
       <c r="H75" s="13">
         <v>43486</v>
       </c>
@@ -3278,9 +3311,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="76" ht="22" spans="1:12">
+    <row r="76" ht="20.4" spans="1:12">
       <c r="A76" s="2">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="B76" s="19" t="s">
         <v>71</v>
@@ -3289,7 +3322,7 @@
       <c r="D76" s="20"/>
       <c r="E76" s="20"/>
       <c r="F76" s="20"/>
-      <c r="G76" s="25"/>
+      <c r="G76" s="26"/>
       <c r="H76" s="13">
         <v>43486</v>
       </c>
@@ -3306,9 +3339,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="77" ht="22" spans="1:12">
+    <row r="77" ht="20.4" spans="1:12">
       <c r="A77" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="B77" s="19" t="s">
         <v>72</v>
@@ -3317,7 +3350,7 @@
       <c r="D77" s="20"/>
       <c r="E77" s="20"/>
       <c r="F77" s="20"/>
-      <c r="G77" s="25"/>
+      <c r="G77" s="26"/>
       <c r="H77" s="13">
         <v>43486</v>
       </c>
@@ -3334,7 +3367,10 @@
         <v>10</v>
       </c>
     </row>
-    <row r="78" ht="22" spans="2:12">
+    <row r="78" ht="20.4" spans="1:12">
+      <c r="A78" s="2">
+        <v>51</v>
+      </c>
       <c r="B78" s="19" t="s">
         <v>73</v>
       </c>
@@ -3342,7 +3378,7 @@
       <c r="D78" s="20"/>
       <c r="E78" s="20"/>
       <c r="F78" s="20"/>
-      <c r="G78" s="25"/>
+      <c r="G78" s="26"/>
       <c r="H78" s="13">
         <v>43493</v>
       </c>
@@ -3359,7 +3395,10 @@
         <v>10</v>
       </c>
     </row>
-    <row r="79" ht="22" spans="2:12">
+    <row r="79" ht="20.4" spans="1:12">
+      <c r="A79" s="2">
+        <v>52</v>
+      </c>
       <c r="B79" s="19" t="s">
         <v>74</v>
       </c>
@@ -3367,7 +3406,7 @@
       <c r="D79" s="20"/>
       <c r="E79" s="20"/>
       <c r="F79" s="20"/>
-      <c r="G79" s="25"/>
+      <c r="G79" s="26"/>
       <c r="H79" s="13">
         <v>43493</v>
       </c>
@@ -3384,7 +3423,10 @@
         <v>10</v>
       </c>
     </row>
-    <row r="80" ht="22" spans="2:12">
+    <row r="80" ht="20.4" spans="1:12">
+      <c r="A80" s="2">
+        <v>53</v>
+      </c>
       <c r="B80" s="19" t="s">
         <v>75</v>
       </c>
@@ -3392,7 +3434,7 @@
       <c r="D80" s="20"/>
       <c r="E80" s="20"/>
       <c r="F80" s="20"/>
-      <c r="G80" s="25"/>
+      <c r="G80" s="26"/>
       <c r="H80" s="13">
         <v>43493</v>
       </c>
@@ -3419,9 +3461,9 @@
       <c r="F82" s="9"/>
       <c r="G82" s="14"/>
     </row>
-    <row r="83" ht="22" spans="1:12">
+    <row r="83" ht="20.4" spans="1:12">
       <c r="A83" s="2">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="B83" s="19" t="s">
         <v>77</v>
@@ -3430,7 +3472,7 @@
       <c r="D83" s="20"/>
       <c r="E83" s="20"/>
       <c r="F83" s="20"/>
-      <c r="G83" s="25"/>
+      <c r="G83" s="26"/>
       <c r="H83" s="13">
         <v>43487</v>
       </c>
@@ -3457,9 +3499,9 @@
       <c r="F85" s="9"/>
       <c r="G85" s="14"/>
     </row>
-    <row r="86" ht="22" spans="1:12">
+    <row r="86" ht="20.4" spans="1:12">
       <c r="A86" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="B86" s="19" t="s">
         <v>79</v>
@@ -3468,7 +3510,7 @@
       <c r="D86" s="20"/>
       <c r="E86" s="20"/>
       <c r="F86" s="20"/>
-      <c r="G86" s="25"/>
+      <c r="G86" s="26"/>
       <c r="H86" s="13">
         <v>43487</v>
       </c>
@@ -3485,9 +3527,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="87" ht="22" spans="1:12">
+    <row r="87" ht="20.4" spans="1:12">
       <c r="A87" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="B87" s="19" t="s">
         <v>80</v>
@@ -3496,7 +3538,7 @@
       <c r="D87" s="20"/>
       <c r="E87" s="20"/>
       <c r="F87" s="20"/>
-      <c r="G87" s="25"/>
+      <c r="G87" s="26"/>
       <c r="H87" s="13">
         <v>43487</v>
       </c>
@@ -3513,9 +3555,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="88" ht="22" spans="1:12">
+    <row r="88" ht="20.4" spans="1:12">
       <c r="A88" s="2">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="B88" s="19" t="s">
         <v>81</v>
@@ -3524,7 +3566,7 @@
       <c r="D88" s="20"/>
       <c r="E88" s="20"/>
       <c r="F88" s="20"/>
-      <c r="G88" s="25"/>
+      <c r="G88" s="26"/>
       <c r="H88" s="13">
         <v>43493</v>
       </c>
@@ -3541,9 +3583,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="89" ht="22" spans="1:12">
+    <row r="89" ht="20.4" spans="1:12">
       <c r="A89" s="2">
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="B89" s="19" t="s">
         <v>82</v>
@@ -3552,7 +3594,7 @@
       <c r="D89" s="20"/>
       <c r="E89" s="20"/>
       <c r="F89" s="20"/>
-      <c r="G89" s="25"/>
+      <c r="G89" s="26"/>
       <c r="H89" s="13">
         <v>43493</v>
       </c>
@@ -3579,9 +3621,9 @@
       <c r="F91" s="9"/>
       <c r="G91" s="14"/>
     </row>
-    <row r="92" ht="22" spans="1:12">
+    <row r="92" ht="20.4" spans="1:12">
       <c r="A92" s="2">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="B92" s="19" t="s">
         <v>84</v>
@@ -3590,7 +3632,7 @@
       <c r="D92" s="20"/>
       <c r="E92" s="20"/>
       <c r="F92" s="20"/>
-      <c r="G92" s="25"/>
+      <c r="G92" s="26"/>
       <c r="H92" s="13">
         <v>43498</v>
       </c>
@@ -3607,9 +3649,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="93" ht="22" spans="1:12">
+    <row r="93" ht="20.4" spans="1:12">
       <c r="A93" s="2">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="B93" s="19" t="s">
         <v>85</v>
@@ -3618,7 +3660,7 @@
       <c r="D93" s="20"/>
       <c r="E93" s="20"/>
       <c r="F93" s="20"/>
-      <c r="G93" s="25"/>
+      <c r="G93" s="26"/>
       <c r="H93" s="13">
         <v>43498</v>
       </c>
@@ -3635,9 +3677,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="94" ht="22" spans="1:12">
+    <row r="94" ht="20.4" spans="1:12">
       <c r="A94" s="2">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="B94" s="19" t="s">
         <v>86</v>
@@ -3646,7 +3688,7 @@
       <c r="D94" s="20"/>
       <c r="E94" s="20"/>
       <c r="F94" s="20"/>
-      <c r="G94" s="25"/>
+      <c r="G94" s="26"/>
       <c r="H94" s="13">
         <v>43498</v>
       </c>
@@ -3663,9 +3705,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="95" ht="22" spans="1:12">
+    <row r="95" ht="20.4" spans="1:12">
       <c r="A95" s="2">
-        <v>51</v>
+        <v>62</v>
       </c>
       <c r="B95" s="19" t="s">
         <v>87</v>
@@ -3674,7 +3716,7 @@
       <c r="D95" s="20"/>
       <c r="E95" s="20"/>
       <c r="F95" s="20"/>
-      <c r="G95" s="25"/>
+      <c r="G95" s="26"/>
       <c r="H95" s="13">
         <v>43498</v>
       </c>
@@ -3691,9 +3733,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="96" ht="22" spans="1:12">
+    <row r="96" ht="20.4" spans="1:12">
       <c r="A96" s="2">
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="B96" s="19" t="s">
         <v>88</v>
@@ -3702,7 +3744,7 @@
       <c r="D96" s="20"/>
       <c r="E96" s="20"/>
       <c r="F96" s="20"/>
-      <c r="G96" s="25"/>
+      <c r="G96" s="26"/>
       <c r="H96" s="13">
         <v>43498</v>
       </c>
@@ -3719,9 +3761,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="97" ht="22" spans="1:12">
+    <row r="97" ht="20.4" spans="1:12">
       <c r="A97" s="2">
-        <v>53</v>
+        <v>64</v>
       </c>
       <c r="B97" s="19" t="s">
         <v>89</v>
@@ -3730,7 +3772,7 @@
       <c r="D97" s="20"/>
       <c r="E97" s="20"/>
       <c r="F97" s="20"/>
-      <c r="G97" s="25"/>
+      <c r="G97" s="26"/>
       <c r="H97" s="13">
         <v>43498</v>
       </c>
@@ -3747,9 +3789,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="98" ht="22" spans="1:12">
+    <row r="98" ht="20.4" spans="1:12">
       <c r="A98" s="2">
-        <v>54</v>
+        <v>65</v>
       </c>
       <c r="B98" s="19" t="s">
         <v>90</v>
@@ -3758,7 +3800,7 @@
       <c r="D98" s="20"/>
       <c r="E98" s="20"/>
       <c r="F98" s="20"/>
-      <c r="G98" s="25"/>
+      <c r="G98" s="26"/>
       <c r="H98" s="13">
         <v>43498</v>
       </c>
@@ -3775,9 +3817,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="99" ht="22" spans="1:12">
+    <row r="99" ht="20.4" spans="1:12">
       <c r="A99" s="2">
-        <v>55</v>
+        <v>66</v>
       </c>
       <c r="B99" s="19" t="s">
         <v>91</v>
@@ -3786,7 +3828,7 @@
       <c r="D99" s="20"/>
       <c r="E99" s="20"/>
       <c r="F99" s="20"/>
-      <c r="G99" s="25"/>
+      <c r="G99" s="26"/>
       <c r="H99" s="13">
         <v>43498</v>
       </c>
@@ -3803,9 +3845,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="100" ht="22" spans="1:12">
+    <row r="100" ht="20.4" spans="1:12">
       <c r="A100" s="2">
-        <v>56</v>
+        <v>67</v>
       </c>
       <c r="B100" s="19" t="s">
         <v>92</v>
@@ -3814,7 +3856,7 @@
       <c r="D100" s="20"/>
       <c r="E100" s="20"/>
       <c r="F100" s="20"/>
-      <c r="G100" s="25"/>
+      <c r="G100" s="26"/>
       <c r="H100" s="13">
         <v>43498</v>
       </c>
@@ -3843,7 +3885,7 @@
     </row>
     <row r="103" spans="1:12">
       <c r="A103" s="2">
-        <v>57</v>
+        <v>68</v>
       </c>
       <c r="B103" s="21" t="s">
         <v>94</v>
@@ -3852,22 +3894,24 @@
       <c r="D103" s="22"/>
       <c r="E103" s="22"/>
       <c r="F103" s="22"/>
-      <c r="G103" s="26"/>
+      <c r="G103" s="27"/>
       <c r="H103" s="12"/>
-      <c r="I103" s="12"/>
+      <c r="I103" s="12" t="s">
+        <v>10</v>
+      </c>
       <c r="J103" s="12" t="s">
         <v>10</v>
       </c>
       <c r="K103" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="L103" s="12" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="104" ht="22" spans="1:12">
+      <c r="L103" s="18" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="104" ht="20.4" spans="1:12">
       <c r="A104" s="2">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="B104" s="19" t="s">
         <v>95</v>
@@ -3876,7 +3920,7 @@
       <c r="D104" s="20"/>
       <c r="E104" s="20"/>
       <c r="F104" s="20"/>
-      <c r="G104" s="25"/>
+      <c r="G104" s="26"/>
       <c r="H104" s="13">
         <v>43498</v>
       </c>
@@ -3893,9 +3937,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="105" ht="22" spans="1:12">
+    <row r="105" ht="20.4" spans="1:12">
       <c r="A105" s="2">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="B105" s="19" t="s">
         <v>96</v>
@@ -3904,7 +3948,7 @@
       <c r="D105" s="20"/>
       <c r="E105" s="20"/>
       <c r="F105" s="20"/>
-      <c r="G105" s="25"/>
+      <c r="G105" s="26"/>
       <c r="H105" s="13">
         <v>43498</v>
       </c>
@@ -3921,9 +3965,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="106" ht="22" spans="1:12">
+    <row r="106" ht="20.4" spans="1:12">
       <c r="A106" s="2">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="B106" s="19" t="s">
         <v>97</v>
@@ -3932,7 +3976,7 @@
       <c r="D106" s="20"/>
       <c r="E106" s="20"/>
       <c r="F106" s="20"/>
-      <c r="G106" s="25"/>
+      <c r="G106" s="26"/>
       <c r="H106" s="13">
         <v>43513</v>
       </c>
@@ -3949,258 +3993,283 @@
         <v>10</v>
       </c>
     </row>
-    <row r="108" spans="2:7">
-      <c r="B108" s="8" t="s">
+    <row r="107" ht="20.4" spans="1:12">
+      <c r="A107" s="2">
+        <v>72</v>
+      </c>
+      <c r="B107" s="23" t="s">
         <v>98</v>
       </c>
-      <c r="C108" s="9"/>
-      <c r="D108" s="9"/>
-      <c r="E108" s="9"/>
-      <c r="F108" s="9"/>
-      <c r="G108" s="14"/>
-    </row>
-    <row r="109" ht="22" spans="1:12">
+      <c r="C107" s="23"/>
+      <c r="D107" s="23"/>
+      <c r="E107" s="23"/>
+      <c r="F107" s="23"/>
+      <c r="G107" s="23"/>
+      <c r="H107" s="13">
+        <v>43527</v>
+      </c>
+      <c r="I107" s="29"/>
+      <c r="J107" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="K107" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="L107" s="18" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="108" ht="20.4" spans="1:12">
+      <c r="A108" s="2">
+        <v>73</v>
+      </c>
+      <c r="B108" s="23" t="s">
+        <v>99</v>
+      </c>
+      <c r="C108" s="23"/>
+      <c r="D108" s="23"/>
+      <c r="E108" s="23"/>
+      <c r="F108" s="23"/>
+      <c r="G108" s="23"/>
+      <c r="H108" s="13">
+        <v>43527</v>
+      </c>
+      <c r="I108" s="29"/>
+      <c r="J108" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="K108" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="L108" s="18" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="109" ht="20.4" spans="1:12">
       <c r="A109" s="2">
-        <v>61</v>
-      </c>
-      <c r="B109" s="19" t="s">
-        <v>99</v>
-      </c>
-      <c r="C109" s="20"/>
-      <c r="D109" s="20"/>
-      <c r="E109" s="20"/>
-      <c r="F109" s="20"/>
-      <c r="G109" s="25"/>
+        <v>74</v>
+      </c>
+      <c r="B109" s="23" t="s">
+        <v>100</v>
+      </c>
+      <c r="C109" s="23"/>
+      <c r="D109" s="23"/>
+      <c r="E109" s="23"/>
+      <c r="F109" s="23"/>
+      <c r="G109" s="23"/>
       <c r="H109" s="13">
+        <v>43527</v>
+      </c>
+      <c r="I109" s="29"/>
+      <c r="J109" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="K109" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="L109" s="18" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="111" spans="2:7">
+      <c r="B111" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="C111" s="9"/>
+      <c r="D111" s="9"/>
+      <c r="E111" s="9"/>
+      <c r="F111" s="9"/>
+      <c r="G111" s="14"/>
+    </row>
+    <row r="112" ht="20.4" spans="1:12">
+      <c r="A112" s="2">
+        <v>75</v>
+      </c>
+      <c r="B112" s="19" t="s">
+        <v>102</v>
+      </c>
+      <c r="C112" s="20"/>
+      <c r="D112" s="20"/>
+      <c r="E112" s="20"/>
+      <c r="F112" s="20"/>
+      <c r="G112" s="26"/>
+      <c r="H112" s="13">
         <v>43498</v>
       </c>
-      <c r="I109" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="J109" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="K109" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="L109" s="18" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="110" ht="22" spans="1:12">
-      <c r="A110" s="2">
-        <v>61</v>
-      </c>
-      <c r="B110" s="19" t="s">
-        <v>100</v>
-      </c>
-      <c r="C110" s="20"/>
-      <c r="D110" s="20"/>
-      <c r="E110" s="20"/>
-      <c r="F110" s="20"/>
-      <c r="G110" s="25"/>
-      <c r="H110" s="13">
+      <c r="I112" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="J112" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="K112" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="L112" s="18" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="113" ht="20.4" spans="1:12">
+      <c r="A113" s="2">
+        <v>76</v>
+      </c>
+      <c r="B113" s="19" t="s">
+        <v>103</v>
+      </c>
+      <c r="C113" s="20"/>
+      <c r="D113" s="20"/>
+      <c r="E113" s="20"/>
+      <c r="F113" s="20"/>
+      <c r="G113" s="26"/>
+      <c r="H113" s="13">
         <v>43513</v>
       </c>
-      <c r="I110" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="J110" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="K110" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="L110" s="18" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="112" spans="2:7">
-      <c r="B112" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="C112" s="9"/>
-      <c r="D112" s="9"/>
-      <c r="E112" s="9"/>
-      <c r="F112" s="9"/>
-      <c r="G112" s="14"/>
-    </row>
-    <row r="113" spans="1:12">
-      <c r="A113" s="2">
-        <v>62</v>
-      </c>
-      <c r="B113" s="23" t="s">
-        <v>102</v>
-      </c>
-      <c r="C113" s="24"/>
-      <c r="D113" s="24"/>
-      <c r="E113" s="24"/>
-      <c r="F113" s="24"/>
-      <c r="G113" s="27"/>
-      <c r="H113" s="12"/>
-      <c r="I113" s="12"/>
-      <c r="J113" s="12"/>
+      <c r="I113" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="J113" s="12" t="s">
+        <v>9</v>
+      </c>
       <c r="K113" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="L113" s="12" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="114" spans="1:12">
-      <c r="A114" s="2">
-        <v>63</v>
-      </c>
-      <c r="B114" s="23" t="s">
-        <v>103</v>
-      </c>
-      <c r="C114" s="24"/>
-      <c r="D114" s="24"/>
-      <c r="E114" s="24"/>
-      <c r="F114" s="24"/>
-      <c r="G114" s="27"/>
-      <c r="H114" s="12"/>
-      <c r="I114" s="12"/>
-      <c r="J114" s="12"/>
-      <c r="K114" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="L114" s="12" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="115" spans="1:12">
-      <c r="A115" s="2">
-        <v>64</v>
-      </c>
-      <c r="B115" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="L113" s="18" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="115" spans="2:7">
+      <c r="B115" s="8" t="s">
         <v>104</v>
       </c>
-      <c r="C115" s="24"/>
-      <c r="D115" s="24"/>
-      <c r="E115" s="24"/>
-      <c r="F115" s="24"/>
-      <c r="G115" s="27"/>
-      <c r="H115" s="12"/>
-      <c r="I115" s="12"/>
-      <c r="J115" s="12"/>
-      <c r="K115" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="L115" s="12" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="116" spans="1:12">
+      <c r="C115" s="9"/>
+      <c r="D115" s="9"/>
+      <c r="E115" s="9"/>
+      <c r="F115" s="9"/>
+      <c r="G115" s="14"/>
+    </row>
+    <row r="116" ht="20.4" spans="1:12">
       <c r="A116" s="2">
-        <v>65</v>
-      </c>
-      <c r="B116" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="B116" s="19" t="s">
         <v>105</v>
       </c>
-      <c r="C116" s="24"/>
-      <c r="D116" s="24"/>
-      <c r="E116" s="24"/>
-      <c r="F116" s="24"/>
-      <c r="G116" s="27"/>
-      <c r="H116" s="12"/>
+      <c r="C116" s="20"/>
+      <c r="D116" s="20"/>
+      <c r="E116" s="20"/>
+      <c r="F116" s="20"/>
+      <c r="G116" s="26"/>
+      <c r="H116" s="13">
+        <v>43527</v>
+      </c>
       <c r="I116" s="12"/>
-      <c r="J116" s="12"/>
+      <c r="J116" s="12" t="s">
+        <v>9</v>
+      </c>
       <c r="K116" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="L116" s="12" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="117" spans="1:12">
+        <v>9</v>
+      </c>
+      <c r="L116" s="18" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="117" ht="20.4" spans="1:12">
       <c r="A117" s="2">
-        <v>66</v>
-      </c>
-      <c r="B117" s="23" t="s">
+        <v>78</v>
+      </c>
+      <c r="B117" s="19" t="s">
         <v>106</v>
       </c>
-      <c r="C117" s="24"/>
-      <c r="D117" s="24"/>
-      <c r="E117" s="24"/>
-      <c r="F117" s="24"/>
-      <c r="G117" s="27"/>
-      <c r="H117" s="12"/>
+      <c r="C117" s="20"/>
+      <c r="D117" s="20"/>
+      <c r="E117" s="20"/>
+      <c r="F117" s="20"/>
+      <c r="G117" s="26"/>
+      <c r="H117" s="13">
+        <v>43527</v>
+      </c>
       <c r="I117" s="12"/>
-      <c r="J117" s="12"/>
+      <c r="J117" s="12" t="s">
+        <v>9</v>
+      </c>
       <c r="K117" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="L117" s="12" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="118" spans="1:12">
+        <v>9</v>
+      </c>
+      <c r="L117" s="18" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="118" ht="20.4" spans="1:12">
       <c r="A118" s="2">
-        <v>67</v>
-      </c>
-      <c r="B118" s="23" t="s">
+        <v>79</v>
+      </c>
+      <c r="B118" s="19" t="s">
         <v>107</v>
       </c>
-      <c r="C118" s="24"/>
-      <c r="D118" s="24"/>
-      <c r="E118" s="24"/>
-      <c r="F118" s="24"/>
-      <c r="G118" s="27"/>
-      <c r="H118" s="12"/>
+      <c r="C118" s="20"/>
+      <c r="D118" s="20"/>
+      <c r="E118" s="20"/>
+      <c r="F118" s="20"/>
+      <c r="G118" s="26"/>
+      <c r="H118" s="13">
+        <v>43527</v>
+      </c>
       <c r="I118" s="12"/>
-      <c r="J118" s="12"/>
+      <c r="J118" s="12" t="s">
+        <v>9</v>
+      </c>
       <c r="K118" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="L118" s="12" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="120" spans="2:7">
-      <c r="B120" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="L118" s="18" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="119" ht="20.4" spans="1:12">
+      <c r="A119" s="2">
+        <v>80</v>
+      </c>
+      <c r="B119" s="19" t="s">
         <v>108</v>
       </c>
-      <c r="C120" s="9"/>
-      <c r="D120" s="9"/>
-      <c r="E120" s="9"/>
-      <c r="F120" s="9"/>
-      <c r="G120" s="14"/>
-    </row>
-    <row r="121" spans="1:12">
-      <c r="A121" s="2">
-        <v>68</v>
-      </c>
-      <c r="B121" s="21" t="s">
+      <c r="C119" s="20"/>
+      <c r="D119" s="20"/>
+      <c r="E119" s="20"/>
+      <c r="F119" s="20"/>
+      <c r="G119" s="26"/>
+      <c r="H119" s="13">
+        <v>43527</v>
+      </c>
+      <c r="I119" s="12"/>
+      <c r="J119" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="K119" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="L119" s="18" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="121" spans="2:7">
+      <c r="B121" s="8" t="s">
         <v>109</v>
       </c>
-      <c r="C121" s="22"/>
-      <c r="D121" s="22"/>
-      <c r="E121" s="22"/>
-      <c r="F121" s="22"/>
-      <c r="G121" s="26"/>
-      <c r="H121" s="12"/>
-      <c r="I121" s="12"/>
-      <c r="J121" s="12"/>
-      <c r="K121" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="L121" s="12" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="122" spans="1:12">
-      <c r="A122" s="2">
-        <v>69</v>
-      </c>
-      <c r="B122" s="21" t="s">
+      <c r="C121" s="9"/>
+      <c r="D121" s="9"/>
+      <c r="E121" s="9"/>
+      <c r="F121" s="9"/>
+      <c r="G121" s="14"/>
+    </row>
+    <row r="122" spans="2:12">
+      <c r="B122" s="24" t="s">
         <v>110</v>
       </c>
-      <c r="C122" s="22"/>
-      <c r="D122" s="22"/>
-      <c r="E122" s="22"/>
-      <c r="F122" s="22"/>
-      <c r="G122" s="26"/>
+      <c r="C122" s="25"/>
+      <c r="D122" s="25"/>
+      <c r="E122" s="25"/>
+      <c r="F122" s="25"/>
+      <c r="G122" s="28"/>
       <c r="H122" s="12"/>
       <c r="I122" s="12"/>
       <c r="J122" s="12"/>
@@ -4211,74 +4280,53 @@
         <v>10</v>
       </c>
     </row>
-    <row r="123" ht="22" spans="1:12">
-      <c r="A123" s="2">
-        <v>70</v>
-      </c>
-      <c r="B123" s="19" t="s">
+    <row r="123" spans="2:12">
+      <c r="B123" s="24" t="s">
         <v>111</v>
       </c>
-      <c r="C123" s="20"/>
-      <c r="D123" s="20"/>
-      <c r="E123" s="20"/>
-      <c r="F123" s="20"/>
-      <c r="G123" s="25"/>
-      <c r="H123" s="13">
-        <v>43498</v>
-      </c>
-      <c r="I123" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="J123" s="12" t="s">
-        <v>9</v>
-      </c>
+      <c r="C123" s="25"/>
+      <c r="D123" s="25"/>
+      <c r="E123" s="25"/>
+      <c r="F123" s="25"/>
+      <c r="G123" s="28"/>
+      <c r="H123" s="12"/>
+      <c r="I123" s="12"/>
+      <c r="J123" s="12"/>
       <c r="K123" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="L123" s="18" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="124" ht="22" spans="1:12">
-      <c r="A124" s="2">
-        <v>71</v>
-      </c>
-      <c r="B124" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="L123" s="12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="124" spans="2:12">
+      <c r="B124" s="24" t="s">
         <v>112</v>
       </c>
-      <c r="C124" s="20"/>
-      <c r="D124" s="20"/>
-      <c r="E124" s="20"/>
-      <c r="F124" s="20"/>
-      <c r="G124" s="25"/>
-      <c r="H124" s="13">
-        <v>43498</v>
-      </c>
-      <c r="I124" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="J124" s="12" t="s">
-        <v>9</v>
-      </c>
+      <c r="C124" s="25"/>
+      <c r="D124" s="25"/>
+      <c r="E124" s="25"/>
+      <c r="F124" s="25"/>
+      <c r="G124" s="28"/>
+      <c r="H124" s="12"/>
+      <c r="I124" s="12"/>
+      <c r="J124" s="12"/>
       <c r="K124" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="L124" s="18" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="125" spans="1:12">
-      <c r="A125" s="2">
-        <v>72</v>
-      </c>
-      <c r="B125" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="L124" s="12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="125" spans="2:12">
+      <c r="B125" s="24" t="s">
         <v>113</v>
       </c>
-      <c r="C125" s="22"/>
-      <c r="D125" s="22"/>
-      <c r="E125" s="22"/>
-      <c r="F125" s="22"/>
-      <c r="G125" s="26"/>
+      <c r="C125" s="25"/>
+      <c r="D125" s="25"/>
+      <c r="E125" s="25"/>
+      <c r="F125" s="25"/>
+      <c r="G125" s="28"/>
       <c r="H125" s="12"/>
       <c r="I125" s="12"/>
       <c r="J125" s="12"/>
@@ -4289,71 +4337,62 @@
         <v>10</v>
       </c>
     </row>
-    <row r="127" spans="2:7">
-      <c r="B127" s="8" t="s">
+    <row r="126" spans="2:12">
+      <c r="B126" s="24" t="s">
         <v>114</v>
       </c>
-      <c r="C127" s="9"/>
-      <c r="D127" s="9"/>
-      <c r="E127" s="9"/>
-      <c r="F127" s="9"/>
-      <c r="G127" s="14"/>
-    </row>
-    <row r="128" spans="1:12">
-      <c r="A128" s="2">
-        <v>73</v>
-      </c>
-      <c r="B128" s="23" t="s">
+      <c r="C126" s="25"/>
+      <c r="D126" s="25"/>
+      <c r="E126" s="25"/>
+      <c r="F126" s="25"/>
+      <c r="G126" s="28"/>
+      <c r="H126" s="12"/>
+      <c r="I126" s="12"/>
+      <c r="J126" s="12"/>
+      <c r="K126" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="L126" s="12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="127" spans="2:12">
+      <c r="B127" s="24" t="s">
         <v>115</v>
       </c>
-      <c r="C128" s="24"/>
-      <c r="D128" s="24"/>
-      <c r="E128" s="24"/>
-      <c r="F128" s="24"/>
-      <c r="G128" s="27"/>
-      <c r="H128" s="12"/>
-      <c r="I128" s="12"/>
-      <c r="J128" s="12"/>
-      <c r="K128" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="L128" s="12" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="129" spans="1:12">
-      <c r="A129" s="2">
-        <v>74</v>
-      </c>
-      <c r="B129" s="23" t="s">
+      <c r="C127" s="25"/>
+      <c r="D127" s="25"/>
+      <c r="E127" s="25"/>
+      <c r="F127" s="25"/>
+      <c r="G127" s="28"/>
+      <c r="H127" s="12"/>
+      <c r="I127" s="12"/>
+      <c r="J127" s="12"/>
+      <c r="K127" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="L127" s="12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="129" spans="2:7">
+      <c r="B129" s="8" t="s">
         <v>116</v>
       </c>
-      <c r="C129" s="24"/>
-      <c r="D129" s="24"/>
-      <c r="E129" s="24"/>
-      <c r="F129" s="24"/>
-      <c r="G129" s="27"/>
-      <c r="H129" s="12"/>
-      <c r="I129" s="12"/>
-      <c r="J129" s="12"/>
-      <c r="K129" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="L129" s="12" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="130" spans="1:12">
-      <c r="A130" s="2">
-        <v>75</v>
-      </c>
-      <c r="B130" s="23" t="s">
+      <c r="C129" s="9"/>
+      <c r="D129" s="9"/>
+      <c r="E129" s="9"/>
+      <c r="F129" s="9"/>
+      <c r="G129" s="14"/>
+    </row>
+    <row r="130" spans="2:12">
+      <c r="B130" s="21" t="s">
         <v>117</v>
       </c>
-      <c r="C130" s="24"/>
-      <c r="D130" s="24"/>
-      <c r="E130" s="24"/>
-      <c r="F130" s="24"/>
+      <c r="C130" s="22"/>
+      <c r="D130" s="22"/>
+      <c r="E130" s="22"/>
+      <c r="F130" s="22"/>
       <c r="G130" s="27"/>
       <c r="H130" s="12"/>
       <c r="I130" s="12"/>
@@ -4365,17 +4404,14 @@
         <v>10</v>
       </c>
     </row>
-    <row r="131" spans="1:12">
-      <c r="A131" s="2">
-        <v>76</v>
-      </c>
-      <c r="B131" s="23" t="s">
+    <row r="131" spans="2:12">
+      <c r="B131" s="21" t="s">
         <v>118</v>
       </c>
-      <c r="C131" s="24"/>
-      <c r="D131" s="24"/>
-      <c r="E131" s="24"/>
-      <c r="F131" s="24"/>
+      <c r="C131" s="22"/>
+      <c r="D131" s="22"/>
+      <c r="E131" s="22"/>
+      <c r="F131" s="22"/>
       <c r="G131" s="27"/>
       <c r="H131" s="12"/>
       <c r="I131" s="12"/>
@@ -4387,505 +4423,485 @@
         <v>10</v>
       </c>
     </row>
-    <row r="132" spans="1:12">
-      <c r="A132" s="2">
-        <v>77</v>
-      </c>
-      <c r="B132" s="23" t="s">
+    <row r="132" ht="20.4" spans="2:12">
+      <c r="B132" s="19" t="s">
         <v>119</v>
       </c>
-      <c r="C132" s="24"/>
-      <c r="D132" s="24"/>
-      <c r="E132" s="24"/>
-      <c r="F132" s="24"/>
-      <c r="G132" s="27"/>
-      <c r="H132" s="12"/>
-      <c r="I132" s="12"/>
-      <c r="J132" s="12"/>
+      <c r="C132" s="20"/>
+      <c r="D132" s="20"/>
+      <c r="E132" s="20"/>
+      <c r="F132" s="20"/>
+      <c r="G132" s="26"/>
+      <c r="H132" s="13">
+        <v>43498</v>
+      </c>
+      <c r="I132" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="J132" s="12" t="s">
+        <v>9</v>
+      </c>
       <c r="K132" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="L132" s="12" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="133" spans="1:12">
-      <c r="A133" s="2">
-        <v>78</v>
-      </c>
-      <c r="B133" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="L132" s="18" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="133" ht="20.4" spans="2:12">
+      <c r="B133" s="19" t="s">
         <v>120</v>
       </c>
-      <c r="C133" s="24"/>
-      <c r="D133" s="24"/>
-      <c r="E133" s="24"/>
-      <c r="F133" s="24"/>
-      <c r="G133" s="27"/>
-      <c r="H133" s="12"/>
-      <c r="I133" s="12"/>
-      <c r="J133" s="12"/>
+      <c r="C133" s="20"/>
+      <c r="D133" s="20"/>
+      <c r="E133" s="20"/>
+      <c r="F133" s="20"/>
+      <c r="G133" s="26"/>
+      <c r="H133" s="13">
+        <v>43498</v>
+      </c>
+      <c r="I133" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="J133" s="12" t="s">
+        <v>9</v>
+      </c>
       <c r="K133" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="L133" s="12" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="135" spans="2:7">
-      <c r="B135" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="L133" s="18" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="134" spans="2:12">
+      <c r="B134" s="21" t="s">
         <v>121</v>
       </c>
-      <c r="C135" s="9"/>
-      <c r="D135" s="9"/>
-      <c r="E135" s="9"/>
-      <c r="F135" s="9"/>
-      <c r="G135" s="14"/>
-    </row>
-    <row r="136" ht="22" spans="1:12">
-      <c r="A136" s="2">
-        <v>79</v>
-      </c>
-      <c r="B136" s="19" t="s">
+      <c r="C134" s="22"/>
+      <c r="D134" s="22"/>
+      <c r="E134" s="22"/>
+      <c r="F134" s="22"/>
+      <c r="G134" s="27"/>
+      <c r="H134" s="12"/>
+      <c r="I134" s="12"/>
+      <c r="J134" s="12"/>
+      <c r="K134" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="L134" s="12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="136" spans="2:7">
+      <c r="B136" s="8" t="s">
         <v>122</v>
       </c>
-      <c r="C136" s="20"/>
-      <c r="D136" s="20"/>
-      <c r="E136" s="20"/>
-      <c r="F136" s="20"/>
-      <c r="G136" s="25"/>
-      <c r="H136" s="13">
+      <c r="C136" s="9"/>
+      <c r="D136" s="9"/>
+      <c r="E136" s="9"/>
+      <c r="F136" s="9"/>
+      <c r="G136" s="14"/>
+    </row>
+    <row r="137" spans="2:12">
+      <c r="B137" s="24" t="s">
+        <v>123</v>
+      </c>
+      <c r="C137" s="25"/>
+      <c r="D137" s="25"/>
+      <c r="E137" s="25"/>
+      <c r="F137" s="25"/>
+      <c r="G137" s="28"/>
+      <c r="H137" s="12"/>
+      <c r="I137" s="12"/>
+      <c r="J137" s="12"/>
+      <c r="K137" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="L137" s="12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="138" spans="2:12">
+      <c r="B138" s="24" t="s">
+        <v>124</v>
+      </c>
+      <c r="C138" s="25"/>
+      <c r="D138" s="25"/>
+      <c r="E138" s="25"/>
+      <c r="F138" s="25"/>
+      <c r="G138" s="28"/>
+      <c r="H138" s="12"/>
+      <c r="I138" s="12"/>
+      <c r="J138" s="12"/>
+      <c r="K138" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="L138" s="12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="139" spans="2:12">
+      <c r="B139" s="24" t="s">
+        <v>125</v>
+      </c>
+      <c r="C139" s="25"/>
+      <c r="D139" s="25"/>
+      <c r="E139" s="25"/>
+      <c r="F139" s="25"/>
+      <c r="G139" s="28"/>
+      <c r="H139" s="12"/>
+      <c r="I139" s="12"/>
+      <c r="J139" s="12"/>
+      <c r="K139" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="L139" s="12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="140" spans="2:12">
+      <c r="B140" s="24" t="s">
+        <v>126</v>
+      </c>
+      <c r="C140" s="25"/>
+      <c r="D140" s="25"/>
+      <c r="E140" s="25"/>
+      <c r="F140" s="25"/>
+      <c r="G140" s="28"/>
+      <c r="H140" s="12"/>
+      <c r="I140" s="12"/>
+      <c r="J140" s="12"/>
+      <c r="K140" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="L140" s="12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="141" spans="2:12">
+      <c r="B141" s="24" t="s">
+        <v>127</v>
+      </c>
+      <c r="C141" s="25"/>
+      <c r="D141" s="25"/>
+      <c r="E141" s="25"/>
+      <c r="F141" s="25"/>
+      <c r="G141" s="28"/>
+      <c r="H141" s="12"/>
+      <c r="I141" s="12"/>
+      <c r="J141" s="12"/>
+      <c r="K141" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="L141" s="12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="142" spans="2:12">
+      <c r="B142" s="24" t="s">
+        <v>128</v>
+      </c>
+      <c r="C142" s="25"/>
+      <c r="D142" s="25"/>
+      <c r="E142" s="25"/>
+      <c r="F142" s="25"/>
+      <c r="G142" s="28"/>
+      <c r="H142" s="12"/>
+      <c r="I142" s="12"/>
+      <c r="J142" s="12"/>
+      <c r="K142" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="L142" s="12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="144" spans="2:7">
+      <c r="B144" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="C144" s="9"/>
+      <c r="D144" s="9"/>
+      <c r="E144" s="9"/>
+      <c r="F144" s="9"/>
+      <c r="G144" s="14"/>
+    </row>
+    <row r="145" ht="20.4" spans="2:12">
+      <c r="B145" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="C145" s="20"/>
+      <c r="D145" s="20"/>
+      <c r="E145" s="20"/>
+      <c r="F145" s="20"/>
+      <c r="G145" s="26"/>
+      <c r="H145" s="13">
         <v>43498</v>
       </c>
-      <c r="I136" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="J136" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="K136" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="L136" s="18" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="137" ht="22" spans="1:12">
-      <c r="A137" s="2">
-        <v>80</v>
-      </c>
-      <c r="B137" s="19" t="s">
-        <v>123</v>
-      </c>
-      <c r="C137" s="20"/>
-      <c r="D137" s="20"/>
-      <c r="E137" s="20"/>
-      <c r="F137" s="20"/>
-      <c r="G137" s="25"/>
-      <c r="H137" s="13">
+      <c r="I145" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="J145" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="K145" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="L145" s="18" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="146" ht="20.4" spans="2:12">
+      <c r="B146" s="19" t="s">
+        <v>131</v>
+      </c>
+      <c r="C146" s="20"/>
+      <c r="D146" s="20"/>
+      <c r="E146" s="20"/>
+      <c r="F146" s="20"/>
+      <c r="G146" s="26"/>
+      <c r="H146" s="13">
         <v>43498</v>
       </c>
-      <c r="I137" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="J137" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="K137" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="L137" s="18" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="138" ht="22" spans="1:12">
-      <c r="A138" s="2">
-        <v>81</v>
-      </c>
-      <c r="B138" s="19" t="s">
-        <v>124</v>
-      </c>
-      <c r="C138" s="20"/>
-      <c r="D138" s="20"/>
-      <c r="E138" s="20"/>
-      <c r="F138" s="20"/>
-      <c r="G138" s="25"/>
-      <c r="H138" s="13">
+      <c r="I146" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="J146" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="K146" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="L146" s="18" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="147" ht="20.4" spans="2:12">
+      <c r="B147" s="19" t="s">
+        <v>132</v>
+      </c>
+      <c r="C147" s="20"/>
+      <c r="D147" s="20"/>
+      <c r="E147" s="20"/>
+      <c r="F147" s="20"/>
+      <c r="G147" s="26"/>
+      <c r="H147" s="13">
         <v>43498</v>
       </c>
-      <c r="I138" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="J138" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="K138" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="L138" s="18" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="139" ht="22" spans="1:12">
-      <c r="A139" s="2">
-        <v>82</v>
-      </c>
-      <c r="B139" s="19" t="s">
-        <v>125</v>
-      </c>
-      <c r="C139" s="20"/>
-      <c r="D139" s="20"/>
-      <c r="E139" s="20"/>
-      <c r="F139" s="20"/>
-      <c r="G139" s="25"/>
-      <c r="H139" s="13">
+      <c r="I147" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="J147" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="K147" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="L147" s="18" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="148" ht="20.4" spans="2:12">
+      <c r="B148" s="19" t="s">
+        <v>133</v>
+      </c>
+      <c r="C148" s="20"/>
+      <c r="D148" s="20"/>
+      <c r="E148" s="20"/>
+      <c r="F148" s="20"/>
+      <c r="G148" s="26"/>
+      <c r="H148" s="13">
         <v>43498</v>
       </c>
-      <c r="I139" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="J139" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="K139" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="L139" s="18" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="140" ht="22" spans="1:12">
-      <c r="A140" s="2">
-        <v>83</v>
-      </c>
-      <c r="B140" s="19" t="s">
-        <v>126</v>
-      </c>
-      <c r="C140" s="20"/>
-      <c r="D140" s="20"/>
-      <c r="E140" s="20"/>
-      <c r="F140" s="20"/>
-      <c r="G140" s="25"/>
-      <c r="H140" s="13">
+      <c r="I148" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="J148" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="K148" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="L148" s="18" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="149" ht="20.4" spans="2:12">
+      <c r="B149" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="C149" s="20"/>
+      <c r="D149" s="20"/>
+      <c r="E149" s="20"/>
+      <c r="F149" s="20"/>
+      <c r="G149" s="26"/>
+      <c r="H149" s="13">
         <v>43498</v>
       </c>
-      <c r="I140" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="J140" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="K140" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="L140" s="18" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="141" ht="22" spans="2:12">
-      <c r="B141" s="19" t="s">
-        <v>127</v>
-      </c>
-      <c r="C141" s="20"/>
-      <c r="D141" s="20"/>
-      <c r="E141" s="20"/>
-      <c r="F141" s="20"/>
-      <c r="G141" s="25"/>
-      <c r="H141" s="13">
+      <c r="I149" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="J149" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="K149" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="L149" s="18" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="150" ht="20.4" spans="2:12">
+      <c r="B150" s="19" t="s">
+        <v>135</v>
+      </c>
+      <c r="C150" s="20"/>
+      <c r="D150" s="20"/>
+      <c r="E150" s="20"/>
+      <c r="F150" s="20"/>
+      <c r="G150" s="26"/>
+      <c r="H150" s="13">
         <v>43498</v>
       </c>
-      <c r="I141" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="J141" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="K141" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="L141" s="18" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="142" ht="22" spans="2:12">
-      <c r="B142" s="19" t="s">
-        <v>128</v>
-      </c>
-      <c r="C142" s="20"/>
-      <c r="D142" s="20"/>
-      <c r="E142" s="20"/>
-      <c r="F142" s="20"/>
-      <c r="G142" s="25"/>
-      <c r="H142" s="13">
+      <c r="I150" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="J150" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="K150" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="L150" s="18" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="151" ht="20.4" spans="2:12">
+      <c r="B151" s="19" t="s">
+        <v>136</v>
+      </c>
+      <c r="C151" s="20"/>
+      <c r="D151" s="20"/>
+      <c r="E151" s="20"/>
+      <c r="F151" s="20"/>
+      <c r="G151" s="26"/>
+      <c r="H151" s="13">
         <v>43498</v>
       </c>
-      <c r="I142" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="J142" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="K142" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="L142" s="18" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="143" ht="22" spans="2:12">
-      <c r="B143" s="19" t="s">
-        <v>129</v>
-      </c>
-      <c r="C143" s="20"/>
-      <c r="D143" s="20"/>
-      <c r="E143" s="20"/>
-      <c r="F143" s="20"/>
-      <c r="G143" s="25"/>
-      <c r="H143" s="13">
+      <c r="I151" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="J151" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="K151" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="L151" s="18" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="152" ht="20.4" spans="2:12">
+      <c r="B152" s="19" t="s">
+        <v>137</v>
+      </c>
+      <c r="C152" s="20"/>
+      <c r="D152" s="20"/>
+      <c r="E152" s="20"/>
+      <c r="F152" s="20"/>
+      <c r="G152" s="26"/>
+      <c r="H152" s="13">
         <v>43498</v>
       </c>
-      <c r="I143" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="J143" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="K143" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="L143" s="18" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="145" spans="2:7">
-      <c r="B145" s="8" t="s">
-        <v>130</v>
-      </c>
-      <c r="C145" s="9"/>
-      <c r="D145" s="9"/>
-      <c r="E145" s="9"/>
-      <c r="F145" s="9"/>
-      <c r="G145" s="14"/>
-    </row>
-    <row r="146" spans="1:12">
-      <c r="A146" s="2">
-        <v>84</v>
-      </c>
-      <c r="B146" s="23" t="s">
-        <v>131</v>
-      </c>
-      <c r="C146" s="24"/>
-      <c r="D146" s="24"/>
-      <c r="E146" s="24"/>
-      <c r="F146" s="24"/>
-      <c r="G146" s="27"/>
-      <c r="H146" s="12"/>
-      <c r="I146" s="12"/>
-      <c r="J146" s="12"/>
-      <c r="K146" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="L146" s="12" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="147" spans="1:12">
-      <c r="A147" s="2">
-        <v>85</v>
-      </c>
-      <c r="B147" s="23" t="s">
-        <v>132</v>
-      </c>
-      <c r="C147" s="24"/>
-      <c r="D147" s="24"/>
-      <c r="E147" s="24"/>
-      <c r="F147" s="24"/>
-      <c r="G147" s="27"/>
-      <c r="H147" s="12"/>
-      <c r="I147" s="12"/>
-      <c r="J147" s="12"/>
-      <c r="K147" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="L147" s="12" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="148" spans="1:12">
-      <c r="A148" s="2">
-        <v>86</v>
-      </c>
-      <c r="B148" s="23" t="s">
-        <v>133</v>
-      </c>
-      <c r="C148" s="24"/>
-      <c r="D148" s="24"/>
-      <c r="E148" s="24"/>
-      <c r="F148" s="24"/>
-      <c r="G148" s="27"/>
-      <c r="H148" s="12"/>
-      <c r="I148" s="12"/>
-      <c r="J148" s="12"/>
-      <c r="K148" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="L148" s="12" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="149" spans="1:12">
-      <c r="A149" s="2">
-        <v>87</v>
-      </c>
-      <c r="B149" s="23" t="s">
-        <v>134</v>
-      </c>
-      <c r="C149" s="24"/>
-      <c r="D149" s="24"/>
-      <c r="E149" s="24"/>
-      <c r="F149" s="24"/>
-      <c r="G149" s="27"/>
-      <c r="H149" s="12"/>
-      <c r="I149" s="12"/>
-      <c r="J149" s="12"/>
-      <c r="K149" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="L149" s="12" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="150" spans="1:12">
-      <c r="A150" s="2">
-        <v>88</v>
-      </c>
-      <c r="B150" s="23" t="s">
-        <v>135</v>
-      </c>
-      <c r="C150" s="24"/>
-      <c r="D150" s="24"/>
-      <c r="E150" s="24"/>
-      <c r="F150" s="24"/>
-      <c r="G150" s="27"/>
-      <c r="H150" s="12"/>
-      <c r="I150" s="12"/>
-      <c r="J150" s="12"/>
-      <c r="K150" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="L150" s="12" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="151" spans="1:12">
-      <c r="A151" s="2">
-        <v>89</v>
-      </c>
-      <c r="B151" s="23" t="s">
-        <v>136</v>
-      </c>
-      <c r="C151" s="24"/>
-      <c r="D151" s="24"/>
-      <c r="E151" s="24"/>
-      <c r="F151" s="24"/>
-      <c r="G151" s="27"/>
-      <c r="H151" s="12"/>
-      <c r="I151" s="12"/>
-      <c r="J151" s="12"/>
-      <c r="K151" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="L151" s="12" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="153" spans="2:7">
-      <c r="B153" s="8" t="s">
-        <v>137</v>
-      </c>
-      <c r="C153" s="9"/>
-      <c r="D153" s="9"/>
-      <c r="E153" s="9"/>
-      <c r="F153" s="9"/>
-      <c r="G153" s="14"/>
-    </row>
-    <row r="154" ht="22" spans="1:12">
-      <c r="A154" s="2">
-        <v>90</v>
-      </c>
-      <c r="B154" s="19" t="s">
+      <c r="I152" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="J152" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="K152" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="L152" s="18" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="154" spans="2:7">
+      <c r="B154" s="8" t="s">
         <v>138</v>
       </c>
-      <c r="C154" s="20"/>
-      <c r="D154" s="20"/>
-      <c r="E154" s="20"/>
-      <c r="F154" s="20"/>
-      <c r="G154" s="25"/>
-      <c r="H154" s="13">
-        <v>43498</v>
-      </c>
-      <c r="I154" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="J154" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="K154" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="L154" s="18" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="155" ht="22" spans="1:12">
-      <c r="A155" s="2">
-        <v>91</v>
-      </c>
-      <c r="B155" s="19" t="s">
+      <c r="C154" s="9"/>
+      <c r="D154" s="9"/>
+      <c r="E154" s="9"/>
+      <c r="F154" s="9"/>
+      <c r="G154" s="14"/>
+    </row>
+    <row r="155" spans="2:12">
+      <c r="B155" s="24" t="s">
         <v>139</v>
       </c>
-      <c r="C155" s="20"/>
-      <c r="D155" s="20"/>
-      <c r="E155" s="20"/>
-      <c r="F155" s="20"/>
-      <c r="G155" s="25"/>
-      <c r="H155" s="13">
-        <v>43498</v>
-      </c>
-      <c r="I155" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="J155" s="12" t="s">
-        <v>9</v>
-      </c>
+      <c r="C155" s="25"/>
+      <c r="D155" s="25"/>
+      <c r="E155" s="25"/>
+      <c r="F155" s="25"/>
+      <c r="G155" s="28"/>
+      <c r="H155" s="12"/>
+      <c r="I155" s="12"/>
+      <c r="J155" s="12"/>
       <c r="K155" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="L155" s="18" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="157" spans="2:7">
-      <c r="B157" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="L155" s="12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="156" spans="2:12">
+      <c r="B156" s="24" t="s">
         <v>140</v>
       </c>
-      <c r="C157" s="9"/>
-      <c r="D157" s="9"/>
-      <c r="E157" s="9"/>
-      <c r="F157" s="9"/>
-      <c r="G157" s="14"/>
-    </row>
-    <row r="158" spans="1:12">
-      <c r="A158" s="2">
-        <v>92</v>
-      </c>
-      <c r="B158" s="23" t="s">
+      <c r="C156" s="25"/>
+      <c r="D156" s="25"/>
+      <c r="E156" s="25"/>
+      <c r="F156" s="25"/>
+      <c r="G156" s="28"/>
+      <c r="H156" s="12"/>
+      <c r="I156" s="12"/>
+      <c r="J156" s="12"/>
+      <c r="K156" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="L156" s="12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="157" spans="2:12">
+      <c r="B157" s="24" t="s">
         <v>141</v>
       </c>
-      <c r="C158" s="24"/>
-      <c r="D158" s="24"/>
-      <c r="E158" s="24"/>
-      <c r="F158" s="24"/>
-      <c r="G158" s="27"/>
+      <c r="C157" s="25"/>
+      <c r="D157" s="25"/>
+      <c r="E157" s="25"/>
+      <c r="F157" s="25"/>
+      <c r="G157" s="28"/>
+      <c r="H157" s="12"/>
+      <c r="I157" s="12"/>
+      <c r="J157" s="12"/>
+      <c r="K157" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="L157" s="12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="158" spans="2:12">
+      <c r="B158" s="24" t="s">
+        <v>142</v>
+      </c>
+      <c r="C158" s="25"/>
+      <c r="D158" s="25"/>
+      <c r="E158" s="25"/>
+      <c r="F158" s="25"/>
+      <c r="G158" s="28"/>
       <c r="H158" s="12"/>
       <c r="I158" s="12"/>
       <c r="J158" s="12"/>
@@ -4896,18 +4912,15 @@
         <v>10</v>
       </c>
     </row>
-    <row r="159" spans="1:12">
-      <c r="A159" s="2">
-        <v>93</v>
-      </c>
-      <c r="B159" s="23" t="s">
-        <v>142</v>
-      </c>
-      <c r="C159" s="24"/>
-      <c r="D159" s="24"/>
-      <c r="E159" s="24"/>
-      <c r="F159" s="24"/>
-      <c r="G159" s="27"/>
+    <row r="159" spans="2:12">
+      <c r="B159" s="24" t="s">
+        <v>143</v>
+      </c>
+      <c r="C159" s="25"/>
+      <c r="D159" s="25"/>
+      <c r="E159" s="25"/>
+      <c r="F159" s="25"/>
+      <c r="G159" s="28"/>
       <c r="H159" s="12"/>
       <c r="I159" s="12"/>
       <c r="J159" s="12"/>
@@ -4918,18 +4931,15 @@
         <v>10</v>
       </c>
     </row>
-    <row r="160" spans="1:12">
-      <c r="A160" s="2">
-        <v>94</v>
-      </c>
-      <c r="B160" s="23" t="s">
-        <v>143</v>
-      </c>
-      <c r="C160" s="24"/>
-      <c r="D160" s="24"/>
-      <c r="E160" s="24"/>
-      <c r="F160" s="24"/>
-      <c r="G160" s="27"/>
+    <row r="160" spans="2:12">
+      <c r="B160" s="24" t="s">
+        <v>144</v>
+      </c>
+      <c r="C160" s="25"/>
+      <c r="D160" s="25"/>
+      <c r="E160" s="25"/>
+      <c r="F160" s="25"/>
+      <c r="G160" s="28"/>
       <c r="H160" s="12"/>
       <c r="I160" s="12"/>
       <c r="J160" s="12"/>
@@ -4940,52 +4950,52 @@
         <v>10</v>
       </c>
     </row>
-    <row r="161" spans="1:12">
-      <c r="A161" s="2">
-        <v>95</v>
-      </c>
-      <c r="B161" s="23" t="s">
-        <v>144</v>
-      </c>
-      <c r="C161" s="24"/>
-      <c r="D161" s="24"/>
-      <c r="E161" s="24"/>
-      <c r="F161" s="24"/>
-      <c r="G161" s="27"/>
-      <c r="H161" s="12"/>
-      <c r="I161" s="12"/>
-      <c r="J161" s="12"/>
-      <c r="K161" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="L161" s="12" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="163" spans="2:7">
-      <c r="B163" s="8" t="s">
+    <row r="162" spans="2:7">
+      <c r="B162" s="8" t="s">
         <v>145</v>
       </c>
-      <c r="C163" s="9"/>
-      <c r="D163" s="9"/>
-      <c r="E163" s="9"/>
-      <c r="F163" s="9"/>
-      <c r="G163" s="14"/>
-    </row>
-    <row r="164" ht="22" spans="1:12">
-      <c r="A164" s="2">
-        <v>96</v>
-      </c>
+      <c r="C162" s="9"/>
+      <c r="D162" s="9"/>
+      <c r="E162" s="9"/>
+      <c r="F162" s="9"/>
+      <c r="G162" s="14"/>
+    </row>
+    <row r="163" ht="20.4" spans="2:12">
+      <c r="B163" s="19" t="s">
+        <v>146</v>
+      </c>
+      <c r="C163" s="20"/>
+      <c r="D163" s="20"/>
+      <c r="E163" s="20"/>
+      <c r="F163" s="20"/>
+      <c r="G163" s="26"/>
+      <c r="H163" s="13">
+        <v>43498</v>
+      </c>
+      <c r="I163" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="J163" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="K163" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="L163" s="18" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="164" ht="20.4" spans="2:12">
       <c r="B164" s="19" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C164" s="20"/>
       <c r="D164" s="20"/>
       <c r="E164" s="20"/>
       <c r="F164" s="20"/>
-      <c r="G164" s="25"/>
+      <c r="G164" s="26"/>
       <c r="H164" s="13">
-        <v>43424</v>
+        <v>43498</v>
       </c>
       <c r="I164" s="12" t="s">
         <v>9</v>
@@ -5000,56 +5010,44 @@
         <v>10</v>
       </c>
     </row>
-    <row r="165" ht="22" spans="1:12">
-      <c r="A165" s="2">
-        <v>97</v>
-      </c>
-      <c r="B165" s="19" t="s">
-        <v>147</v>
-      </c>
-      <c r="C165" s="20"/>
-      <c r="D165" s="20"/>
-      <c r="E165" s="20"/>
-      <c r="F165" s="20"/>
-      <c r="G165" s="25"/>
-      <c r="H165" s="13">
-        <v>43451</v>
-      </c>
-      <c r="I165" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="J165" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="K165" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="L165" s="18" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="167" spans="2:7">
-      <c r="B167" s="8" t="s">
+    <row r="166" spans="2:7">
+      <c r="B166" s="8" t="s">
         <v>148</v>
       </c>
-      <c r="C167" s="9"/>
-      <c r="D167" s="9"/>
-      <c r="E167" s="9"/>
-      <c r="F167" s="9"/>
-      <c r="G167" s="14"/>
-    </row>
-    <row r="168" spans="1:12">
-      <c r="A168" s="2">
-        <v>98</v>
-      </c>
-      <c r="B168" s="23" t="s">
+      <c r="C166" s="9"/>
+      <c r="D166" s="9"/>
+      <c r="E166" s="9"/>
+      <c r="F166" s="9"/>
+      <c r="G166" s="14"/>
+    </row>
+    <row r="167" spans="2:12">
+      <c r="B167" s="24" t="s">
         <v>149</v>
       </c>
-      <c r="C168" s="24"/>
-      <c r="D168" s="24"/>
-      <c r="E168" s="24"/>
-      <c r="F168" s="24"/>
-      <c r="G168" s="27"/>
+      <c r="C167" s="25"/>
+      <c r="D167" s="25"/>
+      <c r="E167" s="25"/>
+      <c r="F167" s="25"/>
+      <c r="G167" s="28"/>
+      <c r="H167" s="12"/>
+      <c r="I167" s="12"/>
+      <c r="J167" s="12"/>
+      <c r="K167" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="L167" s="12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="168" spans="2:12">
+      <c r="B168" s="24" t="s">
+        <v>150</v>
+      </c>
+      <c r="C168" s="25"/>
+      <c r="D168" s="25"/>
+      <c r="E168" s="25"/>
+      <c r="F168" s="25"/>
+      <c r="G168" s="28"/>
       <c r="H168" s="12"/>
       <c r="I168" s="12"/>
       <c r="J168" s="12"/>
@@ -5060,18 +5058,15 @@
         <v>10</v>
       </c>
     </row>
-    <row r="169" spans="1:12">
-      <c r="A169" s="2">
-        <v>99</v>
-      </c>
-      <c r="B169" s="23" t="s">
-        <v>150</v>
-      </c>
-      <c r="C169" s="24"/>
-      <c r="D169" s="24"/>
-      <c r="E169" s="24"/>
-      <c r="F169" s="24"/>
-      <c r="G169" s="27"/>
+    <row r="169" spans="2:12">
+      <c r="B169" s="24" t="s">
+        <v>151</v>
+      </c>
+      <c r="C169" s="25"/>
+      <c r="D169" s="25"/>
+      <c r="E169" s="25"/>
+      <c r="F169" s="25"/>
+      <c r="G169" s="28"/>
       <c r="H169" s="12"/>
       <c r="I169" s="12"/>
       <c r="J169" s="12"/>
@@ -5082,18 +5077,15 @@
         <v>10</v>
       </c>
     </row>
-    <row r="170" spans="1:12">
-      <c r="A170" s="2">
-        <v>100</v>
-      </c>
-      <c r="B170" s="23" t="s">
-        <v>151</v>
-      </c>
-      <c r="C170" s="24"/>
-      <c r="D170" s="24"/>
-      <c r="E170" s="24"/>
-      <c r="F170" s="24"/>
-      <c r="G170" s="27"/>
+    <row r="170" spans="2:12">
+      <c r="B170" s="24" t="s">
+        <v>152</v>
+      </c>
+      <c r="C170" s="25"/>
+      <c r="D170" s="25"/>
+      <c r="E170" s="25"/>
+      <c r="F170" s="25"/>
+      <c r="G170" s="28"/>
       <c r="H170" s="12"/>
       <c r="I170" s="12"/>
       <c r="J170" s="12"/>
@@ -5104,116 +5096,85 @@
         <v>10</v>
       </c>
     </row>
-    <row r="171" spans="1:12">
-      <c r="A171" s="2">
-        <v>101</v>
-      </c>
-      <c r="B171" s="23" t="s">
-        <v>152</v>
-      </c>
-      <c r="C171" s="24"/>
-      <c r="D171" s="24"/>
-      <c r="E171" s="24"/>
-      <c r="F171" s="24"/>
-      <c r="G171" s="27"/>
-      <c r="H171" s="12"/>
-      <c r="I171" s="12"/>
-      <c r="J171" s="12"/>
-      <c r="K171" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="L171" s="12" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="173" spans="2:7">
-      <c r="B173" s="8" t="s">
+    <row r="172" spans="2:7">
+      <c r="B172" s="8" t="s">
         <v>153</v>
       </c>
-      <c r="C173" s="9"/>
-      <c r="D173" s="9"/>
-      <c r="E173" s="9"/>
-      <c r="F173" s="9"/>
-      <c r="G173" s="14"/>
-    </row>
-    <row r="174" spans="1:12">
-      <c r="A174" s="2">
-        <v>102</v>
-      </c>
-      <c r="B174" s="23" t="s">
+      <c r="C172" s="9"/>
+      <c r="D172" s="9"/>
+      <c r="E172" s="9"/>
+      <c r="F172" s="9"/>
+      <c r="G172" s="14"/>
+    </row>
+    <row r="173" ht="20.4" spans="2:12">
+      <c r="B173" s="19" t="s">
         <v>154</v>
       </c>
-      <c r="C174" s="24"/>
-      <c r="D174" s="24"/>
-      <c r="E174" s="24"/>
-      <c r="F174" s="24"/>
-      <c r="G174" s="27"/>
-      <c r="H174" s="12"/>
-      <c r="I174" s="12"/>
-      <c r="J174" s="12"/>
+      <c r="C173" s="20"/>
+      <c r="D173" s="20"/>
+      <c r="E173" s="20"/>
+      <c r="F173" s="20"/>
+      <c r="G173" s="26"/>
+      <c r="H173" s="13">
+        <v>43424</v>
+      </c>
+      <c r="I173" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="J173" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="K173" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="L173" s="18" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="174" ht="20.4" spans="2:12">
+      <c r="B174" s="19" t="s">
+        <v>155</v>
+      </c>
+      <c r="C174" s="20"/>
+      <c r="D174" s="20"/>
+      <c r="E174" s="20"/>
+      <c r="F174" s="20"/>
+      <c r="G174" s="26"/>
+      <c r="H174" s="13">
+        <v>43451</v>
+      </c>
+      <c r="I174" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="J174" s="12" t="s">
+        <v>9</v>
+      </c>
       <c r="K174" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="L174" s="12" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="175" spans="1:12">
-      <c r="A175" s="2">
-        <v>103</v>
-      </c>
-      <c r="B175" s="23" t="s">
-        <v>155</v>
-      </c>
-      <c r="C175" s="24"/>
-      <c r="D175" s="24"/>
-      <c r="E175" s="24"/>
-      <c r="F175" s="24"/>
-      <c r="G175" s="27"/>
-      <c r="H175" s="12"/>
-      <c r="I175" s="12"/>
-      <c r="J175" s="12"/>
-      <c r="K175" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="L175" s="12" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="176" spans="1:12">
-      <c r="A176" s="2">
-        <v>104</v>
-      </c>
-      <c r="B176" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="L174" s="18" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="176" spans="2:7">
+      <c r="B176" s="8" t="s">
         <v>156</v>
       </c>
-      <c r="C176" s="24"/>
-      <c r="D176" s="24"/>
-      <c r="E176" s="24"/>
-      <c r="F176" s="24"/>
-      <c r="G176" s="27"/>
-      <c r="H176" s="12"/>
-      <c r="I176" s="12"/>
-      <c r="J176" s="12"/>
-      <c r="K176" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="L176" s="12" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="177" spans="1:12">
-      <c r="A177" s="2">
-        <v>105</v>
-      </c>
-      <c r="B177" s="23" t="s">
+      <c r="C176" s="9"/>
+      <c r="D176" s="9"/>
+      <c r="E176" s="9"/>
+      <c r="F176" s="9"/>
+      <c r="G176" s="14"/>
+    </row>
+    <row r="177" spans="2:12">
+      <c r="B177" s="24" t="s">
         <v>157</v>
       </c>
-      <c r="C177" s="24"/>
-      <c r="D177" s="24"/>
-      <c r="E177" s="24"/>
-      <c r="F177" s="24"/>
-      <c r="G177" s="27"/>
+      <c r="C177" s="25"/>
+      <c r="D177" s="25"/>
+      <c r="E177" s="25"/>
+      <c r="F177" s="25"/>
+      <c r="G177" s="28"/>
       <c r="H177" s="12"/>
       <c r="I177" s="12"/>
       <c r="J177" s="12"/>
@@ -5224,47 +5185,66 @@
         <v>10</v>
       </c>
     </row>
-    <row r="179" spans="2:7">
-      <c r="B179" s="8" t="s">
+    <row r="178" spans="2:12">
+      <c r="B178" s="24" t="s">
         <v>158</v>
       </c>
-      <c r="C179" s="9"/>
-      <c r="D179" s="9"/>
-      <c r="E179" s="9"/>
-      <c r="F179" s="9"/>
-      <c r="G179" s="14"/>
-    </row>
-    <row r="180" ht="22" spans="1:12">
-      <c r="A180" s="2">
-        <v>106</v>
-      </c>
-      <c r="B180" s="19" t="s">
+      <c r="C178" s="25"/>
+      <c r="D178" s="25"/>
+      <c r="E178" s="25"/>
+      <c r="F178" s="25"/>
+      <c r="G178" s="28"/>
+      <c r="H178" s="12"/>
+      <c r="I178" s="12"/>
+      <c r="J178" s="12"/>
+      <c r="K178" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="L178" s="12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="179" spans="2:12">
+      <c r="B179" s="24" t="s">
         <v>159</v>
       </c>
-      <c r="C180" s="20"/>
-      <c r="D180" s="20"/>
-      <c r="E180" s="20"/>
-      <c r="F180" s="20"/>
-      <c r="G180" s="25"/>
-      <c r="H180" s="13">
-        <v>43424</v>
-      </c>
-      <c r="I180" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="J180" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="K180" s="28" t="s">
-        <v>9</v>
-      </c>
-      <c r="L180" s="18" t="s">
+      <c r="C179" s="25"/>
+      <c r="D179" s="25"/>
+      <c r="E179" s="25"/>
+      <c r="F179" s="25"/>
+      <c r="G179" s="28"/>
+      <c r="H179" s="12"/>
+      <c r="I179" s="12"/>
+      <c r="J179" s="12"/>
+      <c r="K179" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="L179" s="12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="180" spans="2:12">
+      <c r="B180" s="24" t="s">
+        <v>160</v>
+      </c>
+      <c r="C180" s="25"/>
+      <c r="D180" s="25"/>
+      <c r="E180" s="25"/>
+      <c r="F180" s="25"/>
+      <c r="G180" s="28"/>
+      <c r="H180" s="12"/>
+      <c r="I180" s="12"/>
+      <c r="J180" s="12"/>
+      <c r="K180" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="L180" s="12" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="182" spans="2:7">
       <c r="B182" s="8" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C182" s="9"/>
       <c r="D182" s="9"/>
@@ -5272,18 +5252,15 @@
       <c r="F182" s="9"/>
       <c r="G182" s="14"/>
     </row>
-    <row r="183" spans="1:12">
-      <c r="A183" s="2">
-        <v>107</v>
-      </c>
-      <c r="B183" s="23" t="s">
-        <v>161</v>
-      </c>
-      <c r="C183" s="24"/>
-      <c r="D183" s="24"/>
-      <c r="E183" s="24"/>
-      <c r="F183" s="24"/>
-      <c r="G183" s="27"/>
+    <row r="183" spans="2:12">
+      <c r="B183" s="24" t="s">
+        <v>162</v>
+      </c>
+      <c r="C183" s="25"/>
+      <c r="D183" s="25"/>
+      <c r="E183" s="25"/>
+      <c r="F183" s="25"/>
+      <c r="G183" s="28"/>
       <c r="H183" s="12"/>
       <c r="I183" s="12"/>
       <c r="J183" s="12"/>
@@ -5294,18 +5271,15 @@
         <v>10</v>
       </c>
     </row>
-    <row r="184" spans="1:12">
-      <c r="A184" s="2">
-        <v>108</v>
-      </c>
-      <c r="B184" s="23" t="s">
-        <v>162</v>
-      </c>
-      <c r="C184" s="24"/>
-      <c r="D184" s="24"/>
-      <c r="E184" s="24"/>
-      <c r="F184" s="24"/>
-      <c r="G184" s="27"/>
+    <row r="184" spans="2:12">
+      <c r="B184" s="24" t="s">
+        <v>163</v>
+      </c>
+      <c r="C184" s="25"/>
+      <c r="D184" s="25"/>
+      <c r="E184" s="25"/>
+      <c r="F184" s="25"/>
+      <c r="G184" s="28"/>
       <c r="H184" s="12"/>
       <c r="I184" s="12"/>
       <c r="J184" s="12"/>
@@ -5316,18 +5290,15 @@
         <v>10</v>
       </c>
     </row>
-    <row r="185" spans="1:12">
-      <c r="A185" s="2">
-        <v>109</v>
-      </c>
-      <c r="B185" s="23" t="s">
-        <v>163</v>
-      </c>
-      <c r="C185" s="24"/>
-      <c r="D185" s="24"/>
-      <c r="E185" s="24"/>
-      <c r="F185" s="24"/>
-      <c r="G185" s="27"/>
+    <row r="185" spans="2:12">
+      <c r="B185" s="24" t="s">
+        <v>164</v>
+      </c>
+      <c r="C185" s="25"/>
+      <c r="D185" s="25"/>
+      <c r="E185" s="25"/>
+      <c r="F185" s="25"/>
+      <c r="G185" s="28"/>
       <c r="H185" s="12"/>
       <c r="I185" s="12"/>
       <c r="J185" s="12"/>
@@ -5338,18 +5309,15 @@
         <v>10</v>
       </c>
     </row>
-    <row r="186" spans="1:12">
-      <c r="A186" s="2">
-        <v>110</v>
-      </c>
-      <c r="B186" s="23" t="s">
-        <v>164</v>
-      </c>
-      <c r="C186" s="24"/>
-      <c r="D186" s="24"/>
-      <c r="E186" s="24"/>
-      <c r="F186" s="24"/>
-      <c r="G186" s="27"/>
+    <row r="186" spans="2:12">
+      <c r="B186" s="24" t="s">
+        <v>165</v>
+      </c>
+      <c r="C186" s="25"/>
+      <c r="D186" s="25"/>
+      <c r="E186" s="25"/>
+      <c r="F186" s="25"/>
+      <c r="G186" s="28"/>
       <c r="H186" s="12"/>
       <c r="I186" s="12"/>
       <c r="J186" s="12"/>
@@ -5362,7 +5330,7 @@
     </row>
     <row r="188" spans="2:7">
       <c r="B188" s="8" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C188" s="9"/>
       <c r="D188" s="9"/>
@@ -5370,20 +5338,17 @@
       <c r="F188" s="9"/>
       <c r="G188" s="14"/>
     </row>
-    <row r="189" ht="22" spans="1:12">
-      <c r="A189" s="2">
-        <v>111</v>
-      </c>
+    <row r="189" ht="20.4" spans="2:12">
       <c r="B189" s="19" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C189" s="20"/>
       <c r="D189" s="20"/>
       <c r="E189" s="20"/>
       <c r="F189" s="20"/>
-      <c r="G189" s="25"/>
+      <c r="G189" s="26"/>
       <c r="H189" s="13">
-        <v>43451</v>
+        <v>43424</v>
       </c>
       <c r="I189" s="12" t="s">
         <v>9</v>
@@ -5391,7 +5356,7 @@
       <c r="J189" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="K189" s="16" t="s">
+      <c r="K189" s="30" t="s">
         <v>9</v>
       </c>
       <c r="L189" s="18" t="s">
@@ -5400,7 +5365,7 @@
     </row>
     <row r="191" spans="2:7">
       <c r="B191" s="8" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C191" s="9"/>
       <c r="D191" s="9"/>
@@ -5408,18 +5373,15 @@
       <c r="F191" s="9"/>
       <c r="G191" s="14"/>
     </row>
-    <row r="192" spans="1:12">
-      <c r="A192" s="2">
-        <v>112</v>
-      </c>
-      <c r="B192" s="23" t="s">
-        <v>168</v>
-      </c>
-      <c r="C192" s="24"/>
-      <c r="D192" s="24"/>
-      <c r="E192" s="24"/>
-      <c r="F192" s="24"/>
-      <c r="G192" s="27"/>
+    <row r="192" spans="2:12">
+      <c r="B192" s="24" t="s">
+        <v>169</v>
+      </c>
+      <c r="C192" s="25"/>
+      <c r="D192" s="25"/>
+      <c r="E192" s="25"/>
+      <c r="F192" s="25"/>
+      <c r="G192" s="28"/>
       <c r="H192" s="12"/>
       <c r="I192" s="12"/>
       <c r="J192" s="12"/>
@@ -5430,18 +5392,15 @@
         <v>10</v>
       </c>
     </row>
-    <row r="193" spans="1:12">
-      <c r="A193" s="2">
-        <v>113</v>
-      </c>
-      <c r="B193" s="23" t="s">
-        <v>169</v>
-      </c>
-      <c r="C193" s="24"/>
-      <c r="D193" s="24"/>
-      <c r="E193" s="24"/>
-      <c r="F193" s="24"/>
-      <c r="G193" s="27"/>
+    <row r="193" spans="2:12">
+      <c r="B193" s="24" t="s">
+        <v>170</v>
+      </c>
+      <c r="C193" s="25"/>
+      <c r="D193" s="25"/>
+      <c r="E193" s="25"/>
+      <c r="F193" s="25"/>
+      <c r="G193" s="28"/>
       <c r="H193" s="12"/>
       <c r="I193" s="12"/>
       <c r="J193" s="12"/>
@@ -5452,18 +5411,15 @@
         <v>10</v>
       </c>
     </row>
-    <row r="194" spans="1:12">
-      <c r="A194" s="2">
-        <v>114</v>
-      </c>
-      <c r="B194" s="23" t="s">
-        <v>170</v>
-      </c>
-      <c r="C194" s="24"/>
-      <c r="D194" s="24"/>
-      <c r="E194" s="24"/>
-      <c r="F194" s="24"/>
-      <c r="G194" s="27"/>
+    <row r="194" spans="2:12">
+      <c r="B194" s="24" t="s">
+        <v>171</v>
+      </c>
+      <c r="C194" s="25"/>
+      <c r="D194" s="25"/>
+      <c r="E194" s="25"/>
+      <c r="F194" s="25"/>
+      <c r="G194" s="28"/>
       <c r="H194" s="12"/>
       <c r="I194" s="12"/>
       <c r="J194" s="12"/>
@@ -5474,18 +5430,15 @@
         <v>10</v>
       </c>
     </row>
-    <row r="195" spans="1:12">
-      <c r="A195" s="2">
-        <v>115</v>
-      </c>
-      <c r="B195" s="23" t="s">
-        <v>171</v>
-      </c>
-      <c r="C195" s="24"/>
-      <c r="D195" s="24"/>
-      <c r="E195" s="24"/>
-      <c r="F195" s="24"/>
-      <c r="G195" s="27"/>
+    <row r="195" spans="2:12">
+      <c r="B195" s="24" t="s">
+        <v>172</v>
+      </c>
+      <c r="C195" s="25"/>
+      <c r="D195" s="25"/>
+      <c r="E195" s="25"/>
+      <c r="F195" s="25"/>
+      <c r="G195" s="28"/>
       <c r="H195" s="12"/>
       <c r="I195" s="12"/>
       <c r="J195" s="12"/>
@@ -5498,7 +5451,7 @@
     </row>
     <row r="197" spans="2:7">
       <c r="B197" s="8" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C197" s="9"/>
       <c r="D197" s="9"/>
@@ -5506,18 +5459,15 @@
       <c r="F197" s="9"/>
       <c r="G197" s="14"/>
     </row>
-    <row r="198" ht="22" spans="1:12">
-      <c r="A198" s="2">
-        <v>116</v>
-      </c>
+    <row r="198" ht="20.4" spans="2:12">
       <c r="B198" s="19" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C198" s="20"/>
       <c r="D198" s="20"/>
       <c r="E198" s="20"/>
       <c r="F198" s="20"/>
-      <c r="G198" s="25"/>
+      <c r="G198" s="26"/>
       <c r="H198" s="13">
         <v>43451</v>
       </c>
@@ -5536,7 +5486,7 @@
     </row>
     <row r="200" spans="2:7">
       <c r="B200" s="8" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C200" s="9"/>
       <c r="D200" s="9"/>
@@ -5544,18 +5494,15 @@
       <c r="F200" s="9"/>
       <c r="G200" s="14"/>
     </row>
-    <row r="201" spans="1:12">
-      <c r="A201" s="2">
-        <v>117</v>
-      </c>
-      <c r="B201" s="23" t="s">
-        <v>175</v>
-      </c>
-      <c r="C201" s="24"/>
-      <c r="D201" s="24"/>
-      <c r="E201" s="24"/>
-      <c r="F201" s="24"/>
-      <c r="G201" s="27"/>
+    <row r="201" spans="2:12">
+      <c r="B201" s="24" t="s">
+        <v>176</v>
+      </c>
+      <c r="C201" s="25"/>
+      <c r="D201" s="25"/>
+      <c r="E201" s="25"/>
+      <c r="F201" s="25"/>
+      <c r="G201" s="28"/>
       <c r="H201" s="12"/>
       <c r="I201" s="12"/>
       <c r="J201" s="12"/>
@@ -5566,18 +5513,15 @@
         <v>10</v>
       </c>
     </row>
-    <row r="202" spans="1:12">
-      <c r="A202" s="2">
-        <v>118</v>
-      </c>
-      <c r="B202" s="23" t="s">
-        <v>176</v>
-      </c>
-      <c r="C202" s="24"/>
-      <c r="D202" s="24"/>
-      <c r="E202" s="24"/>
-      <c r="F202" s="24"/>
-      <c r="G202" s="27"/>
+    <row r="202" spans="2:12">
+      <c r="B202" s="24" t="s">
+        <v>177</v>
+      </c>
+      <c r="C202" s="25"/>
+      <c r="D202" s="25"/>
+      <c r="E202" s="25"/>
+      <c r="F202" s="25"/>
+      <c r="G202" s="28"/>
       <c r="H202" s="12"/>
       <c r="I202" s="12"/>
       <c r="J202" s="12"/>
@@ -5588,18 +5532,15 @@
         <v>10</v>
       </c>
     </row>
-    <row r="203" spans="1:12">
-      <c r="A203" s="2">
-        <v>119</v>
-      </c>
-      <c r="B203" s="23" t="s">
-        <v>177</v>
-      </c>
-      <c r="C203" s="24"/>
-      <c r="D203" s="24"/>
-      <c r="E203" s="24"/>
-      <c r="F203" s="24"/>
-      <c r="G203" s="27"/>
+    <row r="203" spans="2:12">
+      <c r="B203" s="24" t="s">
+        <v>178</v>
+      </c>
+      <c r="C203" s="25"/>
+      <c r="D203" s="25"/>
+      <c r="E203" s="25"/>
+      <c r="F203" s="25"/>
+      <c r="G203" s="28"/>
       <c r="H203" s="12"/>
       <c r="I203" s="12"/>
       <c r="J203" s="12"/>
@@ -5610,18 +5551,15 @@
         <v>10</v>
       </c>
     </row>
-    <row r="204" spans="1:12">
-      <c r="A204" s="2">
-        <v>120</v>
-      </c>
-      <c r="B204" s="23" t="s">
-        <v>178</v>
-      </c>
-      <c r="C204" s="24"/>
-      <c r="D204" s="24"/>
-      <c r="E204" s="24"/>
-      <c r="F204" s="24"/>
-      <c r="G204" s="27"/>
+    <row r="204" spans="2:12">
+      <c r="B204" s="24" t="s">
+        <v>179</v>
+      </c>
+      <c r="C204" s="25"/>
+      <c r="D204" s="25"/>
+      <c r="E204" s="25"/>
+      <c r="F204" s="25"/>
+      <c r="G204" s="28"/>
       <c r="H204" s="12"/>
       <c r="I204" s="12"/>
       <c r="J204" s="12"/>
@@ -5634,7 +5572,7 @@
     </row>
     <row r="206" spans="2:7">
       <c r="B206" s="8" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C206" s="9"/>
       <c r="D206" s="9"/>
@@ -5642,84 +5580,50 @@
       <c r="F206" s="9"/>
       <c r="G206" s="14"/>
     </row>
-    <row r="207" spans="1:12">
-      <c r="A207" s="2">
-        <v>121</v>
-      </c>
-      <c r="B207" s="23" t="s">
-        <v>180</v>
-      </c>
-      <c r="C207" s="24"/>
-      <c r="D207" s="24"/>
-      <c r="E207" s="24"/>
-      <c r="F207" s="24"/>
-      <c r="G207" s="27"/>
-      <c r="H207" s="12"/>
-      <c r="I207" s="12"/>
-      <c r="J207" s="12"/>
-      <c r="K207" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="L207" s="12" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="208" spans="1:12">
-      <c r="A208" s="2">
-        <v>122</v>
-      </c>
-      <c r="B208" s="23" t="s">
+    <row r="207" ht="20.4" spans="2:12">
+      <c r="B207" s="19" t="s">
         <v>181</v>
       </c>
-      <c r="C208" s="24"/>
-      <c r="D208" s="24"/>
-      <c r="E208" s="24"/>
-      <c r="F208" s="24"/>
-      <c r="G208" s="27"/>
-      <c r="H208" s="12"/>
-      <c r="I208" s="12"/>
-      <c r="J208" s="12"/>
-      <c r="K208" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="L208" s="12" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="209" spans="1:12">
-      <c r="A209" s="2">
-        <v>123</v>
-      </c>
-      <c r="B209" s="23" t="s">
+      <c r="C207" s="20"/>
+      <c r="D207" s="20"/>
+      <c r="E207" s="20"/>
+      <c r="F207" s="20"/>
+      <c r="G207" s="26"/>
+      <c r="H207" s="13">
+        <v>43451</v>
+      </c>
+      <c r="I207" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="J207" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="K207" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="L207" s="18" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="209" spans="2:7">
+      <c r="B209" s="8" t="s">
         <v>182</v>
       </c>
-      <c r="C209" s="24"/>
-      <c r="D209" s="24"/>
-      <c r="E209" s="24"/>
-      <c r="F209" s="24"/>
-      <c r="G209" s="27"/>
-      <c r="H209" s="12"/>
-      <c r="I209" s="12"/>
-      <c r="J209" s="12"/>
-      <c r="K209" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="L209" s="12" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="210" spans="1:12">
-      <c r="A210" s="2">
-        <v>124</v>
-      </c>
-      <c r="B210" s="23" t="s">
+      <c r="C209" s="9"/>
+      <c r="D209" s="9"/>
+      <c r="E209" s="9"/>
+      <c r="F209" s="9"/>
+      <c r="G209" s="14"/>
+    </row>
+    <row r="210" spans="2:12">
+      <c r="B210" s="24" t="s">
         <v>183</v>
       </c>
-      <c r="C210" s="24"/>
-      <c r="D210" s="24"/>
-      <c r="E210" s="24"/>
-      <c r="F210" s="24"/>
-      <c r="G210" s="27"/>
+      <c r="C210" s="25"/>
+      <c r="D210" s="25"/>
+      <c r="E210" s="25"/>
+      <c r="F210" s="25"/>
+      <c r="G210" s="28"/>
       <c r="H210" s="12"/>
       <c r="I210" s="12"/>
       <c r="J210" s="12"/>
@@ -5730,18 +5634,15 @@
         <v>10</v>
       </c>
     </row>
-    <row r="211" spans="1:12">
-      <c r="A211" s="2">
-        <v>125</v>
-      </c>
-      <c r="B211" s="23" t="s">
+    <row r="211" spans="2:12">
+      <c r="B211" s="24" t="s">
         <v>184</v>
       </c>
-      <c r="C211" s="24"/>
-      <c r="D211" s="24"/>
-      <c r="E211" s="24"/>
-      <c r="F211" s="24"/>
-      <c r="G211" s="27"/>
+      <c r="C211" s="25"/>
+      <c r="D211" s="25"/>
+      <c r="E211" s="25"/>
+      <c r="F211" s="25"/>
+      <c r="G211" s="28"/>
       <c r="H211" s="12"/>
       <c r="I211" s="12"/>
       <c r="J211" s="12"/>
@@ -5752,9 +5653,152 @@
         <v>10</v>
       </c>
     </row>
+    <row r="212" spans="2:12">
+      <c r="B212" s="24" t="s">
+        <v>185</v>
+      </c>
+      <c r="C212" s="25"/>
+      <c r="D212" s="25"/>
+      <c r="E212" s="25"/>
+      <c r="F212" s="25"/>
+      <c r="G212" s="28"/>
+      <c r="H212" s="12"/>
+      <c r="I212" s="12"/>
+      <c r="J212" s="12"/>
+      <c r="K212" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="L212" s="12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="213" spans="2:12">
+      <c r="B213" s="24" t="s">
+        <v>186</v>
+      </c>
+      <c r="C213" s="25"/>
+      <c r="D213" s="25"/>
+      <c r="E213" s="25"/>
+      <c r="F213" s="25"/>
+      <c r="G213" s="28"/>
+      <c r="H213" s="12"/>
+      <c r="I213" s="12"/>
+      <c r="J213" s="12"/>
+      <c r="K213" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="L213" s="12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="215" spans="2:7">
+      <c r="B215" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="C215" s="9"/>
+      <c r="D215" s="9"/>
+      <c r="E215" s="9"/>
+      <c r="F215" s="9"/>
+      <c r="G215" s="14"/>
+    </row>
+    <row r="216" spans="2:12">
+      <c r="B216" s="24" t="s">
+        <v>188</v>
+      </c>
+      <c r="C216" s="25"/>
+      <c r="D216" s="25"/>
+      <c r="E216" s="25"/>
+      <c r="F216" s="25"/>
+      <c r="G216" s="28"/>
+      <c r="H216" s="12"/>
+      <c r="I216" s="12"/>
+      <c r="J216" s="12"/>
+      <c r="K216" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="L216" s="12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="217" spans="2:12">
+      <c r="B217" s="24" t="s">
+        <v>189</v>
+      </c>
+      <c r="C217" s="25"/>
+      <c r="D217" s="25"/>
+      <c r="E217" s="25"/>
+      <c r="F217" s="25"/>
+      <c r="G217" s="28"/>
+      <c r="H217" s="12"/>
+      <c r="I217" s="12"/>
+      <c r="J217" s="12"/>
+      <c r="K217" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="L217" s="12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="218" spans="2:12">
+      <c r="B218" s="24" t="s">
+        <v>190</v>
+      </c>
+      <c r="C218" s="25"/>
+      <c r="D218" s="25"/>
+      <c r="E218" s="25"/>
+      <c r="F218" s="25"/>
+      <c r="G218" s="28"/>
+      <c r="H218" s="12"/>
+      <c r="I218" s="12"/>
+      <c r="J218" s="12"/>
+      <c r="K218" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="L218" s="12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="219" spans="2:12">
+      <c r="B219" s="24" t="s">
+        <v>191</v>
+      </c>
+      <c r="C219" s="25"/>
+      <c r="D219" s="25"/>
+      <c r="E219" s="25"/>
+      <c r="F219" s="25"/>
+      <c r="G219" s="28"/>
+      <c r="H219" s="12"/>
+      <c r="I219" s="12"/>
+      <c r="J219" s="12"/>
+      <c r="K219" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="L219" s="12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="220" spans="2:12">
+      <c r="B220" s="24" t="s">
+        <v>192</v>
+      </c>
+      <c r="C220" s="25"/>
+      <c r="D220" s="25"/>
+      <c r="E220" s="25"/>
+      <c r="F220" s="25"/>
+      <c r="G220" s="28"/>
+      <c r="H220" s="12"/>
+      <c r="I220" s="12"/>
+      <c r="J220" s="12"/>
+      <c r="K220" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="L220" s="12" t="s">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="H1:L211"/>
-  <mergeCells count="177">
+  <autoFilter ref="H1:L220"/>
+  <mergeCells count="185">
     <mergeCell ref="B1:G1"/>
     <mergeCell ref="B2:G2"/>
     <mergeCell ref="B3:G3"/>
@@ -5845,30 +5889,30 @@
     <mergeCell ref="B104:G104"/>
     <mergeCell ref="B105:G105"/>
     <mergeCell ref="B106:G106"/>
+    <mergeCell ref="B107:G107"/>
     <mergeCell ref="B108:G108"/>
     <mergeCell ref="B109:G109"/>
-    <mergeCell ref="B110:G110"/>
+    <mergeCell ref="B111:G111"/>
     <mergeCell ref="B112:G112"/>
     <mergeCell ref="B113:G113"/>
-    <mergeCell ref="B114:G114"/>
     <mergeCell ref="B115:G115"/>
     <mergeCell ref="B116:G116"/>
     <mergeCell ref="B117:G117"/>
     <mergeCell ref="B118:G118"/>
-    <mergeCell ref="B120:G120"/>
+    <mergeCell ref="B119:G119"/>
     <mergeCell ref="B121:G121"/>
     <mergeCell ref="B122:G122"/>
     <mergeCell ref="B123:G123"/>
     <mergeCell ref="B124:G124"/>
     <mergeCell ref="B125:G125"/>
+    <mergeCell ref="B126:G126"/>
     <mergeCell ref="B127:G127"/>
-    <mergeCell ref="B128:G128"/>
     <mergeCell ref="B129:G129"/>
     <mergeCell ref="B130:G130"/>
     <mergeCell ref="B131:G131"/>
     <mergeCell ref="B132:G132"/>
     <mergeCell ref="B133:G133"/>
-    <mergeCell ref="B135:G135"/>
+    <mergeCell ref="B134:G134"/>
     <mergeCell ref="B136:G136"/>
     <mergeCell ref="B137:G137"/>
     <mergeCell ref="B138:G138"/>
@@ -5876,7 +5920,7 @@
     <mergeCell ref="B140:G140"/>
     <mergeCell ref="B141:G141"/>
     <mergeCell ref="B142:G142"/>
-    <mergeCell ref="B143:G143"/>
+    <mergeCell ref="B144:G144"/>
     <mergeCell ref="B145:G145"/>
     <mergeCell ref="B146:G146"/>
     <mergeCell ref="B147:G147"/>
@@ -5884,27 +5928,28 @@
     <mergeCell ref="B149:G149"/>
     <mergeCell ref="B150:G150"/>
     <mergeCell ref="B151:G151"/>
-    <mergeCell ref="B153:G153"/>
+    <mergeCell ref="B152:G152"/>
     <mergeCell ref="B154:G154"/>
     <mergeCell ref="B155:G155"/>
+    <mergeCell ref="B156:G156"/>
     <mergeCell ref="B157:G157"/>
     <mergeCell ref="B158:G158"/>
     <mergeCell ref="B159:G159"/>
     <mergeCell ref="B160:G160"/>
-    <mergeCell ref="B161:G161"/>
+    <mergeCell ref="B162:G162"/>
     <mergeCell ref="B163:G163"/>
     <mergeCell ref="B164:G164"/>
-    <mergeCell ref="B165:G165"/>
+    <mergeCell ref="B166:G166"/>
     <mergeCell ref="B167:G167"/>
     <mergeCell ref="B168:G168"/>
     <mergeCell ref="B169:G169"/>
     <mergeCell ref="B170:G170"/>
-    <mergeCell ref="B171:G171"/>
+    <mergeCell ref="B172:G172"/>
     <mergeCell ref="B173:G173"/>
     <mergeCell ref="B174:G174"/>
-    <mergeCell ref="B175:G175"/>
     <mergeCell ref="B176:G176"/>
     <mergeCell ref="B177:G177"/>
+    <mergeCell ref="B178:G178"/>
     <mergeCell ref="B179:G179"/>
     <mergeCell ref="B180:G180"/>
     <mergeCell ref="B182:G182"/>
@@ -5928,13 +5973,20 @@
     <mergeCell ref="B204:G204"/>
     <mergeCell ref="B206:G206"/>
     <mergeCell ref="B207:G207"/>
-    <mergeCell ref="B208:G208"/>
     <mergeCell ref="B209:G209"/>
     <mergeCell ref="B210:G210"/>
     <mergeCell ref="B211:G211"/>
+    <mergeCell ref="B212:G212"/>
+    <mergeCell ref="B213:G213"/>
+    <mergeCell ref="B215:G215"/>
+    <mergeCell ref="B216:G216"/>
+    <mergeCell ref="B217:G217"/>
+    <mergeCell ref="B218:G218"/>
+    <mergeCell ref="B219:G219"/>
+    <mergeCell ref="B220:G220"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I3 J3 K3 L3 J17 L21 J22 K22:L22 J23 K23:L23 K30 I33 L39 L53 L54 L55 J56 K56 L56 L61 J62 K62 L62 J69 K69 J78:K78 L78 J79:K79 L79 J80:K80 L80 I83 J83 K83 L83 J86 K86 L86 K87:L87 J103 K103:L103 J106 K106 L106 J109 K109 L109 J110 K110 L110 J123 J124 J125 K125:L125 J136 J137 J138 J139 J140 J141 L141 J142 L142 J143 L143 J154 L154 J155 L155 J164:K164 J165 K165 I180 J180 K180 L180 I189 J189 K189:L189 I198 J198 K198:L198 I6:I14 I17:I21 I26:I30 I34:I36 I37:I41 I45:I50 I53:I56 I59:I62 I65:I69 I72:I80 I86:I89 I92:I100 I104:I106 I109:I110 I123:I124 I136:I143 I154:I155 I164:I165 J6:J10 J11:J14 J18:J21 J26:J30 J37:J41 J45:J50 J59:J61 J65:J68 J87:J89 J92:J100 J104:J105 J113:J118 J121:J122 J128:J133 J146:J151 J158:J161 J168:J171 J174:J177 J183:J186 J192:J195 J201:J204 J207:J211 K6:K10 K11:K14 K17:K21 K26:K29 K37:K41 K45:K50 K59:K61 K65:K68 K88:K89 K92:K100 K104:K105 K123:K124 K136:K143 K154:K155 L6:L14 L17:L20 L26:L30 L33:L34 L35:L36 L37:L38 L40:L41 L45:L48 L49:L50 L59:L60 L65:L69 L72:L73 L74:L77 L88:L89 L92:L100 L104:L105 L123:L124 L136:L140 L164:L165 J33:K36 J53:K55 J72:K77 K113:L118 K128:L133 K168:L171 K146:L151 K158:L161 K174:L177 K183:L186 K192:L195 K201:L204 K207:L211 K121:L122">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I3 J3 K3 L3 J17 L21 J22 K22:L22 J23 K23:L23 K30 I33 L39 L53 L54 J56 K56 L61 J62 K62 L62 L65 J69 K69 J78:K78 L78 J79:K79 L79 J80:K80 L80 I83 J83 K83 L83 J86 K86 L86 K87:L87 I103 J103 K103:L103 J106 K106 L106 I107 I108 I109 J112 K112 L112 J113 K113 L113 J132 J133 J134 K134:L134 J145 J146 J147 J148 J149 J150 L150 J151 L151 J152 L152 J163 L163 J164 L164 J173:K173 J174 K174 I189 J189 K189 L189 I198 J198 K198:L198 I207 J207 K207:L207 I6:I14 I17:I21 I26:I30 I34:I36 I37:I41 I45:I50 I53:I56 I59:I62 I65:I69 I72:I80 I86:I89 I92:I100 I104:I106 I112:I113 I132:I133 I145:I152 I163:I164 I173:I174 J6:J10 J11:J14 J18:J21 J26:J30 J37:J41 J45:J50 J59:J61 J65:J68 J87:J89 J92:J100 J104:J105 J107:J109 J116:J119 J122:J127 J130:J131 J137:J142 J155:J160 J167:J170 J177:J180 J183:J186 J192:J195 J201:J204 J210:J213 J216:J220 K6:K10 K11:K14 K17:K21 K26:K29 K37:K41 K45:K50 K59:K61 K65:K68 K88:K89 K92:K100 K104:K105 K107:K109 K116:K119 K132:K133 K145:K152 K163:K164 L6:L14 L17:L20 L26:L30 L33:L34 L35:L36 L37:L38 L40:L41 L45:L48 L49:L50 L55:L56 L59:L60 L66:L69 L72:L73 L74:L77 L88:L89 L92:L100 L104:L105 L107:L109 L116:L119 L132:L133 L145:L149 L173:L174 J33:K36 J53:K55 J72:K77 K183:L186 K192:L195 K201:L204 K177:L180 K122:L127 K137:L142 K155:L160 K167:L170 K210:L213 K216:L220 K130:L131">
       <formula1>$S$3:$S$4</formula1>
     </dataValidation>
   </dataValidations>

--- a/课程跟踪.xlsx
+++ b/课程跟踪.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24920" windowHeight="12840"/>
+    <workbookView windowWidth="24520" windowHeight="15480"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -603,10 +603,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -625,21 +625,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -653,10 +638,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -668,8 +654,39 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -692,15 +709,38 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -714,7 +754,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -723,48 +762,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -801,7 +801,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -813,163 +969,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1048,21 +1048,49 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -1098,17 +1126,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1116,32 +1140,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1150,152 +1150,152 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1365,9 +1365,6 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1382,9 +1379,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3060,7 +3054,7 @@
       <c r="D65" s="20"/>
       <c r="E65" s="20"/>
       <c r="F65" s="20"/>
-      <c r="G65" s="26"/>
+      <c r="G65" s="25"/>
       <c r="H65" s="13">
         <v>43427</v>
       </c>
@@ -3088,7 +3082,7 @@
       <c r="D66" s="20"/>
       <c r="E66" s="20"/>
       <c r="F66" s="20"/>
-      <c r="G66" s="26"/>
+      <c r="G66" s="25"/>
       <c r="H66" s="13">
         <v>43427</v>
       </c>
@@ -3116,7 +3110,7 @@
       <c r="D67" s="20"/>
       <c r="E67" s="20"/>
       <c r="F67" s="20"/>
-      <c r="G67" s="26"/>
+      <c r="G67" s="25"/>
       <c r="H67" s="13">
         <v>43427</v>
       </c>
@@ -3144,7 +3138,7 @@
       <c r="D68" s="20"/>
       <c r="E68" s="20"/>
       <c r="F68" s="20"/>
-      <c r="G68" s="26"/>
+      <c r="G68" s="25"/>
       <c r="H68" s="13">
         <v>43427</v>
       </c>
@@ -3172,7 +3166,7 @@
       <c r="D69" s="20"/>
       <c r="E69" s="20"/>
       <c r="F69" s="20"/>
-      <c r="G69" s="26"/>
+      <c r="G69" s="25"/>
       <c r="H69" s="13">
         <v>43451</v>
       </c>
@@ -3210,7 +3204,7 @@
       <c r="D72" s="20"/>
       <c r="E72" s="20"/>
       <c r="F72" s="20"/>
-      <c r="G72" s="26"/>
+      <c r="G72" s="25"/>
       <c r="H72" s="13">
         <v>43486</v>
       </c>
@@ -3238,7 +3232,7 @@
       <c r="D73" s="20"/>
       <c r="E73" s="20"/>
       <c r="F73" s="20"/>
-      <c r="G73" s="26"/>
+      <c r="G73" s="25"/>
       <c r="H73" s="13">
         <v>43486</v>
       </c>
@@ -3266,7 +3260,7 @@
       <c r="D74" s="20"/>
       <c r="E74" s="20"/>
       <c r="F74" s="20"/>
-      <c r="G74" s="26"/>
+      <c r="G74" s="25"/>
       <c r="H74" s="13">
         <v>43486</v>
       </c>
@@ -3294,7 +3288,7 @@
       <c r="D75" s="20"/>
       <c r="E75" s="20"/>
       <c r="F75" s="20"/>
-      <c r="G75" s="26"/>
+      <c r="G75" s="25"/>
       <c r="H75" s="13">
         <v>43486</v>
       </c>
@@ -3322,7 +3316,7 @@
       <c r="D76" s="20"/>
       <c r="E76" s="20"/>
       <c r="F76" s="20"/>
-      <c r="G76" s="26"/>
+      <c r="G76" s="25"/>
       <c r="H76" s="13">
         <v>43486</v>
       </c>
@@ -3350,7 +3344,7 @@
       <c r="D77" s="20"/>
       <c r="E77" s="20"/>
       <c r="F77" s="20"/>
-      <c r="G77" s="26"/>
+      <c r="G77" s="25"/>
       <c r="H77" s="13">
         <v>43486</v>
       </c>
@@ -3378,7 +3372,7 @@
       <c r="D78" s="20"/>
       <c r="E78" s="20"/>
       <c r="F78" s="20"/>
-      <c r="G78" s="26"/>
+      <c r="G78" s="25"/>
       <c r="H78" s="13">
         <v>43493</v>
       </c>
@@ -3406,7 +3400,7 @@
       <c r="D79" s="20"/>
       <c r="E79" s="20"/>
       <c r="F79" s="20"/>
-      <c r="G79" s="26"/>
+      <c r="G79" s="25"/>
       <c r="H79" s="13">
         <v>43493</v>
       </c>
@@ -3434,7 +3428,7 @@
       <c r="D80" s="20"/>
       <c r="E80" s="20"/>
       <c r="F80" s="20"/>
-      <c r="G80" s="26"/>
+      <c r="G80" s="25"/>
       <c r="H80" s="13">
         <v>43493</v>
       </c>
@@ -3472,7 +3466,7 @@
       <c r="D83" s="20"/>
       <c r="E83" s="20"/>
       <c r="F83" s="20"/>
-      <c r="G83" s="26"/>
+      <c r="G83" s="25"/>
       <c r="H83" s="13">
         <v>43487</v>
       </c>
@@ -3510,7 +3504,7 @@
       <c r="D86" s="20"/>
       <c r="E86" s="20"/>
       <c r="F86" s="20"/>
-      <c r="G86" s="26"/>
+      <c r="G86" s="25"/>
       <c r="H86" s="13">
         <v>43487</v>
       </c>
@@ -3538,7 +3532,7 @@
       <c r="D87" s="20"/>
       <c r="E87" s="20"/>
       <c r="F87" s="20"/>
-      <c r="G87" s="26"/>
+      <c r="G87" s="25"/>
       <c r="H87" s="13">
         <v>43487</v>
       </c>
@@ -3566,7 +3560,7 @@
       <c r="D88" s="20"/>
       <c r="E88" s="20"/>
       <c r="F88" s="20"/>
-      <c r="G88" s="26"/>
+      <c r="G88" s="25"/>
       <c r="H88" s="13">
         <v>43493</v>
       </c>
@@ -3594,7 +3588,7 @@
       <c r="D89" s="20"/>
       <c r="E89" s="20"/>
       <c r="F89" s="20"/>
-      <c r="G89" s="26"/>
+      <c r="G89" s="25"/>
       <c r="H89" s="13">
         <v>43493</v>
       </c>
@@ -3632,7 +3626,7 @@
       <c r="D92" s="20"/>
       <c r="E92" s="20"/>
       <c r="F92" s="20"/>
-      <c r="G92" s="26"/>
+      <c r="G92" s="25"/>
       <c r="H92" s="13">
         <v>43498</v>
       </c>
@@ -3660,7 +3654,7 @@
       <c r="D93" s="20"/>
       <c r="E93" s="20"/>
       <c r="F93" s="20"/>
-      <c r="G93" s="26"/>
+      <c r="G93" s="25"/>
       <c r="H93" s="13">
         <v>43498</v>
       </c>
@@ -3688,7 +3682,7 @@
       <c r="D94" s="20"/>
       <c r="E94" s="20"/>
       <c r="F94" s="20"/>
-      <c r="G94" s="26"/>
+      <c r="G94" s="25"/>
       <c r="H94" s="13">
         <v>43498</v>
       </c>
@@ -3716,7 +3710,7 @@
       <c r="D95" s="20"/>
       <c r="E95" s="20"/>
       <c r="F95" s="20"/>
-      <c r="G95" s="26"/>
+      <c r="G95" s="25"/>
       <c r="H95" s="13">
         <v>43498</v>
       </c>
@@ -3744,7 +3738,7 @@
       <c r="D96" s="20"/>
       <c r="E96" s="20"/>
       <c r="F96" s="20"/>
-      <c r="G96" s="26"/>
+      <c r="G96" s="25"/>
       <c r="H96" s="13">
         <v>43498</v>
       </c>
@@ -3772,7 +3766,7 @@
       <c r="D97" s="20"/>
       <c r="E97" s="20"/>
       <c r="F97" s="20"/>
-      <c r="G97" s="26"/>
+      <c r="G97" s="25"/>
       <c r="H97" s="13">
         <v>43498</v>
       </c>
@@ -3800,7 +3794,7 @@
       <c r="D98" s="20"/>
       <c r="E98" s="20"/>
       <c r="F98" s="20"/>
-      <c r="G98" s="26"/>
+      <c r="G98" s="25"/>
       <c r="H98" s="13">
         <v>43498</v>
       </c>
@@ -3828,7 +3822,7 @@
       <c r="D99" s="20"/>
       <c r="E99" s="20"/>
       <c r="F99" s="20"/>
-      <c r="G99" s="26"/>
+      <c r="G99" s="25"/>
       <c r="H99" s="13">
         <v>43498</v>
       </c>
@@ -3856,7 +3850,7 @@
       <c r="D100" s="20"/>
       <c r="E100" s="20"/>
       <c r="F100" s="20"/>
-      <c r="G100" s="26"/>
+      <c r="G100" s="25"/>
       <c r="H100" s="13">
         <v>43498</v>
       </c>
@@ -3894,7 +3888,7 @@
       <c r="D103" s="22"/>
       <c r="E103" s="22"/>
       <c r="F103" s="22"/>
-      <c r="G103" s="27"/>
+      <c r="G103" s="26"/>
       <c r="H103" s="12"/>
       <c r="I103" s="12" t="s">
         <v>10</v>
@@ -3920,7 +3914,7 @@
       <c r="D104" s="20"/>
       <c r="E104" s="20"/>
       <c r="F104" s="20"/>
-      <c r="G104" s="26"/>
+      <c r="G104" s="25"/>
       <c r="H104" s="13">
         <v>43498</v>
       </c>
@@ -3948,7 +3942,7 @@
       <c r="D105" s="20"/>
       <c r="E105" s="20"/>
       <c r="F105" s="20"/>
-      <c r="G105" s="26"/>
+      <c r="G105" s="25"/>
       <c r="H105" s="13">
         <v>43498</v>
       </c>
@@ -3976,7 +3970,7 @@
       <c r="D106" s="20"/>
       <c r="E106" s="20"/>
       <c r="F106" s="20"/>
-      <c r="G106" s="26"/>
+      <c r="G106" s="25"/>
       <c r="H106" s="13">
         <v>43513</v>
       </c>
@@ -3997,18 +3991,20 @@
       <c r="A107" s="2">
         <v>72</v>
       </c>
-      <c r="B107" s="23" t="s">
+      <c r="B107" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="C107" s="23"/>
-      <c r="D107" s="23"/>
-      <c r="E107" s="23"/>
-      <c r="F107" s="23"/>
-      <c r="G107" s="23"/>
+      <c r="C107" s="5"/>
+      <c r="D107" s="5"/>
+      <c r="E107" s="5"/>
+      <c r="F107" s="5"/>
+      <c r="G107" s="5"/>
       <c r="H107" s="13">
         <v>43527</v>
       </c>
-      <c r="I107" s="29"/>
+      <c r="I107" s="12" t="s">
+        <v>9</v>
+      </c>
       <c r="J107" s="12" t="s">
         <v>9</v>
       </c>
@@ -4023,18 +4019,20 @@
       <c r="A108" s="2">
         <v>73</v>
       </c>
-      <c r="B108" s="23" t="s">
+      <c r="B108" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="C108" s="23"/>
-      <c r="D108" s="23"/>
-      <c r="E108" s="23"/>
-      <c r="F108" s="23"/>
-      <c r="G108" s="23"/>
+      <c r="C108" s="5"/>
+      <c r="D108" s="5"/>
+      <c r="E108" s="5"/>
+      <c r="F108" s="5"/>
+      <c r="G108" s="5"/>
       <c r="H108" s="13">
         <v>43527</v>
       </c>
-      <c r="I108" s="29"/>
+      <c r="I108" s="12" t="s">
+        <v>9</v>
+      </c>
       <c r="J108" s="12" t="s">
         <v>9</v>
       </c>
@@ -4049,18 +4047,20 @@
       <c r="A109" s="2">
         <v>74</v>
       </c>
-      <c r="B109" s="23" t="s">
+      <c r="B109" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="C109" s="23"/>
-      <c r="D109" s="23"/>
-      <c r="E109" s="23"/>
-      <c r="F109" s="23"/>
-      <c r="G109" s="23"/>
+      <c r="C109" s="5"/>
+      <c r="D109" s="5"/>
+      <c r="E109" s="5"/>
+      <c r="F109" s="5"/>
+      <c r="G109" s="5"/>
       <c r="H109" s="13">
         <v>43527</v>
       </c>
-      <c r="I109" s="29"/>
+      <c r="I109" s="12" t="s">
+        <v>9</v>
+      </c>
       <c r="J109" s="12" t="s">
         <v>9</v>
       </c>
@@ -4092,7 +4092,7 @@
       <c r="D112" s="20"/>
       <c r="E112" s="20"/>
       <c r="F112" s="20"/>
-      <c r="G112" s="26"/>
+      <c r="G112" s="25"/>
       <c r="H112" s="13">
         <v>43498</v>
       </c>
@@ -4120,7 +4120,7 @@
       <c r="D113" s="20"/>
       <c r="E113" s="20"/>
       <c r="F113" s="20"/>
-      <c r="G113" s="26"/>
+      <c r="G113" s="25"/>
       <c r="H113" s="13">
         <v>43513</v>
       </c>
@@ -4158,11 +4158,13 @@
       <c r="D116" s="20"/>
       <c r="E116" s="20"/>
       <c r="F116" s="20"/>
-      <c r="G116" s="26"/>
+      <c r="G116" s="25"/>
       <c r="H116" s="13">
         <v>43527</v>
       </c>
-      <c r="I116" s="12"/>
+      <c r="I116" s="12" t="s">
+        <v>9</v>
+      </c>
       <c r="J116" s="12" t="s">
         <v>9</v>
       </c>
@@ -4184,11 +4186,13 @@
       <c r="D117" s="20"/>
       <c r="E117" s="20"/>
       <c r="F117" s="20"/>
-      <c r="G117" s="26"/>
+      <c r="G117" s="25"/>
       <c r="H117" s="13">
         <v>43527</v>
       </c>
-      <c r="I117" s="12"/>
+      <c r="I117" s="12" t="s">
+        <v>9</v>
+      </c>
       <c r="J117" s="12" t="s">
         <v>9</v>
       </c>
@@ -4210,11 +4214,13 @@
       <c r="D118" s="20"/>
       <c r="E118" s="20"/>
       <c r="F118" s="20"/>
-      <c r="G118" s="26"/>
+      <c r="G118" s="25"/>
       <c r="H118" s="13">
         <v>43527</v>
       </c>
-      <c r="I118" s="12"/>
+      <c r="I118" s="12" t="s">
+        <v>9</v>
+      </c>
       <c r="J118" s="12" t="s">
         <v>9</v>
       </c>
@@ -4236,11 +4242,13 @@
       <c r="D119" s="20"/>
       <c r="E119" s="20"/>
       <c r="F119" s="20"/>
-      <c r="G119" s="26"/>
+      <c r="G119" s="25"/>
       <c r="H119" s="13">
         <v>43527</v>
       </c>
-      <c r="I119" s="12"/>
+      <c r="I119" s="12" t="s">
+        <v>9</v>
+      </c>
       <c r="J119" s="12" t="s">
         <v>9</v>
       </c>
@@ -4262,14 +4270,14 @@
       <c r="G121" s="14"/>
     </row>
     <row r="122" spans="2:12">
-      <c r="B122" s="24" t="s">
+      <c r="B122" s="23" t="s">
         <v>110</v>
       </c>
-      <c r="C122" s="25"/>
-      <c r="D122" s="25"/>
-      <c r="E122" s="25"/>
-      <c r="F122" s="25"/>
-      <c r="G122" s="28"/>
+      <c r="C122" s="24"/>
+      <c r="D122" s="24"/>
+      <c r="E122" s="24"/>
+      <c r="F122" s="24"/>
+      <c r="G122" s="27"/>
       <c r="H122" s="12"/>
       <c r="I122" s="12"/>
       <c r="J122" s="12"/>
@@ -4281,14 +4289,14 @@
       </c>
     </row>
     <row r="123" spans="2:12">
-      <c r="B123" s="24" t="s">
+      <c r="B123" s="23" t="s">
         <v>111</v>
       </c>
-      <c r="C123" s="25"/>
-      <c r="D123" s="25"/>
-      <c r="E123" s="25"/>
-      <c r="F123" s="25"/>
-      <c r="G123" s="28"/>
+      <c r="C123" s="24"/>
+      <c r="D123" s="24"/>
+      <c r="E123" s="24"/>
+      <c r="F123" s="24"/>
+      <c r="G123" s="27"/>
       <c r="H123" s="12"/>
       <c r="I123" s="12"/>
       <c r="J123" s="12"/>
@@ -4300,14 +4308,14 @@
       </c>
     </row>
     <row r="124" spans="2:12">
-      <c r="B124" s="24" t="s">
+      <c r="B124" s="23" t="s">
         <v>112</v>
       </c>
-      <c r="C124" s="25"/>
-      <c r="D124" s="25"/>
-      <c r="E124" s="25"/>
-      <c r="F124" s="25"/>
-      <c r="G124" s="28"/>
+      <c r="C124" s="24"/>
+      <c r="D124" s="24"/>
+      <c r="E124" s="24"/>
+      <c r="F124" s="24"/>
+      <c r="G124" s="27"/>
       <c r="H124" s="12"/>
       <c r="I124" s="12"/>
       <c r="J124" s="12"/>
@@ -4319,14 +4327,14 @@
       </c>
     </row>
     <row r="125" spans="2:12">
-      <c r="B125" s="24" t="s">
+      <c r="B125" s="23" t="s">
         <v>113</v>
       </c>
-      <c r="C125" s="25"/>
-      <c r="D125" s="25"/>
-      <c r="E125" s="25"/>
-      <c r="F125" s="25"/>
-      <c r="G125" s="28"/>
+      <c r="C125" s="24"/>
+      <c r="D125" s="24"/>
+      <c r="E125" s="24"/>
+      <c r="F125" s="24"/>
+      <c r="G125" s="27"/>
       <c r="H125" s="12"/>
       <c r="I125" s="12"/>
       <c r="J125" s="12"/>
@@ -4338,14 +4346,14 @@
       </c>
     </row>
     <row r="126" spans="2:12">
-      <c r="B126" s="24" t="s">
+      <c r="B126" s="23" t="s">
         <v>114</v>
       </c>
-      <c r="C126" s="25"/>
-      <c r="D126" s="25"/>
-      <c r="E126" s="25"/>
-      <c r="F126" s="25"/>
-      <c r="G126" s="28"/>
+      <c r="C126" s="24"/>
+      <c r="D126" s="24"/>
+      <c r="E126" s="24"/>
+      <c r="F126" s="24"/>
+      <c r="G126" s="27"/>
       <c r="H126" s="12"/>
       <c r="I126" s="12"/>
       <c r="J126" s="12"/>
@@ -4357,14 +4365,14 @@
       </c>
     </row>
     <row r="127" spans="2:12">
-      <c r="B127" s="24" t="s">
+      <c r="B127" s="23" t="s">
         <v>115</v>
       </c>
-      <c r="C127" s="25"/>
-      <c r="D127" s="25"/>
-      <c r="E127" s="25"/>
-      <c r="F127" s="25"/>
-      <c r="G127" s="28"/>
+      <c r="C127" s="24"/>
+      <c r="D127" s="24"/>
+      <c r="E127" s="24"/>
+      <c r="F127" s="24"/>
+      <c r="G127" s="27"/>
       <c r="H127" s="12"/>
       <c r="I127" s="12"/>
       <c r="J127" s="12"/>
@@ -4393,7 +4401,7 @@
       <c r="D130" s="22"/>
       <c r="E130" s="22"/>
       <c r="F130" s="22"/>
-      <c r="G130" s="27"/>
+      <c r="G130" s="26"/>
       <c r="H130" s="12"/>
       <c r="I130" s="12"/>
       <c r="J130" s="12"/>
@@ -4412,7 +4420,7 @@
       <c r="D131" s="22"/>
       <c r="E131" s="22"/>
       <c r="F131" s="22"/>
-      <c r="G131" s="27"/>
+      <c r="G131" s="26"/>
       <c r="H131" s="12"/>
       <c r="I131" s="12"/>
       <c r="J131" s="12"/>
@@ -4431,7 +4439,7 @@
       <c r="D132" s="20"/>
       <c r="E132" s="20"/>
       <c r="F132" s="20"/>
-      <c r="G132" s="26"/>
+      <c r="G132" s="25"/>
       <c r="H132" s="13">
         <v>43498</v>
       </c>
@@ -4456,7 +4464,7 @@
       <c r="D133" s="20"/>
       <c r="E133" s="20"/>
       <c r="F133" s="20"/>
-      <c r="G133" s="26"/>
+      <c r="G133" s="25"/>
       <c r="H133" s="13">
         <v>43498</v>
       </c>
@@ -4481,7 +4489,7 @@
       <c r="D134" s="22"/>
       <c r="E134" s="22"/>
       <c r="F134" s="22"/>
-      <c r="G134" s="27"/>
+      <c r="G134" s="26"/>
       <c r="H134" s="12"/>
       <c r="I134" s="12"/>
       <c r="J134" s="12"/>
@@ -4503,14 +4511,14 @@
       <c r="G136" s="14"/>
     </row>
     <row r="137" spans="2:12">
-      <c r="B137" s="24" t="s">
+      <c r="B137" s="23" t="s">
         <v>123</v>
       </c>
-      <c r="C137" s="25"/>
-      <c r="D137" s="25"/>
-      <c r="E137" s="25"/>
-      <c r="F137" s="25"/>
-      <c r="G137" s="28"/>
+      <c r="C137" s="24"/>
+      <c r="D137" s="24"/>
+      <c r="E137" s="24"/>
+      <c r="F137" s="24"/>
+      <c r="G137" s="27"/>
       <c r="H137" s="12"/>
       <c r="I137" s="12"/>
       <c r="J137" s="12"/>
@@ -4522,14 +4530,14 @@
       </c>
     </row>
     <row r="138" spans="2:12">
-      <c r="B138" s="24" t="s">
+      <c r="B138" s="23" t="s">
         <v>124</v>
       </c>
-      <c r="C138" s="25"/>
-      <c r="D138" s="25"/>
-      <c r="E138" s="25"/>
-      <c r="F138" s="25"/>
-      <c r="G138" s="28"/>
+      <c r="C138" s="24"/>
+      <c r="D138" s="24"/>
+      <c r="E138" s="24"/>
+      <c r="F138" s="24"/>
+      <c r="G138" s="27"/>
       <c r="H138" s="12"/>
       <c r="I138" s="12"/>
       <c r="J138" s="12"/>
@@ -4541,14 +4549,14 @@
       </c>
     </row>
     <row r="139" spans="2:12">
-      <c r="B139" s="24" t="s">
+      <c r="B139" s="23" t="s">
         <v>125</v>
       </c>
-      <c r="C139" s="25"/>
-      <c r="D139" s="25"/>
-      <c r="E139" s="25"/>
-      <c r="F139" s="25"/>
-      <c r="G139" s="28"/>
+      <c r="C139" s="24"/>
+      <c r="D139" s="24"/>
+      <c r="E139" s="24"/>
+      <c r="F139" s="24"/>
+      <c r="G139" s="27"/>
       <c r="H139" s="12"/>
       <c r="I139" s="12"/>
       <c r="J139" s="12"/>
@@ -4560,14 +4568,14 @@
       </c>
     </row>
     <row r="140" spans="2:12">
-      <c r="B140" s="24" t="s">
+      <c r="B140" s="23" t="s">
         <v>126</v>
       </c>
-      <c r="C140" s="25"/>
-      <c r="D140" s="25"/>
-      <c r="E140" s="25"/>
-      <c r="F140" s="25"/>
-      <c r="G140" s="28"/>
+      <c r="C140" s="24"/>
+      <c r="D140" s="24"/>
+      <c r="E140" s="24"/>
+      <c r="F140" s="24"/>
+      <c r="G140" s="27"/>
       <c r="H140" s="12"/>
       <c r="I140" s="12"/>
       <c r="J140" s="12"/>
@@ -4579,14 +4587,14 @@
       </c>
     </row>
     <row r="141" spans="2:12">
-      <c r="B141" s="24" t="s">
+      <c r="B141" s="23" t="s">
         <v>127</v>
       </c>
-      <c r="C141" s="25"/>
-      <c r="D141" s="25"/>
-      <c r="E141" s="25"/>
-      <c r="F141" s="25"/>
-      <c r="G141" s="28"/>
+      <c r="C141" s="24"/>
+      <c r="D141" s="24"/>
+      <c r="E141" s="24"/>
+      <c r="F141" s="24"/>
+      <c r="G141" s="27"/>
       <c r="H141" s="12"/>
       <c r="I141" s="12"/>
       <c r="J141" s="12"/>
@@ -4598,14 +4606,14 @@
       </c>
     </row>
     <row r="142" spans="2:12">
-      <c r="B142" s="24" t="s">
+      <c r="B142" s="23" t="s">
         <v>128</v>
       </c>
-      <c r="C142" s="25"/>
-      <c r="D142" s="25"/>
-      <c r="E142" s="25"/>
-      <c r="F142" s="25"/>
-      <c r="G142" s="28"/>
+      <c r="C142" s="24"/>
+      <c r="D142" s="24"/>
+      <c r="E142" s="24"/>
+      <c r="F142" s="24"/>
+      <c r="G142" s="27"/>
       <c r="H142" s="12"/>
       <c r="I142" s="12"/>
       <c r="J142" s="12"/>
@@ -4634,7 +4642,7 @@
       <c r="D145" s="20"/>
       <c r="E145" s="20"/>
       <c r="F145" s="20"/>
-      <c r="G145" s="26"/>
+      <c r="G145" s="25"/>
       <c r="H145" s="13">
         <v>43498</v>
       </c>
@@ -4659,7 +4667,7 @@
       <c r="D146" s="20"/>
       <c r="E146" s="20"/>
       <c r="F146" s="20"/>
-      <c r="G146" s="26"/>
+      <c r="G146" s="25"/>
       <c r="H146" s="13">
         <v>43498</v>
       </c>
@@ -4684,7 +4692,7 @@
       <c r="D147" s="20"/>
       <c r="E147" s="20"/>
       <c r="F147" s="20"/>
-      <c r="G147" s="26"/>
+      <c r="G147" s="25"/>
       <c r="H147" s="13">
         <v>43498</v>
       </c>
@@ -4709,7 +4717,7 @@
       <c r="D148" s="20"/>
       <c r="E148" s="20"/>
       <c r="F148" s="20"/>
-      <c r="G148" s="26"/>
+      <c r="G148" s="25"/>
       <c r="H148" s="13">
         <v>43498</v>
       </c>
@@ -4734,7 +4742,7 @@
       <c r="D149" s="20"/>
       <c r="E149" s="20"/>
       <c r="F149" s="20"/>
-      <c r="G149" s="26"/>
+      <c r="G149" s="25"/>
       <c r="H149" s="13">
         <v>43498</v>
       </c>
@@ -4759,7 +4767,7 @@
       <c r="D150" s="20"/>
       <c r="E150" s="20"/>
       <c r="F150" s="20"/>
-      <c r="G150" s="26"/>
+      <c r="G150" s="25"/>
       <c r="H150" s="13">
         <v>43498</v>
       </c>
@@ -4784,7 +4792,7 @@
       <c r="D151" s="20"/>
       <c r="E151" s="20"/>
       <c r="F151" s="20"/>
-      <c r="G151" s="26"/>
+      <c r="G151" s="25"/>
       <c r="H151" s="13">
         <v>43498</v>
       </c>
@@ -4809,7 +4817,7 @@
       <c r="D152" s="20"/>
       <c r="E152" s="20"/>
       <c r="F152" s="20"/>
-      <c r="G152" s="26"/>
+      <c r="G152" s="25"/>
       <c r="H152" s="13">
         <v>43498</v>
       </c>
@@ -4837,14 +4845,14 @@
       <c r="G154" s="14"/>
     </row>
     <row r="155" spans="2:12">
-      <c r="B155" s="24" t="s">
+      <c r="B155" s="23" t="s">
         <v>139</v>
       </c>
-      <c r="C155" s="25"/>
-      <c r="D155" s="25"/>
-      <c r="E155" s="25"/>
-      <c r="F155" s="25"/>
-      <c r="G155" s="28"/>
+      <c r="C155" s="24"/>
+      <c r="D155" s="24"/>
+      <c r="E155" s="24"/>
+      <c r="F155" s="24"/>
+      <c r="G155" s="27"/>
       <c r="H155" s="12"/>
       <c r="I155" s="12"/>
       <c r="J155" s="12"/>
@@ -4856,14 +4864,14 @@
       </c>
     </row>
     <row r="156" spans="2:12">
-      <c r="B156" s="24" t="s">
+      <c r="B156" s="23" t="s">
         <v>140</v>
       </c>
-      <c r="C156" s="25"/>
-      <c r="D156" s="25"/>
-      <c r="E156" s="25"/>
-      <c r="F156" s="25"/>
-      <c r="G156" s="28"/>
+      <c r="C156" s="24"/>
+      <c r="D156" s="24"/>
+      <c r="E156" s="24"/>
+      <c r="F156" s="24"/>
+      <c r="G156" s="27"/>
       <c r="H156" s="12"/>
       <c r="I156" s="12"/>
       <c r="J156" s="12"/>
@@ -4875,14 +4883,14 @@
       </c>
     </row>
     <row r="157" spans="2:12">
-      <c r="B157" s="24" t="s">
+      <c r="B157" s="23" t="s">
         <v>141</v>
       </c>
-      <c r="C157" s="25"/>
-      <c r="D157" s="25"/>
-      <c r="E157" s="25"/>
-      <c r="F157" s="25"/>
-      <c r="G157" s="28"/>
+      <c r="C157" s="24"/>
+      <c r="D157" s="24"/>
+      <c r="E157" s="24"/>
+      <c r="F157" s="24"/>
+      <c r="G157" s="27"/>
       <c r="H157" s="12"/>
       <c r="I157" s="12"/>
       <c r="J157" s="12"/>
@@ -4894,14 +4902,14 @@
       </c>
     </row>
     <row r="158" spans="2:12">
-      <c r="B158" s="24" t="s">
+      <c r="B158" s="23" t="s">
         <v>142</v>
       </c>
-      <c r="C158" s="25"/>
-      <c r="D158" s="25"/>
-      <c r="E158" s="25"/>
-      <c r="F158" s="25"/>
-      <c r="G158" s="28"/>
+      <c r="C158" s="24"/>
+      <c r="D158" s="24"/>
+      <c r="E158" s="24"/>
+      <c r="F158" s="24"/>
+      <c r="G158" s="27"/>
       <c r="H158" s="12"/>
       <c r="I158" s="12"/>
       <c r="J158" s="12"/>
@@ -4913,14 +4921,14 @@
       </c>
     </row>
     <row r="159" spans="2:12">
-      <c r="B159" s="24" t="s">
+      <c r="B159" s="23" t="s">
         <v>143</v>
       </c>
-      <c r="C159" s="25"/>
-      <c r="D159" s="25"/>
-      <c r="E159" s="25"/>
-      <c r="F159" s="25"/>
-      <c r="G159" s="28"/>
+      <c r="C159" s="24"/>
+      <c r="D159" s="24"/>
+      <c r="E159" s="24"/>
+      <c r="F159" s="24"/>
+      <c r="G159" s="27"/>
       <c r="H159" s="12"/>
       <c r="I159" s="12"/>
       <c r="J159" s="12"/>
@@ -4932,14 +4940,14 @@
       </c>
     </row>
     <row r="160" spans="2:12">
-      <c r="B160" s="24" t="s">
+      <c r="B160" s="23" t="s">
         <v>144</v>
       </c>
-      <c r="C160" s="25"/>
-      <c r="D160" s="25"/>
-      <c r="E160" s="25"/>
-      <c r="F160" s="25"/>
-      <c r="G160" s="28"/>
+      <c r="C160" s="24"/>
+      <c r="D160" s="24"/>
+      <c r="E160" s="24"/>
+      <c r="F160" s="24"/>
+      <c r="G160" s="27"/>
       <c r="H160" s="12"/>
       <c r="I160" s="12"/>
       <c r="J160" s="12"/>
@@ -4968,7 +4976,7 @@
       <c r="D163" s="20"/>
       <c r="E163" s="20"/>
       <c r="F163" s="20"/>
-      <c r="G163" s="26"/>
+      <c r="G163" s="25"/>
       <c r="H163" s="13">
         <v>43498</v>
       </c>
@@ -4993,7 +5001,7 @@
       <c r="D164" s="20"/>
       <c r="E164" s="20"/>
       <c r="F164" s="20"/>
-      <c r="G164" s="26"/>
+      <c r="G164" s="25"/>
       <c r="H164" s="13">
         <v>43498</v>
       </c>
@@ -5021,14 +5029,14 @@
       <c r="G166" s="14"/>
     </row>
     <row r="167" spans="2:12">
-      <c r="B167" s="24" t="s">
+      <c r="B167" s="23" t="s">
         <v>149</v>
       </c>
-      <c r="C167" s="25"/>
-      <c r="D167" s="25"/>
-      <c r="E167" s="25"/>
-      <c r="F167" s="25"/>
-      <c r="G167" s="28"/>
+      <c r="C167" s="24"/>
+      <c r="D167" s="24"/>
+      <c r="E167" s="24"/>
+      <c r="F167" s="24"/>
+      <c r="G167" s="27"/>
       <c r="H167" s="12"/>
       <c r="I167" s="12"/>
       <c r="J167" s="12"/>
@@ -5040,14 +5048,14 @@
       </c>
     </row>
     <row r="168" spans="2:12">
-      <c r="B168" s="24" t="s">
+      <c r="B168" s="23" t="s">
         <v>150</v>
       </c>
-      <c r="C168" s="25"/>
-      <c r="D168" s="25"/>
-      <c r="E168" s="25"/>
-      <c r="F168" s="25"/>
-      <c r="G168" s="28"/>
+      <c r="C168" s="24"/>
+      <c r="D168" s="24"/>
+      <c r="E168" s="24"/>
+      <c r="F168" s="24"/>
+      <c r="G168" s="27"/>
       <c r="H168" s="12"/>
       <c r="I168" s="12"/>
       <c r="J168" s="12"/>
@@ -5059,14 +5067,14 @@
       </c>
     </row>
     <row r="169" spans="2:12">
-      <c r="B169" s="24" t="s">
+      <c r="B169" s="23" t="s">
         <v>151</v>
       </c>
-      <c r="C169" s="25"/>
-      <c r="D169" s="25"/>
-      <c r="E169" s="25"/>
-      <c r="F169" s="25"/>
-      <c r="G169" s="28"/>
+      <c r="C169" s="24"/>
+      <c r="D169" s="24"/>
+      <c r="E169" s="24"/>
+      <c r="F169" s="24"/>
+      <c r="G169" s="27"/>
       <c r="H169" s="12"/>
       <c r="I169" s="12"/>
       <c r="J169" s="12"/>
@@ -5078,14 +5086,14 @@
       </c>
     </row>
     <row r="170" spans="2:12">
-      <c r="B170" s="24" t="s">
+      <c r="B170" s="23" t="s">
         <v>152</v>
       </c>
-      <c r="C170" s="25"/>
-      <c r="D170" s="25"/>
-      <c r="E170" s="25"/>
-      <c r="F170" s="25"/>
-      <c r="G170" s="28"/>
+      <c r="C170" s="24"/>
+      <c r="D170" s="24"/>
+      <c r="E170" s="24"/>
+      <c r="F170" s="24"/>
+      <c r="G170" s="27"/>
       <c r="H170" s="12"/>
       <c r="I170" s="12"/>
       <c r="J170" s="12"/>
@@ -5114,7 +5122,7 @@
       <c r="D173" s="20"/>
       <c r="E173" s="20"/>
       <c r="F173" s="20"/>
-      <c r="G173" s="26"/>
+      <c r="G173" s="25"/>
       <c r="H173" s="13">
         <v>43424</v>
       </c>
@@ -5139,7 +5147,7 @@
       <c r="D174" s="20"/>
       <c r="E174" s="20"/>
       <c r="F174" s="20"/>
-      <c r="G174" s="26"/>
+      <c r="G174" s="25"/>
       <c r="H174" s="13">
         <v>43451</v>
       </c>
@@ -5167,14 +5175,14 @@
       <c r="G176" s="14"/>
     </row>
     <row r="177" spans="2:12">
-      <c r="B177" s="24" t="s">
+      <c r="B177" s="23" t="s">
         <v>157</v>
       </c>
-      <c r="C177" s="25"/>
-      <c r="D177" s="25"/>
-      <c r="E177" s="25"/>
-      <c r="F177" s="25"/>
-      <c r="G177" s="28"/>
+      <c r="C177" s="24"/>
+      <c r="D177" s="24"/>
+      <c r="E177" s="24"/>
+      <c r="F177" s="24"/>
+      <c r="G177" s="27"/>
       <c r="H177" s="12"/>
       <c r="I177" s="12"/>
       <c r="J177" s="12"/>
@@ -5186,14 +5194,14 @@
       </c>
     </row>
     <row r="178" spans="2:12">
-      <c r="B178" s="24" t="s">
+      <c r="B178" s="23" t="s">
         <v>158</v>
       </c>
-      <c r="C178" s="25"/>
-      <c r="D178" s="25"/>
-      <c r="E178" s="25"/>
-      <c r="F178" s="25"/>
-      <c r="G178" s="28"/>
+      <c r="C178" s="24"/>
+      <c r="D178" s="24"/>
+      <c r="E178" s="24"/>
+      <c r="F178" s="24"/>
+      <c r="G178" s="27"/>
       <c r="H178" s="12"/>
       <c r="I178" s="12"/>
       <c r="J178" s="12"/>
@@ -5205,14 +5213,14 @@
       </c>
     </row>
     <row r="179" spans="2:12">
-      <c r="B179" s="24" t="s">
+      <c r="B179" s="23" t="s">
         <v>159</v>
       </c>
-      <c r="C179" s="25"/>
-      <c r="D179" s="25"/>
-      <c r="E179" s="25"/>
-      <c r="F179" s="25"/>
-      <c r="G179" s="28"/>
+      <c r="C179" s="24"/>
+      <c r="D179" s="24"/>
+      <c r="E179" s="24"/>
+      <c r="F179" s="24"/>
+      <c r="G179" s="27"/>
       <c r="H179" s="12"/>
       <c r="I179" s="12"/>
       <c r="J179" s="12"/>
@@ -5224,14 +5232,14 @@
       </c>
     </row>
     <row r="180" spans="2:12">
-      <c r="B180" s="24" t="s">
+      <c r="B180" s="23" t="s">
         <v>160</v>
       </c>
-      <c r="C180" s="25"/>
-      <c r="D180" s="25"/>
-      <c r="E180" s="25"/>
-      <c r="F180" s="25"/>
-      <c r="G180" s="28"/>
+      <c r="C180" s="24"/>
+      <c r="D180" s="24"/>
+      <c r="E180" s="24"/>
+      <c r="F180" s="24"/>
+      <c r="G180" s="27"/>
       <c r="H180" s="12"/>
       <c r="I180" s="12"/>
       <c r="J180" s="12"/>
@@ -5253,14 +5261,14 @@
       <c r="G182" s="14"/>
     </row>
     <row r="183" spans="2:12">
-      <c r="B183" s="24" t="s">
+      <c r="B183" s="23" t="s">
         <v>162</v>
       </c>
-      <c r="C183" s="25"/>
-      <c r="D183" s="25"/>
-      <c r="E183" s="25"/>
-      <c r="F183" s="25"/>
-      <c r="G183" s="28"/>
+      <c r="C183" s="24"/>
+      <c r="D183" s="24"/>
+      <c r="E183" s="24"/>
+      <c r="F183" s="24"/>
+      <c r="G183" s="27"/>
       <c r="H183" s="12"/>
       <c r="I183" s="12"/>
       <c r="J183" s="12"/>
@@ -5272,14 +5280,14 @@
       </c>
     </row>
     <row r="184" spans="2:12">
-      <c r="B184" s="24" t="s">
+      <c r="B184" s="23" t="s">
         <v>163</v>
       </c>
-      <c r="C184" s="25"/>
-      <c r="D184" s="25"/>
-      <c r="E184" s="25"/>
-      <c r="F184" s="25"/>
-      <c r="G184" s="28"/>
+      <c r="C184" s="24"/>
+      <c r="D184" s="24"/>
+      <c r="E184" s="24"/>
+      <c r="F184" s="24"/>
+      <c r="G184" s="27"/>
       <c r="H184" s="12"/>
       <c r="I184" s="12"/>
       <c r="J184" s="12"/>
@@ -5291,14 +5299,14 @@
       </c>
     </row>
     <row r="185" spans="2:12">
-      <c r="B185" s="24" t="s">
+      <c r="B185" s="23" t="s">
         <v>164</v>
       </c>
-      <c r="C185" s="25"/>
-      <c r="D185" s="25"/>
-      <c r="E185" s="25"/>
-      <c r="F185" s="25"/>
-      <c r="G185" s="28"/>
+      <c r="C185" s="24"/>
+      <c r="D185" s="24"/>
+      <c r="E185" s="24"/>
+      <c r="F185" s="24"/>
+      <c r="G185" s="27"/>
       <c r="H185" s="12"/>
       <c r="I185" s="12"/>
       <c r="J185" s="12"/>
@@ -5310,14 +5318,14 @@
       </c>
     </row>
     <row r="186" spans="2:12">
-      <c r="B186" s="24" t="s">
+      <c r="B186" s="23" t="s">
         <v>165</v>
       </c>
-      <c r="C186" s="25"/>
-      <c r="D186" s="25"/>
-      <c r="E186" s="25"/>
-      <c r="F186" s="25"/>
-      <c r="G186" s="28"/>
+      <c r="C186" s="24"/>
+      <c r="D186" s="24"/>
+      <c r="E186" s="24"/>
+      <c r="F186" s="24"/>
+      <c r="G186" s="27"/>
       <c r="H186" s="12"/>
       <c r="I186" s="12"/>
       <c r="J186" s="12"/>
@@ -5346,7 +5354,7 @@
       <c r="D189" s="20"/>
       <c r="E189" s="20"/>
       <c r="F189" s="20"/>
-      <c r="G189" s="26"/>
+      <c r="G189" s="25"/>
       <c r="H189" s="13">
         <v>43424</v>
       </c>
@@ -5356,7 +5364,7 @@
       <c r="J189" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="K189" s="30" t="s">
+      <c r="K189" s="28" t="s">
         <v>9</v>
       </c>
       <c r="L189" s="18" t="s">
@@ -5374,14 +5382,14 @@
       <c r="G191" s="14"/>
     </row>
     <row r="192" spans="2:12">
-      <c r="B192" s="24" t="s">
+      <c r="B192" s="23" t="s">
         <v>169</v>
       </c>
-      <c r="C192" s="25"/>
-      <c r="D192" s="25"/>
-      <c r="E192" s="25"/>
-      <c r="F192" s="25"/>
-      <c r="G192" s="28"/>
+      <c r="C192" s="24"/>
+      <c r="D192" s="24"/>
+      <c r="E192" s="24"/>
+      <c r="F192" s="24"/>
+      <c r="G192" s="27"/>
       <c r="H192" s="12"/>
       <c r="I192" s="12"/>
       <c r="J192" s="12"/>
@@ -5393,14 +5401,14 @@
       </c>
     </row>
     <row r="193" spans="2:12">
-      <c r="B193" s="24" t="s">
+      <c r="B193" s="23" t="s">
         <v>170</v>
       </c>
-      <c r="C193" s="25"/>
-      <c r="D193" s="25"/>
-      <c r="E193" s="25"/>
-      <c r="F193" s="25"/>
-      <c r="G193" s="28"/>
+      <c r="C193" s="24"/>
+      <c r="D193" s="24"/>
+      <c r="E193" s="24"/>
+      <c r="F193" s="24"/>
+      <c r="G193" s="27"/>
       <c r="H193" s="12"/>
       <c r="I193" s="12"/>
       <c r="J193" s="12"/>
@@ -5412,14 +5420,14 @@
       </c>
     </row>
     <row r="194" spans="2:12">
-      <c r="B194" s="24" t="s">
+      <c r="B194" s="23" t="s">
         <v>171</v>
       </c>
-      <c r="C194" s="25"/>
-      <c r="D194" s="25"/>
-      <c r="E194" s="25"/>
-      <c r="F194" s="25"/>
-      <c r="G194" s="28"/>
+      <c r="C194" s="24"/>
+      <c r="D194" s="24"/>
+      <c r="E194" s="24"/>
+      <c r="F194" s="24"/>
+      <c r="G194" s="27"/>
       <c r="H194" s="12"/>
       <c r="I194" s="12"/>
       <c r="J194" s="12"/>
@@ -5431,14 +5439,14 @@
       </c>
     </row>
     <row r="195" spans="2:12">
-      <c r="B195" s="24" t="s">
+      <c r="B195" s="23" t="s">
         <v>172</v>
       </c>
-      <c r="C195" s="25"/>
-      <c r="D195" s="25"/>
-      <c r="E195" s="25"/>
-      <c r="F195" s="25"/>
-      <c r="G195" s="28"/>
+      <c r="C195" s="24"/>
+      <c r="D195" s="24"/>
+      <c r="E195" s="24"/>
+      <c r="F195" s="24"/>
+      <c r="G195" s="27"/>
       <c r="H195" s="12"/>
       <c r="I195" s="12"/>
       <c r="J195" s="12"/>
@@ -5467,7 +5475,7 @@
       <c r="D198" s="20"/>
       <c r="E198" s="20"/>
       <c r="F198" s="20"/>
-      <c r="G198" s="26"/>
+      <c r="G198" s="25"/>
       <c r="H198" s="13">
         <v>43451</v>
       </c>
@@ -5495,14 +5503,14 @@
       <c r="G200" s="14"/>
     </row>
     <row r="201" spans="2:12">
-      <c r="B201" s="24" t="s">
+      <c r="B201" s="23" t="s">
         <v>176</v>
       </c>
-      <c r="C201" s="25"/>
-      <c r="D201" s="25"/>
-      <c r="E201" s="25"/>
-      <c r="F201" s="25"/>
-      <c r="G201" s="28"/>
+      <c r="C201" s="24"/>
+      <c r="D201" s="24"/>
+      <c r="E201" s="24"/>
+      <c r="F201" s="24"/>
+      <c r="G201" s="27"/>
       <c r="H201" s="12"/>
       <c r="I201" s="12"/>
       <c r="J201" s="12"/>
@@ -5514,14 +5522,14 @@
       </c>
     </row>
     <row r="202" spans="2:12">
-      <c r="B202" s="24" t="s">
+      <c r="B202" s="23" t="s">
         <v>177</v>
       </c>
-      <c r="C202" s="25"/>
-      <c r="D202" s="25"/>
-      <c r="E202" s="25"/>
-      <c r="F202" s="25"/>
-      <c r="G202" s="28"/>
+      <c r="C202" s="24"/>
+      <c r="D202" s="24"/>
+      <c r="E202" s="24"/>
+      <c r="F202" s="24"/>
+      <c r="G202" s="27"/>
       <c r="H202" s="12"/>
       <c r="I202" s="12"/>
       <c r="J202" s="12"/>
@@ -5533,14 +5541,14 @@
       </c>
     </row>
     <row r="203" spans="2:12">
-      <c r="B203" s="24" t="s">
+      <c r="B203" s="23" t="s">
         <v>178</v>
       </c>
-      <c r="C203" s="25"/>
-      <c r="D203" s="25"/>
-      <c r="E203" s="25"/>
-      <c r="F203" s="25"/>
-      <c r="G203" s="28"/>
+      <c r="C203" s="24"/>
+      <c r="D203" s="24"/>
+      <c r="E203" s="24"/>
+      <c r="F203" s="24"/>
+      <c r="G203" s="27"/>
       <c r="H203" s="12"/>
       <c r="I203" s="12"/>
       <c r="J203" s="12"/>
@@ -5552,14 +5560,14 @@
       </c>
     </row>
     <row r="204" spans="2:12">
-      <c r="B204" s="24" t="s">
+      <c r="B204" s="23" t="s">
         <v>179</v>
       </c>
-      <c r="C204" s="25"/>
-      <c r="D204" s="25"/>
-      <c r="E204" s="25"/>
-      <c r="F204" s="25"/>
-      <c r="G204" s="28"/>
+      <c r="C204" s="24"/>
+      <c r="D204" s="24"/>
+      <c r="E204" s="24"/>
+      <c r="F204" s="24"/>
+      <c r="G204" s="27"/>
       <c r="H204" s="12"/>
       <c r="I204" s="12"/>
       <c r="J204" s="12"/>
@@ -5588,7 +5596,7 @@
       <c r="D207" s="20"/>
       <c r="E207" s="20"/>
       <c r="F207" s="20"/>
-      <c r="G207" s="26"/>
+      <c r="G207" s="25"/>
       <c r="H207" s="13">
         <v>43451</v>
       </c>
@@ -5616,14 +5624,14 @@
       <c r="G209" s="14"/>
     </row>
     <row r="210" spans="2:12">
-      <c r="B210" s="24" t="s">
+      <c r="B210" s="23" t="s">
         <v>183</v>
       </c>
-      <c r="C210" s="25"/>
-      <c r="D210" s="25"/>
-      <c r="E210" s="25"/>
-      <c r="F210" s="25"/>
-      <c r="G210" s="28"/>
+      <c r="C210" s="24"/>
+      <c r="D210" s="24"/>
+      <c r="E210" s="24"/>
+      <c r="F210" s="24"/>
+      <c r="G210" s="27"/>
       <c r="H210" s="12"/>
       <c r="I210" s="12"/>
       <c r="J210" s="12"/>
@@ -5635,14 +5643,14 @@
       </c>
     </row>
     <row r="211" spans="2:12">
-      <c r="B211" s="24" t="s">
+      <c r="B211" s="23" t="s">
         <v>184</v>
       </c>
-      <c r="C211" s="25"/>
-      <c r="D211" s="25"/>
-      <c r="E211" s="25"/>
-      <c r="F211" s="25"/>
-      <c r="G211" s="28"/>
+      <c r="C211" s="24"/>
+      <c r="D211" s="24"/>
+      <c r="E211" s="24"/>
+      <c r="F211" s="24"/>
+      <c r="G211" s="27"/>
       <c r="H211" s="12"/>
       <c r="I211" s="12"/>
       <c r="J211" s="12"/>
@@ -5654,14 +5662,14 @@
       </c>
     </row>
     <row r="212" spans="2:12">
-      <c r="B212" s="24" t="s">
+      <c r="B212" s="23" t="s">
         <v>185</v>
       </c>
-      <c r="C212" s="25"/>
-      <c r="D212" s="25"/>
-      <c r="E212" s="25"/>
-      <c r="F212" s="25"/>
-      <c r="G212" s="28"/>
+      <c r="C212" s="24"/>
+      <c r="D212" s="24"/>
+      <c r="E212" s="24"/>
+      <c r="F212" s="24"/>
+      <c r="G212" s="27"/>
       <c r="H212" s="12"/>
       <c r="I212" s="12"/>
       <c r="J212" s="12"/>
@@ -5673,14 +5681,14 @@
       </c>
     </row>
     <row r="213" spans="2:12">
-      <c r="B213" s="24" t="s">
+      <c r="B213" s="23" t="s">
         <v>186</v>
       </c>
-      <c r="C213" s="25"/>
-      <c r="D213" s="25"/>
-      <c r="E213" s="25"/>
-      <c r="F213" s="25"/>
-      <c r="G213" s="28"/>
+      <c r="C213" s="24"/>
+      <c r="D213" s="24"/>
+      <c r="E213" s="24"/>
+      <c r="F213" s="24"/>
+      <c r="G213" s="27"/>
       <c r="H213" s="12"/>
       <c r="I213" s="12"/>
       <c r="J213" s="12"/>
@@ -5702,14 +5710,14 @@
       <c r="G215" s="14"/>
     </row>
     <row r="216" spans="2:12">
-      <c r="B216" s="24" t="s">
+      <c r="B216" s="23" t="s">
         <v>188</v>
       </c>
-      <c r="C216" s="25"/>
-      <c r="D216" s="25"/>
-      <c r="E216" s="25"/>
-      <c r="F216" s="25"/>
-      <c r="G216" s="28"/>
+      <c r="C216" s="24"/>
+      <c r="D216" s="24"/>
+      <c r="E216" s="24"/>
+      <c r="F216" s="24"/>
+      <c r="G216" s="27"/>
       <c r="H216" s="12"/>
       <c r="I216" s="12"/>
       <c r="J216" s="12"/>
@@ -5721,14 +5729,14 @@
       </c>
     </row>
     <row r="217" spans="2:12">
-      <c r="B217" s="24" t="s">
+      <c r="B217" s="23" t="s">
         <v>189</v>
       </c>
-      <c r="C217" s="25"/>
-      <c r="D217" s="25"/>
-      <c r="E217" s="25"/>
-      <c r="F217" s="25"/>
-      <c r="G217" s="28"/>
+      <c r="C217" s="24"/>
+      <c r="D217" s="24"/>
+      <c r="E217" s="24"/>
+      <c r="F217" s="24"/>
+      <c r="G217" s="27"/>
       <c r="H217" s="12"/>
       <c r="I217" s="12"/>
       <c r="J217" s="12"/>
@@ -5740,14 +5748,14 @@
       </c>
     </row>
     <row r="218" spans="2:12">
-      <c r="B218" s="24" t="s">
+      <c r="B218" s="23" t="s">
         <v>190</v>
       </c>
-      <c r="C218" s="25"/>
-      <c r="D218" s="25"/>
-      <c r="E218" s="25"/>
-      <c r="F218" s="25"/>
-      <c r="G218" s="28"/>
+      <c r="C218" s="24"/>
+      <c r="D218" s="24"/>
+      <c r="E218" s="24"/>
+      <c r="F218" s="24"/>
+      <c r="G218" s="27"/>
       <c r="H218" s="12"/>
       <c r="I218" s="12"/>
       <c r="J218" s="12"/>
@@ -5759,14 +5767,14 @@
       </c>
     </row>
     <row r="219" spans="2:12">
-      <c r="B219" s="24" t="s">
+      <c r="B219" s="23" t="s">
         <v>191</v>
       </c>
-      <c r="C219" s="25"/>
-      <c r="D219" s="25"/>
-      <c r="E219" s="25"/>
-      <c r="F219" s="25"/>
-      <c r="G219" s="28"/>
+      <c r="C219" s="24"/>
+      <c r="D219" s="24"/>
+      <c r="E219" s="24"/>
+      <c r="F219" s="24"/>
+      <c r="G219" s="27"/>
       <c r="H219" s="12"/>
       <c r="I219" s="12"/>
       <c r="J219" s="12"/>
@@ -5778,14 +5786,14 @@
       </c>
     </row>
     <row r="220" spans="2:12">
-      <c r="B220" s="24" t="s">
+      <c r="B220" s="23" t="s">
         <v>192</v>
       </c>
-      <c r="C220" s="25"/>
-      <c r="D220" s="25"/>
-      <c r="E220" s="25"/>
-      <c r="F220" s="25"/>
-      <c r="G220" s="28"/>
+      <c r="C220" s="24"/>
+      <c r="D220" s="24"/>
+      <c r="E220" s="24"/>
+      <c r="F220" s="24"/>
+      <c r="G220" s="27"/>
       <c r="H220" s="12"/>
       <c r="I220" s="12"/>
       <c r="J220" s="12"/>
@@ -5986,7 +5994,7 @@
     <mergeCell ref="B220:G220"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I3 J3 K3 L3 J17 L21 J22 K22:L22 J23 K23:L23 K30 I33 L39 L53 L54 J56 K56 L61 J62 K62 L62 L65 J69 K69 J78:K78 L78 J79:K79 L79 J80:K80 L80 I83 J83 K83 L83 J86 K86 L86 K87:L87 I103 J103 K103:L103 J106 K106 L106 I107 I108 I109 J112 K112 L112 J113 K113 L113 J132 J133 J134 K134:L134 J145 J146 J147 J148 J149 J150 L150 J151 L151 J152 L152 J163 L163 J164 L164 J173:K173 J174 K174 I189 J189 K189 L189 I198 J198 K198:L198 I207 J207 K207:L207 I6:I14 I17:I21 I26:I30 I34:I36 I37:I41 I45:I50 I53:I56 I59:I62 I65:I69 I72:I80 I86:I89 I92:I100 I104:I106 I112:I113 I132:I133 I145:I152 I163:I164 I173:I174 J6:J10 J11:J14 J18:J21 J26:J30 J37:J41 J45:J50 J59:J61 J65:J68 J87:J89 J92:J100 J104:J105 J107:J109 J116:J119 J122:J127 J130:J131 J137:J142 J155:J160 J167:J170 J177:J180 J183:J186 J192:J195 J201:J204 J210:J213 J216:J220 K6:K10 K11:K14 K17:K21 K26:K29 K37:K41 K45:K50 K59:K61 K65:K68 K88:K89 K92:K100 K104:K105 K107:K109 K116:K119 K132:K133 K145:K152 K163:K164 L6:L14 L17:L20 L26:L30 L33:L34 L35:L36 L37:L38 L40:L41 L45:L48 L49:L50 L55:L56 L59:L60 L66:L69 L72:L73 L74:L77 L88:L89 L92:L100 L104:L105 L107:L109 L116:L119 L132:L133 L145:L149 L173:L174 J33:K36 J53:K55 J72:K77 K183:L186 K192:L195 K201:L204 K177:L180 K122:L127 K137:L142 K155:L160 K167:L170 K210:L213 K216:L220 K130:L131">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I3 J3 K3 L3 J17 L21 J22 K22:L22 J23 K23:L23 K30 I33 L39 L53 L54 J56 K56 L61 J62 K62 L62 L65 J69 K69 J78:K78 L78 J79:K79 L79 J80:K80 L80 I83 J83 K83 L83 J86 K86 L86 K87:L87 I103 J103 K103:L103 J106 K106 L106 J112 K112 L112 J113 K113 L113 J132 J133 J134 K134:L134 J145 J146 J147 J148 J149 J150 L150 J151 L151 J152 L152 J163 L163 J164 L164 J173:K173 J174 K174 I189 J189 K189 L189 I198 J198 K198:L198 I207 J207 K207:L207 I6:I14 I17:I21 I26:I30 I34:I36 I37:I41 I45:I50 I53:I56 I59:I62 I65:I69 I72:I80 I86:I89 I92:I100 I104:I106 I107:I109 I112:I113 I116:I119 I132:I133 I145:I152 I163:I164 I173:I174 J6:J10 J11:J14 J18:J21 J26:J30 J37:J41 J45:J50 J59:J61 J65:J68 J87:J89 J92:J100 J104:J105 J107:J109 J116:J119 J122:J127 J130:J131 J137:J142 J155:J160 J167:J170 J177:J180 J183:J186 J192:J195 J201:J204 J210:J213 J216:J220 K6:K10 K11:K14 K17:K21 K26:K29 K37:K41 K45:K50 K59:K61 K65:K68 K88:K89 K92:K100 K104:K105 K107:K109 K116:K119 K132:K133 K145:K152 K163:K164 L6:L14 L17:L20 L26:L30 L33:L34 L35:L36 L37:L38 L40:L41 L45:L48 L49:L50 L55:L56 L59:L60 L66:L69 L72:L73 L74:L77 L88:L89 L92:L100 L104:L105 L107:L109 L116:L119 L132:L133 L145:L149 L173:L174 J33:K36 J53:K55 J72:K77 K183:L186 K192:L195 K201:L204 K177:L180 K122:L127 K137:L142 K155:L160 K167:L170 K210:L213 K216:L220 K130:L131">
       <formula1>$S$3:$S$4</formula1>
     </dataValidation>
   </dataValidations>

--- a/课程跟踪.xlsx
+++ b/课程跟踪.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24520" windowHeight="15480"/>
+    <workbookView windowWidth="19820" windowHeight="13920"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -604,8 +604,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
@@ -625,6 +625,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -633,6 +640,29 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -654,8 +684,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -663,17 +701,31 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -685,11 +737,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -703,68 +754,17 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -807,6 +807,24 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -819,19 +837,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -843,7 +897,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -861,13 +927,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -879,61 +945,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -945,31 +969,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1048,6 +1048,24 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -1078,11 +1096,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1091,7 +1115,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1111,21 +1135,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -1136,162 +1145,153 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1365,16 +1365,16 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
@@ -3054,7 +3054,7 @@
       <c r="D65" s="20"/>
       <c r="E65" s="20"/>
       <c r="F65" s="20"/>
-      <c r="G65" s="25"/>
+      <c r="G65" s="23"/>
       <c r="H65" s="13">
         <v>43427</v>
       </c>
@@ -3082,7 +3082,7 @@
       <c r="D66" s="20"/>
       <c r="E66" s="20"/>
       <c r="F66" s="20"/>
-      <c r="G66" s="25"/>
+      <c r="G66" s="23"/>
       <c r="H66" s="13">
         <v>43427</v>
       </c>
@@ -3110,7 +3110,7 @@
       <c r="D67" s="20"/>
       <c r="E67" s="20"/>
       <c r="F67" s="20"/>
-      <c r="G67" s="25"/>
+      <c r="G67" s="23"/>
       <c r="H67" s="13">
         <v>43427</v>
       </c>
@@ -3138,7 +3138,7 @@
       <c r="D68" s="20"/>
       <c r="E68" s="20"/>
       <c r="F68" s="20"/>
-      <c r="G68" s="25"/>
+      <c r="G68" s="23"/>
       <c r="H68" s="13">
         <v>43427</v>
       </c>
@@ -3166,7 +3166,7 @@
       <c r="D69" s="20"/>
       <c r="E69" s="20"/>
       <c r="F69" s="20"/>
-      <c r="G69" s="25"/>
+      <c r="G69" s="23"/>
       <c r="H69" s="13">
         <v>43451</v>
       </c>
@@ -3204,7 +3204,7 @@
       <c r="D72" s="20"/>
       <c r="E72" s="20"/>
       <c r="F72" s="20"/>
-      <c r="G72" s="25"/>
+      <c r="G72" s="23"/>
       <c r="H72" s="13">
         <v>43486</v>
       </c>
@@ -3232,7 +3232,7 @@
       <c r="D73" s="20"/>
       <c r="E73" s="20"/>
       <c r="F73" s="20"/>
-      <c r="G73" s="25"/>
+      <c r="G73" s="23"/>
       <c r="H73" s="13">
         <v>43486</v>
       </c>
@@ -3260,7 +3260,7 @@
       <c r="D74" s="20"/>
       <c r="E74" s="20"/>
       <c r="F74" s="20"/>
-      <c r="G74" s="25"/>
+      <c r="G74" s="23"/>
       <c r="H74" s="13">
         <v>43486</v>
       </c>
@@ -3288,7 +3288,7 @@
       <c r="D75" s="20"/>
       <c r="E75" s="20"/>
       <c r="F75" s="20"/>
-      <c r="G75" s="25"/>
+      <c r="G75" s="23"/>
       <c r="H75" s="13">
         <v>43486</v>
       </c>
@@ -3316,7 +3316,7 @@
       <c r="D76" s="20"/>
       <c r="E76" s="20"/>
       <c r="F76" s="20"/>
-      <c r="G76" s="25"/>
+      <c r="G76" s="23"/>
       <c r="H76" s="13">
         <v>43486</v>
       </c>
@@ -3344,7 +3344,7 @@
       <c r="D77" s="20"/>
       <c r="E77" s="20"/>
       <c r="F77" s="20"/>
-      <c r="G77" s="25"/>
+      <c r="G77" s="23"/>
       <c r="H77" s="13">
         <v>43486</v>
       </c>
@@ -3372,7 +3372,7 @@
       <c r="D78" s="20"/>
       <c r="E78" s="20"/>
       <c r="F78" s="20"/>
-      <c r="G78" s="25"/>
+      <c r="G78" s="23"/>
       <c r="H78" s="13">
         <v>43493</v>
       </c>
@@ -3400,7 +3400,7 @@
       <c r="D79" s="20"/>
       <c r="E79" s="20"/>
       <c r="F79" s="20"/>
-      <c r="G79" s="25"/>
+      <c r="G79" s="23"/>
       <c r="H79" s="13">
         <v>43493</v>
       </c>
@@ -3428,7 +3428,7 @@
       <c r="D80" s="20"/>
       <c r="E80" s="20"/>
       <c r="F80" s="20"/>
-      <c r="G80" s="25"/>
+      <c r="G80" s="23"/>
       <c r="H80" s="13">
         <v>43493</v>
       </c>
@@ -3466,7 +3466,7 @@
       <c r="D83" s="20"/>
       <c r="E83" s="20"/>
       <c r="F83" s="20"/>
-      <c r="G83" s="25"/>
+      <c r="G83" s="23"/>
       <c r="H83" s="13">
         <v>43487</v>
       </c>
@@ -3504,7 +3504,7 @@
       <c r="D86" s="20"/>
       <c r="E86" s="20"/>
       <c r="F86" s="20"/>
-      <c r="G86" s="25"/>
+      <c r="G86" s="23"/>
       <c r="H86" s="13">
         <v>43487</v>
       </c>
@@ -3532,7 +3532,7 @@
       <c r="D87" s="20"/>
       <c r="E87" s="20"/>
       <c r="F87" s="20"/>
-      <c r="G87" s="25"/>
+      <c r="G87" s="23"/>
       <c r="H87" s="13">
         <v>43487</v>
       </c>
@@ -3560,7 +3560,7 @@
       <c r="D88" s="20"/>
       <c r="E88" s="20"/>
       <c r="F88" s="20"/>
-      <c r="G88" s="25"/>
+      <c r="G88" s="23"/>
       <c r="H88" s="13">
         <v>43493</v>
       </c>
@@ -3588,7 +3588,7 @@
       <c r="D89" s="20"/>
       <c r="E89" s="20"/>
       <c r="F89" s="20"/>
-      <c r="G89" s="25"/>
+      <c r="G89" s="23"/>
       <c r="H89" s="13">
         <v>43493</v>
       </c>
@@ -3626,7 +3626,7 @@
       <c r="D92" s="20"/>
       <c r="E92" s="20"/>
       <c r="F92" s="20"/>
-      <c r="G92" s="25"/>
+      <c r="G92" s="23"/>
       <c r="H92" s="13">
         <v>43498</v>
       </c>
@@ -3654,7 +3654,7 @@
       <c r="D93" s="20"/>
       <c r="E93" s="20"/>
       <c r="F93" s="20"/>
-      <c r="G93" s="25"/>
+      <c r="G93" s="23"/>
       <c r="H93" s="13">
         <v>43498</v>
       </c>
@@ -3682,7 +3682,7 @@
       <c r="D94" s="20"/>
       <c r="E94" s="20"/>
       <c r="F94" s="20"/>
-      <c r="G94" s="25"/>
+      <c r="G94" s="23"/>
       <c r="H94" s="13">
         <v>43498</v>
       </c>
@@ -3710,7 +3710,7 @@
       <c r="D95" s="20"/>
       <c r="E95" s="20"/>
       <c r="F95" s="20"/>
-      <c r="G95" s="25"/>
+      <c r="G95" s="23"/>
       <c r="H95" s="13">
         <v>43498</v>
       </c>
@@ -3738,7 +3738,7 @@
       <c r="D96" s="20"/>
       <c r="E96" s="20"/>
       <c r="F96" s="20"/>
-      <c r="G96" s="25"/>
+      <c r="G96" s="23"/>
       <c r="H96" s="13">
         <v>43498</v>
       </c>
@@ -3766,7 +3766,7 @@
       <c r="D97" s="20"/>
       <c r="E97" s="20"/>
       <c r="F97" s="20"/>
-      <c r="G97" s="25"/>
+      <c r="G97" s="23"/>
       <c r="H97" s="13">
         <v>43498</v>
       </c>
@@ -3794,7 +3794,7 @@
       <c r="D98" s="20"/>
       <c r="E98" s="20"/>
       <c r="F98" s="20"/>
-      <c r="G98" s="25"/>
+      <c r="G98" s="23"/>
       <c r="H98" s="13">
         <v>43498</v>
       </c>
@@ -3822,7 +3822,7 @@
       <c r="D99" s="20"/>
       <c r="E99" s="20"/>
       <c r="F99" s="20"/>
-      <c r="G99" s="25"/>
+      <c r="G99" s="23"/>
       <c r="H99" s="13">
         <v>43498</v>
       </c>
@@ -3850,7 +3850,7 @@
       <c r="D100" s="20"/>
       <c r="E100" s="20"/>
       <c r="F100" s="20"/>
-      <c r="G100" s="25"/>
+      <c r="G100" s="23"/>
       <c r="H100" s="13">
         <v>43498</v>
       </c>
@@ -3888,7 +3888,7 @@
       <c r="D103" s="22"/>
       <c r="E103" s="22"/>
       <c r="F103" s="22"/>
-      <c r="G103" s="26"/>
+      <c r="G103" s="24"/>
       <c r="H103" s="12"/>
       <c r="I103" s="12" t="s">
         <v>10</v>
@@ -3914,7 +3914,7 @@
       <c r="D104" s="20"/>
       <c r="E104" s="20"/>
       <c r="F104" s="20"/>
-      <c r="G104" s="25"/>
+      <c r="G104" s="23"/>
       <c r="H104" s="13">
         <v>43498</v>
       </c>
@@ -3942,7 +3942,7 @@
       <c r="D105" s="20"/>
       <c r="E105" s="20"/>
       <c r="F105" s="20"/>
-      <c r="G105" s="25"/>
+      <c r="G105" s="23"/>
       <c r="H105" s="13">
         <v>43498</v>
       </c>
@@ -3970,7 +3970,7 @@
       <c r="D106" s="20"/>
       <c r="E106" s="20"/>
       <c r="F106" s="20"/>
-      <c r="G106" s="25"/>
+      <c r="G106" s="23"/>
       <c r="H106" s="13">
         <v>43513</v>
       </c>
@@ -4092,7 +4092,7 @@
       <c r="D112" s="20"/>
       <c r="E112" s="20"/>
       <c r="F112" s="20"/>
-      <c r="G112" s="25"/>
+      <c r="G112" s="23"/>
       <c r="H112" s="13">
         <v>43498</v>
       </c>
@@ -4120,7 +4120,7 @@
       <c r="D113" s="20"/>
       <c r="E113" s="20"/>
       <c r="F113" s="20"/>
-      <c r="G113" s="25"/>
+      <c r="G113" s="23"/>
       <c r="H113" s="13">
         <v>43513</v>
       </c>
@@ -4158,7 +4158,7 @@
       <c r="D116" s="20"/>
       <c r="E116" s="20"/>
       <c r="F116" s="20"/>
-      <c r="G116" s="25"/>
+      <c r="G116" s="23"/>
       <c r="H116" s="13">
         <v>43527</v>
       </c>
@@ -4186,7 +4186,7 @@
       <c r="D117" s="20"/>
       <c r="E117" s="20"/>
       <c r="F117" s="20"/>
-      <c r="G117" s="25"/>
+      <c r="G117" s="23"/>
       <c r="H117" s="13">
         <v>43527</v>
       </c>
@@ -4214,7 +4214,7 @@
       <c r="D118" s="20"/>
       <c r="E118" s="20"/>
       <c r="F118" s="20"/>
-      <c r="G118" s="25"/>
+      <c r="G118" s="23"/>
       <c r="H118" s="13">
         <v>43527</v>
       </c>
@@ -4242,7 +4242,7 @@
       <c r="D119" s="20"/>
       <c r="E119" s="20"/>
       <c r="F119" s="20"/>
-      <c r="G119" s="25"/>
+      <c r="G119" s="23"/>
       <c r="H119" s="13">
         <v>43527</v>
       </c>
@@ -4269,117 +4269,141 @@
       <c r="F121" s="9"/>
       <c r="G121" s="14"/>
     </row>
-    <row r="122" spans="2:12">
-      <c r="B122" s="23" t="s">
+    <row r="122" ht="20.4" spans="2:12">
+      <c r="B122" s="19" t="s">
         <v>110</v>
       </c>
-      <c r="C122" s="24"/>
-      <c r="D122" s="24"/>
-      <c r="E122" s="24"/>
-      <c r="F122" s="24"/>
-      <c r="G122" s="27"/>
-      <c r="H122" s="12"/>
+      <c r="C122" s="20"/>
+      <c r="D122" s="20"/>
+      <c r="E122" s="20"/>
+      <c r="F122" s="20"/>
+      <c r="G122" s="23"/>
+      <c r="H122" s="13">
+        <v>43535</v>
+      </c>
       <c r="I122" s="12"/>
-      <c r="J122" s="12"/>
+      <c r="J122" s="12" t="s">
+        <v>9</v>
+      </c>
       <c r="K122" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="L122" s="12" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="123" spans="2:12">
-      <c r="B123" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="L122" s="18" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="123" ht="20.4" spans="2:12">
+      <c r="B123" s="19" t="s">
         <v>111</v>
       </c>
-      <c r="C123" s="24"/>
-      <c r="D123" s="24"/>
-      <c r="E123" s="24"/>
-      <c r="F123" s="24"/>
-      <c r="G123" s="27"/>
-      <c r="H123" s="12"/>
+      <c r="C123" s="20"/>
+      <c r="D123" s="20"/>
+      <c r="E123" s="20"/>
+      <c r="F123" s="20"/>
+      <c r="G123" s="23"/>
+      <c r="H123" s="13">
+        <v>43535</v>
+      </c>
       <c r="I123" s="12"/>
-      <c r="J123" s="12"/>
+      <c r="J123" s="12" t="s">
+        <v>9</v>
+      </c>
       <c r="K123" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="L123" s="12" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="124" spans="2:12">
-      <c r="B124" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="L123" s="18" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="124" ht="20.4" spans="2:12">
+      <c r="B124" s="19" t="s">
         <v>112</v>
       </c>
-      <c r="C124" s="24"/>
-      <c r="D124" s="24"/>
-      <c r="E124" s="24"/>
-      <c r="F124" s="24"/>
-      <c r="G124" s="27"/>
-      <c r="H124" s="12"/>
+      <c r="C124" s="20"/>
+      <c r="D124" s="20"/>
+      <c r="E124" s="20"/>
+      <c r="F124" s="20"/>
+      <c r="G124" s="23"/>
+      <c r="H124" s="13">
+        <v>43535</v>
+      </c>
       <c r="I124" s="12"/>
-      <c r="J124" s="12"/>
+      <c r="J124" s="12" t="s">
+        <v>9</v>
+      </c>
       <c r="K124" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="L124" s="12" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="125" spans="2:12">
-      <c r="B125" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="L124" s="18" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="125" ht="20.4" spans="2:12">
+      <c r="B125" s="19" t="s">
         <v>113</v>
       </c>
-      <c r="C125" s="24"/>
-      <c r="D125" s="24"/>
-      <c r="E125" s="24"/>
-      <c r="F125" s="24"/>
-      <c r="G125" s="27"/>
-      <c r="H125" s="12"/>
+      <c r="C125" s="20"/>
+      <c r="D125" s="20"/>
+      <c r="E125" s="20"/>
+      <c r="F125" s="20"/>
+      <c r="G125" s="23"/>
+      <c r="H125" s="13">
+        <v>43535</v>
+      </c>
       <c r="I125" s="12"/>
-      <c r="J125" s="12"/>
+      <c r="J125" s="12" t="s">
+        <v>9</v>
+      </c>
       <c r="K125" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="L125" s="12" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="126" spans="2:12">
-      <c r="B126" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="L125" s="18" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="126" ht="20.4" spans="2:12">
+      <c r="B126" s="19" t="s">
         <v>114</v>
       </c>
-      <c r="C126" s="24"/>
-      <c r="D126" s="24"/>
-      <c r="E126" s="24"/>
-      <c r="F126" s="24"/>
-      <c r="G126" s="27"/>
-      <c r="H126" s="12"/>
+      <c r="C126" s="20"/>
+      <c r="D126" s="20"/>
+      <c r="E126" s="20"/>
+      <c r="F126" s="20"/>
+      <c r="G126" s="23"/>
+      <c r="H126" s="13">
+        <v>43535</v>
+      </c>
       <c r="I126" s="12"/>
-      <c r="J126" s="12"/>
+      <c r="J126" s="12" t="s">
+        <v>9</v>
+      </c>
       <c r="K126" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="L126" s="12" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="127" spans="2:12">
-      <c r="B127" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="L126" s="18" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="127" ht="20.4" spans="2:12">
+      <c r="B127" s="19" t="s">
         <v>115</v>
       </c>
-      <c r="C127" s="24"/>
-      <c r="D127" s="24"/>
-      <c r="E127" s="24"/>
-      <c r="F127" s="24"/>
-      <c r="G127" s="27"/>
-      <c r="H127" s="12"/>
+      <c r="C127" s="20"/>
+      <c r="D127" s="20"/>
+      <c r="E127" s="20"/>
+      <c r="F127" s="20"/>
+      <c r="G127" s="23"/>
+      <c r="H127" s="13">
+        <v>43535</v>
+      </c>
       <c r="I127" s="12"/>
-      <c r="J127" s="12"/>
+      <c r="J127" s="12" t="s">
+        <v>9</v>
+      </c>
       <c r="K127" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="L127" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="L127" s="18" t="s">
         <v>10</v>
       </c>
     </row>
@@ -4401,7 +4425,7 @@
       <c r="D130" s="22"/>
       <c r="E130" s="22"/>
       <c r="F130" s="22"/>
-      <c r="G130" s="26"/>
+      <c r="G130" s="24"/>
       <c r="H130" s="12"/>
       <c r="I130" s="12"/>
       <c r="J130" s="12"/>
@@ -4420,7 +4444,7 @@
       <c r="D131" s="22"/>
       <c r="E131" s="22"/>
       <c r="F131" s="22"/>
-      <c r="G131" s="26"/>
+      <c r="G131" s="24"/>
       <c r="H131" s="12"/>
       <c r="I131" s="12"/>
       <c r="J131" s="12"/>
@@ -4439,7 +4463,7 @@
       <c r="D132" s="20"/>
       <c r="E132" s="20"/>
       <c r="F132" s="20"/>
-      <c r="G132" s="25"/>
+      <c r="G132" s="23"/>
       <c r="H132" s="13">
         <v>43498</v>
       </c>
@@ -4464,7 +4488,7 @@
       <c r="D133" s="20"/>
       <c r="E133" s="20"/>
       <c r="F133" s="20"/>
-      <c r="G133" s="25"/>
+      <c r="G133" s="23"/>
       <c r="H133" s="13">
         <v>43498</v>
       </c>
@@ -4489,7 +4513,7 @@
       <c r="D134" s="22"/>
       <c r="E134" s="22"/>
       <c r="F134" s="22"/>
-      <c r="G134" s="26"/>
+      <c r="G134" s="24"/>
       <c r="H134" s="12"/>
       <c r="I134" s="12"/>
       <c r="J134" s="12"/>
@@ -4511,13 +4535,13 @@
       <c r="G136" s="14"/>
     </row>
     <row r="137" spans="2:12">
-      <c r="B137" s="23" t="s">
+      <c r="B137" s="25" t="s">
         <v>123</v>
       </c>
-      <c r="C137" s="24"/>
-      <c r="D137" s="24"/>
-      <c r="E137" s="24"/>
-      <c r="F137" s="24"/>
+      <c r="C137" s="26"/>
+      <c r="D137" s="26"/>
+      <c r="E137" s="26"/>
+      <c r="F137" s="26"/>
       <c r="G137" s="27"/>
       <c r="H137" s="12"/>
       <c r="I137" s="12"/>
@@ -4530,13 +4554,13 @@
       </c>
     </row>
     <row r="138" spans="2:12">
-      <c r="B138" s="23" t="s">
+      <c r="B138" s="25" t="s">
         <v>124</v>
       </c>
-      <c r="C138" s="24"/>
-      <c r="D138" s="24"/>
-      <c r="E138" s="24"/>
-      <c r="F138" s="24"/>
+      <c r="C138" s="26"/>
+      <c r="D138" s="26"/>
+      <c r="E138" s="26"/>
+      <c r="F138" s="26"/>
       <c r="G138" s="27"/>
       <c r="H138" s="12"/>
       <c r="I138" s="12"/>
@@ -4549,13 +4573,13 @@
       </c>
     </row>
     <row r="139" spans="2:12">
-      <c r="B139" s="23" t="s">
+      <c r="B139" s="25" t="s">
         <v>125</v>
       </c>
-      <c r="C139" s="24"/>
-      <c r="D139" s="24"/>
-      <c r="E139" s="24"/>
-      <c r="F139" s="24"/>
+      <c r="C139" s="26"/>
+      <c r="D139" s="26"/>
+      <c r="E139" s="26"/>
+      <c r="F139" s="26"/>
       <c r="G139" s="27"/>
       <c r="H139" s="12"/>
       <c r="I139" s="12"/>
@@ -4568,13 +4592,13 @@
       </c>
     </row>
     <row r="140" spans="2:12">
-      <c r="B140" s="23" t="s">
+      <c r="B140" s="25" t="s">
         <v>126</v>
       </c>
-      <c r="C140" s="24"/>
-      <c r="D140" s="24"/>
-      <c r="E140" s="24"/>
-      <c r="F140" s="24"/>
+      <c r="C140" s="26"/>
+      <c r="D140" s="26"/>
+      <c r="E140" s="26"/>
+      <c r="F140" s="26"/>
       <c r="G140" s="27"/>
       <c r="H140" s="12"/>
       <c r="I140" s="12"/>
@@ -4587,13 +4611,13 @@
       </c>
     </row>
     <row r="141" spans="2:12">
-      <c r="B141" s="23" t="s">
+      <c r="B141" s="25" t="s">
         <v>127</v>
       </c>
-      <c r="C141" s="24"/>
-      <c r="D141" s="24"/>
-      <c r="E141" s="24"/>
-      <c r="F141" s="24"/>
+      <c r="C141" s="26"/>
+      <c r="D141" s="26"/>
+      <c r="E141" s="26"/>
+      <c r="F141" s="26"/>
       <c r="G141" s="27"/>
       <c r="H141" s="12"/>
       <c r="I141" s="12"/>
@@ -4606,13 +4630,13 @@
       </c>
     </row>
     <row r="142" spans="2:12">
-      <c r="B142" s="23" t="s">
+      <c r="B142" s="25" t="s">
         <v>128</v>
       </c>
-      <c r="C142" s="24"/>
-      <c r="D142" s="24"/>
-      <c r="E142" s="24"/>
-      <c r="F142" s="24"/>
+      <c r="C142" s="26"/>
+      <c r="D142" s="26"/>
+      <c r="E142" s="26"/>
+      <c r="F142" s="26"/>
       <c r="G142" s="27"/>
       <c r="H142" s="12"/>
       <c r="I142" s="12"/>
@@ -4642,7 +4666,7 @@
       <c r="D145" s="20"/>
       <c r="E145" s="20"/>
       <c r="F145" s="20"/>
-      <c r="G145" s="25"/>
+      <c r="G145" s="23"/>
       <c r="H145" s="13">
         <v>43498</v>
       </c>
@@ -4667,7 +4691,7 @@
       <c r="D146" s="20"/>
       <c r="E146" s="20"/>
       <c r="F146" s="20"/>
-      <c r="G146" s="25"/>
+      <c r="G146" s="23"/>
       <c r="H146" s="13">
         <v>43498</v>
       </c>
@@ -4692,7 +4716,7 @@
       <c r="D147" s="20"/>
       <c r="E147" s="20"/>
       <c r="F147" s="20"/>
-      <c r="G147" s="25"/>
+      <c r="G147" s="23"/>
       <c r="H147" s="13">
         <v>43498</v>
       </c>
@@ -4717,7 +4741,7 @@
       <c r="D148" s="20"/>
       <c r="E148" s="20"/>
       <c r="F148" s="20"/>
-      <c r="G148" s="25"/>
+      <c r="G148" s="23"/>
       <c r="H148" s="13">
         <v>43498</v>
       </c>
@@ -4742,7 +4766,7 @@
       <c r="D149" s="20"/>
       <c r="E149" s="20"/>
       <c r="F149" s="20"/>
-      <c r="G149" s="25"/>
+      <c r="G149" s="23"/>
       <c r="H149" s="13">
         <v>43498</v>
       </c>
@@ -4767,7 +4791,7 @@
       <c r="D150" s="20"/>
       <c r="E150" s="20"/>
       <c r="F150" s="20"/>
-      <c r="G150" s="25"/>
+      <c r="G150" s="23"/>
       <c r="H150" s="13">
         <v>43498</v>
       </c>
@@ -4792,7 +4816,7 @@
       <c r="D151" s="20"/>
       <c r="E151" s="20"/>
       <c r="F151" s="20"/>
-      <c r="G151" s="25"/>
+      <c r="G151" s="23"/>
       <c r="H151" s="13">
         <v>43498</v>
       </c>
@@ -4817,7 +4841,7 @@
       <c r="D152" s="20"/>
       <c r="E152" s="20"/>
       <c r="F152" s="20"/>
-      <c r="G152" s="25"/>
+      <c r="G152" s="23"/>
       <c r="H152" s="13">
         <v>43498</v>
       </c>
@@ -4845,13 +4869,13 @@
       <c r="G154" s="14"/>
     </row>
     <row r="155" spans="2:12">
-      <c r="B155" s="23" t="s">
+      <c r="B155" s="25" t="s">
         <v>139</v>
       </c>
-      <c r="C155" s="24"/>
-      <c r="D155" s="24"/>
-      <c r="E155" s="24"/>
-      <c r="F155" s="24"/>
+      <c r="C155" s="26"/>
+      <c r="D155" s="26"/>
+      <c r="E155" s="26"/>
+      <c r="F155" s="26"/>
       <c r="G155" s="27"/>
       <c r="H155" s="12"/>
       <c r="I155" s="12"/>
@@ -4864,13 +4888,13 @@
       </c>
     </row>
     <row r="156" spans="2:12">
-      <c r="B156" s="23" t="s">
+      <c r="B156" s="25" t="s">
         <v>140</v>
       </c>
-      <c r="C156" s="24"/>
-      <c r="D156" s="24"/>
-      <c r="E156" s="24"/>
-      <c r="F156" s="24"/>
+      <c r="C156" s="26"/>
+      <c r="D156" s="26"/>
+      <c r="E156" s="26"/>
+      <c r="F156" s="26"/>
       <c r="G156" s="27"/>
       <c r="H156" s="12"/>
       <c r="I156" s="12"/>
@@ -4883,13 +4907,13 @@
       </c>
     </row>
     <row r="157" spans="2:12">
-      <c r="B157" s="23" t="s">
+      <c r="B157" s="25" t="s">
         <v>141</v>
       </c>
-      <c r="C157" s="24"/>
-      <c r="D157" s="24"/>
-      <c r="E157" s="24"/>
-      <c r="F157" s="24"/>
+      <c r="C157" s="26"/>
+      <c r="D157" s="26"/>
+      <c r="E157" s="26"/>
+      <c r="F157" s="26"/>
       <c r="G157" s="27"/>
       <c r="H157" s="12"/>
       <c r="I157" s="12"/>
@@ -4902,13 +4926,13 @@
       </c>
     </row>
     <row r="158" spans="2:12">
-      <c r="B158" s="23" t="s">
+      <c r="B158" s="25" t="s">
         <v>142</v>
       </c>
-      <c r="C158" s="24"/>
-      <c r="D158" s="24"/>
-      <c r="E158" s="24"/>
-      <c r="F158" s="24"/>
+      <c r="C158" s="26"/>
+      <c r="D158" s="26"/>
+      <c r="E158" s="26"/>
+      <c r="F158" s="26"/>
       <c r="G158" s="27"/>
       <c r="H158" s="12"/>
       <c r="I158" s="12"/>
@@ -4921,13 +4945,13 @@
       </c>
     </row>
     <row r="159" spans="2:12">
-      <c r="B159" s="23" t="s">
+      <c r="B159" s="25" t="s">
         <v>143</v>
       </c>
-      <c r="C159" s="24"/>
-      <c r="D159" s="24"/>
-      <c r="E159" s="24"/>
-      <c r="F159" s="24"/>
+      <c r="C159" s="26"/>
+      <c r="D159" s="26"/>
+      <c r="E159" s="26"/>
+      <c r="F159" s="26"/>
       <c r="G159" s="27"/>
       <c r="H159" s="12"/>
       <c r="I159" s="12"/>
@@ -4940,13 +4964,13 @@
       </c>
     </row>
     <row r="160" spans="2:12">
-      <c r="B160" s="23" t="s">
+      <c r="B160" s="25" t="s">
         <v>144</v>
       </c>
-      <c r="C160" s="24"/>
-      <c r="D160" s="24"/>
-      <c r="E160" s="24"/>
-      <c r="F160" s="24"/>
+      <c r="C160" s="26"/>
+      <c r="D160" s="26"/>
+      <c r="E160" s="26"/>
+      <c r="F160" s="26"/>
       <c r="G160" s="27"/>
       <c r="H160" s="12"/>
       <c r="I160" s="12"/>
@@ -4976,7 +5000,7 @@
       <c r="D163" s="20"/>
       <c r="E163" s="20"/>
       <c r="F163" s="20"/>
-      <c r="G163" s="25"/>
+      <c r="G163" s="23"/>
       <c r="H163" s="13">
         <v>43498</v>
       </c>
@@ -5001,7 +5025,7 @@
       <c r="D164" s="20"/>
       <c r="E164" s="20"/>
       <c r="F164" s="20"/>
-      <c r="G164" s="25"/>
+      <c r="G164" s="23"/>
       <c r="H164" s="13">
         <v>43498</v>
       </c>
@@ -5029,13 +5053,13 @@
       <c r="G166" s="14"/>
     </row>
     <row r="167" spans="2:12">
-      <c r="B167" s="23" t="s">
+      <c r="B167" s="25" t="s">
         <v>149</v>
       </c>
-      <c r="C167" s="24"/>
-      <c r="D167" s="24"/>
-      <c r="E167" s="24"/>
-      <c r="F167" s="24"/>
+      <c r="C167" s="26"/>
+      <c r="D167" s="26"/>
+      <c r="E167" s="26"/>
+      <c r="F167" s="26"/>
       <c r="G167" s="27"/>
       <c r="H167" s="12"/>
       <c r="I167" s="12"/>
@@ -5048,13 +5072,13 @@
       </c>
     </row>
     <row r="168" spans="2:12">
-      <c r="B168" s="23" t="s">
+      <c r="B168" s="25" t="s">
         <v>150</v>
       </c>
-      <c r="C168" s="24"/>
-      <c r="D168" s="24"/>
-      <c r="E168" s="24"/>
-      <c r="F168" s="24"/>
+      <c r="C168" s="26"/>
+      <c r="D168" s="26"/>
+      <c r="E168" s="26"/>
+      <c r="F168" s="26"/>
       <c r="G168" s="27"/>
       <c r="H168" s="12"/>
       <c r="I168" s="12"/>
@@ -5067,13 +5091,13 @@
       </c>
     </row>
     <row r="169" spans="2:12">
-      <c r="B169" s="23" t="s">
+      <c r="B169" s="25" t="s">
         <v>151</v>
       </c>
-      <c r="C169" s="24"/>
-      <c r="D169" s="24"/>
-      <c r="E169" s="24"/>
-      <c r="F169" s="24"/>
+      <c r="C169" s="26"/>
+      <c r="D169" s="26"/>
+      <c r="E169" s="26"/>
+      <c r="F169" s="26"/>
       <c r="G169" s="27"/>
       <c r="H169" s="12"/>
       <c r="I169" s="12"/>
@@ -5086,13 +5110,13 @@
       </c>
     </row>
     <row r="170" spans="2:12">
-      <c r="B170" s="23" t="s">
+      <c r="B170" s="25" t="s">
         <v>152</v>
       </c>
-      <c r="C170" s="24"/>
-      <c r="D170" s="24"/>
-      <c r="E170" s="24"/>
-      <c r="F170" s="24"/>
+      <c r="C170" s="26"/>
+      <c r="D170" s="26"/>
+      <c r="E170" s="26"/>
+      <c r="F170" s="26"/>
       <c r="G170" s="27"/>
       <c r="H170" s="12"/>
       <c r="I170" s="12"/>
@@ -5122,7 +5146,7 @@
       <c r="D173" s="20"/>
       <c r="E173" s="20"/>
       <c r="F173" s="20"/>
-      <c r="G173" s="25"/>
+      <c r="G173" s="23"/>
       <c r="H173" s="13">
         <v>43424</v>
       </c>
@@ -5147,7 +5171,7 @@
       <c r="D174" s="20"/>
       <c r="E174" s="20"/>
       <c r="F174" s="20"/>
-      <c r="G174" s="25"/>
+      <c r="G174" s="23"/>
       <c r="H174" s="13">
         <v>43451</v>
       </c>
@@ -5175,13 +5199,13 @@
       <c r="G176" s="14"/>
     </row>
     <row r="177" spans="2:12">
-      <c r="B177" s="23" t="s">
+      <c r="B177" s="25" t="s">
         <v>157</v>
       </c>
-      <c r="C177" s="24"/>
-      <c r="D177" s="24"/>
-      <c r="E177" s="24"/>
-      <c r="F177" s="24"/>
+      <c r="C177" s="26"/>
+      <c r="D177" s="26"/>
+      <c r="E177" s="26"/>
+      <c r="F177" s="26"/>
       <c r="G177" s="27"/>
       <c r="H177" s="12"/>
       <c r="I177" s="12"/>
@@ -5194,13 +5218,13 @@
       </c>
     </row>
     <row r="178" spans="2:12">
-      <c r="B178" s="23" t="s">
+      <c r="B178" s="25" t="s">
         <v>158</v>
       </c>
-      <c r="C178" s="24"/>
-      <c r="D178" s="24"/>
-      <c r="E178" s="24"/>
-      <c r="F178" s="24"/>
+      <c r="C178" s="26"/>
+      <c r="D178" s="26"/>
+      <c r="E178" s="26"/>
+      <c r="F178" s="26"/>
       <c r="G178" s="27"/>
       <c r="H178" s="12"/>
       <c r="I178" s="12"/>
@@ -5213,13 +5237,13 @@
       </c>
     </row>
     <row r="179" spans="2:12">
-      <c r="B179" s="23" t="s">
+      <c r="B179" s="25" t="s">
         <v>159</v>
       </c>
-      <c r="C179" s="24"/>
-      <c r="D179" s="24"/>
-      <c r="E179" s="24"/>
-      <c r="F179" s="24"/>
+      <c r="C179" s="26"/>
+      <c r="D179" s="26"/>
+      <c r="E179" s="26"/>
+      <c r="F179" s="26"/>
       <c r="G179" s="27"/>
       <c r="H179" s="12"/>
       <c r="I179" s="12"/>
@@ -5232,13 +5256,13 @@
       </c>
     </row>
     <row r="180" spans="2:12">
-      <c r="B180" s="23" t="s">
+      <c r="B180" s="25" t="s">
         <v>160</v>
       </c>
-      <c r="C180" s="24"/>
-      <c r="D180" s="24"/>
-      <c r="E180" s="24"/>
-      <c r="F180" s="24"/>
+      <c r="C180" s="26"/>
+      <c r="D180" s="26"/>
+      <c r="E180" s="26"/>
+      <c r="F180" s="26"/>
       <c r="G180" s="27"/>
       <c r="H180" s="12"/>
       <c r="I180" s="12"/>
@@ -5261,13 +5285,13 @@
       <c r="G182" s="14"/>
     </row>
     <row r="183" spans="2:12">
-      <c r="B183" s="23" t="s">
+      <c r="B183" s="25" t="s">
         <v>162</v>
       </c>
-      <c r="C183" s="24"/>
-      <c r="D183" s="24"/>
-      <c r="E183" s="24"/>
-      <c r="F183" s="24"/>
+      <c r="C183" s="26"/>
+      <c r="D183" s="26"/>
+      <c r="E183" s="26"/>
+      <c r="F183" s="26"/>
       <c r="G183" s="27"/>
       <c r="H183" s="12"/>
       <c r="I183" s="12"/>
@@ -5280,13 +5304,13 @@
       </c>
     </row>
     <row r="184" spans="2:12">
-      <c r="B184" s="23" t="s">
+      <c r="B184" s="25" t="s">
         <v>163</v>
       </c>
-      <c r="C184" s="24"/>
-      <c r="D184" s="24"/>
-      <c r="E184" s="24"/>
-      <c r="F184" s="24"/>
+      <c r="C184" s="26"/>
+      <c r="D184" s="26"/>
+      <c r="E184" s="26"/>
+      <c r="F184" s="26"/>
       <c r="G184" s="27"/>
       <c r="H184" s="12"/>
       <c r="I184" s="12"/>
@@ -5299,13 +5323,13 @@
       </c>
     </row>
     <row r="185" spans="2:12">
-      <c r="B185" s="23" t="s">
+      <c r="B185" s="25" t="s">
         <v>164</v>
       </c>
-      <c r="C185" s="24"/>
-      <c r="D185" s="24"/>
-      <c r="E185" s="24"/>
-      <c r="F185" s="24"/>
+      <c r="C185" s="26"/>
+      <c r="D185" s="26"/>
+      <c r="E185" s="26"/>
+      <c r="F185" s="26"/>
       <c r="G185" s="27"/>
       <c r="H185" s="12"/>
       <c r="I185" s="12"/>
@@ -5318,13 +5342,13 @@
       </c>
     </row>
     <row r="186" spans="2:12">
-      <c r="B186" s="23" t="s">
+      <c r="B186" s="25" t="s">
         <v>165</v>
       </c>
-      <c r="C186" s="24"/>
-      <c r="D186" s="24"/>
-      <c r="E186" s="24"/>
-      <c r="F186" s="24"/>
+      <c r="C186" s="26"/>
+      <c r="D186" s="26"/>
+      <c r="E186" s="26"/>
+      <c r="F186" s="26"/>
       <c r="G186" s="27"/>
       <c r="H186" s="12"/>
       <c r="I186" s="12"/>
@@ -5354,7 +5378,7 @@
       <c r="D189" s="20"/>
       <c r="E189" s="20"/>
       <c r="F189" s="20"/>
-      <c r="G189" s="25"/>
+      <c r="G189" s="23"/>
       <c r="H189" s="13">
         <v>43424</v>
       </c>
@@ -5382,13 +5406,13 @@
       <c r="G191" s="14"/>
     </row>
     <row r="192" spans="2:12">
-      <c r="B192" s="23" t="s">
+      <c r="B192" s="25" t="s">
         <v>169</v>
       </c>
-      <c r="C192" s="24"/>
-      <c r="D192" s="24"/>
-      <c r="E192" s="24"/>
-      <c r="F192" s="24"/>
+      <c r="C192" s="26"/>
+      <c r="D192" s="26"/>
+      <c r="E192" s="26"/>
+      <c r="F192" s="26"/>
       <c r="G192" s="27"/>
       <c r="H192" s="12"/>
       <c r="I192" s="12"/>
@@ -5401,13 +5425,13 @@
       </c>
     </row>
     <row r="193" spans="2:12">
-      <c r="B193" s="23" t="s">
+      <c r="B193" s="25" t="s">
         <v>170</v>
       </c>
-      <c r="C193" s="24"/>
-      <c r="D193" s="24"/>
-      <c r="E193" s="24"/>
-      <c r="F193" s="24"/>
+      <c r="C193" s="26"/>
+      <c r="D193" s="26"/>
+      <c r="E193" s="26"/>
+      <c r="F193" s="26"/>
       <c r="G193" s="27"/>
       <c r="H193" s="12"/>
       <c r="I193" s="12"/>
@@ -5420,13 +5444,13 @@
       </c>
     </row>
     <row r="194" spans="2:12">
-      <c r="B194" s="23" t="s">
+      <c r="B194" s="25" t="s">
         <v>171</v>
       </c>
-      <c r="C194" s="24"/>
-      <c r="D194" s="24"/>
-      <c r="E194" s="24"/>
-      <c r="F194" s="24"/>
+      <c r="C194" s="26"/>
+      <c r="D194" s="26"/>
+      <c r="E194" s="26"/>
+      <c r="F194" s="26"/>
       <c r="G194" s="27"/>
       <c r="H194" s="12"/>
       <c r="I194" s="12"/>
@@ -5439,13 +5463,13 @@
       </c>
     </row>
     <row r="195" spans="2:12">
-      <c r="B195" s="23" t="s">
+      <c r="B195" s="25" t="s">
         <v>172</v>
       </c>
-      <c r="C195" s="24"/>
-      <c r="D195" s="24"/>
-      <c r="E195" s="24"/>
-      <c r="F195" s="24"/>
+      <c r="C195" s="26"/>
+      <c r="D195" s="26"/>
+      <c r="E195" s="26"/>
+      <c r="F195" s="26"/>
       <c r="G195" s="27"/>
       <c r="H195" s="12"/>
       <c r="I195" s="12"/>
@@ -5475,7 +5499,7 @@
       <c r="D198" s="20"/>
       <c r="E198" s="20"/>
       <c r="F198" s="20"/>
-      <c r="G198" s="25"/>
+      <c r="G198" s="23"/>
       <c r="H198" s="13">
         <v>43451</v>
       </c>
@@ -5503,13 +5527,13 @@
       <c r="G200" s="14"/>
     </row>
     <row r="201" spans="2:12">
-      <c r="B201" s="23" t="s">
+      <c r="B201" s="25" t="s">
         <v>176</v>
       </c>
-      <c r="C201" s="24"/>
-      <c r="D201" s="24"/>
-      <c r="E201" s="24"/>
-      <c r="F201" s="24"/>
+      <c r="C201" s="26"/>
+      <c r="D201" s="26"/>
+      <c r="E201" s="26"/>
+      <c r="F201" s="26"/>
       <c r="G201" s="27"/>
       <c r="H201" s="12"/>
       <c r="I201" s="12"/>
@@ -5522,13 +5546,13 @@
       </c>
     </row>
     <row r="202" spans="2:12">
-      <c r="B202" s="23" t="s">
+      <c r="B202" s="25" t="s">
         <v>177</v>
       </c>
-      <c r="C202" s="24"/>
-      <c r="D202" s="24"/>
-      <c r="E202" s="24"/>
-      <c r="F202" s="24"/>
+      <c r="C202" s="26"/>
+      <c r="D202" s="26"/>
+      <c r="E202" s="26"/>
+      <c r="F202" s="26"/>
       <c r="G202" s="27"/>
       <c r="H202" s="12"/>
       <c r="I202" s="12"/>
@@ -5541,13 +5565,13 @@
       </c>
     </row>
     <row r="203" spans="2:12">
-      <c r="B203" s="23" t="s">
+      <c r="B203" s="25" t="s">
         <v>178</v>
       </c>
-      <c r="C203" s="24"/>
-      <c r="D203" s="24"/>
-      <c r="E203" s="24"/>
-      <c r="F203" s="24"/>
+      <c r="C203" s="26"/>
+      <c r="D203" s="26"/>
+      <c r="E203" s="26"/>
+      <c r="F203" s="26"/>
       <c r="G203" s="27"/>
       <c r="H203" s="12"/>
       <c r="I203" s="12"/>
@@ -5560,13 +5584,13 @@
       </c>
     </row>
     <row r="204" spans="2:12">
-      <c r="B204" s="23" t="s">
+      <c r="B204" s="25" t="s">
         <v>179</v>
       </c>
-      <c r="C204" s="24"/>
-      <c r="D204" s="24"/>
-      <c r="E204" s="24"/>
-      <c r="F204" s="24"/>
+      <c r="C204" s="26"/>
+      <c r="D204" s="26"/>
+      <c r="E204" s="26"/>
+      <c r="F204" s="26"/>
       <c r="G204" s="27"/>
       <c r="H204" s="12"/>
       <c r="I204" s="12"/>
@@ -5596,7 +5620,7 @@
       <c r="D207" s="20"/>
       <c r="E207" s="20"/>
       <c r="F207" s="20"/>
-      <c r="G207" s="25"/>
+      <c r="G207" s="23"/>
       <c r="H207" s="13">
         <v>43451</v>
       </c>
@@ -5624,13 +5648,13 @@
       <c r="G209" s="14"/>
     </row>
     <row r="210" spans="2:12">
-      <c r="B210" s="23" t="s">
+      <c r="B210" s="25" t="s">
         <v>183</v>
       </c>
-      <c r="C210" s="24"/>
-      <c r="D210" s="24"/>
-      <c r="E210" s="24"/>
-      <c r="F210" s="24"/>
+      <c r="C210" s="26"/>
+      <c r="D210" s="26"/>
+      <c r="E210" s="26"/>
+      <c r="F210" s="26"/>
       <c r="G210" s="27"/>
       <c r="H210" s="12"/>
       <c r="I210" s="12"/>
@@ -5643,13 +5667,13 @@
       </c>
     </row>
     <row r="211" spans="2:12">
-      <c r="B211" s="23" t="s">
+      <c r="B211" s="25" t="s">
         <v>184</v>
       </c>
-      <c r="C211" s="24"/>
-      <c r="D211" s="24"/>
-      <c r="E211" s="24"/>
-      <c r="F211" s="24"/>
+      <c r="C211" s="26"/>
+      <c r="D211" s="26"/>
+      <c r="E211" s="26"/>
+      <c r="F211" s="26"/>
       <c r="G211" s="27"/>
       <c r="H211" s="12"/>
       <c r="I211" s="12"/>
@@ -5662,13 +5686,13 @@
       </c>
     </row>
     <row r="212" spans="2:12">
-      <c r="B212" s="23" t="s">
+      <c r="B212" s="25" t="s">
         <v>185</v>
       </c>
-      <c r="C212" s="24"/>
-      <c r="D212" s="24"/>
-      <c r="E212" s="24"/>
-      <c r="F212" s="24"/>
+      <c r="C212" s="26"/>
+      <c r="D212" s="26"/>
+      <c r="E212" s="26"/>
+      <c r="F212" s="26"/>
       <c r="G212" s="27"/>
       <c r="H212" s="12"/>
       <c r="I212" s="12"/>
@@ -5681,13 +5705,13 @@
       </c>
     </row>
     <row r="213" spans="2:12">
-      <c r="B213" s="23" t="s">
+      <c r="B213" s="25" t="s">
         <v>186</v>
       </c>
-      <c r="C213" s="24"/>
-      <c r="D213" s="24"/>
-      <c r="E213" s="24"/>
-      <c r="F213" s="24"/>
+      <c r="C213" s="26"/>
+      <c r="D213" s="26"/>
+      <c r="E213" s="26"/>
+      <c r="F213" s="26"/>
       <c r="G213" s="27"/>
       <c r="H213" s="12"/>
       <c r="I213" s="12"/>
@@ -5710,13 +5734,13 @@
       <c r="G215" s="14"/>
     </row>
     <row r="216" spans="2:12">
-      <c r="B216" s="23" t="s">
+      <c r="B216" s="25" t="s">
         <v>188</v>
       </c>
-      <c r="C216" s="24"/>
-      <c r="D216" s="24"/>
-      <c r="E216" s="24"/>
-      <c r="F216" s="24"/>
+      <c r="C216" s="26"/>
+      <c r="D216" s="26"/>
+      <c r="E216" s="26"/>
+      <c r="F216" s="26"/>
       <c r="G216" s="27"/>
       <c r="H216" s="12"/>
       <c r="I216" s="12"/>
@@ -5729,13 +5753,13 @@
       </c>
     </row>
     <row r="217" spans="2:12">
-      <c r="B217" s="23" t="s">
+      <c r="B217" s="25" t="s">
         <v>189</v>
       </c>
-      <c r="C217" s="24"/>
-      <c r="D217" s="24"/>
-      <c r="E217" s="24"/>
-      <c r="F217" s="24"/>
+      <c r="C217" s="26"/>
+      <c r="D217" s="26"/>
+      <c r="E217" s="26"/>
+      <c r="F217" s="26"/>
       <c r="G217" s="27"/>
       <c r="H217" s="12"/>
       <c r="I217" s="12"/>
@@ -5748,13 +5772,13 @@
       </c>
     </row>
     <row r="218" spans="2:12">
-      <c r="B218" s="23" t="s">
+      <c r="B218" s="25" t="s">
         <v>190</v>
       </c>
-      <c r="C218" s="24"/>
-      <c r="D218" s="24"/>
-      <c r="E218" s="24"/>
-      <c r="F218" s="24"/>
+      <c r="C218" s="26"/>
+      <c r="D218" s="26"/>
+      <c r="E218" s="26"/>
+      <c r="F218" s="26"/>
       <c r="G218" s="27"/>
       <c r="H218" s="12"/>
       <c r="I218" s="12"/>
@@ -5767,13 +5791,13 @@
       </c>
     </row>
     <row r="219" spans="2:12">
-      <c r="B219" s="23" t="s">
+      <c r="B219" s="25" t="s">
         <v>191</v>
       </c>
-      <c r="C219" s="24"/>
-      <c r="D219" s="24"/>
-      <c r="E219" s="24"/>
-      <c r="F219" s="24"/>
+      <c r="C219" s="26"/>
+      <c r="D219" s="26"/>
+      <c r="E219" s="26"/>
+      <c r="F219" s="26"/>
       <c r="G219" s="27"/>
       <c r="H219" s="12"/>
       <c r="I219" s="12"/>
@@ -5786,13 +5810,13 @@
       </c>
     </row>
     <row r="220" spans="2:12">
-      <c r="B220" s="23" t="s">
+      <c r="B220" s="25" t="s">
         <v>192</v>
       </c>
-      <c r="C220" s="24"/>
-      <c r="D220" s="24"/>
-      <c r="E220" s="24"/>
-      <c r="F220" s="24"/>
+      <c r="C220" s="26"/>
+      <c r="D220" s="26"/>
+      <c r="E220" s="26"/>
+      <c r="F220" s="26"/>
       <c r="G220" s="27"/>
       <c r="H220" s="12"/>
       <c r="I220" s="12"/>
@@ -5994,7 +6018,7 @@
     <mergeCell ref="B220:G220"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I3 J3 K3 L3 J17 L21 J22 K22:L22 J23 K23:L23 K30 I33 L39 L53 L54 J56 K56 L61 J62 K62 L62 L65 J69 K69 J78:K78 L78 J79:K79 L79 J80:K80 L80 I83 J83 K83 L83 J86 K86 L86 K87:L87 I103 J103 K103:L103 J106 K106 L106 J112 K112 L112 J113 K113 L113 J132 J133 J134 K134:L134 J145 J146 J147 J148 J149 J150 L150 J151 L151 J152 L152 J163 L163 J164 L164 J173:K173 J174 K174 I189 J189 K189 L189 I198 J198 K198:L198 I207 J207 K207:L207 I6:I14 I17:I21 I26:I30 I34:I36 I37:I41 I45:I50 I53:I56 I59:I62 I65:I69 I72:I80 I86:I89 I92:I100 I104:I106 I107:I109 I112:I113 I116:I119 I132:I133 I145:I152 I163:I164 I173:I174 J6:J10 J11:J14 J18:J21 J26:J30 J37:J41 J45:J50 J59:J61 J65:J68 J87:J89 J92:J100 J104:J105 J107:J109 J116:J119 J122:J127 J130:J131 J137:J142 J155:J160 J167:J170 J177:J180 J183:J186 J192:J195 J201:J204 J210:J213 J216:J220 K6:K10 K11:K14 K17:K21 K26:K29 K37:K41 K45:K50 K59:K61 K65:K68 K88:K89 K92:K100 K104:K105 K107:K109 K116:K119 K132:K133 K145:K152 K163:K164 L6:L14 L17:L20 L26:L30 L33:L34 L35:L36 L37:L38 L40:L41 L45:L48 L49:L50 L55:L56 L59:L60 L66:L69 L72:L73 L74:L77 L88:L89 L92:L100 L104:L105 L107:L109 L116:L119 L132:L133 L145:L149 L173:L174 J33:K36 J53:K55 J72:K77 K183:L186 K192:L195 K201:L204 K177:L180 K122:L127 K137:L142 K155:L160 K167:L170 K210:L213 K216:L220 K130:L131">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I3 J3 K3 L3 J17 L21 J22 K22:L22 J23 K23:L23 K30 I33 L39 L53 L54 J56 K56 L61 J62 K62 L62 L65 J69 K69 J78:K78 L78 J79:K79 L79 J80:K80 L80 I83 J83 K83 L83 J86 K86 L86 K87:L87 I103 J103 K103:L103 J106 K106 L106 J112 K112 L112 J113 K113 L113 J132 J133 J134 K134:L134 J145 J146 J147 J148 J149 J150 L150 J151 L151 J152 L152 J163 L163 J164 L164 J173:K173 J174 K174 I189 J189 K189 L189 I198 J198 K198:L198 I207 J207 K207:L207 I6:I14 I17:I21 I26:I30 I34:I36 I37:I41 I45:I50 I53:I56 I59:I62 I65:I69 I72:I80 I86:I89 I92:I100 I104:I106 I107:I109 I112:I113 I116:I119 I132:I133 I145:I152 I163:I164 I173:I174 J6:J10 J11:J14 J18:J21 J26:J30 J37:J41 J45:J50 J59:J61 J65:J68 J87:J89 J92:J100 J104:J105 J107:J109 J116:J119 J122:J127 J130:J131 J137:J142 J155:J160 J167:J170 J177:J180 J183:J186 J192:J195 J201:J204 J210:J213 J216:J220 K6:K10 K11:K14 K17:K21 K26:K29 K37:K41 K45:K50 K59:K61 K65:K68 K88:K89 K92:K100 K104:K105 K107:K109 K116:K119 K122:K127 K132:K133 K145:K152 K163:K164 L6:L14 L17:L20 L26:L30 L33:L34 L35:L36 L37:L38 L40:L41 L45:L48 L49:L50 L55:L56 L59:L60 L66:L69 L72:L73 L74:L77 L88:L89 L92:L100 L104:L105 L107:L109 L116:L119 L122:L127 L132:L133 L145:L149 L173:L174 J33:K36 J53:K55 J72:K77 K183:L186 K192:L195 K201:L204 K177:L180 K137:L142 K155:L160 K167:L170 K210:L213 K216:L220 K130:L131">
       <formula1>$S$3:$S$4</formula1>
     </dataValidation>
   </dataValidations>

--- a/课程跟踪.xlsx
+++ b/课程跟踪.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19820" windowHeight="13920"/>
+    <workbookView windowWidth="24380" windowHeight="15480"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -603,10 +603,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -646,6 +646,14 @@
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -662,7 +670,30 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -676,9 +707,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -686,14 +725,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -708,7 +747,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -718,53 +765,6 @@
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -813,13 +813,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -831,7 +831,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -849,7 +849,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -861,7 +909,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -873,25 +933,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -903,73 +969,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1082,6 +1082,32 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -1119,170 +1145,144 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="31" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3095,8 +3095,8 @@
       <c r="K66" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="L66" s="18" t="s">
-        <v>10</v>
+      <c r="L66" s="16" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="67" ht="20.4" spans="1:12">
@@ -3123,8 +3123,8 @@
       <c r="K67" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="L67" s="18" t="s">
-        <v>10</v>
+      <c r="L67" s="16" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="68" ht="20.4" spans="1:12">
@@ -3151,8 +3151,8 @@
       <c r="K68" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="L68" s="18" t="s">
-        <v>10</v>
+      <c r="L68" s="16" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="69" ht="20.4" spans="1:12">
@@ -3179,8 +3179,8 @@
       <c r="K69" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="L69" s="18" t="s">
-        <v>10</v>
+      <c r="L69" s="16" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="71" spans="2:7">
@@ -3385,8 +3385,8 @@
       <c r="K78" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="L78" s="18" t="s">
-        <v>10</v>
+      <c r="L78" s="16" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="79" ht="20.4" spans="1:12">
@@ -4281,7 +4281,9 @@
       <c r="H122" s="13">
         <v>43535</v>
       </c>
-      <c r="I122" s="12"/>
+      <c r="I122" s="12" t="s">
+        <v>9</v>
+      </c>
       <c r="J122" s="12" t="s">
         <v>9</v>
       </c>
@@ -4304,7 +4306,9 @@
       <c r="H123" s="13">
         <v>43535</v>
       </c>
-      <c r="I123" s="12"/>
+      <c r="I123" s="12" t="s">
+        <v>9</v>
+      </c>
       <c r="J123" s="12" t="s">
         <v>9</v>
       </c>
@@ -4327,7 +4331,9 @@
       <c r="H124" s="13">
         <v>43535</v>
       </c>
-      <c r="I124" s="12"/>
+      <c r="I124" s="12" t="s">
+        <v>9</v>
+      </c>
       <c r="J124" s="12" t="s">
         <v>9</v>
       </c>
@@ -4350,7 +4356,9 @@
       <c r="H125" s="13">
         <v>43535</v>
       </c>
-      <c r="I125" s="12"/>
+      <c r="I125" s="12" t="s">
+        <v>9</v>
+      </c>
       <c r="J125" s="12" t="s">
         <v>9</v>
       </c>
@@ -4373,7 +4381,9 @@
       <c r="H126" s="13">
         <v>43535</v>
       </c>
-      <c r="I126" s="12"/>
+      <c r="I126" s="12" t="s">
+        <v>9</v>
+      </c>
       <c r="J126" s="12" t="s">
         <v>9</v>
       </c>
@@ -4396,7 +4406,9 @@
       <c r="H127" s="13">
         <v>43535</v>
       </c>
-      <c r="I127" s="12"/>
+      <c r="I127" s="12" t="s">
+        <v>9</v>
+      </c>
       <c r="J127" s="12" t="s">
         <v>9</v>
       </c>
@@ -6018,7 +6030,7 @@
     <mergeCell ref="B220:G220"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I3 J3 K3 L3 J17 L21 J22 K22:L22 J23 K23:L23 K30 I33 L39 L53 L54 J56 K56 L61 J62 K62 L62 L65 J69 K69 J78:K78 L78 J79:K79 L79 J80:K80 L80 I83 J83 K83 L83 J86 K86 L86 K87:L87 I103 J103 K103:L103 J106 K106 L106 J112 K112 L112 J113 K113 L113 J132 J133 J134 K134:L134 J145 J146 J147 J148 J149 J150 L150 J151 L151 J152 L152 J163 L163 J164 L164 J173:K173 J174 K174 I189 J189 K189 L189 I198 J198 K198:L198 I207 J207 K207:L207 I6:I14 I17:I21 I26:I30 I34:I36 I37:I41 I45:I50 I53:I56 I59:I62 I65:I69 I72:I80 I86:I89 I92:I100 I104:I106 I107:I109 I112:I113 I116:I119 I132:I133 I145:I152 I163:I164 I173:I174 J6:J10 J11:J14 J18:J21 J26:J30 J37:J41 J45:J50 J59:J61 J65:J68 J87:J89 J92:J100 J104:J105 J107:J109 J116:J119 J122:J127 J130:J131 J137:J142 J155:J160 J167:J170 J177:J180 J183:J186 J192:J195 J201:J204 J210:J213 J216:J220 K6:K10 K11:K14 K17:K21 K26:K29 K37:K41 K45:K50 K59:K61 K65:K68 K88:K89 K92:K100 K104:K105 K107:K109 K116:K119 K122:K127 K132:K133 K145:K152 K163:K164 L6:L14 L17:L20 L26:L30 L33:L34 L35:L36 L37:L38 L40:L41 L45:L48 L49:L50 L55:L56 L59:L60 L66:L69 L72:L73 L74:L77 L88:L89 L92:L100 L104:L105 L107:L109 L116:L119 L122:L127 L132:L133 L145:L149 L173:L174 J33:K36 J53:K55 J72:K77 K183:L186 K192:L195 K201:L204 K177:L180 K137:L142 K155:L160 K167:L170 K210:L213 K216:L220 K130:L131">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I3 J3 K3 L3 J17 L21 J22 K22:L22 J23 K23:L23 K30 I33 L39 L53 L54 J56 K56 L61 J62 K62 L62 L65 J69 K69 J78:K78 L78 J79:K79 L79 J80:K80 L80 I83 J83 K83 L83 J86 K86 L86 K87:L87 I103 J103 K103:L103 J106 K106 L106 J112 K112 L112 J113 K113 L113 J132 J133 J134 K134:L134 J145 J146 J147 J148 J149 J150 L150 J151 L151 J152 L152 J163 L163 J164 L164 J173:K173 J174 K174 I189 J189 K189 L189 I198 J198 K198:L198 I207 J207 K207:L207 I6:I14 I17:I21 I26:I30 I34:I36 I37:I41 I45:I50 I53:I56 I59:I62 I65:I69 I72:I80 I86:I89 I92:I100 I104:I106 I107:I109 I112:I113 I116:I119 I122:I127 I132:I133 I145:I152 I163:I164 I173:I174 J6:J10 J11:J14 J18:J21 J26:J30 J37:J41 J45:J50 J59:J61 J65:J68 J87:J89 J92:J100 J104:J105 J107:J109 J116:J119 J122:J127 J130:J131 J137:J142 J155:J160 J167:J170 J177:J180 J183:J186 J192:J195 J201:J204 J210:J213 J216:J220 K6:K10 K11:K14 K17:K21 K26:K29 K37:K41 K45:K50 K59:K61 K65:K68 K88:K89 K92:K100 K104:K105 K107:K109 K116:K119 K122:K127 K132:K133 K145:K152 K163:K164 L6:L14 L17:L20 L26:L30 L33:L34 L35:L36 L37:L38 L40:L41 L45:L48 L49:L50 L55:L56 L59:L60 L66:L69 L72:L73 L74:L77 L88:L89 L92:L100 L104:L105 L107:L109 L116:L119 L122:L127 L132:L133 L145:L149 L173:L174 J33:K36 J53:K55 J72:K77 K183:L186 K192:L195 K201:L204 K177:L180 K137:L142 K155:L160 K167:L170 K210:L213 K216:L220 K130:L131">
       <formula1>$S$3:$S$4</formula1>
     </dataValidation>
   </dataValidations>

--- a/课程跟踪.xlsx
+++ b/课程跟踪.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24380" windowHeight="15480"/>
+    <workbookView windowWidth="25980" windowHeight="16660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -346,7 +346,7 @@
     <t>【直播】Docker实战（四）(3月3日 17:00-18:00)</t>
   </si>
   <si>
-    <t>16 App性能分析与弱网测试实战</t>
+    <t>17 App性能分析与弱网测试实战</t>
   </si>
   <si>
     <t>【直播】App性能分析与弱网测试实战（一）(2月17日 10:00-11:00)</t>
@@ -367,7 +367,7 @@
     <t>【直播】App性能分析与弱网测试实战（六）(2月17日 17:00-18:00)</t>
   </si>
   <si>
-    <t>17 接口自动化基础</t>
+    <t>18 接口自动化基础</t>
   </si>
   <si>
     <t>【录播】接口测试体系（9分钟）</t>
@@ -385,7 +385,7 @@
     <t>【直播】接口测试晚自习答疑(2月20日 20:00-22:00)</t>
   </si>
   <si>
-    <t>18 接口测试入门实战</t>
+    <t>19 接口测试入门实战</t>
   </si>
   <si>
     <t>【直播】接口测试入门实战（一）(2月24日 10:00-11:00)</t>
@@ -406,7 +406,7 @@
     <t>【直播】接口测试入门实战（六）(2月24日 17:00-18:00)</t>
   </si>
   <si>
-    <t>19 接口自动化进阶</t>
+    <t>20 接口自动化进阶</t>
   </si>
   <si>
     <t>【录播】通用协议加解密与schema断言（9分钟）</t>
@@ -603,12 +603,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="22">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -624,10 +624,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="14"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -646,18 +646,17 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -668,25 +667,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -694,22 +677,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -724,6 +691,13 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -740,9 +714,25 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -753,22 +743,39 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="35">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -801,7 +808,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.15"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -813,13 +856,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -831,25 +892,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -861,13 +928,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -879,25 +940,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -909,67 +982,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1051,15 +1064,6 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="medium">
         <color theme="4"/>
       </bottom>
@@ -1098,11 +1102,18 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1139,9 +1150,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1150,152 +1163,152 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="31" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="31" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1359,23 +1372,29 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -3054,7 +3073,7 @@
       <c r="D65" s="20"/>
       <c r="E65" s="20"/>
       <c r="F65" s="20"/>
-      <c r="G65" s="23"/>
+      <c r="G65" s="21"/>
       <c r="H65" s="13">
         <v>43427</v>
       </c>
@@ -3082,7 +3101,7 @@
       <c r="D66" s="20"/>
       <c r="E66" s="20"/>
       <c r="F66" s="20"/>
-      <c r="G66" s="23"/>
+      <c r="G66" s="21"/>
       <c r="H66" s="13">
         <v>43427</v>
       </c>
@@ -3110,7 +3129,7 @@
       <c r="D67" s="20"/>
       <c r="E67" s="20"/>
       <c r="F67" s="20"/>
-      <c r="G67" s="23"/>
+      <c r="G67" s="21"/>
       <c r="H67" s="13">
         <v>43427</v>
       </c>
@@ -3138,7 +3157,7 @@
       <c r="D68" s="20"/>
       <c r="E68" s="20"/>
       <c r="F68" s="20"/>
-      <c r="G68" s="23"/>
+      <c r="G68" s="21"/>
       <c r="H68" s="13">
         <v>43427</v>
       </c>
@@ -3166,7 +3185,7 @@
       <c r="D69" s="20"/>
       <c r="E69" s="20"/>
       <c r="F69" s="20"/>
-      <c r="G69" s="23"/>
+      <c r="G69" s="21"/>
       <c r="H69" s="13">
         <v>43451</v>
       </c>
@@ -3204,7 +3223,7 @@
       <c r="D72" s="20"/>
       <c r="E72" s="20"/>
       <c r="F72" s="20"/>
-      <c r="G72" s="23"/>
+      <c r="G72" s="21"/>
       <c r="H72" s="13">
         <v>43486</v>
       </c>
@@ -3232,7 +3251,7 @@
       <c r="D73" s="20"/>
       <c r="E73" s="20"/>
       <c r="F73" s="20"/>
-      <c r="G73" s="23"/>
+      <c r="G73" s="21"/>
       <c r="H73" s="13">
         <v>43486</v>
       </c>
@@ -3260,7 +3279,7 @@
       <c r="D74" s="20"/>
       <c r="E74" s="20"/>
       <c r="F74" s="20"/>
-      <c r="G74" s="23"/>
+      <c r="G74" s="21"/>
       <c r="H74" s="13">
         <v>43486</v>
       </c>
@@ -3288,7 +3307,7 @@
       <c r="D75" s="20"/>
       <c r="E75" s="20"/>
       <c r="F75" s="20"/>
-      <c r="G75" s="23"/>
+      <c r="G75" s="21"/>
       <c r="H75" s="13">
         <v>43486</v>
       </c>
@@ -3316,7 +3335,7 @@
       <c r="D76" s="20"/>
       <c r="E76" s="20"/>
       <c r="F76" s="20"/>
-      <c r="G76" s="23"/>
+      <c r="G76" s="21"/>
       <c r="H76" s="13">
         <v>43486</v>
       </c>
@@ -3344,7 +3363,7 @@
       <c r="D77" s="20"/>
       <c r="E77" s="20"/>
       <c r="F77" s="20"/>
-      <c r="G77" s="23"/>
+      <c r="G77" s="21"/>
       <c r="H77" s="13">
         <v>43486</v>
       </c>
@@ -3372,7 +3391,7 @@
       <c r="D78" s="20"/>
       <c r="E78" s="20"/>
       <c r="F78" s="20"/>
-      <c r="G78" s="23"/>
+      <c r="G78" s="21"/>
       <c r="H78" s="13">
         <v>43493</v>
       </c>
@@ -3400,7 +3419,7 @@
       <c r="D79" s="20"/>
       <c r="E79" s="20"/>
       <c r="F79" s="20"/>
-      <c r="G79" s="23"/>
+      <c r="G79" s="21"/>
       <c r="H79" s="13">
         <v>43493</v>
       </c>
@@ -3428,7 +3447,7 @@
       <c r="D80" s="20"/>
       <c r="E80" s="20"/>
       <c r="F80" s="20"/>
-      <c r="G80" s="23"/>
+      <c r="G80" s="21"/>
       <c r="H80" s="13">
         <v>43493</v>
       </c>
@@ -3466,7 +3485,7 @@
       <c r="D83" s="20"/>
       <c r="E83" s="20"/>
       <c r="F83" s="20"/>
-      <c r="G83" s="23"/>
+      <c r="G83" s="21"/>
       <c r="H83" s="13">
         <v>43487</v>
       </c>
@@ -3504,7 +3523,7 @@
       <c r="D86" s="20"/>
       <c r="E86" s="20"/>
       <c r="F86" s="20"/>
-      <c r="G86" s="23"/>
+      <c r="G86" s="21"/>
       <c r="H86" s="13">
         <v>43487</v>
       </c>
@@ -3532,7 +3551,7 @@
       <c r="D87" s="20"/>
       <c r="E87" s="20"/>
       <c r="F87" s="20"/>
-      <c r="G87" s="23"/>
+      <c r="G87" s="21"/>
       <c r="H87" s="13">
         <v>43487</v>
       </c>
@@ -3560,7 +3579,7 @@
       <c r="D88" s="20"/>
       <c r="E88" s="20"/>
       <c r="F88" s="20"/>
-      <c r="G88" s="23"/>
+      <c r="G88" s="21"/>
       <c r="H88" s="13">
         <v>43493</v>
       </c>
@@ -3588,7 +3607,7 @@
       <c r="D89" s="20"/>
       <c r="E89" s="20"/>
       <c r="F89" s="20"/>
-      <c r="G89" s="23"/>
+      <c r="G89" s="21"/>
       <c r="H89" s="13">
         <v>43493</v>
       </c>
@@ -3626,7 +3645,7 @@
       <c r="D92" s="20"/>
       <c r="E92" s="20"/>
       <c r="F92" s="20"/>
-      <c r="G92" s="23"/>
+      <c r="G92" s="21"/>
       <c r="H92" s="13">
         <v>43498</v>
       </c>
@@ -3654,7 +3673,7 @@
       <c r="D93" s="20"/>
       <c r="E93" s="20"/>
       <c r="F93" s="20"/>
-      <c r="G93" s="23"/>
+      <c r="G93" s="21"/>
       <c r="H93" s="13">
         <v>43498</v>
       </c>
@@ -3682,7 +3701,7 @@
       <c r="D94" s="20"/>
       <c r="E94" s="20"/>
       <c r="F94" s="20"/>
-      <c r="G94" s="23"/>
+      <c r="G94" s="21"/>
       <c r="H94" s="13">
         <v>43498</v>
       </c>
@@ -3710,7 +3729,7 @@
       <c r="D95" s="20"/>
       <c r="E95" s="20"/>
       <c r="F95" s="20"/>
-      <c r="G95" s="23"/>
+      <c r="G95" s="21"/>
       <c r="H95" s="13">
         <v>43498</v>
       </c>
@@ -3738,7 +3757,7 @@
       <c r="D96" s="20"/>
       <c r="E96" s="20"/>
       <c r="F96" s="20"/>
-      <c r="G96" s="23"/>
+      <c r="G96" s="21"/>
       <c r="H96" s="13">
         <v>43498</v>
       </c>
@@ -3766,7 +3785,7 @@
       <c r="D97" s="20"/>
       <c r="E97" s="20"/>
       <c r="F97" s="20"/>
-      <c r="G97" s="23"/>
+      <c r="G97" s="21"/>
       <c r="H97" s="13">
         <v>43498</v>
       </c>
@@ -3794,7 +3813,7 @@
       <c r="D98" s="20"/>
       <c r="E98" s="20"/>
       <c r="F98" s="20"/>
-      <c r="G98" s="23"/>
+      <c r="G98" s="21"/>
       <c r="H98" s="13">
         <v>43498</v>
       </c>
@@ -3822,7 +3841,7 @@
       <c r="D99" s="20"/>
       <c r="E99" s="20"/>
       <c r="F99" s="20"/>
-      <c r="G99" s="23"/>
+      <c r="G99" s="21"/>
       <c r="H99" s="13">
         <v>43498</v>
       </c>
@@ -3850,7 +3869,7 @@
       <c r="D100" s="20"/>
       <c r="E100" s="20"/>
       <c r="F100" s="20"/>
-      <c r="G100" s="23"/>
+      <c r="G100" s="21"/>
       <c r="H100" s="13">
         <v>43498</v>
       </c>
@@ -3881,25 +3900,25 @@
       <c r="A103" s="2">
         <v>68</v>
       </c>
-      <c r="B103" s="21" t="s">
+      <c r="B103" s="11" t="s">
         <v>94</v>
       </c>
-      <c r="C103" s="22"/>
-      <c r="D103" s="22"/>
-      <c r="E103" s="22"/>
-      <c r="F103" s="22"/>
-      <c r="G103" s="24"/>
-      <c r="H103" s="12"/>
-      <c r="I103" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="J103" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="K103" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="L103" s="18" t="s">
+      <c r="C103" s="11"/>
+      <c r="D103" s="11"/>
+      <c r="E103" s="11"/>
+      <c r="F103" s="11"/>
+      <c r="G103" s="11"/>
+      <c r="H103" s="22"/>
+      <c r="I103" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="J103" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="K103" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="L103" s="22" t="s">
         <v>10</v>
       </c>
     </row>
@@ -3914,7 +3933,7 @@
       <c r="D104" s="20"/>
       <c r="E104" s="20"/>
       <c r="F104" s="20"/>
-      <c r="G104" s="23"/>
+      <c r="G104" s="21"/>
       <c r="H104" s="13">
         <v>43498</v>
       </c>
@@ -3942,7 +3961,7 @@
       <c r="D105" s="20"/>
       <c r="E105" s="20"/>
       <c r="F105" s="20"/>
-      <c r="G105" s="23"/>
+      <c r="G105" s="21"/>
       <c r="H105" s="13">
         <v>43498</v>
       </c>
@@ -3970,7 +3989,7 @@
       <c r="D106" s="20"/>
       <c r="E106" s="20"/>
       <c r="F106" s="20"/>
-      <c r="G106" s="23"/>
+      <c r="G106" s="21"/>
       <c r="H106" s="13">
         <v>43513</v>
       </c>
@@ -4092,7 +4111,7 @@
       <c r="D112" s="20"/>
       <c r="E112" s="20"/>
       <c r="F112" s="20"/>
-      <c r="G112" s="23"/>
+      <c r="G112" s="21"/>
       <c r="H112" s="13">
         <v>43498</v>
       </c>
@@ -4120,7 +4139,7 @@
       <c r="D113" s="20"/>
       <c r="E113" s="20"/>
       <c r="F113" s="20"/>
-      <c r="G113" s="23"/>
+      <c r="G113" s="21"/>
       <c r="H113" s="13">
         <v>43513</v>
       </c>
@@ -4158,7 +4177,7 @@
       <c r="D116" s="20"/>
       <c r="E116" s="20"/>
       <c r="F116" s="20"/>
-      <c r="G116" s="23"/>
+      <c r="G116" s="21"/>
       <c r="H116" s="13">
         <v>43527</v>
       </c>
@@ -4186,7 +4205,7 @@
       <c r="D117" s="20"/>
       <c r="E117" s="20"/>
       <c r="F117" s="20"/>
-      <c r="G117" s="23"/>
+      <c r="G117" s="21"/>
       <c r="H117" s="13">
         <v>43527</v>
       </c>
@@ -4214,7 +4233,7 @@
       <c r="D118" s="20"/>
       <c r="E118" s="20"/>
       <c r="F118" s="20"/>
-      <c r="G118" s="23"/>
+      <c r="G118" s="21"/>
       <c r="H118" s="13">
         <v>43527</v>
       </c>
@@ -4242,7 +4261,7 @@
       <c r="D119" s="20"/>
       <c r="E119" s="20"/>
       <c r="F119" s="20"/>
-      <c r="G119" s="23"/>
+      <c r="G119" s="21"/>
       <c r="H119" s="13">
         <v>43527</v>
       </c>
@@ -4277,7 +4296,7 @@
       <c r="D122" s="20"/>
       <c r="E122" s="20"/>
       <c r="F122" s="20"/>
-      <c r="G122" s="23"/>
+      <c r="G122" s="21"/>
       <c r="H122" s="13">
         <v>43535</v>
       </c>
@@ -4302,7 +4321,7 @@
       <c r="D123" s="20"/>
       <c r="E123" s="20"/>
       <c r="F123" s="20"/>
-      <c r="G123" s="23"/>
+      <c r="G123" s="21"/>
       <c r="H123" s="13">
         <v>43535</v>
       </c>
@@ -4327,7 +4346,7 @@
       <c r="D124" s="20"/>
       <c r="E124" s="20"/>
       <c r="F124" s="20"/>
-      <c r="G124" s="23"/>
+      <c r="G124" s="21"/>
       <c r="H124" s="13">
         <v>43535</v>
       </c>
@@ -4352,7 +4371,7 @@
       <c r="D125" s="20"/>
       <c r="E125" s="20"/>
       <c r="F125" s="20"/>
-      <c r="G125" s="23"/>
+      <c r="G125" s="21"/>
       <c r="H125" s="13">
         <v>43535</v>
       </c>
@@ -4377,7 +4396,7 @@
       <c r="D126" s="20"/>
       <c r="E126" s="20"/>
       <c r="F126" s="20"/>
-      <c r="G126" s="23"/>
+      <c r="G126" s="21"/>
       <c r="H126" s="13">
         <v>43535</v>
       </c>
@@ -4402,7 +4421,7 @@
       <c r="D127" s="20"/>
       <c r="E127" s="20"/>
       <c r="F127" s="20"/>
-      <c r="G127" s="23"/>
+      <c r="G127" s="21"/>
       <c r="H127" s="13">
         <v>43535</v>
       </c>
@@ -4430,40 +4449,40 @@
       <c r="G129" s="14"/>
     </row>
     <row r="130" spans="2:12">
-      <c r="B130" s="21" t="s">
+      <c r="B130" s="23" t="s">
         <v>117</v>
       </c>
-      <c r="C130" s="22"/>
-      <c r="D130" s="22"/>
-      <c r="E130" s="22"/>
-      <c r="F130" s="22"/>
-      <c r="G130" s="24"/>
-      <c r="H130" s="12"/>
-      <c r="I130" s="12"/>
-      <c r="J130" s="12"/>
-      <c r="K130" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="L130" s="12" t="s">
+      <c r="C130" s="24"/>
+      <c r="D130" s="24"/>
+      <c r="E130" s="24"/>
+      <c r="F130" s="24"/>
+      <c r="G130" s="27"/>
+      <c r="H130" s="18"/>
+      <c r="I130" s="18"/>
+      <c r="J130" s="18"/>
+      <c r="K130" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="L130" s="18" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="131" spans="2:12">
-      <c r="B131" s="21" t="s">
+      <c r="B131" s="23" t="s">
         <v>118</v>
       </c>
-      <c r="C131" s="22"/>
-      <c r="D131" s="22"/>
-      <c r="E131" s="22"/>
-      <c r="F131" s="22"/>
-      <c r="G131" s="24"/>
-      <c r="H131" s="12"/>
-      <c r="I131" s="12"/>
-      <c r="J131" s="12"/>
-      <c r="K131" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="L131" s="12" t="s">
+      <c r="C131" s="24"/>
+      <c r="D131" s="24"/>
+      <c r="E131" s="24"/>
+      <c r="F131" s="24"/>
+      <c r="G131" s="27"/>
+      <c r="H131" s="18"/>
+      <c r="I131" s="18"/>
+      <c r="J131" s="18"/>
+      <c r="K131" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="L131" s="18" t="s">
         <v>10</v>
       </c>
     </row>
@@ -4475,7 +4494,7 @@
       <c r="D132" s="20"/>
       <c r="E132" s="20"/>
       <c r="F132" s="20"/>
-      <c r="G132" s="23"/>
+      <c r="G132" s="21"/>
       <c r="H132" s="13">
         <v>43498</v>
       </c>
@@ -4500,7 +4519,7 @@
       <c r="D133" s="20"/>
       <c r="E133" s="20"/>
       <c r="F133" s="20"/>
-      <c r="G133" s="23"/>
+      <c r="G133" s="21"/>
       <c r="H133" s="13">
         <v>43498</v>
       </c>
@@ -4517,22 +4536,26 @@
         <v>10</v>
       </c>
     </row>
-    <row r="134" spans="2:12">
-      <c r="B134" s="21" t="s">
+    <row r="134" ht="20.4" spans="2:12">
+      <c r="B134" s="19" t="s">
         <v>121</v>
       </c>
-      <c r="C134" s="22"/>
-      <c r="D134" s="22"/>
-      <c r="E134" s="22"/>
-      <c r="F134" s="22"/>
-      <c r="G134" s="24"/>
-      <c r="H134" s="12"/>
+      <c r="C134" s="20"/>
+      <c r="D134" s="20"/>
+      <c r="E134" s="20"/>
+      <c r="F134" s="20"/>
+      <c r="G134" s="21"/>
+      <c r="H134" s="28">
+        <v>43552</v>
+      </c>
       <c r="I134" s="12"/>
-      <c r="J134" s="12"/>
+      <c r="J134" s="12" t="s">
+        <v>9</v>
+      </c>
       <c r="K134" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="L134" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="L134" s="18" t="s">
         <v>10</v>
       </c>
     </row>
@@ -4546,117 +4569,141 @@
       <c r="F136" s="9"/>
       <c r="G136" s="14"/>
     </row>
-    <row r="137" spans="2:12">
-      <c r="B137" s="25" t="s">
+    <row r="137" ht="20.4" spans="2:12">
+      <c r="B137" s="19" t="s">
         <v>123</v>
       </c>
-      <c r="C137" s="26"/>
-      <c r="D137" s="26"/>
-      <c r="E137" s="26"/>
-      <c r="F137" s="26"/>
-      <c r="G137" s="27"/>
-      <c r="H137" s="12"/>
+      <c r="C137" s="20"/>
+      <c r="D137" s="20"/>
+      <c r="E137" s="20"/>
+      <c r="F137" s="20"/>
+      <c r="G137" s="21"/>
+      <c r="H137" s="28">
+        <v>43552</v>
+      </c>
       <c r="I137" s="12"/>
-      <c r="J137" s="12"/>
+      <c r="J137" s="12" t="s">
+        <v>9</v>
+      </c>
       <c r="K137" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="L137" s="12" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="138" spans="2:12">
-      <c r="B138" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="L137" s="18" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="138" ht="20.4" spans="2:12">
+      <c r="B138" s="19" t="s">
         <v>124</v>
       </c>
-      <c r="C138" s="26"/>
-      <c r="D138" s="26"/>
-      <c r="E138" s="26"/>
-      <c r="F138" s="26"/>
-      <c r="G138" s="27"/>
-      <c r="H138" s="12"/>
+      <c r="C138" s="20"/>
+      <c r="D138" s="20"/>
+      <c r="E138" s="20"/>
+      <c r="F138" s="20"/>
+      <c r="G138" s="21"/>
+      <c r="H138" s="28">
+        <v>43552</v>
+      </c>
       <c r="I138" s="12"/>
-      <c r="J138" s="12"/>
+      <c r="J138" s="12" t="s">
+        <v>9</v>
+      </c>
       <c r="K138" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="L138" s="12" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="139" spans="2:12">
-      <c r="B139" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="L138" s="18" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="139" ht="20.4" spans="2:12">
+      <c r="B139" s="19" t="s">
         <v>125</v>
       </c>
-      <c r="C139" s="26"/>
-      <c r="D139" s="26"/>
-      <c r="E139" s="26"/>
-      <c r="F139" s="26"/>
-      <c r="G139" s="27"/>
-      <c r="H139" s="12"/>
+      <c r="C139" s="20"/>
+      <c r="D139" s="20"/>
+      <c r="E139" s="20"/>
+      <c r="F139" s="20"/>
+      <c r="G139" s="21"/>
+      <c r="H139" s="28">
+        <v>43552</v>
+      </c>
       <c r="I139" s="12"/>
-      <c r="J139" s="12"/>
+      <c r="J139" s="12" t="s">
+        <v>9</v>
+      </c>
       <c r="K139" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="L139" s="12" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="140" spans="2:12">
-      <c r="B140" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="L139" s="18" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="140" ht="20.4" spans="2:12">
+      <c r="B140" s="19" t="s">
         <v>126</v>
       </c>
-      <c r="C140" s="26"/>
-      <c r="D140" s="26"/>
-      <c r="E140" s="26"/>
-      <c r="F140" s="26"/>
-      <c r="G140" s="27"/>
-      <c r="H140" s="12"/>
+      <c r="C140" s="20"/>
+      <c r="D140" s="20"/>
+      <c r="E140" s="20"/>
+      <c r="F140" s="20"/>
+      <c r="G140" s="21"/>
+      <c r="H140" s="28">
+        <v>43552</v>
+      </c>
       <c r="I140" s="12"/>
-      <c r="J140" s="12"/>
+      <c r="J140" s="12" t="s">
+        <v>9</v>
+      </c>
       <c r="K140" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="L140" s="12" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="141" spans="2:12">
-      <c r="B141" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="L140" s="18" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="141" ht="20.4" spans="2:12">
+      <c r="B141" s="19" t="s">
         <v>127</v>
       </c>
-      <c r="C141" s="26"/>
-      <c r="D141" s="26"/>
-      <c r="E141" s="26"/>
-      <c r="F141" s="26"/>
-      <c r="G141" s="27"/>
-      <c r="H141" s="12"/>
+      <c r="C141" s="20"/>
+      <c r="D141" s="20"/>
+      <c r="E141" s="20"/>
+      <c r="F141" s="20"/>
+      <c r="G141" s="21"/>
+      <c r="H141" s="28">
+        <v>43552</v>
+      </c>
       <c r="I141" s="12"/>
-      <c r="J141" s="12"/>
+      <c r="J141" s="12" t="s">
+        <v>9</v>
+      </c>
       <c r="K141" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="L141" s="12" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="142" spans="2:12">
-      <c r="B142" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="L141" s="18" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="142" ht="20.4" spans="2:12">
+      <c r="B142" s="19" t="s">
         <v>128</v>
       </c>
-      <c r="C142" s="26"/>
-      <c r="D142" s="26"/>
-      <c r="E142" s="26"/>
-      <c r="F142" s="26"/>
-      <c r="G142" s="27"/>
-      <c r="H142" s="12"/>
+      <c r="C142" s="20"/>
+      <c r="D142" s="20"/>
+      <c r="E142" s="20"/>
+      <c r="F142" s="20"/>
+      <c r="G142" s="21"/>
+      <c r="H142" s="28">
+        <v>43552</v>
+      </c>
       <c r="I142" s="12"/>
-      <c r="J142" s="12"/>
+      <c r="J142" s="12" t="s">
+        <v>9</v>
+      </c>
       <c r="K142" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="L142" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="L142" s="18" t="s">
         <v>10</v>
       </c>
     </row>
@@ -4678,7 +4725,7 @@
       <c r="D145" s="20"/>
       <c r="E145" s="20"/>
       <c r="F145" s="20"/>
-      <c r="G145" s="23"/>
+      <c r="G145" s="21"/>
       <c r="H145" s="13">
         <v>43498</v>
       </c>
@@ -4703,7 +4750,7 @@
       <c r="D146" s="20"/>
       <c r="E146" s="20"/>
       <c r="F146" s="20"/>
-      <c r="G146" s="23"/>
+      <c r="G146" s="21"/>
       <c r="H146" s="13">
         <v>43498</v>
       </c>
@@ -4728,7 +4775,7 @@
       <c r="D147" s="20"/>
       <c r="E147" s="20"/>
       <c r="F147" s="20"/>
-      <c r="G147" s="23"/>
+      <c r="G147" s="21"/>
       <c r="H147" s="13">
         <v>43498</v>
       </c>
@@ -4753,7 +4800,7 @@
       <c r="D148" s="20"/>
       <c r="E148" s="20"/>
       <c r="F148" s="20"/>
-      <c r="G148" s="23"/>
+      <c r="G148" s="21"/>
       <c r="H148" s="13">
         <v>43498</v>
       </c>
@@ -4778,7 +4825,7 @@
       <c r="D149" s="20"/>
       <c r="E149" s="20"/>
       <c r="F149" s="20"/>
-      <c r="G149" s="23"/>
+      <c r="G149" s="21"/>
       <c r="H149" s="13">
         <v>43498</v>
       </c>
@@ -4803,7 +4850,7 @@
       <c r="D150" s="20"/>
       <c r="E150" s="20"/>
       <c r="F150" s="20"/>
-      <c r="G150" s="23"/>
+      <c r="G150" s="21"/>
       <c r="H150" s="13">
         <v>43498</v>
       </c>
@@ -4828,7 +4875,7 @@
       <c r="D151" s="20"/>
       <c r="E151" s="20"/>
       <c r="F151" s="20"/>
-      <c r="G151" s="23"/>
+      <c r="G151" s="21"/>
       <c r="H151" s="13">
         <v>43498</v>
       </c>
@@ -4853,7 +4900,7 @@
       <c r="D152" s="20"/>
       <c r="E152" s="20"/>
       <c r="F152" s="20"/>
-      <c r="G152" s="23"/>
+      <c r="G152" s="21"/>
       <c r="H152" s="13">
         <v>43498</v>
       </c>
@@ -4880,117 +4927,141 @@
       <c r="F154" s="9"/>
       <c r="G154" s="14"/>
     </row>
-    <row r="155" spans="2:12">
-      <c r="B155" s="25" t="s">
+    <row r="155" ht="20.4" spans="2:12">
+      <c r="B155" s="19" t="s">
         <v>139</v>
       </c>
-      <c r="C155" s="26"/>
-      <c r="D155" s="26"/>
-      <c r="E155" s="26"/>
-      <c r="F155" s="26"/>
-      <c r="G155" s="27"/>
-      <c r="H155" s="12"/>
+      <c r="C155" s="20"/>
+      <c r="D155" s="20"/>
+      <c r="E155" s="20"/>
+      <c r="F155" s="20"/>
+      <c r="G155" s="21"/>
+      <c r="H155" s="28">
+        <v>43552</v>
+      </c>
       <c r="I155" s="12"/>
-      <c r="J155" s="12"/>
+      <c r="J155" s="12" t="s">
+        <v>9</v>
+      </c>
       <c r="K155" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="L155" s="12" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="156" spans="2:12">
-      <c r="B156" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="L155" s="18" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="156" ht="20.4" spans="2:12">
+      <c r="B156" s="19" t="s">
         <v>140</v>
       </c>
-      <c r="C156" s="26"/>
-      <c r="D156" s="26"/>
-      <c r="E156" s="26"/>
-      <c r="F156" s="26"/>
-      <c r="G156" s="27"/>
-      <c r="H156" s="12"/>
+      <c r="C156" s="20"/>
+      <c r="D156" s="20"/>
+      <c r="E156" s="20"/>
+      <c r="F156" s="20"/>
+      <c r="G156" s="21"/>
+      <c r="H156" s="28">
+        <v>43552</v>
+      </c>
       <c r="I156" s="12"/>
-      <c r="J156" s="12"/>
+      <c r="J156" s="12" t="s">
+        <v>9</v>
+      </c>
       <c r="K156" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="L156" s="12" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="157" spans="2:12">
-      <c r="B157" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="L156" s="18" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="157" ht="20.4" spans="2:12">
+      <c r="B157" s="19" t="s">
         <v>141</v>
       </c>
-      <c r="C157" s="26"/>
-      <c r="D157" s="26"/>
-      <c r="E157" s="26"/>
-      <c r="F157" s="26"/>
-      <c r="G157" s="27"/>
-      <c r="H157" s="12"/>
+      <c r="C157" s="20"/>
+      <c r="D157" s="20"/>
+      <c r="E157" s="20"/>
+      <c r="F157" s="20"/>
+      <c r="G157" s="21"/>
+      <c r="H157" s="28">
+        <v>43552</v>
+      </c>
       <c r="I157" s="12"/>
-      <c r="J157" s="12"/>
+      <c r="J157" s="12" t="s">
+        <v>9</v>
+      </c>
       <c r="K157" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="L157" s="12" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="158" spans="2:12">
-      <c r="B158" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="L157" s="18" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="158" ht="20.4" spans="2:12">
+      <c r="B158" s="19" t="s">
         <v>142</v>
       </c>
-      <c r="C158" s="26"/>
-      <c r="D158" s="26"/>
-      <c r="E158" s="26"/>
-      <c r="F158" s="26"/>
-      <c r="G158" s="27"/>
-      <c r="H158" s="12"/>
+      <c r="C158" s="20"/>
+      <c r="D158" s="20"/>
+      <c r="E158" s="20"/>
+      <c r="F158" s="20"/>
+      <c r="G158" s="21"/>
+      <c r="H158" s="28">
+        <v>43552</v>
+      </c>
       <c r="I158" s="12"/>
-      <c r="J158" s="12"/>
+      <c r="J158" s="12" t="s">
+        <v>9</v>
+      </c>
       <c r="K158" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="L158" s="12" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="159" spans="2:12">
-      <c r="B159" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="L158" s="18" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="159" ht="20.4" spans="2:12">
+      <c r="B159" s="19" t="s">
         <v>143</v>
       </c>
-      <c r="C159" s="26"/>
-      <c r="D159" s="26"/>
-      <c r="E159" s="26"/>
-      <c r="F159" s="26"/>
-      <c r="G159" s="27"/>
-      <c r="H159" s="12"/>
+      <c r="C159" s="20"/>
+      <c r="D159" s="20"/>
+      <c r="E159" s="20"/>
+      <c r="F159" s="20"/>
+      <c r="G159" s="21"/>
+      <c r="H159" s="28">
+        <v>43552</v>
+      </c>
       <c r="I159" s="12"/>
-      <c r="J159" s="12"/>
+      <c r="J159" s="12" t="s">
+        <v>9</v>
+      </c>
       <c r="K159" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="L159" s="12" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="160" spans="2:12">
-      <c r="B160" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="L159" s="18" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="160" ht="20.4" spans="2:12">
+      <c r="B160" s="19" t="s">
         <v>144</v>
       </c>
-      <c r="C160" s="26"/>
-      <c r="D160" s="26"/>
-      <c r="E160" s="26"/>
-      <c r="F160" s="26"/>
-      <c r="G160" s="27"/>
-      <c r="H160" s="12"/>
+      <c r="C160" s="20"/>
+      <c r="D160" s="20"/>
+      <c r="E160" s="20"/>
+      <c r="F160" s="20"/>
+      <c r="G160" s="21"/>
+      <c r="H160" s="28">
+        <v>43552</v>
+      </c>
       <c r="I160" s="12"/>
-      <c r="J160" s="12"/>
+      <c r="J160" s="12" t="s">
+        <v>9</v>
+      </c>
       <c r="K160" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="L160" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="L160" s="18" t="s">
         <v>10</v>
       </c>
     </row>
@@ -5012,7 +5083,7 @@
       <c r="D163" s="20"/>
       <c r="E163" s="20"/>
       <c r="F163" s="20"/>
-      <c r="G163" s="23"/>
+      <c r="G163" s="21"/>
       <c r="H163" s="13">
         <v>43498</v>
       </c>
@@ -5037,7 +5108,7 @@
       <c r="D164" s="20"/>
       <c r="E164" s="20"/>
       <c r="F164" s="20"/>
-      <c r="G164" s="23"/>
+      <c r="G164" s="21"/>
       <c r="H164" s="13">
         <v>43498</v>
       </c>
@@ -5072,7 +5143,7 @@
       <c r="D167" s="26"/>
       <c r="E167" s="26"/>
       <c r="F167" s="26"/>
-      <c r="G167" s="27"/>
+      <c r="G167" s="29"/>
       <c r="H167" s="12"/>
       <c r="I167" s="12"/>
       <c r="J167" s="12"/>
@@ -5091,7 +5162,7 @@
       <c r="D168" s="26"/>
       <c r="E168" s="26"/>
       <c r="F168" s="26"/>
-      <c r="G168" s="27"/>
+      <c r="G168" s="29"/>
       <c r="H168" s="12"/>
       <c r="I168" s="12"/>
       <c r="J168" s="12"/>
@@ -5110,7 +5181,7 @@
       <c r="D169" s="26"/>
       <c r="E169" s="26"/>
       <c r="F169" s="26"/>
-      <c r="G169" s="27"/>
+      <c r="G169" s="29"/>
       <c r="H169" s="12"/>
       <c r="I169" s="12"/>
       <c r="J169" s="12"/>
@@ -5129,7 +5200,7 @@
       <c r="D170" s="26"/>
       <c r="E170" s="26"/>
       <c r="F170" s="26"/>
-      <c r="G170" s="27"/>
+      <c r="G170" s="29"/>
       <c r="H170" s="12"/>
       <c r="I170" s="12"/>
       <c r="J170" s="12"/>
@@ -5158,7 +5229,7 @@
       <c r="D173" s="20"/>
       <c r="E173" s="20"/>
       <c r="F173" s="20"/>
-      <c r="G173" s="23"/>
+      <c r="G173" s="21"/>
       <c r="H173" s="13">
         <v>43424</v>
       </c>
@@ -5183,7 +5254,7 @@
       <c r="D174" s="20"/>
       <c r="E174" s="20"/>
       <c r="F174" s="20"/>
-      <c r="G174" s="23"/>
+      <c r="G174" s="21"/>
       <c r="H174" s="13">
         <v>43451</v>
       </c>
@@ -5218,7 +5289,7 @@
       <c r="D177" s="26"/>
       <c r="E177" s="26"/>
       <c r="F177" s="26"/>
-      <c r="G177" s="27"/>
+      <c r="G177" s="29"/>
       <c r="H177" s="12"/>
       <c r="I177" s="12"/>
       <c r="J177" s="12"/>
@@ -5237,7 +5308,7 @@
       <c r="D178" s="26"/>
       <c r="E178" s="26"/>
       <c r="F178" s="26"/>
-      <c r="G178" s="27"/>
+      <c r="G178" s="29"/>
       <c r="H178" s="12"/>
       <c r="I178" s="12"/>
       <c r="J178" s="12"/>
@@ -5256,7 +5327,7 @@
       <c r="D179" s="26"/>
       <c r="E179" s="26"/>
       <c r="F179" s="26"/>
-      <c r="G179" s="27"/>
+      <c r="G179" s="29"/>
       <c r="H179" s="12"/>
       <c r="I179" s="12"/>
       <c r="J179" s="12"/>
@@ -5275,7 +5346,7 @@
       <c r="D180" s="26"/>
       <c r="E180" s="26"/>
       <c r="F180" s="26"/>
-      <c r="G180" s="27"/>
+      <c r="G180" s="29"/>
       <c r="H180" s="12"/>
       <c r="I180" s="12"/>
       <c r="J180" s="12"/>
@@ -5304,7 +5375,7 @@
       <c r="D183" s="26"/>
       <c r="E183" s="26"/>
       <c r="F183" s="26"/>
-      <c r="G183" s="27"/>
+      <c r="G183" s="29"/>
       <c r="H183" s="12"/>
       <c r="I183" s="12"/>
       <c r="J183" s="12"/>
@@ -5323,7 +5394,7 @@
       <c r="D184" s="26"/>
       <c r="E184" s="26"/>
       <c r="F184" s="26"/>
-      <c r="G184" s="27"/>
+      <c r="G184" s="29"/>
       <c r="H184" s="12"/>
       <c r="I184" s="12"/>
       <c r="J184" s="12"/>
@@ -5342,7 +5413,7 @@
       <c r="D185" s="26"/>
       <c r="E185" s="26"/>
       <c r="F185" s="26"/>
-      <c r="G185" s="27"/>
+      <c r="G185" s="29"/>
       <c r="H185" s="12"/>
       <c r="I185" s="12"/>
       <c r="J185" s="12"/>
@@ -5361,7 +5432,7 @@
       <c r="D186" s="26"/>
       <c r="E186" s="26"/>
       <c r="F186" s="26"/>
-      <c r="G186" s="27"/>
+      <c r="G186" s="29"/>
       <c r="H186" s="12"/>
       <c r="I186" s="12"/>
       <c r="J186" s="12"/>
@@ -5390,7 +5461,7 @@
       <c r="D189" s="20"/>
       <c r="E189" s="20"/>
       <c r="F189" s="20"/>
-      <c r="G189" s="23"/>
+      <c r="G189" s="21"/>
       <c r="H189" s="13">
         <v>43424</v>
       </c>
@@ -5400,7 +5471,7 @@
       <c r="J189" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="K189" s="28" t="s">
+      <c r="K189" s="30" t="s">
         <v>9</v>
       </c>
       <c r="L189" s="18" t="s">
@@ -5425,7 +5496,7 @@
       <c r="D192" s="26"/>
       <c r="E192" s="26"/>
       <c r="F192" s="26"/>
-      <c r="G192" s="27"/>
+      <c r="G192" s="29"/>
       <c r="H192" s="12"/>
       <c r="I192" s="12"/>
       <c r="J192" s="12"/>
@@ -5444,7 +5515,7 @@
       <c r="D193" s="26"/>
       <c r="E193" s="26"/>
       <c r="F193" s="26"/>
-      <c r="G193" s="27"/>
+      <c r="G193" s="29"/>
       <c r="H193" s="12"/>
       <c r="I193" s="12"/>
       <c r="J193" s="12"/>
@@ -5463,7 +5534,7 @@
       <c r="D194" s="26"/>
       <c r="E194" s="26"/>
       <c r="F194" s="26"/>
-      <c r="G194" s="27"/>
+      <c r="G194" s="29"/>
       <c r="H194" s="12"/>
       <c r="I194" s="12"/>
       <c r="J194" s="12"/>
@@ -5482,7 +5553,7 @@
       <c r="D195" s="26"/>
       <c r="E195" s="26"/>
       <c r="F195" s="26"/>
-      <c r="G195" s="27"/>
+      <c r="G195" s="29"/>
       <c r="H195" s="12"/>
       <c r="I195" s="12"/>
       <c r="J195" s="12"/>
@@ -5511,7 +5582,7 @@
       <c r="D198" s="20"/>
       <c r="E198" s="20"/>
       <c r="F198" s="20"/>
-      <c r="G198" s="23"/>
+      <c r="G198" s="21"/>
       <c r="H198" s="13">
         <v>43451</v>
       </c>
@@ -5546,7 +5617,7 @@
       <c r="D201" s="26"/>
       <c r="E201" s="26"/>
       <c r="F201" s="26"/>
-      <c r="G201" s="27"/>
+      <c r="G201" s="29"/>
       <c r="H201" s="12"/>
       <c r="I201" s="12"/>
       <c r="J201" s="12"/>
@@ -5565,7 +5636,7 @@
       <c r="D202" s="26"/>
       <c r="E202" s="26"/>
       <c r="F202" s="26"/>
-      <c r="G202" s="27"/>
+      <c r="G202" s="29"/>
       <c r="H202" s="12"/>
       <c r="I202" s="12"/>
       <c r="J202" s="12"/>
@@ -5584,7 +5655,7 @@
       <c r="D203" s="26"/>
       <c r="E203" s="26"/>
       <c r="F203" s="26"/>
-      <c r="G203" s="27"/>
+      <c r="G203" s="29"/>
       <c r="H203" s="12"/>
       <c r="I203" s="12"/>
       <c r="J203" s="12"/>
@@ -5603,7 +5674,7 @@
       <c r="D204" s="26"/>
       <c r="E204" s="26"/>
       <c r="F204" s="26"/>
-      <c r="G204" s="27"/>
+      <c r="G204" s="29"/>
       <c r="H204" s="12"/>
       <c r="I204" s="12"/>
       <c r="J204" s="12"/>
@@ -5632,7 +5703,7 @@
       <c r="D207" s="20"/>
       <c r="E207" s="20"/>
       <c r="F207" s="20"/>
-      <c r="G207" s="23"/>
+      <c r="G207" s="21"/>
       <c r="H207" s="13">
         <v>43451</v>
       </c>
@@ -5667,7 +5738,7 @@
       <c r="D210" s="26"/>
       <c r="E210" s="26"/>
       <c r="F210" s="26"/>
-      <c r="G210" s="27"/>
+      <c r="G210" s="29"/>
       <c r="H210" s="12"/>
       <c r="I210" s="12"/>
       <c r="J210" s="12"/>
@@ -5686,7 +5757,7 @@
       <c r="D211" s="26"/>
       <c r="E211" s="26"/>
       <c r="F211" s="26"/>
-      <c r="G211" s="27"/>
+      <c r="G211" s="29"/>
       <c r="H211" s="12"/>
       <c r="I211" s="12"/>
       <c r="J211" s="12"/>
@@ -5705,7 +5776,7 @@
       <c r="D212" s="26"/>
       <c r="E212" s="26"/>
       <c r="F212" s="26"/>
-      <c r="G212" s="27"/>
+      <c r="G212" s="29"/>
       <c r="H212" s="12"/>
       <c r="I212" s="12"/>
       <c r="J212" s="12"/>
@@ -5724,7 +5795,7 @@
       <c r="D213" s="26"/>
       <c r="E213" s="26"/>
       <c r="F213" s="26"/>
-      <c r="G213" s="27"/>
+      <c r="G213" s="29"/>
       <c r="H213" s="12"/>
       <c r="I213" s="12"/>
       <c r="J213" s="12"/>
@@ -5753,7 +5824,7 @@
       <c r="D216" s="26"/>
       <c r="E216" s="26"/>
       <c r="F216" s="26"/>
-      <c r="G216" s="27"/>
+      <c r="G216" s="29"/>
       <c r="H216" s="12"/>
       <c r="I216" s="12"/>
       <c r="J216" s="12"/>
@@ -5772,7 +5843,7 @@
       <c r="D217" s="26"/>
       <c r="E217" s="26"/>
       <c r="F217" s="26"/>
-      <c r="G217" s="27"/>
+      <c r="G217" s="29"/>
       <c r="H217" s="12"/>
       <c r="I217" s="12"/>
       <c r="J217" s="12"/>
@@ -5791,7 +5862,7 @@
       <c r="D218" s="26"/>
       <c r="E218" s="26"/>
       <c r="F218" s="26"/>
-      <c r="G218" s="27"/>
+      <c r="G218" s="29"/>
       <c r="H218" s="12"/>
       <c r="I218" s="12"/>
       <c r="J218" s="12"/>
@@ -5810,7 +5881,7 @@
       <c r="D219" s="26"/>
       <c r="E219" s="26"/>
       <c r="F219" s="26"/>
-      <c r="G219" s="27"/>
+      <c r="G219" s="29"/>
       <c r="H219" s="12"/>
       <c r="I219" s="12"/>
       <c r="J219" s="12"/>
@@ -5829,7 +5900,7 @@
       <c r="D220" s="26"/>
       <c r="E220" s="26"/>
       <c r="F220" s="26"/>
-      <c r="G220" s="27"/>
+      <c r="G220" s="29"/>
       <c r="H220" s="12"/>
       <c r="I220" s="12"/>
       <c r="J220" s="12"/>
@@ -6030,7 +6101,7 @@
     <mergeCell ref="B220:G220"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I3 J3 K3 L3 J17 L21 J22 K22:L22 J23 K23:L23 K30 I33 L39 L53 L54 J56 K56 L61 J62 K62 L62 L65 J69 K69 J78:K78 L78 J79:K79 L79 J80:K80 L80 I83 J83 K83 L83 J86 K86 L86 K87:L87 I103 J103 K103:L103 J106 K106 L106 J112 K112 L112 J113 K113 L113 J132 J133 J134 K134:L134 J145 J146 J147 J148 J149 J150 L150 J151 L151 J152 L152 J163 L163 J164 L164 J173:K173 J174 K174 I189 J189 K189 L189 I198 J198 K198:L198 I207 J207 K207:L207 I6:I14 I17:I21 I26:I30 I34:I36 I37:I41 I45:I50 I53:I56 I59:I62 I65:I69 I72:I80 I86:I89 I92:I100 I104:I106 I107:I109 I112:I113 I116:I119 I122:I127 I132:I133 I145:I152 I163:I164 I173:I174 J6:J10 J11:J14 J18:J21 J26:J30 J37:J41 J45:J50 J59:J61 J65:J68 J87:J89 J92:J100 J104:J105 J107:J109 J116:J119 J122:J127 J130:J131 J137:J142 J155:J160 J167:J170 J177:J180 J183:J186 J192:J195 J201:J204 J210:J213 J216:J220 K6:K10 K11:K14 K17:K21 K26:K29 K37:K41 K45:K50 K59:K61 K65:K68 K88:K89 K92:K100 K104:K105 K107:K109 K116:K119 K122:K127 K132:K133 K145:K152 K163:K164 L6:L14 L17:L20 L26:L30 L33:L34 L35:L36 L37:L38 L40:L41 L45:L48 L49:L50 L55:L56 L59:L60 L66:L69 L72:L73 L74:L77 L88:L89 L92:L100 L104:L105 L107:L109 L116:L119 L122:L127 L132:L133 L145:L149 L173:L174 J33:K36 J53:K55 J72:K77 K183:L186 K192:L195 K201:L204 K177:L180 K137:L142 K155:L160 K167:L170 K210:L213 K216:L220 K130:L131">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I3 J3 K3 L3 J17 L21 J22 K22:L22 J23 K23:L23 K30 I33 L39 L53 L54 J56 K56 L61 J62 K62 L62 L65 J69 K69 J78:K78 L78 J79:K79 L79 J80:K80 L80 I83 J83 K83 L83 J86 K86 L86 K87:L87 I103 J103 K103:L103 J106 K106 L106 J112 K112 L112 J113 K113 L113 J132 J133 I134 J134 K134 L134 J145 J146 J147 J148 J149 J150 L150 J151 L151 J152 L152 J163 L163 J164 L164 J173:K173 J174 K174 I189 J189 K189 L189 I198 J198 K198:L198 I207 J207 K207:L207 I6:I14 I17:I21 I26:I30 I34:I36 I37:I41 I45:I50 I53:I56 I59:I62 I65:I69 I72:I80 I86:I89 I92:I100 I104:I106 I107:I109 I112:I113 I116:I119 I122:I127 I132:I133 I145:I152 I163:I164 I173:I174 J6:J10 J11:J14 J18:J21 J26:J30 J37:J41 J45:J50 J59:J61 J65:J68 J87:J89 J92:J100 J104:J105 J107:J109 J116:J119 J122:J127 J130:J131 J137:J142 J155:J160 J167:J170 J177:J180 J183:J186 J192:J195 J201:J204 J210:J213 J216:J220 K6:K10 K11:K14 K17:K21 K26:K29 K37:K41 K45:K50 K59:K61 K65:K68 K88:K89 K92:K100 K104:K105 K107:K109 K116:K119 K122:K127 K132:K133 K137:K142 K145:K152 K155:K160 K163:K164 L6:L14 L17:L20 L26:L30 L33:L34 L35:L36 L37:L38 L40:L41 L45:L48 L49:L50 L55:L56 L59:L60 L66:L69 L72:L73 L74:L77 L88:L89 L92:L100 L104:L105 L107:L109 L116:L119 L122:L127 L132:L133 L137:L142 L145:L149 L155:L160 L173:L174 J33:K36 J53:K55 J72:K77 K183:L186 K192:L195 K201:L204 K177:L180 K167:L170 K210:L213 K216:L220 K130:L131">
       <formula1>$S$3:$S$4</formula1>
     </dataValidation>
   </dataValidations>

--- a/课程跟踪.xlsx
+++ b/课程跟踪.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="25980" windowHeight="16660"/>
+    <workbookView windowWidth="26880" windowHeight="17000"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -603,10 +603,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -632,6 +632,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -646,15 +653,8 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -667,6 +667,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -675,10 +683,11 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -690,6 +699,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -698,6 +723,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -712,24 +745,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -750,32 +774,8 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="36">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -808,19 +808,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.15"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -838,37 +886,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -880,55 +904,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -946,19 +934,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -970,19 +952,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1064,8 +1058,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1085,6 +1079,26 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1096,15 +1110,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1147,168 +1152,157 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="31" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1374,9 +1368,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -3908,17 +3899,17 @@
       <c r="E103" s="11"/>
       <c r="F103" s="11"/>
       <c r="G103" s="11"/>
-      <c r="H103" s="22"/>
-      <c r="I103" s="22" t="s">
-        <v>10</v>
-      </c>
-      <c r="J103" s="22" t="s">
-        <v>10</v>
-      </c>
-      <c r="K103" s="22" t="s">
-        <v>10</v>
-      </c>
-      <c r="L103" s="22" t="s">
+      <c r="H103" s="17"/>
+      <c r="I103" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="J103" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="K103" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="L103" s="17" t="s">
         <v>10</v>
       </c>
     </row>
@@ -4449,14 +4440,14 @@
       <c r="G129" s="14"/>
     </row>
     <row r="130" spans="2:12">
-      <c r="B130" s="23" t="s">
+      <c r="B130" s="22" t="s">
         <v>117</v>
       </c>
-      <c r="C130" s="24"/>
-      <c r="D130" s="24"/>
-      <c r="E130" s="24"/>
-      <c r="F130" s="24"/>
-      <c r="G130" s="27"/>
+      <c r="C130" s="23"/>
+      <c r="D130" s="23"/>
+      <c r="E130" s="23"/>
+      <c r="F130" s="23"/>
+      <c r="G130" s="26"/>
       <c r="H130" s="18"/>
       <c r="I130" s="18"/>
       <c r="J130" s="18"/>
@@ -4468,14 +4459,14 @@
       </c>
     </row>
     <row r="131" spans="2:12">
-      <c r="B131" s="23" t="s">
+      <c r="B131" s="22" t="s">
         <v>118</v>
       </c>
-      <c r="C131" s="24"/>
-      <c r="D131" s="24"/>
-      <c r="E131" s="24"/>
-      <c r="F131" s="24"/>
-      <c r="G131" s="27"/>
+      <c r="C131" s="23"/>
+      <c r="D131" s="23"/>
+      <c r="E131" s="23"/>
+      <c r="F131" s="23"/>
+      <c r="G131" s="26"/>
       <c r="H131" s="18"/>
       <c r="I131" s="18"/>
       <c r="J131" s="18"/>
@@ -4545,7 +4536,7 @@
       <c r="E134" s="20"/>
       <c r="F134" s="20"/>
       <c r="G134" s="21"/>
-      <c r="H134" s="28">
+      <c r="H134" s="27">
         <v>43552</v>
       </c>
       <c r="I134" s="12"/>
@@ -4578,7 +4569,7 @@
       <c r="E137" s="20"/>
       <c r="F137" s="20"/>
       <c r="G137" s="21"/>
-      <c r="H137" s="28">
+      <c r="H137" s="27">
         <v>43552</v>
       </c>
       <c r="I137" s="12"/>
@@ -4601,7 +4592,7 @@
       <c r="E138" s="20"/>
       <c r="F138" s="20"/>
       <c r="G138" s="21"/>
-      <c r="H138" s="28">
+      <c r="H138" s="27">
         <v>43552</v>
       </c>
       <c r="I138" s="12"/>
@@ -4624,7 +4615,7 @@
       <c r="E139" s="20"/>
       <c r="F139" s="20"/>
       <c r="G139" s="21"/>
-      <c r="H139" s="28">
+      <c r="H139" s="27">
         <v>43552</v>
       </c>
       <c r="I139" s="12"/>
@@ -4647,7 +4638,7 @@
       <c r="E140" s="20"/>
       <c r="F140" s="20"/>
       <c r="G140" s="21"/>
-      <c r="H140" s="28">
+      <c r="H140" s="27">
         <v>43552</v>
       </c>
       <c r="I140" s="12"/>
@@ -4670,7 +4661,7 @@
       <c r="E141" s="20"/>
       <c r="F141" s="20"/>
       <c r="G141" s="21"/>
-      <c r="H141" s="28">
+      <c r="H141" s="27">
         <v>43552</v>
       </c>
       <c r="I141" s="12"/>
@@ -4693,7 +4684,7 @@
       <c r="E142" s="20"/>
       <c r="F142" s="20"/>
       <c r="G142" s="21"/>
-      <c r="H142" s="28">
+      <c r="H142" s="27">
         <v>43552</v>
       </c>
       <c r="I142" s="12"/>
@@ -4936,7 +4927,7 @@
       <c r="E155" s="20"/>
       <c r="F155" s="20"/>
       <c r="G155" s="21"/>
-      <c r="H155" s="28">
+      <c r="H155" s="27">
         <v>43552</v>
       </c>
       <c r="I155" s="12"/>
@@ -4959,7 +4950,7 @@
       <c r="E156" s="20"/>
       <c r="F156" s="20"/>
       <c r="G156" s="21"/>
-      <c r="H156" s="28">
+      <c r="H156" s="27">
         <v>43552</v>
       </c>
       <c r="I156" s="12"/>
@@ -4982,7 +4973,7 @@
       <c r="E157" s="20"/>
       <c r="F157" s="20"/>
       <c r="G157" s="21"/>
-      <c r="H157" s="28">
+      <c r="H157" s="27">
         <v>43552</v>
       </c>
       <c r="I157" s="12"/>
@@ -5005,7 +4996,7 @@
       <c r="E158" s="20"/>
       <c r="F158" s="20"/>
       <c r="G158" s="21"/>
-      <c r="H158" s="28">
+      <c r="H158" s="27">
         <v>43552</v>
       </c>
       <c r="I158" s="12"/>
@@ -5028,7 +5019,7 @@
       <c r="E159" s="20"/>
       <c r="F159" s="20"/>
       <c r="G159" s="21"/>
-      <c r="H159" s="28">
+      <c r="H159" s="27">
         <v>43552</v>
       </c>
       <c r="I159" s="12"/>
@@ -5051,7 +5042,7 @@
       <c r="E160" s="20"/>
       <c r="F160" s="20"/>
       <c r="G160" s="21"/>
-      <c r="H160" s="28">
+      <c r="H160" s="27">
         <v>43552</v>
       </c>
       <c r="I160" s="12"/>
@@ -5135,79 +5126,95 @@
       <c r="F166" s="9"/>
       <c r="G166" s="14"/>
     </row>
-    <row r="167" spans="2:12">
-      <c r="B167" s="25" t="s">
+    <row r="167" ht="20.4" spans="2:12">
+      <c r="B167" s="19" t="s">
         <v>149</v>
       </c>
-      <c r="C167" s="26"/>
-      <c r="D167" s="26"/>
-      <c r="E167" s="26"/>
-      <c r="F167" s="26"/>
-      <c r="G167" s="29"/>
-      <c r="H167" s="12"/>
+      <c r="C167" s="20"/>
+      <c r="D167" s="20"/>
+      <c r="E167" s="20"/>
+      <c r="F167" s="20"/>
+      <c r="G167" s="21"/>
+      <c r="H167" s="27">
+        <v>43556</v>
+      </c>
       <c r="I167" s="12"/>
-      <c r="J167" s="12"/>
+      <c r="J167" s="12" t="s">
+        <v>10</v>
+      </c>
       <c r="K167" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="L167" s="12" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="168" spans="2:12">
-      <c r="B168" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="L167" s="18" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="168" ht="20.4" spans="2:12">
+      <c r="B168" s="19" t="s">
         <v>150</v>
       </c>
-      <c r="C168" s="26"/>
-      <c r="D168" s="26"/>
-      <c r="E168" s="26"/>
-      <c r="F168" s="26"/>
-      <c r="G168" s="29"/>
-      <c r="H168" s="12"/>
+      <c r="C168" s="20"/>
+      <c r="D168" s="20"/>
+      <c r="E168" s="20"/>
+      <c r="F168" s="20"/>
+      <c r="G168" s="21"/>
+      <c r="H168" s="27">
+        <v>43556</v>
+      </c>
       <c r="I168" s="12"/>
-      <c r="J168" s="12"/>
+      <c r="J168" s="12" t="s">
+        <v>10</v>
+      </c>
       <c r="K168" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="L168" s="12" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="169" spans="2:12">
-      <c r="B169" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="L168" s="18" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="169" ht="20.4" spans="2:12">
+      <c r="B169" s="19" t="s">
         <v>151</v>
       </c>
-      <c r="C169" s="26"/>
-      <c r="D169" s="26"/>
-      <c r="E169" s="26"/>
-      <c r="F169" s="26"/>
-      <c r="G169" s="29"/>
-      <c r="H169" s="12"/>
+      <c r="C169" s="20"/>
+      <c r="D169" s="20"/>
+      <c r="E169" s="20"/>
+      <c r="F169" s="20"/>
+      <c r="G169" s="21"/>
+      <c r="H169" s="27">
+        <v>43556</v>
+      </c>
       <c r="I169" s="12"/>
-      <c r="J169" s="12"/>
+      <c r="J169" s="12" t="s">
+        <v>10</v>
+      </c>
       <c r="K169" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="L169" s="12" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="170" spans="2:12">
-      <c r="B170" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="L169" s="18" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="170" ht="20.4" spans="2:12">
+      <c r="B170" s="19" t="s">
         <v>152</v>
       </c>
-      <c r="C170" s="26"/>
-      <c r="D170" s="26"/>
-      <c r="E170" s="26"/>
-      <c r="F170" s="26"/>
-      <c r="G170" s="29"/>
-      <c r="H170" s="12"/>
+      <c r="C170" s="20"/>
+      <c r="D170" s="20"/>
+      <c r="E170" s="20"/>
+      <c r="F170" s="20"/>
+      <c r="G170" s="21"/>
+      <c r="H170" s="27">
+        <v>43556</v>
+      </c>
       <c r="I170" s="12"/>
-      <c r="J170" s="12"/>
+      <c r="J170" s="12" t="s">
+        <v>10</v>
+      </c>
       <c r="K170" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="L170" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="L170" s="18" t="s">
         <v>10</v>
       </c>
     </row>
@@ -5282,14 +5289,14 @@
       <c r="G176" s="14"/>
     </row>
     <row r="177" spans="2:12">
-      <c r="B177" s="25" t="s">
+      <c r="B177" s="24" t="s">
         <v>157</v>
       </c>
-      <c r="C177" s="26"/>
-      <c r="D177" s="26"/>
-      <c r="E177" s="26"/>
-      <c r="F177" s="26"/>
-      <c r="G177" s="29"/>
+      <c r="C177" s="25"/>
+      <c r="D177" s="25"/>
+      <c r="E177" s="25"/>
+      <c r="F177" s="25"/>
+      <c r="G177" s="28"/>
       <c r="H177" s="12"/>
       <c r="I177" s="12"/>
       <c r="J177" s="12"/>
@@ -5301,14 +5308,14 @@
       </c>
     </row>
     <row r="178" spans="2:12">
-      <c r="B178" s="25" t="s">
+      <c r="B178" s="24" t="s">
         <v>158</v>
       </c>
-      <c r="C178" s="26"/>
-      <c r="D178" s="26"/>
-      <c r="E178" s="26"/>
-      <c r="F178" s="26"/>
-      <c r="G178" s="29"/>
+      <c r="C178" s="25"/>
+      <c r="D178" s="25"/>
+      <c r="E178" s="25"/>
+      <c r="F178" s="25"/>
+      <c r="G178" s="28"/>
       <c r="H178" s="12"/>
       <c r="I178" s="12"/>
       <c r="J178" s="12"/>
@@ -5320,14 +5327,14 @@
       </c>
     </row>
     <row r="179" spans="2:12">
-      <c r="B179" s="25" t="s">
+      <c r="B179" s="24" t="s">
         <v>159</v>
       </c>
-      <c r="C179" s="26"/>
-      <c r="D179" s="26"/>
-      <c r="E179" s="26"/>
-      <c r="F179" s="26"/>
-      <c r="G179" s="29"/>
+      <c r="C179" s="25"/>
+      <c r="D179" s="25"/>
+      <c r="E179" s="25"/>
+      <c r="F179" s="25"/>
+      <c r="G179" s="28"/>
       <c r="H179" s="12"/>
       <c r="I179" s="12"/>
       <c r="J179" s="12"/>
@@ -5339,14 +5346,14 @@
       </c>
     </row>
     <row r="180" spans="2:12">
-      <c r="B180" s="25" t="s">
+      <c r="B180" s="24" t="s">
         <v>160</v>
       </c>
-      <c r="C180" s="26"/>
-      <c r="D180" s="26"/>
-      <c r="E180" s="26"/>
-      <c r="F180" s="26"/>
-      <c r="G180" s="29"/>
+      <c r="C180" s="25"/>
+      <c r="D180" s="25"/>
+      <c r="E180" s="25"/>
+      <c r="F180" s="25"/>
+      <c r="G180" s="28"/>
       <c r="H180" s="12"/>
       <c r="I180" s="12"/>
       <c r="J180" s="12"/>
@@ -5368,14 +5375,14 @@
       <c r="G182" s="14"/>
     </row>
     <row r="183" spans="2:12">
-      <c r="B183" s="25" t="s">
+      <c r="B183" s="24" t="s">
         <v>162</v>
       </c>
-      <c r="C183" s="26"/>
-      <c r="D183" s="26"/>
-      <c r="E183" s="26"/>
-      <c r="F183" s="26"/>
-      <c r="G183" s="29"/>
+      <c r="C183" s="25"/>
+      <c r="D183" s="25"/>
+      <c r="E183" s="25"/>
+      <c r="F183" s="25"/>
+      <c r="G183" s="28"/>
       <c r="H183" s="12"/>
       <c r="I183" s="12"/>
       <c r="J183" s="12"/>
@@ -5387,14 +5394,14 @@
       </c>
     </row>
     <row r="184" spans="2:12">
-      <c r="B184" s="25" t="s">
+      <c r="B184" s="24" t="s">
         <v>163</v>
       </c>
-      <c r="C184" s="26"/>
-      <c r="D184" s="26"/>
-      <c r="E184" s="26"/>
-      <c r="F184" s="26"/>
-      <c r="G184" s="29"/>
+      <c r="C184" s="25"/>
+      <c r="D184" s="25"/>
+      <c r="E184" s="25"/>
+      <c r="F184" s="25"/>
+      <c r="G184" s="28"/>
       <c r="H184" s="12"/>
       <c r="I184" s="12"/>
       <c r="J184" s="12"/>
@@ -5406,14 +5413,14 @@
       </c>
     </row>
     <row r="185" spans="2:12">
-      <c r="B185" s="25" t="s">
+      <c r="B185" s="24" t="s">
         <v>164</v>
       </c>
-      <c r="C185" s="26"/>
-      <c r="D185" s="26"/>
-      <c r="E185" s="26"/>
-      <c r="F185" s="26"/>
-      <c r="G185" s="29"/>
+      <c r="C185" s="25"/>
+      <c r="D185" s="25"/>
+      <c r="E185" s="25"/>
+      <c r="F185" s="25"/>
+      <c r="G185" s="28"/>
       <c r="H185" s="12"/>
       <c r="I185" s="12"/>
       <c r="J185" s="12"/>
@@ -5425,14 +5432,14 @@
       </c>
     </row>
     <row r="186" spans="2:12">
-      <c r="B186" s="25" t="s">
+      <c r="B186" s="24" t="s">
         <v>165</v>
       </c>
-      <c r="C186" s="26"/>
-      <c r="D186" s="26"/>
-      <c r="E186" s="26"/>
-      <c r="F186" s="26"/>
-      <c r="G186" s="29"/>
+      <c r="C186" s="25"/>
+      <c r="D186" s="25"/>
+      <c r="E186" s="25"/>
+      <c r="F186" s="25"/>
+      <c r="G186" s="28"/>
       <c r="H186" s="12"/>
       <c r="I186" s="12"/>
       <c r="J186" s="12"/>
@@ -5471,7 +5478,7 @@
       <c r="J189" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="K189" s="30" t="s">
+      <c r="K189" s="29" t="s">
         <v>9</v>
       </c>
       <c r="L189" s="18" t="s">
@@ -5489,14 +5496,14 @@
       <c r="G191" s="14"/>
     </row>
     <row r="192" spans="2:12">
-      <c r="B192" s="25" t="s">
+      <c r="B192" s="24" t="s">
         <v>169</v>
       </c>
-      <c r="C192" s="26"/>
-      <c r="D192" s="26"/>
-      <c r="E192" s="26"/>
-      <c r="F192" s="26"/>
-      <c r="G192" s="29"/>
+      <c r="C192" s="25"/>
+      <c r="D192" s="25"/>
+      <c r="E192" s="25"/>
+      <c r="F192" s="25"/>
+      <c r="G192" s="28"/>
       <c r="H192" s="12"/>
       <c r="I192" s="12"/>
       <c r="J192" s="12"/>
@@ -5508,14 +5515,14 @@
       </c>
     </row>
     <row r="193" spans="2:12">
-      <c r="B193" s="25" t="s">
+      <c r="B193" s="24" t="s">
         <v>170</v>
       </c>
-      <c r="C193" s="26"/>
-      <c r="D193" s="26"/>
-      <c r="E193" s="26"/>
-      <c r="F193" s="26"/>
-      <c r="G193" s="29"/>
+      <c r="C193" s="25"/>
+      <c r="D193" s="25"/>
+      <c r="E193" s="25"/>
+      <c r="F193" s="25"/>
+      <c r="G193" s="28"/>
       <c r="H193" s="12"/>
       <c r="I193" s="12"/>
       <c r="J193" s="12"/>
@@ -5527,14 +5534,14 @@
       </c>
     </row>
     <row r="194" spans="2:12">
-      <c r="B194" s="25" t="s">
+      <c r="B194" s="24" t="s">
         <v>171</v>
       </c>
-      <c r="C194" s="26"/>
-      <c r="D194" s="26"/>
-      <c r="E194" s="26"/>
-      <c r="F194" s="26"/>
-      <c r="G194" s="29"/>
+      <c r="C194" s="25"/>
+      <c r="D194" s="25"/>
+      <c r="E194" s="25"/>
+      <c r="F194" s="25"/>
+      <c r="G194" s="28"/>
       <c r="H194" s="12"/>
       <c r="I194" s="12"/>
       <c r="J194" s="12"/>
@@ -5546,14 +5553,14 @@
       </c>
     </row>
     <row r="195" spans="2:12">
-      <c r="B195" s="25" t="s">
+      <c r="B195" s="24" t="s">
         <v>172</v>
       </c>
-      <c r="C195" s="26"/>
-      <c r="D195" s="26"/>
-      <c r="E195" s="26"/>
-      <c r="F195" s="26"/>
-      <c r="G195" s="29"/>
+      <c r="C195" s="25"/>
+      <c r="D195" s="25"/>
+      <c r="E195" s="25"/>
+      <c r="F195" s="25"/>
+      <c r="G195" s="28"/>
       <c r="H195" s="12"/>
       <c r="I195" s="12"/>
       <c r="J195" s="12"/>
@@ -5610,14 +5617,14 @@
       <c r="G200" s="14"/>
     </row>
     <row r="201" spans="2:12">
-      <c r="B201" s="25" t="s">
+      <c r="B201" s="24" t="s">
         <v>176</v>
       </c>
-      <c r="C201" s="26"/>
-      <c r="D201" s="26"/>
-      <c r="E201" s="26"/>
-      <c r="F201" s="26"/>
-      <c r="G201" s="29"/>
+      <c r="C201" s="25"/>
+      <c r="D201" s="25"/>
+      <c r="E201" s="25"/>
+      <c r="F201" s="25"/>
+      <c r="G201" s="28"/>
       <c r="H201" s="12"/>
       <c r="I201" s="12"/>
       <c r="J201" s="12"/>
@@ -5629,14 +5636,14 @@
       </c>
     </row>
     <row r="202" spans="2:12">
-      <c r="B202" s="25" t="s">
+      <c r="B202" s="24" t="s">
         <v>177</v>
       </c>
-      <c r="C202" s="26"/>
-      <c r="D202" s="26"/>
-      <c r="E202" s="26"/>
-      <c r="F202" s="26"/>
-      <c r="G202" s="29"/>
+      <c r="C202" s="25"/>
+      <c r="D202" s="25"/>
+      <c r="E202" s="25"/>
+      <c r="F202" s="25"/>
+      <c r="G202" s="28"/>
       <c r="H202" s="12"/>
       <c r="I202" s="12"/>
       <c r="J202" s="12"/>
@@ -5648,14 +5655,14 @@
       </c>
     </row>
     <row r="203" spans="2:12">
-      <c r="B203" s="25" t="s">
+      <c r="B203" s="24" t="s">
         <v>178</v>
       </c>
-      <c r="C203" s="26"/>
-      <c r="D203" s="26"/>
-      <c r="E203" s="26"/>
-      <c r="F203" s="26"/>
-      <c r="G203" s="29"/>
+      <c r="C203" s="25"/>
+      <c r="D203" s="25"/>
+      <c r="E203" s="25"/>
+      <c r="F203" s="25"/>
+      <c r="G203" s="28"/>
       <c r="H203" s="12"/>
       <c r="I203" s="12"/>
       <c r="J203" s="12"/>
@@ -5667,14 +5674,14 @@
       </c>
     </row>
     <row r="204" spans="2:12">
-      <c r="B204" s="25" t="s">
+      <c r="B204" s="24" t="s">
         <v>179</v>
       </c>
-      <c r="C204" s="26"/>
-      <c r="D204" s="26"/>
-      <c r="E204" s="26"/>
-      <c r="F204" s="26"/>
-      <c r="G204" s="29"/>
+      <c r="C204" s="25"/>
+      <c r="D204" s="25"/>
+      <c r="E204" s="25"/>
+      <c r="F204" s="25"/>
+      <c r="G204" s="28"/>
       <c r="H204" s="12"/>
       <c r="I204" s="12"/>
       <c r="J204" s="12"/>
@@ -5731,14 +5738,14 @@
       <c r="G209" s="14"/>
     </row>
     <row r="210" spans="2:12">
-      <c r="B210" s="25" t="s">
+      <c r="B210" s="24" t="s">
         <v>183</v>
       </c>
-      <c r="C210" s="26"/>
-      <c r="D210" s="26"/>
-      <c r="E210" s="26"/>
-      <c r="F210" s="26"/>
-      <c r="G210" s="29"/>
+      <c r="C210" s="25"/>
+      <c r="D210" s="25"/>
+      <c r="E210" s="25"/>
+      <c r="F210" s="25"/>
+      <c r="G210" s="28"/>
       <c r="H210" s="12"/>
       <c r="I210" s="12"/>
       <c r="J210" s="12"/>
@@ -5750,14 +5757,14 @@
       </c>
     </row>
     <row r="211" spans="2:12">
-      <c r="B211" s="25" t="s">
+      <c r="B211" s="24" t="s">
         <v>184</v>
       </c>
-      <c r="C211" s="26"/>
-      <c r="D211" s="26"/>
-      <c r="E211" s="26"/>
-      <c r="F211" s="26"/>
-      <c r="G211" s="29"/>
+      <c r="C211" s="25"/>
+      <c r="D211" s="25"/>
+      <c r="E211" s="25"/>
+      <c r="F211" s="25"/>
+      <c r="G211" s="28"/>
       <c r="H211" s="12"/>
       <c r="I211" s="12"/>
       <c r="J211" s="12"/>
@@ -5769,14 +5776,14 @@
       </c>
     </row>
     <row r="212" spans="2:12">
-      <c r="B212" s="25" t="s">
+      <c r="B212" s="24" t="s">
         <v>185</v>
       </c>
-      <c r="C212" s="26"/>
-      <c r="D212" s="26"/>
-      <c r="E212" s="26"/>
-      <c r="F212" s="26"/>
-      <c r="G212" s="29"/>
+      <c r="C212" s="25"/>
+      <c r="D212" s="25"/>
+      <c r="E212" s="25"/>
+      <c r="F212" s="25"/>
+      <c r="G212" s="28"/>
       <c r="H212" s="12"/>
       <c r="I212" s="12"/>
       <c r="J212" s="12"/>
@@ -5788,14 +5795,14 @@
       </c>
     </row>
     <row r="213" spans="2:12">
-      <c r="B213" s="25" t="s">
+      <c r="B213" s="24" t="s">
         <v>186</v>
       </c>
-      <c r="C213" s="26"/>
-      <c r="D213" s="26"/>
-      <c r="E213" s="26"/>
-      <c r="F213" s="26"/>
-      <c r="G213" s="29"/>
+      <c r="C213" s="25"/>
+      <c r="D213" s="25"/>
+      <c r="E213" s="25"/>
+      <c r="F213" s="25"/>
+      <c r="G213" s="28"/>
       <c r="H213" s="12"/>
       <c r="I213" s="12"/>
       <c r="J213" s="12"/>
@@ -5817,14 +5824,14 @@
       <c r="G215" s="14"/>
     </row>
     <row r="216" spans="2:12">
-      <c r="B216" s="25" t="s">
+      <c r="B216" s="24" t="s">
         <v>188</v>
       </c>
-      <c r="C216" s="26"/>
-      <c r="D216" s="26"/>
-      <c r="E216" s="26"/>
-      <c r="F216" s="26"/>
-      <c r="G216" s="29"/>
+      <c r="C216" s="25"/>
+      <c r="D216" s="25"/>
+      <c r="E216" s="25"/>
+      <c r="F216" s="25"/>
+      <c r="G216" s="28"/>
       <c r="H216" s="12"/>
       <c r="I216" s="12"/>
       <c r="J216" s="12"/>
@@ -5836,14 +5843,14 @@
       </c>
     </row>
     <row r="217" spans="2:12">
-      <c r="B217" s="25" t="s">
+      <c r="B217" s="24" t="s">
         <v>189</v>
       </c>
-      <c r="C217" s="26"/>
-      <c r="D217" s="26"/>
-      <c r="E217" s="26"/>
-      <c r="F217" s="26"/>
-      <c r="G217" s="29"/>
+      <c r="C217" s="25"/>
+      <c r="D217" s="25"/>
+      <c r="E217" s="25"/>
+      <c r="F217" s="25"/>
+      <c r="G217" s="28"/>
       <c r="H217" s="12"/>
       <c r="I217" s="12"/>
       <c r="J217" s="12"/>
@@ -5855,14 +5862,14 @@
       </c>
     </row>
     <row r="218" spans="2:12">
-      <c r="B218" s="25" t="s">
+      <c r="B218" s="24" t="s">
         <v>190</v>
       </c>
-      <c r="C218" s="26"/>
-      <c r="D218" s="26"/>
-      <c r="E218" s="26"/>
-      <c r="F218" s="26"/>
-      <c r="G218" s="29"/>
+      <c r="C218" s="25"/>
+      <c r="D218" s="25"/>
+      <c r="E218" s="25"/>
+      <c r="F218" s="25"/>
+      <c r="G218" s="28"/>
       <c r="H218" s="12"/>
       <c r="I218" s="12"/>
       <c r="J218" s="12"/>
@@ -5874,14 +5881,14 @@
       </c>
     </row>
     <row r="219" spans="2:12">
-      <c r="B219" s="25" t="s">
+      <c r="B219" s="24" t="s">
         <v>191</v>
       </c>
-      <c r="C219" s="26"/>
-      <c r="D219" s="26"/>
-      <c r="E219" s="26"/>
-      <c r="F219" s="26"/>
-      <c r="G219" s="29"/>
+      <c r="C219" s="25"/>
+      <c r="D219" s="25"/>
+      <c r="E219" s="25"/>
+      <c r="F219" s="25"/>
+      <c r="G219" s="28"/>
       <c r="H219" s="12"/>
       <c r="I219" s="12"/>
       <c r="J219" s="12"/>
@@ -5893,14 +5900,14 @@
       </c>
     </row>
     <row r="220" spans="2:12">
-      <c r="B220" s="25" t="s">
+      <c r="B220" s="24" t="s">
         <v>192</v>
       </c>
-      <c r="C220" s="26"/>
-      <c r="D220" s="26"/>
-      <c r="E220" s="26"/>
-      <c r="F220" s="26"/>
-      <c r="G220" s="29"/>
+      <c r="C220" s="25"/>
+      <c r="D220" s="25"/>
+      <c r="E220" s="25"/>
+      <c r="F220" s="25"/>
+      <c r="G220" s="28"/>
       <c r="H220" s="12"/>
       <c r="I220" s="12"/>
       <c r="J220" s="12"/>
@@ -6101,7 +6108,7 @@
     <mergeCell ref="B220:G220"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I3 J3 K3 L3 J17 L21 J22 K22:L22 J23 K23:L23 K30 I33 L39 L53 L54 J56 K56 L61 J62 K62 L62 L65 J69 K69 J78:K78 L78 J79:K79 L79 J80:K80 L80 I83 J83 K83 L83 J86 K86 L86 K87:L87 I103 J103 K103:L103 J106 K106 L106 J112 K112 L112 J113 K113 L113 J132 J133 I134 J134 K134 L134 J145 J146 J147 J148 J149 J150 L150 J151 L151 J152 L152 J163 L163 J164 L164 J173:K173 J174 K174 I189 J189 K189 L189 I198 J198 K198:L198 I207 J207 K207:L207 I6:I14 I17:I21 I26:I30 I34:I36 I37:I41 I45:I50 I53:I56 I59:I62 I65:I69 I72:I80 I86:I89 I92:I100 I104:I106 I107:I109 I112:I113 I116:I119 I122:I127 I132:I133 I145:I152 I163:I164 I173:I174 J6:J10 J11:J14 J18:J21 J26:J30 J37:J41 J45:J50 J59:J61 J65:J68 J87:J89 J92:J100 J104:J105 J107:J109 J116:J119 J122:J127 J130:J131 J137:J142 J155:J160 J167:J170 J177:J180 J183:J186 J192:J195 J201:J204 J210:J213 J216:J220 K6:K10 K11:K14 K17:K21 K26:K29 K37:K41 K45:K50 K59:K61 K65:K68 K88:K89 K92:K100 K104:K105 K107:K109 K116:K119 K122:K127 K132:K133 K137:K142 K145:K152 K155:K160 K163:K164 L6:L14 L17:L20 L26:L30 L33:L34 L35:L36 L37:L38 L40:L41 L45:L48 L49:L50 L55:L56 L59:L60 L66:L69 L72:L73 L74:L77 L88:L89 L92:L100 L104:L105 L107:L109 L116:L119 L122:L127 L132:L133 L137:L142 L145:L149 L155:L160 L173:L174 J33:K36 J53:K55 J72:K77 K183:L186 K192:L195 K201:L204 K177:L180 K167:L170 K210:L213 K216:L220 K130:L131">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I3 J3 K3 L3 J17 L21 J22 K22:L22 J23 K23:L23 K30 I33 L39 L53 L54 J56 K56 L61 J62 K62 L62 L65 J69 K69 J78:K78 L78 J79:K79 L79 J80:K80 L80 I83 J83 K83 L83 J86 K86 L86 K87:L87 I103 J103 K103:L103 J106 K106 L106 J112 K112 L112 J113 K113 L113 J132 J133 I134 J134 K134 L134 J145 J146 J147 J148 J149 J150 L150 J151 L151 J152 L152 J163 L163 J164 L164 J173:K173 J174 K174 I189 J189 K189 L189 I198 J198 K198:L198 I207 J207 K207:L207 I6:I14 I17:I21 I26:I30 I34:I36 I37:I41 I45:I50 I53:I56 I59:I62 I65:I69 I72:I80 I86:I89 I92:I100 I104:I106 I107:I109 I112:I113 I116:I119 I122:I127 I132:I133 I145:I152 I163:I164 I173:I174 J6:J10 J11:J14 J18:J21 J26:J30 J37:J41 J45:J50 J59:J61 J65:J68 J87:J89 J92:J100 J104:J105 J107:J109 J116:J119 J122:J127 J130:J131 J137:J142 J155:J160 J167:J170 J177:J180 J183:J186 J192:J195 J201:J204 J210:J213 J216:J220 K6:K10 K11:K14 K17:K21 K26:K29 K37:K41 K45:K50 K59:K61 K65:K68 K88:K89 K92:K100 K104:K105 K107:K109 K116:K119 K122:K127 K132:K133 K137:K142 K145:K152 K155:K160 K163:K164 K167:K170 L6:L14 L17:L20 L26:L30 L33:L34 L35:L36 L37:L38 L40:L41 L45:L48 L49:L50 L55:L56 L59:L60 L66:L69 L72:L73 L74:L77 L88:L89 L92:L100 L104:L105 L107:L109 L116:L119 L122:L127 L132:L133 L137:L142 L145:L149 L155:L160 L167:L170 L173:L174 J33:K36 J53:K55 J72:K77 K183:L186 K192:L195 K201:L204 K177:L180 K210:L213 K216:L220 K130:L131">
       <formula1>$S$3:$S$4</formula1>
     </dataValidation>
   </dataValidations>

--- a/课程跟踪.xlsx
+++ b/课程跟踪.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="15620"/>
+    <workbookView windowWidth="21880" windowHeight="9480"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -433,7 +433,7 @@
     <t>dubbo相关</t>
   </si>
   <si>
-    <t>20 接口测试进阶实战</t>
+    <t>21 接口测试进阶实战</t>
   </si>
   <si>
     <t>【直播】接口测试进阶实战（一）(3月3日 10:00-11:00)</t>
@@ -454,7 +454,7 @@
     <t>【直播】接口测试进阶实战（六）(3月3日 17:00-18:00)</t>
   </si>
   <si>
-    <t>21 服务端性能测试</t>
+    <t>22 服务端性能测试</t>
   </si>
   <si>
     <t>【录播】压测工具JMeter使用（9分钟）</t>
@@ -463,7 +463,7 @@
     <t>【录播】服务端性能监控（9分钟）</t>
   </si>
   <si>
-    <t>22 JMeter压力测试演练</t>
+    <t>23 JMeter压力测试演练</t>
   </si>
   <si>
     <t>【直播】JMeter压力测试演练（一）(3月10日 14:00-15:00)</t>
@@ -478,7 +478,7 @@
     <t>【直播】JMeter压力测试演练（四）(3月10日 17:00-18:00)</t>
   </si>
   <si>
-    <t>23 Jenkins持续集成</t>
+    <t>24 Jenkins持续集成</t>
   </si>
   <si>
     <t>【录播】Selenium自动化测试持续集成实战演练（242分钟）</t>
@@ -487,7 +487,7 @@
     <t>【录播】持续集成-Pipeline模式（167分钟）</t>
   </si>
   <si>
-    <t>24 Appium自动化测试持续集成实战演练</t>
+    <t>25 Appium自动化测试持续集成实战演练</t>
   </si>
   <si>
     <t>【直播】Appium自动化测试持续集成实战演练（一）(3月17日 14:00-15:00)</t>
@@ -502,7 +502,7 @@
     <t>【直播】Appium自动化测试持续集成实战演练（一）(3月17日 17:00-18:00)</t>
   </si>
   <si>
-    <t>25 接口测试持续集成实战演练</t>
+    <t>26 接口测试持续集成实战演练</t>
   </si>
   <si>
     <t>【直播】接口测试持续集成实战演练（一）(3月24日 14:00-15:00)</t>
@@ -517,7 +517,7 @@
     <t>【直播】接口测试持续集成实战演练（四）(3月24日 17:00-18:00)</t>
   </si>
   <si>
-    <t>26 容器技术Docker</t>
+    <t>27 容器技术Docker</t>
   </si>
   <si>
     <t>【录播】Docker入门与进阶使用（284分钟）</t>
@@ -588,10 +588,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -625,7 +625,29 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -639,36 +661,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -691,16 +693,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -713,9 +707,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -723,7 +731,14 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -731,7 +746,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -745,26 +760,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -801,60 +801,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -867,7 +813,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -879,13 +849,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -897,7 +885,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -909,67 +969,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1051,73 +1051,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1141,6 +1076,71 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -1150,148 +1150,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -4237,8 +4237,8 @@
       <c r="K118" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="L118" s="19" t="s">
-        <v>10</v>
+      <c r="L118" s="17" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="119" ht="20.4" spans="1:12">
@@ -4265,8 +4265,8 @@
       <c r="K119" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="L119" s="19" t="s">
-        <v>10</v>
+      <c r="L119" s="17" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="121" spans="2:7">
@@ -4539,7 +4539,9 @@
       <c r="H134" s="27">
         <v>43552</v>
       </c>
-      <c r="I134" s="13"/>
+      <c r="I134" s="13" t="s">
+        <v>9</v>
+      </c>
       <c r="J134" s="13" t="s">
         <v>9</v>
       </c>
@@ -4572,7 +4574,9 @@
       <c r="H137" s="27">
         <v>43552</v>
       </c>
-      <c r="I137" s="13"/>
+      <c r="I137" s="13" t="s">
+        <v>9</v>
+      </c>
       <c r="J137" s="13" t="s">
         <v>9</v>
       </c>
@@ -4595,7 +4599,9 @@
       <c r="H138" s="27">
         <v>43552</v>
       </c>
-      <c r="I138" s="13"/>
+      <c r="I138" s="13" t="s">
+        <v>9</v>
+      </c>
       <c r="J138" s="13" t="s">
         <v>9</v>
       </c>
@@ -4618,7 +4624,9 @@
       <c r="H139" s="27">
         <v>43552</v>
       </c>
-      <c r="I139" s="13"/>
+      <c r="I139" s="13" t="s">
+        <v>9</v>
+      </c>
       <c r="J139" s="13" t="s">
         <v>9</v>
       </c>
@@ -4641,7 +4649,9 @@
       <c r="H140" s="27">
         <v>43552</v>
       </c>
-      <c r="I140" s="13"/>
+      <c r="I140" s="13" t="s">
+        <v>9</v>
+      </c>
       <c r="J140" s="13" t="s">
         <v>9</v>
       </c>
@@ -4664,7 +4674,9 @@
       <c r="H141" s="27">
         <v>43552</v>
       </c>
-      <c r="I141" s="13"/>
+      <c r="I141" s="13" t="s">
+        <v>9</v>
+      </c>
       <c r="J141" s="13" t="s">
         <v>9</v>
       </c>
@@ -4687,7 +4699,9 @@
       <c r="H142" s="27">
         <v>43552</v>
       </c>
-      <c r="I142" s="13"/>
+      <c r="I142" s="13" t="s">
+        <v>9</v>
+      </c>
       <c r="J142" s="13" t="s">
         <v>9</v>
       </c>
@@ -4930,7 +4944,9 @@
       <c r="H155" s="27">
         <v>43552</v>
       </c>
-      <c r="I155" s="13"/>
+      <c r="I155" s="13" t="s">
+        <v>9</v>
+      </c>
       <c r="J155" s="13" t="s">
         <v>9</v>
       </c>
@@ -4953,7 +4969,9 @@
       <c r="H156" s="27">
         <v>43552</v>
       </c>
-      <c r="I156" s="13"/>
+      <c r="I156" s="13" t="s">
+        <v>9</v>
+      </c>
       <c r="J156" s="13" t="s">
         <v>9</v>
       </c>
@@ -4976,7 +4994,9 @@
       <c r="H157" s="27">
         <v>43552</v>
       </c>
-      <c r="I157" s="13"/>
+      <c r="I157" s="13" t="s">
+        <v>9</v>
+      </c>
       <c r="J157" s="13" t="s">
         <v>9</v>
       </c>
@@ -4999,7 +5019,9 @@
       <c r="H158" s="27">
         <v>43552</v>
       </c>
-      <c r="I158" s="13"/>
+      <c r="I158" s="13" t="s">
+        <v>9</v>
+      </c>
       <c r="J158" s="13" t="s">
         <v>9</v>
       </c>
@@ -5022,7 +5044,9 @@
       <c r="H159" s="27">
         <v>43552</v>
       </c>
-      <c r="I159" s="13"/>
+      <c r="I159" s="13" t="s">
+        <v>9</v>
+      </c>
       <c r="J159" s="13" t="s">
         <v>9</v>
       </c>
@@ -5045,7 +5069,9 @@
       <c r="H160" s="27">
         <v>43552</v>
       </c>
-      <c r="I160" s="13"/>
+      <c r="I160" s="13" t="s">
+        <v>9</v>
+      </c>
       <c r="J160" s="13" t="s">
         <v>9</v>
       </c>
@@ -5138,7 +5164,9 @@
       <c r="H167" s="27">
         <v>43556</v>
       </c>
-      <c r="I167" s="13"/>
+      <c r="I167" s="13" t="s">
+        <v>9</v>
+      </c>
       <c r="J167" s="13" t="s">
         <v>10</v>
       </c>
@@ -5161,7 +5189,9 @@
       <c r="H168" s="27">
         <v>43556</v>
       </c>
-      <c r="I168" s="13"/>
+      <c r="I168" s="13" t="s">
+        <v>9</v>
+      </c>
       <c r="J168" s="13" t="s">
         <v>10</v>
       </c>
@@ -5184,7 +5214,9 @@
       <c r="H169" s="27">
         <v>43556</v>
       </c>
-      <c r="I169" s="13"/>
+      <c r="I169" s="13" t="s">
+        <v>9</v>
+      </c>
       <c r="J169" s="13" t="s">
         <v>10</v>
       </c>
@@ -5207,7 +5239,9 @@
       <c r="H170" s="27">
         <v>43556</v>
       </c>
-      <c r="I170" s="13"/>
+      <c r="I170" s="13" t="s">
+        <v>9</v>
+      </c>
       <c r="J170" s="13" t="s">
         <v>10</v>
       </c>
@@ -5300,8 +5334,12 @@
       <c r="H177" s="27">
         <v>43573</v>
       </c>
-      <c r="I177" s="13"/>
-      <c r="J177" s="13"/>
+      <c r="I177" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="J177" s="13" t="s">
+        <v>9</v>
+      </c>
       <c r="K177" s="13" t="s">
         <v>9</v>
       </c>
@@ -5321,8 +5359,12 @@
       <c r="H178" s="27">
         <v>43573</v>
       </c>
-      <c r="I178" s="13"/>
-      <c r="J178" s="13"/>
+      <c r="I178" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="J178" s="13" t="s">
+        <v>9</v>
+      </c>
       <c r="K178" s="13" t="s">
         <v>9</v>
       </c>
@@ -5342,8 +5384,12 @@
       <c r="H179" s="27">
         <v>43573</v>
       </c>
-      <c r="I179" s="13"/>
-      <c r="J179" s="13"/>
+      <c r="I179" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="J179" s="13" t="s">
+        <v>9</v>
+      </c>
       <c r="K179" s="13" t="s">
         <v>9</v>
       </c>
@@ -5363,8 +5409,12 @@
       <c r="H180" s="27">
         <v>43573</v>
       </c>
-      <c r="I180" s="13"/>
-      <c r="J180" s="13"/>
+      <c r="I180" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="J180" s="13" t="s">
+        <v>9</v>
+      </c>
       <c r="K180" s="13" t="s">
         <v>9</v>
       </c>
@@ -5394,8 +5444,12 @@
       <c r="H183" s="27">
         <v>43573</v>
       </c>
-      <c r="I183" s="13"/>
-      <c r="J183" s="13"/>
+      <c r="I183" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="J183" s="13" t="s">
+        <v>9</v>
+      </c>
       <c r="K183" s="13" t="s">
         <v>9</v>
       </c>
@@ -5415,8 +5469,12 @@
       <c r="H184" s="27">
         <v>43573</v>
       </c>
-      <c r="I184" s="13"/>
-      <c r="J184" s="13"/>
+      <c r="I184" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="J184" s="13" t="s">
+        <v>9</v>
+      </c>
       <c r="K184" s="13" t="s">
         <v>9</v>
       </c>
@@ -5436,8 +5494,12 @@
       <c r="H185" s="27">
         <v>43573</v>
       </c>
-      <c r="I185" s="13"/>
-      <c r="J185" s="13"/>
+      <c r="I185" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="J185" s="13" t="s">
+        <v>9</v>
+      </c>
       <c r="K185" s="13" t="s">
         <v>9</v>
       </c>
@@ -5457,8 +5519,12 @@
       <c r="H186" s="27">
         <v>43573</v>
       </c>
-      <c r="I186" s="13"/>
-      <c r="J186" s="13"/>
+      <c r="I186" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="J186" s="13" t="s">
+        <v>9</v>
+      </c>
       <c r="K186" s="13" t="s">
         <v>9</v>
       </c>
@@ -6041,7 +6107,7 @@
     <mergeCell ref="B215:G215"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I3 J3 K3 L3 J17 L21 J22 K22:L22 J23 K23:L23 K30 I33 L39 L53 L54 J56 K56 L61 J62 K62 L62 L65 J69 K69 J78:K78 L78 J79:K79 J80:K80 I83 J83 K83 L83 J86 K86 L86 K87:L87 I103 J103 K103:L103 J106 K106 L106 J112 K112 L112 J113 K113 L113 L116 L117 J132 J133 I134 J134 K134 L134 J145 J146 J147 J148 J149 J150 L150 J151 L151 J152 L152 J163 L163 J164 L164 J173:K173 J174 K174 I189 J189 K189 L189 I193 J193 K193:L193 I202 J202 K202:L202 I6:I14 I17:I21 I26:I30 I34:I36 I37:I41 I45:I50 I53:I56 I59:I62 I65:I69 I72:I80 I86:I89 I92:I100 I104:I106 I107:I109 I112:I113 I116:I119 I122:I127 I132:I133 I145:I152 I163:I164 I173:I174 J6:J10 J11:J14 J18:J21 J26:J30 J37:J41 J45:J50 J59:J61 J65:J68 J87:J89 J92:J100 J104:J105 J107:J109 J116:J119 J122:J127 J130:J131 J137:J142 J155:J160 J167:J170 J177:J180 J183:J186 J196:J199 J205:J208 J211:J215 K6:K10 K11:K14 K17:K21 K26:K29 K37:K41 K45:K50 K59:K61 K65:K68 K88:K89 K92:K100 K104:K105 K107:K109 K116:K119 K122:K127 K132:K133 K137:K142 K145:K152 K155:K160 K163:K164 K167:K170 K177:K180 K183:K186 L6:L14 L17:L20 L26:L30 L33:L34 L35:L36 L37:L38 L40:L41 L45:L48 L49:L50 L55:L56 L59:L60 L66:L69 L72:L73 L74:L77 L79:L80 L88:L89 L92:L100 L104:L105 L107:L109 L118:L119 L122:L127 L132:L133 L137:L142 L145:L149 L155:L160 L167:L170 L173:L174 L177:L180 L183:L186 J33:K36 J53:K55 J72:K77 K130:L131 K196:L199 K205:L208 K211:L215">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I3 J3 K3 L3 J17 L21 J22 K22:L22 J23 K23:L23 K30 I33 L39 L53 L54 J56 K56 L61 J62 K62 L62 L65 J69 K69 J78:K78 L78 J79:K79 J80:K80 I83 J83 K83 L83 J86 K86 L86 K87:L87 I103 J103 K103:L103 J106 K106 L106 J112 K112 L112 J113 K113 L113 L116 L117 J132 J133 I134 J134 K134 L134 J145 J146 J147 J148 J149 J150 L150 J151 L151 J152 L152 J163 L163 J164 L164 J173:K173 J174 K174 I189 J189 K189 L189 I193 J193 K193:L193 I202 J202 K202:L202 I6:I14 I17:I21 I26:I30 I34:I36 I37:I41 I45:I50 I53:I56 I59:I62 I65:I69 I72:I80 I86:I89 I92:I100 I104:I106 I107:I109 I112:I113 I116:I119 I122:I127 I132:I133 I137:I142 I145:I152 I155:I160 I163:I164 I167:I170 I173:I174 I177:I180 I183:I186 J6:J10 J11:J14 J18:J21 J26:J30 J37:J41 J45:J50 J59:J61 J65:J68 J87:J89 J92:J100 J104:J105 J107:J109 J116:J119 J122:J127 J130:J131 J137:J142 J155:J160 J167:J170 J177:J180 J183:J186 J196:J199 J205:J208 J211:J215 K6:K10 K11:K14 K17:K21 K26:K29 K37:K41 K45:K50 K59:K61 K65:K68 K88:K89 K92:K100 K104:K105 K107:K109 K116:K119 K122:K127 K132:K133 K137:K142 K145:K152 K155:K160 K163:K164 K167:K170 K177:K180 K183:K186 L6:L14 L17:L20 L26:L30 L33:L34 L35:L36 L37:L38 L40:L41 L45:L48 L49:L50 L55:L56 L59:L60 L66:L69 L72:L73 L74:L77 L79:L80 L88:L89 L92:L100 L104:L105 L107:L109 L118:L119 L122:L127 L132:L133 L137:L142 L145:L149 L155:L160 L167:L170 L173:L174 L177:L180 L183:L186 J33:K36 J53:K55 J72:K77 K130:L131 K196:L199 K205:L208 K211:L215">
       <formula1>$S$3:$S$4</formula1>
     </dataValidation>
   </dataValidations>

--- a/课程跟踪.xlsx
+++ b/课程跟踪.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21880" windowHeight="9480"/>
+    <workbookView windowHeight="12140"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -588,10 +588,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -638,8 +638,70 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -654,7 +716,29 @@
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -670,24 +754,8 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -695,74 +763,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -807,25 +807,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -837,13 +819,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -861,13 +843,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -879,79 +957,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -963,13 +969,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1057,35 +1057,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1120,6 +1096,41 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1134,158 +1145,147 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="34" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -4498,8 +4498,8 @@
       <c r="K132" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="L132" s="19" t="s">
-        <v>10</v>
+      <c r="L132" s="17" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="133" ht="20.4" spans="2:12">
@@ -6107,7 +6107,7 @@
     <mergeCell ref="B215:G215"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I3 J3 K3 L3 J17 L21 J22 K22:L22 J23 K23:L23 K30 I33 L39 L53 L54 J56 K56 L61 J62 K62 L62 L65 J69 K69 J78:K78 L78 J79:K79 J80:K80 I83 J83 K83 L83 J86 K86 L86 K87:L87 I103 J103 K103:L103 J106 K106 L106 J112 K112 L112 J113 K113 L113 L116 L117 J132 J133 I134 J134 K134 L134 J145 J146 J147 J148 J149 J150 L150 J151 L151 J152 L152 J163 L163 J164 L164 J173:K173 J174 K174 I189 J189 K189 L189 I193 J193 K193:L193 I202 J202 K202:L202 I6:I14 I17:I21 I26:I30 I34:I36 I37:I41 I45:I50 I53:I56 I59:I62 I65:I69 I72:I80 I86:I89 I92:I100 I104:I106 I107:I109 I112:I113 I116:I119 I122:I127 I132:I133 I137:I142 I145:I152 I155:I160 I163:I164 I167:I170 I173:I174 I177:I180 I183:I186 J6:J10 J11:J14 J18:J21 J26:J30 J37:J41 J45:J50 J59:J61 J65:J68 J87:J89 J92:J100 J104:J105 J107:J109 J116:J119 J122:J127 J130:J131 J137:J142 J155:J160 J167:J170 J177:J180 J183:J186 J196:J199 J205:J208 J211:J215 K6:K10 K11:K14 K17:K21 K26:K29 K37:K41 K45:K50 K59:K61 K65:K68 K88:K89 K92:K100 K104:K105 K107:K109 K116:K119 K122:K127 K132:K133 K137:K142 K145:K152 K155:K160 K163:K164 K167:K170 K177:K180 K183:K186 L6:L14 L17:L20 L26:L30 L33:L34 L35:L36 L37:L38 L40:L41 L45:L48 L49:L50 L55:L56 L59:L60 L66:L69 L72:L73 L74:L77 L79:L80 L88:L89 L92:L100 L104:L105 L107:L109 L118:L119 L122:L127 L132:L133 L137:L142 L145:L149 L155:L160 L167:L170 L173:L174 L177:L180 L183:L186 J33:K36 J53:K55 J72:K77 K130:L131 K196:L199 K205:L208 K211:L215">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I3 J3 K3 L3 J17 L21 J22 K22:L22 J23 K23:L23 K30 I33 L39 L53 L54 J56 K56 L61 J62 K62 L62 L65 J69 K69 J78:K78 L78 J79:K79 J80:K80 I83 J83 K83 L83 J86 K86 L86 K87:L87 I103 J103 K103:L103 J106 K106 L106 J112 K112 L112 J113 K113 L113 L116 L117 J132 L132 J133 L133 I134 J134 K134 L134 J145 J146 J147 J148 J149 J150 L150 J151 L151 J152 L152 J163 L163 J164 L164 J173:K173 J174 K174 I189 J189 K189 L189 I193 J193 K193:L193 I202 J202 K202:L202 I6:I14 I17:I21 I26:I30 I34:I36 I37:I41 I45:I50 I53:I56 I59:I62 I65:I69 I72:I80 I86:I89 I92:I100 I104:I106 I107:I109 I112:I113 I116:I119 I122:I127 I132:I133 I137:I142 I145:I152 I155:I160 I163:I164 I167:I170 I173:I174 I177:I180 I183:I186 J6:J10 J11:J14 J18:J21 J26:J30 J37:J41 J45:J50 J59:J61 J65:J68 J87:J89 J92:J100 J104:J105 J107:J109 J116:J119 J122:J127 J130:J131 J137:J142 J155:J160 J167:J170 J177:J180 J183:J186 J196:J199 J205:J208 J211:J215 K6:K10 K11:K14 K17:K21 K26:K29 K37:K41 K45:K50 K59:K61 K65:K68 K88:K89 K92:K100 K104:K105 K107:K109 K116:K119 K122:K127 K132:K133 K137:K142 K145:K152 K155:K160 K163:K164 K167:K170 K177:K180 K183:K186 L6:L14 L17:L20 L26:L30 L33:L34 L35:L36 L37:L38 L40:L41 L45:L48 L49:L50 L55:L56 L59:L60 L66:L69 L72:L73 L74:L77 L79:L80 L88:L89 L92:L100 L104:L105 L107:L109 L118:L119 L122:L127 L137:L142 L145:L149 L155:L160 L167:L170 L173:L174 L177:L180 L183:L186 J33:K36 J53:K55 J72:K77 K130:L131 K196:L199 K205:L208 K211:L215">
       <formula1>$S$3:$S$4</formula1>
     </dataValidation>
   </dataValidations>

--- a/课程跟踪.xlsx
+++ b/课程跟踪.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="12140"/>
+    <workbookView windowWidth="30020" windowHeight="16080"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -589,9 +589,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -625,14 +625,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -647,8 +655,16 @@
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -662,7 +678,23 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -684,9 +716,38 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -701,68 +762,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -807,31 +807,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -849,25 +843,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -885,7 +879,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -897,19 +909,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -921,7 +933,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -933,43 +945,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1048,24 +1048,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1081,17 +1063,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1100,17 +1076,6 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -1145,153 +1110,188 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="34" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -4523,8 +4523,8 @@
       <c r="K133" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="L133" s="19" t="s">
-        <v>10</v>
+      <c r="L133" s="17" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="134" ht="20.4" spans="2:12">
@@ -4548,8 +4548,8 @@
       <c r="K134" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="L134" s="19" t="s">
-        <v>10</v>
+      <c r="L134" s="17" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="136" spans="2:7">
@@ -6107,7 +6107,7 @@
     <mergeCell ref="B215:G215"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I3 J3 K3 L3 J17 L21 J22 K22:L22 J23 K23:L23 K30 I33 L39 L53 L54 J56 K56 L61 J62 K62 L62 L65 J69 K69 J78:K78 L78 J79:K79 J80:K80 I83 J83 K83 L83 J86 K86 L86 K87:L87 I103 J103 K103:L103 J106 K106 L106 J112 K112 L112 J113 K113 L113 L116 L117 J132 L132 J133 L133 I134 J134 K134 L134 J145 J146 J147 J148 J149 J150 L150 J151 L151 J152 L152 J163 L163 J164 L164 J173:K173 J174 K174 I189 J189 K189 L189 I193 J193 K193:L193 I202 J202 K202:L202 I6:I14 I17:I21 I26:I30 I34:I36 I37:I41 I45:I50 I53:I56 I59:I62 I65:I69 I72:I80 I86:I89 I92:I100 I104:I106 I107:I109 I112:I113 I116:I119 I122:I127 I132:I133 I137:I142 I145:I152 I155:I160 I163:I164 I167:I170 I173:I174 I177:I180 I183:I186 J6:J10 J11:J14 J18:J21 J26:J30 J37:J41 J45:J50 J59:J61 J65:J68 J87:J89 J92:J100 J104:J105 J107:J109 J116:J119 J122:J127 J130:J131 J137:J142 J155:J160 J167:J170 J177:J180 J183:J186 J196:J199 J205:J208 J211:J215 K6:K10 K11:K14 K17:K21 K26:K29 K37:K41 K45:K50 K59:K61 K65:K68 K88:K89 K92:K100 K104:K105 K107:K109 K116:K119 K122:K127 K132:K133 K137:K142 K145:K152 K155:K160 K163:K164 K167:K170 K177:K180 K183:K186 L6:L14 L17:L20 L26:L30 L33:L34 L35:L36 L37:L38 L40:L41 L45:L48 L49:L50 L55:L56 L59:L60 L66:L69 L72:L73 L74:L77 L79:L80 L88:L89 L92:L100 L104:L105 L107:L109 L118:L119 L122:L127 L137:L142 L145:L149 L155:L160 L167:L170 L173:L174 L177:L180 L183:L186 J33:K36 J53:K55 J72:K77 K130:L131 K196:L199 K205:L208 K211:L215">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I3 J3 K3 L3 J17 L21 J22 K22:L22 J23 K23:L23 K30 I33 L39 L53 L54 J56 K56 L61 J62 K62 L62 L65 J69 K69 J78:K78 L78 J79:K79 J80:K80 I83 J83 K83 L83 J86 K86 L86 K87:L87 I103 J103 K103:L103 J106 K106 L106 J112 K112 L112 J113 K113 L113 L116 L117 J132 L132 J133 I134 J134 K134 J145 J146 J147 J148 J149 J150 L150 J151 L151 J152 L152 J163 L163 J164 L164 J173:K173 J174 K174 I189 J189 K189 L189 I193 J193 K193:L193 I202 J202 K202:L202 I6:I14 I17:I21 I26:I30 I34:I36 I37:I41 I45:I50 I53:I56 I59:I62 I65:I69 I72:I80 I86:I89 I92:I100 I104:I106 I107:I109 I112:I113 I116:I119 I122:I127 I132:I133 I137:I142 I145:I152 I155:I160 I163:I164 I167:I170 I173:I174 I177:I180 I183:I186 J6:J10 J11:J14 J18:J21 J26:J30 J37:J41 J45:J50 J59:J61 J65:J68 J87:J89 J92:J100 J104:J105 J107:J109 J116:J119 J122:J127 J130:J131 J137:J142 J155:J160 J167:J170 J177:J180 J183:J186 J196:J199 J205:J208 J211:J215 K6:K10 K11:K14 K17:K21 K26:K29 K37:K41 K45:K50 K59:K61 K65:K68 K88:K89 K92:K100 K104:K105 K107:K109 K116:K119 K122:K127 K132:K133 K137:K142 K145:K152 K155:K160 K163:K164 K167:K170 K177:K180 K183:K186 L6:L14 L17:L20 L26:L30 L33:L34 L35:L36 L37:L38 L40:L41 L45:L48 L49:L50 L55:L56 L59:L60 L66:L69 L72:L73 L74:L77 L79:L80 L88:L89 L92:L100 L104:L105 L107:L109 L118:L119 L122:L127 L133:L134 L137:L142 L145:L149 L155:L160 L167:L170 L173:L174 L177:L180 L183:L186 J33:K36 J53:K55 J72:K77 K130:L131 K196:L199 K205:L208 K211:L215">
       <formula1>$S$3:$S$4</formula1>
     </dataValidation>
   </dataValidations>

--- a/课程跟踪.xlsx
+++ b/课程跟踪.xlsx
@@ -631,21 +631,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -654,31 +639,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -700,6 +670,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -709,7 +686,52 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -724,45 +746,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -807,31 +807,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -855,13 +837,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -873,37 +915,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -921,13 +933,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -939,37 +957,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1048,21 +1048,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -1075,23 +1060,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1123,6 +1093,45 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -1136,162 +1145,153 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -4583,8 +4583,8 @@
       <c r="K137" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="L137" s="19" t="s">
-        <v>10</v>
+      <c r="L137" s="17" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="138" ht="20.4" spans="2:12">
@@ -4608,8 +4608,8 @@
       <c r="K138" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="L138" s="19" t="s">
-        <v>10</v>
+      <c r="L138" s="17" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="139" ht="20.4" spans="2:12">
@@ -4633,8 +4633,8 @@
       <c r="K139" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="L139" s="19" t="s">
-        <v>10</v>
+      <c r="L139" s="17" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="140" ht="20.4" spans="2:12">
@@ -4658,8 +4658,8 @@
       <c r="K140" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="L140" s="19" t="s">
-        <v>10</v>
+      <c r="L140" s="17" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="141" ht="20.4" spans="2:12">
@@ -6107,7 +6107,7 @@
     <mergeCell ref="B215:G215"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I3 J3 K3 L3 J17 L21 J22 K22:L22 J23 K23:L23 K30 I33 L39 L53 L54 J56 K56 L61 J62 K62 L62 L65 J69 K69 J78:K78 L78 J79:K79 J80:K80 I83 J83 K83 L83 J86 K86 L86 K87:L87 I103 J103 K103:L103 J106 K106 L106 J112 K112 L112 J113 K113 L113 L116 L117 J132 L132 J133 I134 J134 K134 J145 J146 J147 J148 J149 J150 L150 J151 L151 J152 L152 J163 L163 J164 L164 J173:K173 J174 K174 I189 J189 K189 L189 I193 J193 K193:L193 I202 J202 K202:L202 I6:I14 I17:I21 I26:I30 I34:I36 I37:I41 I45:I50 I53:I56 I59:I62 I65:I69 I72:I80 I86:I89 I92:I100 I104:I106 I107:I109 I112:I113 I116:I119 I122:I127 I132:I133 I137:I142 I145:I152 I155:I160 I163:I164 I167:I170 I173:I174 I177:I180 I183:I186 J6:J10 J11:J14 J18:J21 J26:J30 J37:J41 J45:J50 J59:J61 J65:J68 J87:J89 J92:J100 J104:J105 J107:J109 J116:J119 J122:J127 J130:J131 J137:J142 J155:J160 J167:J170 J177:J180 J183:J186 J196:J199 J205:J208 J211:J215 K6:K10 K11:K14 K17:K21 K26:K29 K37:K41 K45:K50 K59:K61 K65:K68 K88:K89 K92:K100 K104:K105 K107:K109 K116:K119 K122:K127 K132:K133 K137:K142 K145:K152 K155:K160 K163:K164 K167:K170 K177:K180 K183:K186 L6:L14 L17:L20 L26:L30 L33:L34 L35:L36 L37:L38 L40:L41 L45:L48 L49:L50 L55:L56 L59:L60 L66:L69 L72:L73 L74:L77 L79:L80 L88:L89 L92:L100 L104:L105 L107:L109 L118:L119 L122:L127 L133:L134 L137:L142 L145:L149 L155:L160 L167:L170 L173:L174 L177:L180 L183:L186 J33:K36 J53:K55 J72:K77 K130:L131 K196:L199 K205:L208 K211:L215">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I3 J3 K3 L3 J17 L21 J22 K22:L22 J23 K23:L23 K30 I33 L39 L53 L54 J56 K56 L61 J62 K62 L62 L65 J69 K69 J78:K78 L78 J79:K79 J80:K80 I83 J83 K83 L83 J86 K86 L86 K87:L87 I103 J103 K103:L103 J106 K106 L106 J112 K112 L112 J113 K113 L113 L116 L117 J132 L132 J133 I134 J134 K134 J145 J146 J147 J148 J149 J150 L150 J151 L151 J152 L152 J163 L163 J164 L164 J173:K173 J174 K174 I189 J189 K189 L189 I193 J193 K193:L193 I202 J202 K202:L202 I6:I14 I17:I21 I26:I30 I34:I36 I37:I41 I45:I50 I53:I56 I59:I62 I65:I69 I72:I80 I86:I89 I92:I100 I104:I106 I107:I109 I112:I113 I116:I119 I122:I127 I132:I133 I137:I142 I145:I152 I155:I160 I163:I164 I167:I170 I173:I174 I177:I180 I183:I186 J6:J10 J11:J14 J18:J21 J26:J30 J37:J41 J45:J50 J59:J61 J65:J68 J87:J89 J92:J100 J104:J105 J107:J109 J116:J119 J122:J127 J130:J131 J137:J142 J155:J160 J167:J170 J177:J180 J183:J186 J196:J199 J205:J208 J211:J215 K6:K10 K11:K14 K17:K21 K26:K29 K37:K41 K45:K50 K59:K61 K65:K68 K88:K89 K92:K100 K104:K105 K107:K109 K116:K119 K122:K127 K132:K133 K137:K142 K145:K152 K155:K160 K163:K164 K167:K170 K177:K180 K183:K186 L6:L14 L17:L20 L26:L30 L33:L34 L35:L36 L37:L38 L40:L41 L45:L48 L49:L50 L55:L56 L59:L60 L66:L69 L72:L73 L74:L77 L79:L80 L88:L89 L92:L100 L104:L105 L107:L109 L118:L119 L122:L127 L133:L134 L137:L140 L141:L142 L145:L149 L155:L160 L167:L170 L173:L174 L177:L180 L183:L186 J33:K36 J53:K55 J72:K77 K130:L131 K196:L199 K205:L208 K211:L215">
       <formula1>$S$3:$S$4</formula1>
     </dataValidation>
   </dataValidations>

--- a/课程跟踪.xlsx
+++ b/课程跟踪.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="30020" windowHeight="16080"/>
+    <workbookView windowWidth="21460" windowHeight="11400"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -588,9 +588,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
@@ -625,6 +625,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -640,17 +647,17 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -664,6 +671,22 @@
     <font>
       <u/>
       <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
       <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -671,7 +694,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -682,6 +705,22 @@
       <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -702,6 +741,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -712,52 +758,6 @@
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -807,7 +807,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -825,7 +831,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -837,103 +867,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -957,19 +897,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1051,6 +1051,15 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
       </bottom>
@@ -1060,8 +1069,38 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1093,45 +1132,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -1150,148 +1150,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="16" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="29" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -4683,8 +4683,8 @@
       <c r="K141" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="L141" s="19" t="s">
-        <v>10</v>
+      <c r="L141" s="17" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="142" ht="20.4" spans="2:12">
@@ -4708,8 +4708,8 @@
       <c r="K142" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="L142" s="19" t="s">
-        <v>10</v>
+      <c r="L142" s="17" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="144" spans="2:7">

--- a/课程跟踪.xlsx
+++ b/课程跟踪.xlsx
@@ -10,14 +10,14 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$H$1:$L$215</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$H$1:$L$220</definedName>
   </definedNames>
   <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -523,34 +523,49 @@
     <t>【录播】Docker入门与进阶使用（284分钟）</t>
   </si>
   <si>
-    <t>28 白盒测试-基于Sonar平台的代码审计</t>
+    <t>28 白盒测试-Java代码覆盖率分析（上）（9分钟）</t>
+  </si>
+  <si>
+    <t>【直播】代码审计实战与代码覆盖率统计实战（一）(4月14日 14:00-15:00)</t>
+  </si>
+  <si>
+    <t>【直播】代码审计实战与代码覆盖率统计实战（二）(4月14日 15:00-16:00)</t>
+  </si>
+  <si>
+    <t>【直播】代码审计实战与代码覆盖率统计实战（三）(4月14日 16:00-17:00)</t>
+  </si>
+  <si>
+    <t>【直播】代码审计实战与代码覆盖率统计实战（四）(4月14日 17:00-18:00)</t>
+  </si>
+  <si>
+    <t>29 白盒测试-基于Sonar平台的代码审计</t>
   </si>
   <si>
     <t>【录播】Sonar平台与代码覆盖率分析（210分钟）</t>
   </si>
   <si>
-    <t>29 白盒测试-Java代码覆盖率分析（9分钟）</t>
-  </si>
-  <si>
-    <t>【直播】代码审计实战与代码覆盖率统计实战（一）(4月14日 14:00-15:00)</t>
-  </si>
-  <si>
-    <t>【直播】代码审计实战与代码覆盖率统计实战（二）(4月14日 15:00-16:00)</t>
-  </si>
-  <si>
-    <t>【直播】代码审计实战与代码覆盖率统计实战（三）(4月14日 16:00-17:00)</t>
-  </si>
-  <si>
-    <t>【直播】代码审计实战与代码覆盖率统计实战（四）(4月14日 17:00-18:00)</t>
-  </si>
-  <si>
-    <t>30 测试平台与质量监控</t>
+    <t>30 白盒测试-Java代码覆盖率分析（下）（9分钟）</t>
+  </si>
+  <si>
+    <t>【直播】代码审计实战与代码覆盖率统计实战（五）(4月14日 14:00-15:00)</t>
+  </si>
+  <si>
+    <t>【直播】代码审计实战与代码覆盖率统计实战（六）(4月14日 15:00-16:00)</t>
+  </si>
+  <si>
+    <t>【直播】代码审计实战与代码覆盖率统计实战（七）(4月14日 16:00-17:00)</t>
+  </si>
+  <si>
+    <t>【直播】代码审计实战与代码覆盖率统计实战（八）(4月14日 17:00-18:00)</t>
+  </si>
+  <si>
+    <t>31 测试平台与质量监控</t>
   </si>
   <si>
     <t>【录播】ELK系统搭建与使用（211分钟）</t>
   </si>
   <si>
-    <t>31 测试平台构建实战</t>
+    <t>32 测试平台构建实战</t>
   </si>
   <si>
     <t>【直播】测试平台构建实战（一）(4月21日 14:00-15:00)</t>
@@ -565,7 +580,7 @@
     <t>【直播】测试平台构建实战（四）(4月21日 17:00-18:00)</t>
   </si>
   <si>
-    <t>32 软技能培训</t>
+    <t>33 软技能培训</t>
   </si>
   <si>
     <t>【录播】数据结构与算法（9分钟）</t>
@@ -588,10 +603,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -632,22 +647,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -669,48 +676,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -748,7 +724,45 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -761,8 +775,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -801,7 +816,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -813,19 +894,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -837,31 +936,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -873,103 +984,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1057,11 +1072,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1075,32 +1096,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1132,16 +1132,31 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1150,124 +1165,124 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1276,26 +1291,26 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1383,10 +1398,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1711,7 +1735,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:S215"/>
+  <dimension ref="A1:S220"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -5575,267 +5599,336 @@
       <c r="K190" s="25"/>
       <c r="L190" s="25"/>
     </row>
-    <row r="192" spans="2:7">
-      <c r="B192" s="9" t="s">
+    <row r="191" s="2" customFormat="1" spans="1:12">
+      <c r="A191" s="25"/>
+      <c r="B191" s="9" t="s">
         <v>168</v>
       </c>
-      <c r="C192" s="10"/>
-      <c r="D192" s="10"/>
-      <c r="E192" s="10"/>
-      <c r="F192" s="10"/>
-      <c r="G192" s="15"/>
-    </row>
-    <row r="193" ht="20.4" spans="2:12">
+      <c r="C191" s="10"/>
+      <c r="D191" s="10"/>
+      <c r="E191" s="10"/>
+      <c r="F191" s="10"/>
+      <c r="G191" s="15"/>
+      <c r="H191" s="3"/>
+      <c r="I191" s="3"/>
+      <c r="J191" s="3"/>
+      <c r="K191" s="3"/>
+      <c r="L191" s="3"/>
+    </row>
+    <row r="192" s="2" customFormat="1" ht="20.4" spans="1:12">
+      <c r="A192" s="25"/>
+      <c r="B192" s="20" t="s">
+        <v>169</v>
+      </c>
+      <c r="C192" s="21"/>
+      <c r="D192" s="21"/>
+      <c r="E192" s="21"/>
+      <c r="F192" s="21"/>
+      <c r="G192" s="22"/>
+      <c r="H192" s="27">
+        <v>43576</v>
+      </c>
+      <c r="I192" s="13"/>
+      <c r="J192" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="K192" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="L192" s="19" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="193" s="2" customFormat="1" ht="20.4" spans="1:12">
+      <c r="A193" s="25"/>
       <c r="B193" s="20" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C193" s="21"/>
       <c r="D193" s="21"/>
       <c r="E193" s="21"/>
       <c r="F193" s="21"/>
       <c r="G193" s="22"/>
-      <c r="H193" s="14">
+      <c r="H193" s="27">
+        <v>43576</v>
+      </c>
+      <c r="I193" s="13"/>
+      <c r="J193" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="K193" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="L193" s="19" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="194" s="2" customFormat="1" ht="20.4" spans="1:12">
+      <c r="A194" s="25"/>
+      <c r="B194" s="20" t="s">
+        <v>171</v>
+      </c>
+      <c r="C194" s="21"/>
+      <c r="D194" s="21"/>
+      <c r="E194" s="21"/>
+      <c r="F194" s="21"/>
+      <c r="G194" s="22"/>
+      <c r="H194" s="27">
+        <v>43576</v>
+      </c>
+      <c r="I194" s="13"/>
+      <c r="J194" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="K194" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="L194" s="19" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="195" s="2" customFormat="1" ht="20.4" spans="1:12">
+      <c r="A195" s="25"/>
+      <c r="B195" s="20" t="s">
+        <v>172</v>
+      </c>
+      <c r="C195" s="21"/>
+      <c r="D195" s="21"/>
+      <c r="E195" s="21"/>
+      <c r="F195" s="21"/>
+      <c r="G195" s="22"/>
+      <c r="H195" s="27">
+        <v>43576</v>
+      </c>
+      <c r="I195" s="13"/>
+      <c r="J195" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="K195" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="L195" s="19" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="196" s="2" customFormat="1" spans="1:12">
+      <c r="A196" s="25"/>
+      <c r="H196" s="25"/>
+      <c r="I196" s="25"/>
+      <c r="J196" s="25"/>
+      <c r="K196" s="25"/>
+      <c r="L196" s="25"/>
+    </row>
+    <row r="197" spans="2:7">
+      <c r="B197" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="C197" s="10"/>
+      <c r="D197" s="10"/>
+      <c r="E197" s="10"/>
+      <c r="F197" s="10"/>
+      <c r="G197" s="15"/>
+    </row>
+    <row r="198" ht="20.4" spans="2:12">
+      <c r="B198" s="20" t="s">
+        <v>174</v>
+      </c>
+      <c r="C198" s="21"/>
+      <c r="D198" s="21"/>
+      <c r="E198" s="21"/>
+      <c r="F198" s="21"/>
+      <c r="G198" s="22"/>
+      <c r="H198" s="14">
         <v>43451</v>
       </c>
-      <c r="I193" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="J193" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="K193" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="L193" s="19" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="195" spans="2:7">
-      <c r="B195" s="9" t="s">
-        <v>170</v>
-      </c>
-      <c r="C195" s="10"/>
-      <c r="D195" s="10"/>
-      <c r="E195" s="10"/>
-      <c r="F195" s="10"/>
-      <c r="G195" s="15"/>
-    </row>
-    <row r="196" spans="2:12">
-      <c r="B196" s="29" t="s">
-        <v>171</v>
-      </c>
-      <c r="C196" s="30"/>
-      <c r="D196" s="30"/>
-      <c r="E196" s="30"/>
-      <c r="F196" s="30"/>
-      <c r="G196" s="31"/>
-      <c r="H196" s="13"/>
-      <c r="I196" s="13"/>
-      <c r="J196" s="13"/>
-      <c r="K196" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="L196" s="13" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="197" spans="2:12">
-      <c r="B197" s="29" t="s">
-        <v>172</v>
-      </c>
-      <c r="C197" s="30"/>
-      <c r="D197" s="30"/>
-      <c r="E197" s="30"/>
-      <c r="F197" s="30"/>
-      <c r="G197" s="31"/>
-      <c r="H197" s="13"/>
-      <c r="I197" s="13"/>
-      <c r="J197" s="13"/>
-      <c r="K197" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="L197" s="13" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="198" spans="2:12">
-      <c r="B198" s="29" t="s">
-        <v>173</v>
-      </c>
-      <c r="C198" s="30"/>
-      <c r="D198" s="30"/>
-      <c r="E198" s="30"/>
-      <c r="F198" s="30"/>
-      <c r="G198" s="31"/>
-      <c r="H198" s="13"/>
-      <c r="I198" s="13"/>
-      <c r="J198" s="13"/>
-      <c r="K198" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="L198" s="13" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="199" spans="2:12">
-      <c r="B199" s="29" t="s">
-        <v>174</v>
-      </c>
-      <c r="C199" s="30"/>
-      <c r="D199" s="30"/>
-      <c r="E199" s="30"/>
-      <c r="F199" s="30"/>
-      <c r="G199" s="31"/>
-      <c r="H199" s="13"/>
-      <c r="I199" s="13"/>
-      <c r="J199" s="13"/>
-      <c r="K199" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="L199" s="13" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="201" spans="2:7">
-      <c r="B201" s="9" t="s">
+      <c r="I198" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="J198" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="K198" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="L198" s="19" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="200" spans="2:7">
+      <c r="B200" s="9" t="s">
         <v>175</v>
       </c>
-      <c r="C201" s="10"/>
-      <c r="D201" s="10"/>
-      <c r="E201" s="10"/>
-      <c r="F201" s="10"/>
-      <c r="G201" s="15"/>
+      <c r="C200" s="10"/>
+      <c r="D200" s="10"/>
+      <c r="E200" s="10"/>
+      <c r="F200" s="10"/>
+      <c r="G200" s="15"/>
+    </row>
+    <row r="201" ht="20.4" spans="2:12">
+      <c r="B201" s="20" t="s">
+        <v>176</v>
+      </c>
+      <c r="C201" s="21"/>
+      <c r="D201" s="21"/>
+      <c r="E201" s="21"/>
+      <c r="F201" s="21"/>
+      <c r="G201" s="22"/>
+      <c r="H201" s="27">
+        <v>43576</v>
+      </c>
+      <c r="I201" s="13"/>
+      <c r="J201" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="K201" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="L201" s="19" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="202" ht="20.4" spans="2:12">
       <c r="B202" s="20" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C202" s="21"/>
       <c r="D202" s="21"/>
       <c r="E202" s="21"/>
       <c r="F202" s="21"/>
       <c r="G202" s="22"/>
-      <c r="H202" s="14">
+      <c r="H202" s="27">
+        <v>43576</v>
+      </c>
+      <c r="I202" s="13"/>
+      <c r="J202" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="K202" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="L202" s="19" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="203" ht="20.4" spans="2:12">
+      <c r="B203" s="20" t="s">
+        <v>178</v>
+      </c>
+      <c r="C203" s="21"/>
+      <c r="D203" s="21"/>
+      <c r="E203" s="21"/>
+      <c r="F203" s="21"/>
+      <c r="G203" s="22"/>
+      <c r="H203" s="27">
+        <v>43576</v>
+      </c>
+      <c r="I203" s="13"/>
+      <c r="J203" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="K203" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="L203" s="19" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="204" ht="20.4" spans="2:12">
+      <c r="B204" s="20" t="s">
+        <v>179</v>
+      </c>
+      <c r="C204" s="21"/>
+      <c r="D204" s="21"/>
+      <c r="E204" s="21"/>
+      <c r="F204" s="21"/>
+      <c r="G204" s="22"/>
+      <c r="H204" s="27">
+        <v>43576</v>
+      </c>
+      <c r="I204" s="13"/>
+      <c r="J204" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="K204" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="L204" s="19" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="206" spans="2:7">
+      <c r="B206" s="9" t="s">
+        <v>180</v>
+      </c>
+      <c r="C206" s="10"/>
+      <c r="D206" s="10"/>
+      <c r="E206" s="10"/>
+      <c r="F206" s="10"/>
+      <c r="G206" s="15"/>
+    </row>
+    <row r="207" ht="20.4" spans="2:12">
+      <c r="B207" s="20" t="s">
+        <v>181</v>
+      </c>
+      <c r="C207" s="21"/>
+      <c r="D207" s="21"/>
+      <c r="E207" s="21"/>
+      <c r="F207" s="21"/>
+      <c r="G207" s="22"/>
+      <c r="H207" s="14">
         <v>43451</v>
       </c>
-      <c r="I202" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="J202" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="K202" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="L202" s="19" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="204" spans="2:7">
-      <c r="B204" s="9" t="s">
-        <v>177</v>
-      </c>
-      <c r="C204" s="10"/>
-      <c r="D204" s="10"/>
-      <c r="E204" s="10"/>
-      <c r="F204" s="10"/>
-      <c r="G204" s="15"/>
-    </row>
-    <row r="205" spans="2:12">
-      <c r="B205" s="29" t="s">
-        <v>178</v>
-      </c>
-      <c r="C205" s="30"/>
-      <c r="D205" s="30"/>
-      <c r="E205" s="30"/>
-      <c r="F205" s="30"/>
-      <c r="G205" s="31"/>
-      <c r="H205" s="13"/>
-      <c r="I205" s="13"/>
-      <c r="J205" s="13"/>
-      <c r="K205" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="L205" s="13" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="206" spans="2:12">
-      <c r="B206" s="29" t="s">
-        <v>179</v>
-      </c>
-      <c r="C206" s="30"/>
-      <c r="D206" s="30"/>
-      <c r="E206" s="30"/>
-      <c r="F206" s="30"/>
-      <c r="G206" s="31"/>
-      <c r="H206" s="13"/>
-      <c r="I206" s="13"/>
-      <c r="J206" s="13"/>
-      <c r="K206" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="L206" s="13" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="207" spans="2:12">
-      <c r="B207" s="29" t="s">
-        <v>180</v>
-      </c>
-      <c r="C207" s="30"/>
-      <c r="D207" s="30"/>
-      <c r="E207" s="30"/>
-      <c r="F207" s="30"/>
-      <c r="G207" s="31"/>
-      <c r="H207" s="13"/>
-      <c r="I207" s="13"/>
-      <c r="J207" s="13"/>
-      <c r="K207" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="L207" s="13" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="208" spans="2:12">
-      <c r="B208" s="29" t="s">
-        <v>181</v>
-      </c>
-      <c r="C208" s="30"/>
-      <c r="D208" s="30"/>
-      <c r="E208" s="30"/>
-      <c r="F208" s="30"/>
-      <c r="G208" s="31"/>
-      <c r="H208" s="13"/>
-      <c r="I208" s="13"/>
-      <c r="J208" s="13"/>
-      <c r="K208" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="L208" s="13" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="210" spans="2:7">
-      <c r="B210" s="9" t="s">
+      <c r="I207" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="J207" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="K207" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="L207" s="19" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="209" spans="2:7">
+      <c r="B209" s="9" t="s">
         <v>182</v>
       </c>
-      <c r="C210" s="10"/>
-      <c r="D210" s="10"/>
-      <c r="E210" s="10"/>
-      <c r="F210" s="10"/>
-      <c r="G210" s="15"/>
+      <c r="C209" s="10"/>
+      <c r="D209" s="10"/>
+      <c r="E209" s="10"/>
+      <c r="F209" s="10"/>
+      <c r="G209" s="15"/>
+    </row>
+    <row r="210" spans="2:12">
+      <c r="B210" s="29" t="s">
+        <v>183</v>
+      </c>
+      <c r="C210" s="30"/>
+      <c r="D210" s="30"/>
+      <c r="E210" s="30"/>
+      <c r="F210" s="30"/>
+      <c r="G210" s="33"/>
+      <c r="H210" s="13"/>
+      <c r="I210" s="13"/>
+      <c r="J210" s="13"/>
+      <c r="K210" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="L210" s="13" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="211" spans="2:12">
       <c r="B211" s="29" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C211" s="30"/>
       <c r="D211" s="30"/>
       <c r="E211" s="30"/>
       <c r="F211" s="30"/>
-      <c r="G211" s="31"/>
+      <c r="G211" s="33"/>
       <c r="H211" s="13"/>
       <c r="I211" s="13"/>
       <c r="J211" s="13"/>
@@ -5848,13 +5941,13 @@
     </row>
     <row r="212" spans="2:12">
       <c r="B212" s="29" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C212" s="30"/>
       <c r="D212" s="30"/>
       <c r="E212" s="30"/>
       <c r="F212" s="30"/>
-      <c r="G212" s="31"/>
+      <c r="G212" s="33"/>
       <c r="H212" s="13"/>
       <c r="I212" s="13"/>
       <c r="J212" s="13"/>
@@ -5867,13 +5960,13 @@
     </row>
     <row r="213" spans="2:12">
       <c r="B213" s="29" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C213" s="30"/>
       <c r="D213" s="30"/>
       <c r="E213" s="30"/>
       <c r="F213" s="30"/>
-      <c r="G213" s="31"/>
+      <c r="G213" s="33"/>
       <c r="H213" s="13"/>
       <c r="I213" s="13"/>
       <c r="J213" s="13"/>
@@ -5884,47 +5977,114 @@
         <v>10</v>
       </c>
     </row>
-    <row r="214" spans="2:12">
-      <c r="B214" s="29" t="s">
-        <v>186</v>
-      </c>
-      <c r="C214" s="30"/>
-      <c r="D214" s="30"/>
-      <c r="E214" s="30"/>
-      <c r="F214" s="30"/>
-      <c r="G214" s="31"/>
-      <c r="H214" s="13"/>
-      <c r="I214" s="13"/>
-      <c r="J214" s="13"/>
-      <c r="K214" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="L214" s="13" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="215" spans="2:12">
-      <c r="B215" s="29" t="s">
+    <row r="215" spans="2:7">
+      <c r="B215" s="9" t="s">
         <v>187</v>
       </c>
-      <c r="C215" s="30"/>
-      <c r="D215" s="30"/>
-      <c r="E215" s="30"/>
-      <c r="F215" s="30"/>
-      <c r="G215" s="31"/>
-      <c r="H215" s="13"/>
-      <c r="I215" s="13"/>
-      <c r="J215" s="13"/>
-      <c r="K215" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="L215" s="13" t="s">
+      <c r="C215" s="10"/>
+      <c r="D215" s="10"/>
+      <c r="E215" s="10"/>
+      <c r="F215" s="10"/>
+      <c r="G215" s="15"/>
+    </row>
+    <row r="216" spans="2:12">
+      <c r="B216" s="31" t="s">
+        <v>188</v>
+      </c>
+      <c r="C216" s="32"/>
+      <c r="D216" s="32"/>
+      <c r="E216" s="32"/>
+      <c r="F216" s="32"/>
+      <c r="G216" s="34"/>
+      <c r="H216" s="13"/>
+      <c r="I216" s="13"/>
+      <c r="J216" s="13"/>
+      <c r="K216" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="L216" s="13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="217" spans="2:12">
+      <c r="B217" s="31" t="s">
+        <v>189</v>
+      </c>
+      <c r="C217" s="32"/>
+      <c r="D217" s="32"/>
+      <c r="E217" s="32"/>
+      <c r="F217" s="32"/>
+      <c r="G217" s="34"/>
+      <c r="H217" s="13"/>
+      <c r="I217" s="13"/>
+      <c r="J217" s="13"/>
+      <c r="K217" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="L217" s="13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="218" spans="2:12">
+      <c r="B218" s="31" t="s">
+        <v>190</v>
+      </c>
+      <c r="C218" s="32"/>
+      <c r="D218" s="32"/>
+      <c r="E218" s="32"/>
+      <c r="F218" s="32"/>
+      <c r="G218" s="34"/>
+      <c r="H218" s="13"/>
+      <c r="I218" s="13"/>
+      <c r="J218" s="13"/>
+      <c r="K218" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="L218" s="13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="219" spans="2:12">
+      <c r="B219" s="31" t="s">
+        <v>191</v>
+      </c>
+      <c r="C219" s="32"/>
+      <c r="D219" s="32"/>
+      <c r="E219" s="32"/>
+      <c r="F219" s="32"/>
+      <c r="G219" s="34"/>
+      <c r="H219" s="13"/>
+      <c r="I219" s="13"/>
+      <c r="J219" s="13"/>
+      <c r="K219" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="L219" s="13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="220" spans="2:12">
+      <c r="B220" s="31" t="s">
+        <v>192</v>
+      </c>
+      <c r="C220" s="32"/>
+      <c r="D220" s="32"/>
+      <c r="E220" s="32"/>
+      <c r="F220" s="32"/>
+      <c r="G220" s="34"/>
+      <c r="H220" s="13"/>
+      <c r="I220" s="13"/>
+      <c r="J220" s="13"/>
+      <c r="K220" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="L220" s="13" t="s">
         <v>10</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="H1:L215"/>
-  <mergeCells count="180">
+  <autoFilter ref="H1:L220"/>
+  <mergeCells count="185">
     <mergeCell ref="B1:G1"/>
     <mergeCell ref="B2:G2"/>
     <mergeCell ref="B3:G3"/>
@@ -6085,29 +6245,34 @@
     <mergeCell ref="B186:G186"/>
     <mergeCell ref="B188:G188"/>
     <mergeCell ref="B189:G189"/>
+    <mergeCell ref="B191:G191"/>
     <mergeCell ref="B192:G192"/>
     <mergeCell ref="B193:G193"/>
+    <mergeCell ref="B194:G194"/>
     <mergeCell ref="B195:G195"/>
-    <mergeCell ref="B196:G196"/>
     <mergeCell ref="B197:G197"/>
     <mergeCell ref="B198:G198"/>
-    <mergeCell ref="B199:G199"/>
+    <mergeCell ref="B200:G200"/>
     <mergeCell ref="B201:G201"/>
     <mergeCell ref="B202:G202"/>
+    <mergeCell ref="B203:G203"/>
     <mergeCell ref="B204:G204"/>
-    <mergeCell ref="B205:G205"/>
     <mergeCell ref="B206:G206"/>
     <mergeCell ref="B207:G207"/>
-    <mergeCell ref="B208:G208"/>
+    <mergeCell ref="B209:G209"/>
     <mergeCell ref="B210:G210"/>
     <mergeCell ref="B211:G211"/>
     <mergeCell ref="B212:G212"/>
     <mergeCell ref="B213:G213"/>
-    <mergeCell ref="B214:G214"/>
     <mergeCell ref="B215:G215"/>
+    <mergeCell ref="B216:G216"/>
+    <mergeCell ref="B217:G217"/>
+    <mergeCell ref="B218:G218"/>
+    <mergeCell ref="B219:G219"/>
+    <mergeCell ref="B220:G220"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I3 J3 K3 L3 J17 L21 J22 K22:L22 J23 K23:L23 K30 I33 L39 L53 L54 J56 K56 L61 J62 K62 L62 L65 J69 K69 J78:K78 L78 J79:K79 J80:K80 I83 J83 K83 L83 J86 K86 L86 K87:L87 I103 J103 K103:L103 J106 K106 L106 J112 K112 L112 J113 K113 L113 L116 L117 J132 L132 J133 I134 J134 K134 J145 J146 J147 J148 J149 J150 L150 J151 L151 J152 L152 J163 L163 J164 L164 J173:K173 J174 K174 I189 J189 K189 L189 I193 J193 K193:L193 I202 J202 K202:L202 I6:I14 I17:I21 I26:I30 I34:I36 I37:I41 I45:I50 I53:I56 I59:I62 I65:I69 I72:I80 I86:I89 I92:I100 I104:I106 I107:I109 I112:I113 I116:I119 I122:I127 I132:I133 I137:I142 I145:I152 I155:I160 I163:I164 I167:I170 I173:I174 I177:I180 I183:I186 J6:J10 J11:J14 J18:J21 J26:J30 J37:J41 J45:J50 J59:J61 J65:J68 J87:J89 J92:J100 J104:J105 J107:J109 J116:J119 J122:J127 J130:J131 J137:J142 J155:J160 J167:J170 J177:J180 J183:J186 J196:J199 J205:J208 J211:J215 K6:K10 K11:K14 K17:K21 K26:K29 K37:K41 K45:K50 K59:K61 K65:K68 K88:K89 K92:K100 K104:K105 K107:K109 K116:K119 K122:K127 K132:K133 K137:K142 K145:K152 K155:K160 K163:K164 K167:K170 K177:K180 K183:K186 L6:L14 L17:L20 L26:L30 L33:L34 L35:L36 L37:L38 L40:L41 L45:L48 L49:L50 L55:L56 L59:L60 L66:L69 L72:L73 L74:L77 L79:L80 L88:L89 L92:L100 L104:L105 L107:L109 L118:L119 L122:L127 L133:L134 L137:L140 L141:L142 L145:L149 L155:L160 L167:L170 L173:L174 L177:L180 L183:L186 J33:K36 J53:K55 J72:K77 K130:L131 K196:L199 K205:L208 K211:L215">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I3 J3 K3 L3 J17 L21 J22 K22:L22 J23 K23:L23 K30 I33 L39 L53 L54 J56 K56 L61 J62 K62 L62 L65 J69 K69 J78:K78 L78 J79:K79 J80:K80 I83 J83 K83 L83 J86 K86 L86 K87:L87 I103 J103 K103:L103 J106 K106 L106 J112 K112 L112 J113 K113 L113 L116 L117 J132 L132 J133 I134 J134 K134 J145 J146 J147 J148 J149 J150 L150 J151 L151 J152 L152 J163 L163 J164 L164 J173:K173 J174 K174 I189 J189 K189 L189 I198 J198 K198:L198 I207 J207 K207:L207 I6:I14 I17:I21 I26:I30 I34:I36 I37:I41 I45:I50 I53:I56 I59:I62 I65:I69 I72:I80 I86:I89 I92:I100 I104:I106 I107:I109 I112:I113 I116:I119 I122:I127 I132:I133 I137:I142 I145:I152 I155:I160 I163:I164 I167:I170 I173:I174 I177:I180 I183:I186 J6:J10 J11:J14 J18:J21 J26:J30 J37:J41 J45:J50 J59:J61 J65:J68 J87:J89 J92:J100 J104:J105 J107:J109 J116:J119 J122:J127 J130:J131 J137:J142 J155:J160 J167:J170 J177:J180 J183:J186 J192:J195 J201:J204 J210:J213 J216:J220 K6:K10 K11:K14 K17:K21 K26:K29 K37:K41 K45:K50 K59:K61 K65:K68 K88:K89 K92:K100 K104:K105 K107:K109 K116:K119 K122:K127 K132:K133 K137:K142 K145:K152 K155:K160 K163:K164 K167:K170 K177:K180 K183:K186 K192:K195 K201:K204 L6:L14 L17:L20 L26:L30 L33:L34 L35:L36 L37:L38 L40:L41 L45:L48 L49:L50 L55:L56 L59:L60 L66:L69 L72:L73 L74:L77 L79:L80 L88:L89 L92:L100 L104:L105 L107:L109 L118:L119 L122:L127 L133:L134 L137:L140 L141:L142 L145:L149 L155:L160 L167:L170 L173:L174 L177:L180 L183:L186 L192:L195 L201:L204 J33:K36 J53:K55 J72:K77 K130:L131 K210:L213 K216:L220">
       <formula1>$S$3:$S$4</formula1>
     </dataValidation>
   </dataValidations>

--- a/课程跟踪.xlsx
+++ b/课程跟踪.xlsx
@@ -647,13 +647,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -668,79 +661,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -761,10 +683,50 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -777,7 +739,45 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -816,19 +816,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -840,7 +834,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -852,13 +846,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -876,13 +876,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -894,25 +942,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -924,49 +966,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -978,13 +978,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1072,6 +1072,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -1083,24 +1092,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1120,17 +1111,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1142,6 +1122,17 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1160,150 +1151,159 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -5197,8 +5197,8 @@
       <c r="K167" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="L167" s="19" t="s">
-        <v>10</v>
+      <c r="L167" s="17" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="168" ht="20.4" spans="2:12">
@@ -6272,7 +6272,7 @@
     <mergeCell ref="B220:G220"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I3 J3 K3 L3 J17 L21 J22 K22:L22 J23 K23:L23 K30 I33 L39 L53 L54 J56 K56 L61 J62 K62 L62 L65 J69 K69 J78:K78 L78 J79:K79 J80:K80 I83 J83 K83 L83 J86 K86 L86 K87:L87 I103 J103 K103:L103 J106 K106 L106 J112 K112 L112 J113 K113 L113 L116 L117 J132 L132 J133 I134 J134 K134 J145 J146 J147 J148 J149 J150 L150 J151 L151 J152 L152 J163 L163 J164 L164 J173:K173 J174 K174 I189 J189 K189 L189 I198 J198 K198:L198 I207 J207 K207:L207 I6:I14 I17:I21 I26:I30 I34:I36 I37:I41 I45:I50 I53:I56 I59:I62 I65:I69 I72:I80 I86:I89 I92:I100 I104:I106 I107:I109 I112:I113 I116:I119 I122:I127 I132:I133 I137:I142 I145:I152 I155:I160 I163:I164 I167:I170 I173:I174 I177:I180 I183:I186 J6:J10 J11:J14 J18:J21 J26:J30 J37:J41 J45:J50 J59:J61 J65:J68 J87:J89 J92:J100 J104:J105 J107:J109 J116:J119 J122:J127 J130:J131 J137:J142 J155:J160 J167:J170 J177:J180 J183:J186 J192:J195 J201:J204 J210:J213 J216:J220 K6:K10 K11:K14 K17:K21 K26:K29 K37:K41 K45:K50 K59:K61 K65:K68 K88:K89 K92:K100 K104:K105 K107:K109 K116:K119 K122:K127 K132:K133 K137:K142 K145:K152 K155:K160 K163:K164 K167:K170 K177:K180 K183:K186 K192:K195 K201:K204 L6:L14 L17:L20 L26:L30 L33:L34 L35:L36 L37:L38 L40:L41 L45:L48 L49:L50 L55:L56 L59:L60 L66:L69 L72:L73 L74:L77 L79:L80 L88:L89 L92:L100 L104:L105 L107:L109 L118:L119 L122:L127 L133:L134 L137:L140 L141:L142 L145:L149 L155:L160 L167:L170 L173:L174 L177:L180 L183:L186 L192:L195 L201:L204 J33:K36 J53:K55 J72:K77 K130:L131 K210:L213 K216:L220">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I3 J3 K3 L3 J17 L21 J22 K22:L22 J23 K23:L23 K30 I33 L39 L53 L54 J56 K56 L61 J62 K62 L62 L65 J69 K69 J78:K78 L78 J79:K79 J80:K80 I83 J83 K83 L83 J86 K86 L86 K87:L87 I103 J103 K103:L103 J106 K106 L106 J112 K112 L112 J113 K113 L113 L116 L117 J132 L132 J133 I134 J134 K134 J145 J146 J147 J148 J149 J150 L150 J151 L151 J152 L152 J163 L163 J164 L164 L167 J173:K173 J174 K174 I189 J189 K189 L189 I198 J198 K198:L198 I207 J207 K207:L207 I6:I14 I17:I21 I26:I30 I34:I36 I37:I41 I45:I50 I53:I56 I59:I62 I65:I69 I72:I80 I86:I89 I92:I100 I104:I106 I107:I109 I112:I113 I116:I119 I122:I127 I132:I133 I137:I142 I145:I152 I155:I160 I163:I164 I167:I170 I173:I174 I177:I180 I183:I186 J6:J10 J11:J14 J18:J21 J26:J30 J37:J41 J45:J50 J59:J61 J65:J68 J87:J89 J92:J100 J104:J105 J107:J109 J116:J119 J122:J127 J130:J131 J137:J142 J155:J160 J167:J170 J177:J180 J183:J186 J192:J195 J201:J204 J210:J213 J216:J220 K6:K10 K11:K14 K17:K21 K26:K29 K37:K41 K45:K50 K59:K61 K65:K68 K88:K89 K92:K100 K104:K105 K107:K109 K116:K119 K122:K127 K132:K133 K137:K142 K145:K152 K155:K160 K163:K164 K167:K170 K177:K180 K183:K186 K192:K195 K201:K204 L6:L14 L17:L20 L26:L30 L33:L34 L35:L36 L37:L38 L40:L41 L45:L48 L49:L50 L55:L56 L59:L60 L66:L69 L72:L73 L74:L77 L79:L80 L88:L89 L92:L100 L104:L105 L107:L109 L118:L119 L122:L127 L133:L134 L137:L140 L141:L142 L145:L149 L155:L160 L168:L170 L173:L174 L177:L180 L183:L186 L192:L195 L201:L204 J33:K36 J53:K55 J72:K77 K130:L131 K210:L213 K216:L220">
       <formula1>$S$3:$S$4</formula1>
     </dataValidation>
   </dataValidations>

--- a/课程跟踪.xlsx
+++ b/课程跟踪.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21460" windowHeight="11400"/>
+    <workbookView windowWidth="26080" windowHeight="14200"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -604,8 +604,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
@@ -640,7 +640,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -654,37 +654,15 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -699,9 +677,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -709,14 +686,23 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -730,8 +716,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -740,6 +727,28 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -759,31 +768,22 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="35">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -816,13 +816,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="0" tint="-0.15"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -834,7 +882,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -846,103 +894,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -960,13 +924,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -978,13 +984,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1066,8 +1072,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1111,6 +1132,26 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1125,192 +1166,157 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="34" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1380,17 +1386,20 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4472,13 +4481,13 @@
       <c r="E130" s="24"/>
       <c r="F130" s="24"/>
       <c r="G130" s="26"/>
-      <c r="H130" s="19"/>
-      <c r="I130" s="19"/>
-      <c r="J130" s="19"/>
-      <c r="K130" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="L130" s="19" t="s">
+      <c r="H130" s="27"/>
+      <c r="I130" s="27"/>
+      <c r="J130" s="27"/>
+      <c r="K130" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="L130" s="27" t="s">
         <v>10</v>
       </c>
     </row>
@@ -4491,13 +4500,13 @@
       <c r="E131" s="24"/>
       <c r="F131" s="24"/>
       <c r="G131" s="26"/>
-      <c r="H131" s="19"/>
-      <c r="I131" s="19"/>
-      <c r="J131" s="19"/>
-      <c r="K131" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="L131" s="19" t="s">
+      <c r="H131" s="27"/>
+      <c r="I131" s="27"/>
+      <c r="J131" s="27"/>
+      <c r="K131" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="L131" s="27" t="s">
         <v>10</v>
       </c>
     </row>
@@ -4560,7 +4569,7 @@
       <c r="E134" s="21"/>
       <c r="F134" s="21"/>
       <c r="G134" s="22"/>
-      <c r="H134" s="27">
+      <c r="H134" s="28">
         <v>43552</v>
       </c>
       <c r="I134" s="13" t="s">
@@ -4595,7 +4604,7 @@
       <c r="E137" s="21"/>
       <c r="F137" s="21"/>
       <c r="G137" s="22"/>
-      <c r="H137" s="27">
+      <c r="H137" s="28">
         <v>43552</v>
       </c>
       <c r="I137" s="13" t="s">
@@ -4620,7 +4629,7 @@
       <c r="E138" s="21"/>
       <c r="F138" s="21"/>
       <c r="G138" s="22"/>
-      <c r="H138" s="27">
+      <c r="H138" s="28">
         <v>43552</v>
       </c>
       <c r="I138" s="13" t="s">
@@ -4645,7 +4654,7 @@
       <c r="E139" s="21"/>
       <c r="F139" s="21"/>
       <c r="G139" s="22"/>
-      <c r="H139" s="27">
+      <c r="H139" s="28">
         <v>43552</v>
       </c>
       <c r="I139" s="13" t="s">
@@ -4670,7 +4679,7 @@
       <c r="E140" s="21"/>
       <c r="F140" s="21"/>
       <c r="G140" s="22"/>
-      <c r="H140" s="27">
+      <c r="H140" s="28">
         <v>43552</v>
       </c>
       <c r="I140" s="13" t="s">
@@ -4695,7 +4704,7 @@
       <c r="E141" s="21"/>
       <c r="F141" s="21"/>
       <c r="G141" s="22"/>
-      <c r="H141" s="27">
+      <c r="H141" s="28">
         <v>43552</v>
       </c>
       <c r="I141" s="13" t="s">
@@ -4720,7 +4729,7 @@
       <c r="E142" s="21"/>
       <c r="F142" s="21"/>
       <c r="G142" s="22"/>
-      <c r="H142" s="27">
+      <c r="H142" s="28">
         <v>43552</v>
       </c>
       <c r="I142" s="13" t="s">
@@ -4965,7 +4974,7 @@
       <c r="E155" s="21"/>
       <c r="F155" s="21"/>
       <c r="G155" s="22"/>
-      <c r="H155" s="27">
+      <c r="H155" s="28">
         <v>43552</v>
       </c>
       <c r="I155" s="13" t="s">
@@ -4990,7 +4999,7 @@
       <c r="E156" s="21"/>
       <c r="F156" s="21"/>
       <c r="G156" s="22"/>
-      <c r="H156" s="27">
+      <c r="H156" s="28">
         <v>43552</v>
       </c>
       <c r="I156" s="13" t="s">
@@ -5015,7 +5024,7 @@
       <c r="E157" s="21"/>
       <c r="F157" s="21"/>
       <c r="G157" s="22"/>
-      <c r="H157" s="27">
+      <c r="H157" s="28">
         <v>43552</v>
       </c>
       <c r="I157" s="13" t="s">
@@ -5040,7 +5049,7 @@
       <c r="E158" s="21"/>
       <c r="F158" s="21"/>
       <c r="G158" s="22"/>
-      <c r="H158" s="27">
+      <c r="H158" s="28">
         <v>43552</v>
       </c>
       <c r="I158" s="13" t="s">
@@ -5065,7 +5074,7 @@
       <c r="E159" s="21"/>
       <c r="F159" s="21"/>
       <c r="G159" s="22"/>
-      <c r="H159" s="27">
+      <c r="H159" s="28">
         <v>43552</v>
       </c>
       <c r="I159" s="13" t="s">
@@ -5090,7 +5099,7 @@
       <c r="E160" s="21"/>
       <c r="F160" s="21"/>
       <c r="G160" s="22"/>
-      <c r="H160" s="27">
+      <c r="H160" s="28">
         <v>43552</v>
       </c>
       <c r="I160" s="13" t="s">
@@ -5185,7 +5194,7 @@
       <c r="E167" s="21"/>
       <c r="F167" s="21"/>
       <c r="G167" s="22"/>
-      <c r="H167" s="27">
+      <c r="H167" s="28">
         <v>43556</v>
       </c>
       <c r="I167" s="13" t="s">
@@ -5210,7 +5219,7 @@
       <c r="E168" s="21"/>
       <c r="F168" s="21"/>
       <c r="G168" s="22"/>
-      <c r="H168" s="27">
+      <c r="H168" s="28">
         <v>43556</v>
       </c>
       <c r="I168" s="13" t="s">
@@ -5222,8 +5231,8 @@
       <c r="K168" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="L168" s="19" t="s">
-        <v>10</v>
+      <c r="L168" s="17" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="169" ht="20.4" spans="2:12">
@@ -5235,7 +5244,7 @@
       <c r="E169" s="21"/>
       <c r="F169" s="21"/>
       <c r="G169" s="22"/>
-      <c r="H169" s="27">
+      <c r="H169" s="28">
         <v>43556</v>
       </c>
       <c r="I169" s="13" t="s">
@@ -5247,8 +5256,8 @@
       <c r="K169" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="L169" s="19" t="s">
-        <v>10</v>
+      <c r="L169" s="17" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="170" ht="20.4" spans="2:12">
@@ -5260,7 +5269,7 @@
       <c r="E170" s="21"/>
       <c r="F170" s="21"/>
       <c r="G170" s="22"/>
-      <c r="H170" s="27">
+      <c r="H170" s="28">
         <v>43556</v>
       </c>
       <c r="I170" s="13" t="s">
@@ -5272,8 +5281,8 @@
       <c r="K170" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="L170" s="19" t="s">
-        <v>10</v>
+      <c r="L170" s="17" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="172" spans="2:7">
@@ -5355,7 +5364,7 @@
       <c r="E177" s="21"/>
       <c r="F177" s="21"/>
       <c r="G177" s="22"/>
-      <c r="H177" s="27">
+      <c r="H177" s="28">
         <v>43573</v>
       </c>
       <c r="I177" s="13" t="s">
@@ -5380,7 +5389,7 @@
       <c r="E178" s="21"/>
       <c r="F178" s="21"/>
       <c r="G178" s="22"/>
-      <c r="H178" s="27">
+      <c r="H178" s="28">
         <v>43573</v>
       </c>
       <c r="I178" s="13" t="s">
@@ -5405,7 +5414,7 @@
       <c r="E179" s="21"/>
       <c r="F179" s="21"/>
       <c r="G179" s="22"/>
-      <c r="H179" s="27">
+      <c r="H179" s="28">
         <v>43573</v>
       </c>
       <c r="I179" s="13" t="s">
@@ -5430,7 +5439,7 @@
       <c r="E180" s="21"/>
       <c r="F180" s="21"/>
       <c r="G180" s="22"/>
-      <c r="H180" s="27">
+      <c r="H180" s="28">
         <v>43573</v>
       </c>
       <c r="I180" s="13" t="s">
@@ -5465,7 +5474,7 @@
       <c r="E183" s="21"/>
       <c r="F183" s="21"/>
       <c r="G183" s="22"/>
-      <c r="H183" s="27">
+      <c r="H183" s="28">
         <v>43573</v>
       </c>
       <c r="I183" s="13" t="s">
@@ -5490,7 +5499,7 @@
       <c r="E184" s="21"/>
       <c r="F184" s="21"/>
       <c r="G184" s="22"/>
-      <c r="H184" s="27">
+      <c r="H184" s="28">
         <v>43573</v>
       </c>
       <c r="I184" s="13" t="s">
@@ -5515,7 +5524,7 @@
       <c r="E185" s="21"/>
       <c r="F185" s="21"/>
       <c r="G185" s="22"/>
-      <c r="H185" s="27">
+      <c r="H185" s="28">
         <v>43573</v>
       </c>
       <c r="I185" s="13" t="s">
@@ -5540,7 +5549,7 @@
       <c r="E186" s="21"/>
       <c r="F186" s="21"/>
       <c r="G186" s="22"/>
-      <c r="H186" s="27">
+      <c r="H186" s="28">
         <v>43573</v>
       </c>
       <c r="I186" s="13" t="s">
@@ -5584,7 +5593,7 @@
       <c r="J189" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="K189" s="28" t="s">
+      <c r="K189" s="29" t="s">
         <v>9</v>
       </c>
       <c r="L189" s="17" t="s">
@@ -5625,7 +5634,7 @@
       <c r="E192" s="21"/>
       <c r="F192" s="21"/>
       <c r="G192" s="22"/>
-      <c r="H192" s="27">
+      <c r="H192" s="28">
         <v>43576</v>
       </c>
       <c r="I192" s="13"/>
@@ -5649,7 +5658,7 @@
       <c r="E193" s="21"/>
       <c r="F193" s="21"/>
       <c r="G193" s="22"/>
-      <c r="H193" s="27">
+      <c r="H193" s="28">
         <v>43576</v>
       </c>
       <c r="I193" s="13"/>
@@ -5673,7 +5682,7 @@
       <c r="E194" s="21"/>
       <c r="F194" s="21"/>
       <c r="G194" s="22"/>
-      <c r="H194" s="27">
+      <c r="H194" s="28">
         <v>43576</v>
       </c>
       <c r="I194" s="13"/>
@@ -5697,7 +5706,7 @@
       <c r="E195" s="21"/>
       <c r="F195" s="21"/>
       <c r="G195" s="22"/>
-      <c r="H195" s="27">
+      <c r="H195" s="28">
         <v>43576</v>
       </c>
       <c r="I195" s="13"/>
@@ -5773,7 +5782,7 @@
       <c r="E201" s="21"/>
       <c r="F201" s="21"/>
       <c r="G201" s="22"/>
-      <c r="H201" s="27">
+      <c r="H201" s="28">
         <v>43576</v>
       </c>
       <c r="I201" s="13"/>
@@ -5796,7 +5805,7 @@
       <c r="E202" s="21"/>
       <c r="F202" s="21"/>
       <c r="G202" s="22"/>
-      <c r="H202" s="27">
+      <c r="H202" s="28">
         <v>43576</v>
       </c>
       <c r="I202" s="13"/>
@@ -5819,7 +5828,7 @@
       <c r="E203" s="21"/>
       <c r="F203" s="21"/>
       <c r="G203" s="22"/>
-      <c r="H203" s="27">
+      <c r="H203" s="28">
         <v>43576</v>
       </c>
       <c r="I203" s="13"/>
@@ -5842,7 +5851,7 @@
       <c r="E204" s="21"/>
       <c r="F204" s="21"/>
       <c r="G204" s="22"/>
-      <c r="H204" s="27">
+      <c r="H204" s="28">
         <v>43576</v>
       </c>
       <c r="I204" s="13"/>
@@ -5902,14 +5911,14 @@
       <c r="G209" s="15"/>
     </row>
     <row r="210" spans="2:12">
-      <c r="B210" s="29" t="s">
+      <c r="B210" s="30" t="s">
         <v>183</v>
       </c>
-      <c r="C210" s="30"/>
-      <c r="D210" s="30"/>
-      <c r="E210" s="30"/>
-      <c r="F210" s="30"/>
-      <c r="G210" s="33"/>
+      <c r="C210" s="31"/>
+      <c r="D210" s="31"/>
+      <c r="E210" s="31"/>
+      <c r="F210" s="31"/>
+      <c r="G210" s="34"/>
       <c r="H210" s="13"/>
       <c r="I210" s="13"/>
       <c r="J210" s="13"/>
@@ -5921,14 +5930,14 @@
       </c>
     </row>
     <row r="211" spans="2:12">
-      <c r="B211" s="29" t="s">
+      <c r="B211" s="30" t="s">
         <v>184</v>
       </c>
-      <c r="C211" s="30"/>
-      <c r="D211" s="30"/>
-      <c r="E211" s="30"/>
-      <c r="F211" s="30"/>
-      <c r="G211" s="33"/>
+      <c r="C211" s="31"/>
+      <c r="D211" s="31"/>
+      <c r="E211" s="31"/>
+      <c r="F211" s="31"/>
+      <c r="G211" s="34"/>
       <c r="H211" s="13"/>
       <c r="I211" s="13"/>
       <c r="J211" s="13"/>
@@ -5940,14 +5949,14 @@
       </c>
     </row>
     <row r="212" spans="2:12">
-      <c r="B212" s="29" t="s">
+      <c r="B212" s="30" t="s">
         <v>185</v>
       </c>
-      <c r="C212" s="30"/>
-      <c r="D212" s="30"/>
-      <c r="E212" s="30"/>
-      <c r="F212" s="30"/>
-      <c r="G212" s="33"/>
+      <c r="C212" s="31"/>
+      <c r="D212" s="31"/>
+      <c r="E212" s="31"/>
+      <c r="F212" s="31"/>
+      <c r="G212" s="34"/>
       <c r="H212" s="13"/>
       <c r="I212" s="13"/>
       <c r="J212" s="13"/>
@@ -5959,14 +5968,14 @@
       </c>
     </row>
     <row r="213" spans="2:12">
-      <c r="B213" s="29" t="s">
+      <c r="B213" s="30" t="s">
         <v>186</v>
       </c>
-      <c r="C213" s="30"/>
-      <c r="D213" s="30"/>
-      <c r="E213" s="30"/>
-      <c r="F213" s="30"/>
-      <c r="G213" s="33"/>
+      <c r="C213" s="31"/>
+      <c r="D213" s="31"/>
+      <c r="E213" s="31"/>
+      <c r="F213" s="31"/>
+      <c r="G213" s="34"/>
       <c r="H213" s="13"/>
       <c r="I213" s="13"/>
       <c r="J213" s="13"/>
@@ -5988,14 +5997,14 @@
       <c r="G215" s="15"/>
     </row>
     <row r="216" spans="2:12">
-      <c r="B216" s="31" t="s">
+      <c r="B216" s="32" t="s">
         <v>188</v>
       </c>
-      <c r="C216" s="32"/>
-      <c r="D216" s="32"/>
-      <c r="E216" s="32"/>
-      <c r="F216" s="32"/>
-      <c r="G216" s="34"/>
+      <c r="C216" s="33"/>
+      <c r="D216" s="33"/>
+      <c r="E216" s="33"/>
+      <c r="F216" s="33"/>
+      <c r="G216" s="35"/>
       <c r="H216" s="13"/>
       <c r="I216" s="13"/>
       <c r="J216" s="13"/>
@@ -6007,14 +6016,14 @@
       </c>
     </row>
     <row r="217" spans="2:12">
-      <c r="B217" s="31" t="s">
+      <c r="B217" s="32" t="s">
         <v>189</v>
       </c>
-      <c r="C217" s="32"/>
-      <c r="D217" s="32"/>
-      <c r="E217" s="32"/>
-      <c r="F217" s="32"/>
-      <c r="G217" s="34"/>
+      <c r="C217" s="33"/>
+      <c r="D217" s="33"/>
+      <c r="E217" s="33"/>
+      <c r="F217" s="33"/>
+      <c r="G217" s="35"/>
       <c r="H217" s="13"/>
       <c r="I217" s="13"/>
       <c r="J217" s="13"/>
@@ -6026,14 +6035,14 @@
       </c>
     </row>
     <row r="218" spans="2:12">
-      <c r="B218" s="31" t="s">
+      <c r="B218" s="32" t="s">
         <v>190</v>
       </c>
-      <c r="C218" s="32"/>
-      <c r="D218" s="32"/>
-      <c r="E218" s="32"/>
-      <c r="F218" s="32"/>
-      <c r="G218" s="34"/>
+      <c r="C218" s="33"/>
+      <c r="D218" s="33"/>
+      <c r="E218" s="33"/>
+      <c r="F218" s="33"/>
+      <c r="G218" s="35"/>
       <c r="H218" s="13"/>
       <c r="I218" s="13"/>
       <c r="J218" s="13"/>
@@ -6045,14 +6054,14 @@
       </c>
     </row>
     <row r="219" spans="2:12">
-      <c r="B219" s="31" t="s">
+      <c r="B219" s="32" t="s">
         <v>191</v>
       </c>
-      <c r="C219" s="32"/>
-      <c r="D219" s="32"/>
-      <c r="E219" s="32"/>
-      <c r="F219" s="32"/>
-      <c r="G219" s="34"/>
+      <c r="C219" s="33"/>
+      <c r="D219" s="33"/>
+      <c r="E219" s="33"/>
+      <c r="F219" s="33"/>
+      <c r="G219" s="35"/>
       <c r="H219" s="13"/>
       <c r="I219" s="13"/>
       <c r="J219" s="13"/>
@@ -6064,14 +6073,14 @@
       </c>
     </row>
     <row r="220" spans="2:12">
-      <c r="B220" s="31" t="s">
+      <c r="B220" s="32" t="s">
         <v>192</v>
       </c>
-      <c r="C220" s="32"/>
-      <c r="D220" s="32"/>
-      <c r="E220" s="32"/>
-      <c r="F220" s="32"/>
-      <c r="G220" s="34"/>
+      <c r="C220" s="33"/>
+      <c r="D220" s="33"/>
+      <c r="E220" s="33"/>
+      <c r="F220" s="33"/>
+      <c r="G220" s="35"/>
       <c r="H220" s="13"/>
       <c r="I220" s="13"/>
       <c r="J220" s="13"/>

--- a/课程跟踪.xlsx
+++ b/课程跟踪.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="26080" windowHeight="14200"/>
+    <workbookView windowWidth="21200" windowHeight="12600"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -326,6 +326,9 @@
   </si>
   <si>
     <t>【录播】移动专项测试（上）（9分钟）</t>
+  </si>
+  <si>
+    <t>看过但不仔细</t>
   </si>
   <si>
     <t>【录播】移动专项测试（下）（9分钟）</t>
@@ -603,10 +606,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -640,12 +643,73 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -662,23 +726,23 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -692,27 +756,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -725,10 +772,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -738,52 +785,8 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="36">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -816,55 +819,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.15"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -882,7 +843,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -894,13 +861,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -918,19 +933,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -942,13 +957,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -960,7 +975,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -972,25 +987,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1072,8 +1069,58 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1097,22 +1144,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1131,188 +1163,153 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="34" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1386,20 +1383,20 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4124,7 +4121,7 @@
       <c r="F111" s="10"/>
       <c r="G111" s="15"/>
     </row>
-    <row r="112" ht="20.4" spans="1:12">
+    <row r="112" ht="20.4" spans="1:13">
       <c r="A112" s="3">
         <v>75</v>
       </c>
@@ -4148,16 +4145,19 @@
       <c r="K112" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="L112" s="19" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="113" ht="20.4" spans="1:12">
+      <c r="L112" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="M112" s="23" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="113" ht="20.4" spans="1:13">
       <c r="A113" s="3">
         <v>76</v>
       </c>
       <c r="B113" s="20" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C113" s="21"/>
       <c r="D113" s="21"/>
@@ -4176,13 +4176,14 @@
       <c r="K113" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="L113" s="19" t="s">
-        <v>10</v>
-      </c>
+      <c r="L113" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="M113" s="23"/>
     </row>
     <row r="115" spans="2:7">
       <c r="B115" s="9" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C115" s="10"/>
       <c r="D115" s="10"/>
@@ -4195,7 +4196,7 @@
         <v>77</v>
       </c>
       <c r="B116" s="20" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C116" s="21"/>
       <c r="D116" s="21"/>
@@ -4223,7 +4224,7 @@
         <v>78</v>
       </c>
       <c r="B117" s="20" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C117" s="21"/>
       <c r="D117" s="21"/>
@@ -4251,7 +4252,7 @@
         <v>79</v>
       </c>
       <c r="B118" s="20" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C118" s="21"/>
       <c r="D118" s="21"/>
@@ -4279,7 +4280,7 @@
         <v>80</v>
       </c>
       <c r="B119" s="20" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C119" s="21"/>
       <c r="D119" s="21"/>
@@ -4304,7 +4305,7 @@
     </row>
     <row r="121" spans="2:7">
       <c r="B121" s="9" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C121" s="10"/>
       <c r="D121" s="10"/>
@@ -4314,7 +4315,7 @@
     </row>
     <row r="122" ht="20.4" spans="2:12">
       <c r="B122" s="20" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C122" s="21"/>
       <c r="D122" s="21"/>
@@ -4339,7 +4340,7 @@
     </row>
     <row r="123" ht="20.4" spans="2:12">
       <c r="B123" s="20" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C123" s="21"/>
       <c r="D123" s="21"/>
@@ -4364,7 +4365,7 @@
     </row>
     <row r="124" ht="20.4" spans="2:12">
       <c r="B124" s="20" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C124" s="21"/>
       <c r="D124" s="21"/>
@@ -4389,7 +4390,7 @@
     </row>
     <row r="125" ht="20.4" spans="2:12">
       <c r="B125" s="20" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C125" s="21"/>
       <c r="D125" s="21"/>
@@ -4414,7 +4415,7 @@
     </row>
     <row r="126" ht="20.4" spans="2:12">
       <c r="B126" s="20" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C126" s="21"/>
       <c r="D126" s="21"/>
@@ -4439,7 +4440,7 @@
     </row>
     <row r="127" ht="20.4" spans="2:12">
       <c r="B127" s="20" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C127" s="21"/>
       <c r="D127" s="21"/>
@@ -4464,7 +4465,7 @@
     </row>
     <row r="129" spans="2:7">
       <c r="B129" s="9" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C129" s="10"/>
       <c r="D129" s="10"/>
@@ -4473,46 +4474,46 @@
       <c r="G129" s="15"/>
     </row>
     <row r="130" spans="2:12">
-      <c r="B130" s="23" t="s">
-        <v>117</v>
-      </c>
-      <c r="C130" s="24"/>
-      <c r="D130" s="24"/>
-      <c r="E130" s="24"/>
-      <c r="F130" s="24"/>
-      <c r="G130" s="26"/>
-      <c r="H130" s="27"/>
-      <c r="I130" s="27"/>
-      <c r="J130" s="27"/>
-      <c r="K130" s="27" t="s">
-        <v>10</v>
-      </c>
-      <c r="L130" s="27" t="s">
+      <c r="B130" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="C130" s="25"/>
+      <c r="D130" s="25"/>
+      <c r="E130" s="25"/>
+      <c r="F130" s="25"/>
+      <c r="G130" s="27"/>
+      <c r="H130" s="18"/>
+      <c r="I130" s="18"/>
+      <c r="J130" s="18"/>
+      <c r="K130" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="L130" s="18" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="131" spans="2:12">
-      <c r="B131" s="23" t="s">
-        <v>118</v>
-      </c>
-      <c r="C131" s="24"/>
-      <c r="D131" s="24"/>
-      <c r="E131" s="24"/>
-      <c r="F131" s="24"/>
-      <c r="G131" s="26"/>
-      <c r="H131" s="27"/>
-      <c r="I131" s="27"/>
-      <c r="J131" s="27"/>
-      <c r="K131" s="27" t="s">
-        <v>10</v>
-      </c>
-      <c r="L131" s="27" t="s">
+      <c r="B131" s="24" t="s">
+        <v>119</v>
+      </c>
+      <c r="C131" s="25"/>
+      <c r="D131" s="25"/>
+      <c r="E131" s="25"/>
+      <c r="F131" s="25"/>
+      <c r="G131" s="27"/>
+      <c r="H131" s="18"/>
+      <c r="I131" s="18"/>
+      <c r="J131" s="18"/>
+      <c r="K131" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="L131" s="18" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="132" ht="20.4" spans="2:12">
       <c r="B132" s="20" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C132" s="21"/>
       <c r="D132" s="21"/>
@@ -4537,7 +4538,7 @@
     </row>
     <row r="133" ht="20.4" spans="2:12">
       <c r="B133" s="20" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C133" s="21"/>
       <c r="D133" s="21"/>
@@ -4562,7 +4563,7 @@
     </row>
     <row r="134" ht="20.4" spans="2:12">
       <c r="B134" s="20" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C134" s="21"/>
       <c r="D134" s="21"/>
@@ -4587,7 +4588,7 @@
     </row>
     <row r="136" spans="2:7">
       <c r="B136" s="9" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C136" s="10"/>
       <c r="D136" s="10"/>
@@ -4597,7 +4598,7 @@
     </row>
     <row r="137" ht="20.4" spans="2:12">
       <c r="B137" s="20" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C137" s="21"/>
       <c r="D137" s="21"/>
@@ -4622,7 +4623,7 @@
     </row>
     <row r="138" ht="20.4" spans="2:12">
       <c r="B138" s="20" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C138" s="21"/>
       <c r="D138" s="21"/>
@@ -4647,7 +4648,7 @@
     </row>
     <row r="139" ht="20.4" spans="2:12">
       <c r="B139" s="20" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C139" s="21"/>
       <c r="D139" s="21"/>
@@ -4672,7 +4673,7 @@
     </row>
     <row r="140" ht="20.4" spans="2:12">
       <c r="B140" s="20" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C140" s="21"/>
       <c r="D140" s="21"/>
@@ -4697,7 +4698,7 @@
     </row>
     <row r="141" ht="20.4" spans="2:12">
       <c r="B141" s="20" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C141" s="21"/>
       <c r="D141" s="21"/>
@@ -4722,7 +4723,7 @@
     </row>
     <row r="142" ht="20.4" spans="2:12">
       <c r="B142" s="20" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C142" s="21"/>
       <c r="D142" s="21"/>
@@ -4747,7 +4748,7 @@
     </row>
     <row r="144" spans="2:7">
       <c r="B144" s="9" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C144" s="10"/>
       <c r="D144" s="10"/>
@@ -4757,7 +4758,7 @@
     </row>
     <row r="145" ht="20.4" spans="2:12">
       <c r="B145" s="20" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C145" s="21"/>
       <c r="D145" s="21"/>
@@ -4782,7 +4783,7 @@
     </row>
     <row r="146" ht="20.4" spans="2:12">
       <c r="B146" s="20" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C146" s="21"/>
       <c r="D146" s="21"/>
@@ -4807,7 +4808,7 @@
     </row>
     <row r="147" ht="20.4" spans="2:12">
       <c r="B147" s="20" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C147" s="21"/>
       <c r="D147" s="21"/>
@@ -4832,7 +4833,7 @@
     </row>
     <row r="148" ht="20.4" spans="2:12">
       <c r="B148" s="20" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C148" s="21"/>
       <c r="D148" s="21"/>
@@ -4857,7 +4858,7 @@
     </row>
     <row r="149" ht="20.4" spans="2:12">
       <c r="B149" s="20" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C149" s="21"/>
       <c r="D149" s="21"/>
@@ -4882,7 +4883,7 @@
     </row>
     <row r="150" ht="20.4" spans="2:12">
       <c r="B150" s="20" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C150" s="21"/>
       <c r="D150" s="21"/>
@@ -4907,7 +4908,7 @@
     </row>
     <row r="151" ht="20.4" spans="2:12">
       <c r="B151" s="20" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C151" s="21"/>
       <c r="D151" s="21"/>
@@ -4932,7 +4933,7 @@
     </row>
     <row r="152" ht="20.4" spans="2:12">
       <c r="B152" s="20" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C152" s="21"/>
       <c r="D152" s="21"/>
@@ -4957,7 +4958,7 @@
     </row>
     <row r="154" spans="2:7">
       <c r="B154" s="9" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C154" s="10"/>
       <c r="D154" s="10"/>
@@ -4967,7 +4968,7 @@
     </row>
     <row r="155" ht="20.4" spans="2:12">
       <c r="B155" s="20" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C155" s="21"/>
       <c r="D155" s="21"/>
@@ -4992,7 +4993,7 @@
     </row>
     <row r="156" ht="20.4" spans="2:12">
       <c r="B156" s="20" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C156" s="21"/>
       <c r="D156" s="21"/>
@@ -5017,7 +5018,7 @@
     </row>
     <row r="157" ht="20.4" spans="2:12">
       <c r="B157" s="20" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C157" s="21"/>
       <c r="D157" s="21"/>
@@ -5042,7 +5043,7 @@
     </row>
     <row r="158" ht="20.4" spans="2:12">
       <c r="B158" s="20" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C158" s="21"/>
       <c r="D158" s="21"/>
@@ -5067,7 +5068,7 @@
     </row>
     <row r="159" ht="20.4" spans="2:12">
       <c r="B159" s="20" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C159" s="21"/>
       <c r="D159" s="21"/>
@@ -5092,7 +5093,7 @@
     </row>
     <row r="160" ht="20.4" spans="2:12">
       <c r="B160" s="20" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C160" s="21"/>
       <c r="D160" s="21"/>
@@ -5117,7 +5118,7 @@
     </row>
     <row r="162" spans="2:7">
       <c r="B162" s="9" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C162" s="10"/>
       <c r="D162" s="10"/>
@@ -5127,7 +5128,7 @@
     </row>
     <row r="163" ht="20.4" spans="2:12">
       <c r="B163" s="20" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C163" s="21"/>
       <c r="D163" s="21"/>
@@ -5152,7 +5153,7 @@
     </row>
     <row r="164" ht="20.4" spans="2:12">
       <c r="B164" s="20" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C164" s="21"/>
       <c r="D164" s="21"/>
@@ -5177,7 +5178,7 @@
     </row>
     <row r="166" spans="2:7">
       <c r="B166" s="9" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C166" s="10"/>
       <c r="D166" s="10"/>
@@ -5187,7 +5188,7 @@
     </row>
     <row r="167" ht="20.4" spans="2:12">
       <c r="B167" s="20" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C167" s="21"/>
       <c r="D167" s="21"/>
@@ -5212,7 +5213,7 @@
     </row>
     <row r="168" ht="20.4" spans="2:12">
       <c r="B168" s="20" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C168" s="21"/>
       <c r="D168" s="21"/>
@@ -5237,7 +5238,7 @@
     </row>
     <row r="169" ht="20.4" spans="2:12">
       <c r="B169" s="20" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C169" s="21"/>
       <c r="D169" s="21"/>
@@ -5262,7 +5263,7 @@
     </row>
     <row r="170" ht="20.4" spans="2:12">
       <c r="B170" s="20" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C170" s="21"/>
       <c r="D170" s="21"/>
@@ -5287,7 +5288,7 @@
     </row>
     <row r="172" spans="2:7">
       <c r="B172" s="9" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C172" s="10"/>
       <c r="D172" s="10"/>
@@ -5297,7 +5298,7 @@
     </row>
     <row r="173" ht="20.4" spans="2:12">
       <c r="B173" s="20" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C173" s="21"/>
       <c r="D173" s="21"/>
@@ -5322,7 +5323,7 @@
     </row>
     <row r="174" ht="20.4" spans="2:12">
       <c r="B174" s="20" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C174" s="21"/>
       <c r="D174" s="21"/>
@@ -5347,7 +5348,7 @@
     </row>
     <row r="176" spans="2:7">
       <c r="B176" s="9" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C176" s="10"/>
       <c r="D176" s="10"/>
@@ -5357,7 +5358,7 @@
     </row>
     <row r="177" ht="20.4" spans="2:12">
       <c r="B177" s="20" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C177" s="21"/>
       <c r="D177" s="21"/>
@@ -5382,7 +5383,7 @@
     </row>
     <row r="178" ht="20.4" spans="2:12">
       <c r="B178" s="20" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C178" s="21"/>
       <c r="D178" s="21"/>
@@ -5407,7 +5408,7 @@
     </row>
     <row r="179" ht="20.4" spans="2:12">
       <c r="B179" s="20" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C179" s="21"/>
       <c r="D179" s="21"/>
@@ -5432,7 +5433,7 @@
     </row>
     <row r="180" ht="20.4" spans="2:12">
       <c r="B180" s="20" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C180" s="21"/>
       <c r="D180" s="21"/>
@@ -5457,7 +5458,7 @@
     </row>
     <row r="182" spans="2:7">
       <c r="B182" s="9" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C182" s="10"/>
       <c r="D182" s="10"/>
@@ -5467,7 +5468,7 @@
     </row>
     <row r="183" ht="20.4" spans="2:12">
       <c r="B183" s="20" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C183" s="21"/>
       <c r="D183" s="21"/>
@@ -5492,7 +5493,7 @@
     </row>
     <row r="184" ht="20.4" spans="2:12">
       <c r="B184" s="20" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C184" s="21"/>
       <c r="D184" s="21"/>
@@ -5517,7 +5518,7 @@
     </row>
     <row r="185" ht="20.4" spans="2:12">
       <c r="B185" s="20" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C185" s="21"/>
       <c r="D185" s="21"/>
@@ -5542,7 +5543,7 @@
     </row>
     <row r="186" ht="20.4" spans="2:12">
       <c r="B186" s="20" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C186" s="21"/>
       <c r="D186" s="21"/>
@@ -5567,7 +5568,7 @@
     </row>
     <row r="188" spans="2:7">
       <c r="B188" s="9" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C188" s="10"/>
       <c r="D188" s="10"/>
@@ -5577,7 +5578,7 @@
     </row>
     <row r="189" ht="20.4" spans="2:12">
       <c r="B189" s="20" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C189" s="21"/>
       <c r="D189" s="21"/>
@@ -5601,17 +5602,17 @@
       </c>
     </row>
     <row r="190" s="2" customFormat="1" spans="1:12">
-      <c r="A190" s="25"/>
-      <c r="H190" s="25"/>
-      <c r="I190" s="25"/>
-      <c r="J190" s="25"/>
-      <c r="K190" s="25"/>
-      <c r="L190" s="25"/>
+      <c r="A190" s="26"/>
+      <c r="H190" s="26"/>
+      <c r="I190" s="26"/>
+      <c r="J190" s="26"/>
+      <c r="K190" s="26"/>
+      <c r="L190" s="26"/>
     </row>
     <row r="191" s="2" customFormat="1" spans="1:12">
-      <c r="A191" s="25"/>
+      <c r="A191" s="26"/>
       <c r="B191" s="9" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C191" s="10"/>
       <c r="D191" s="10"/>
@@ -5625,9 +5626,9 @@
       <c r="L191" s="3"/>
     </row>
     <row r="192" s="2" customFormat="1" ht="20.4" spans="1:12">
-      <c r="A192" s="25"/>
+      <c r="A192" s="26"/>
       <c r="B192" s="20" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C192" s="21"/>
       <c r="D192" s="21"/>
@@ -5649,9 +5650,9 @@
       </c>
     </row>
     <row r="193" s="2" customFormat="1" ht="20.4" spans="1:12">
-      <c r="A193" s="25"/>
+      <c r="A193" s="26"/>
       <c r="B193" s="20" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C193" s="21"/>
       <c r="D193" s="21"/>
@@ -5673,9 +5674,9 @@
       </c>
     </row>
     <row r="194" s="2" customFormat="1" ht="20.4" spans="1:12">
-      <c r="A194" s="25"/>
+      <c r="A194" s="26"/>
       <c r="B194" s="20" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C194" s="21"/>
       <c r="D194" s="21"/>
@@ -5697,9 +5698,9 @@
       </c>
     </row>
     <row r="195" s="2" customFormat="1" ht="20.4" spans="1:12">
-      <c r="A195" s="25"/>
+      <c r="A195" s="26"/>
       <c r="B195" s="20" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C195" s="21"/>
       <c r="D195" s="21"/>
@@ -5721,16 +5722,16 @@
       </c>
     </row>
     <row r="196" s="2" customFormat="1" spans="1:12">
-      <c r="A196" s="25"/>
-      <c r="H196" s="25"/>
-      <c r="I196" s="25"/>
-      <c r="J196" s="25"/>
-      <c r="K196" s="25"/>
-      <c r="L196" s="25"/>
+      <c r="A196" s="26"/>
+      <c r="H196" s="26"/>
+      <c r="I196" s="26"/>
+      <c r="J196" s="26"/>
+      <c r="K196" s="26"/>
+      <c r="L196" s="26"/>
     </row>
     <row r="197" spans="2:7">
       <c r="B197" s="9" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C197" s="10"/>
       <c r="D197" s="10"/>
@@ -5740,7 +5741,7 @@
     </row>
     <row r="198" ht="20.4" spans="2:12">
       <c r="B198" s="20" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C198" s="21"/>
       <c r="D198" s="21"/>
@@ -5765,7 +5766,7 @@
     </row>
     <row r="200" spans="2:7">
       <c r="B200" s="9" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C200" s="10"/>
       <c r="D200" s="10"/>
@@ -5775,7 +5776,7 @@
     </row>
     <row r="201" ht="20.4" spans="2:12">
       <c r="B201" s="20" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C201" s="21"/>
       <c r="D201" s="21"/>
@@ -5798,7 +5799,7 @@
     </row>
     <row r="202" ht="20.4" spans="2:12">
       <c r="B202" s="20" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C202" s="21"/>
       <c r="D202" s="21"/>
@@ -5821,7 +5822,7 @@
     </row>
     <row r="203" ht="20.4" spans="2:12">
       <c r="B203" s="20" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C203" s="21"/>
       <c r="D203" s="21"/>
@@ -5844,7 +5845,7 @@
     </row>
     <row r="204" ht="20.4" spans="2:12">
       <c r="B204" s="20" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C204" s="21"/>
       <c r="D204" s="21"/>
@@ -5867,7 +5868,7 @@
     </row>
     <row r="206" spans="2:7">
       <c r="B206" s="9" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C206" s="10"/>
       <c r="D206" s="10"/>
@@ -5877,7 +5878,7 @@
     </row>
     <row r="207" ht="20.4" spans="2:12">
       <c r="B207" s="20" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C207" s="21"/>
       <c r="D207" s="21"/>
@@ -5902,7 +5903,7 @@
     </row>
     <row r="209" spans="2:7">
       <c r="B209" s="9" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C209" s="10"/>
       <c r="D209" s="10"/>
@@ -5912,7 +5913,7 @@
     </row>
     <row r="210" spans="2:12">
       <c r="B210" s="30" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C210" s="31"/>
       <c r="D210" s="31"/>
@@ -5931,7 +5932,7 @@
     </row>
     <row r="211" spans="2:12">
       <c r="B211" s="30" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C211" s="31"/>
       <c r="D211" s="31"/>
@@ -5950,7 +5951,7 @@
     </row>
     <row r="212" spans="2:12">
       <c r="B212" s="30" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C212" s="31"/>
       <c r="D212" s="31"/>
@@ -5969,7 +5970,7 @@
     </row>
     <row r="213" spans="2:12">
       <c r="B213" s="30" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C213" s="31"/>
       <c r="D213" s="31"/>
@@ -5988,7 +5989,7 @@
     </row>
     <row r="215" spans="2:7">
       <c r="B215" s="9" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C215" s="10"/>
       <c r="D215" s="10"/>
@@ -5998,7 +5999,7 @@
     </row>
     <row r="216" spans="2:12">
       <c r="B216" s="32" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C216" s="33"/>
       <c r="D216" s="33"/>
@@ -6017,7 +6018,7 @@
     </row>
     <row r="217" spans="2:12">
       <c r="B217" s="32" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C217" s="33"/>
       <c r="D217" s="33"/>
@@ -6036,7 +6037,7 @@
     </row>
     <row r="218" spans="2:12">
       <c r="B218" s="32" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C218" s="33"/>
       <c r="D218" s="33"/>
@@ -6055,7 +6056,7 @@
     </row>
     <row r="219" spans="2:12">
       <c r="B219" s="32" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C219" s="33"/>
       <c r="D219" s="33"/>
@@ -6074,7 +6075,7 @@
     </row>
     <row r="220" spans="2:12">
       <c r="B220" s="32" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C220" s="33"/>
       <c r="D220" s="33"/>
@@ -6093,7 +6094,7 @@
     </row>
   </sheetData>
   <autoFilter ref="H1:L220"/>
-  <mergeCells count="185">
+  <mergeCells count="186">
     <mergeCell ref="B1:G1"/>
     <mergeCell ref="B2:G2"/>
     <mergeCell ref="B3:G3"/>
@@ -6279,9 +6280,10 @@
     <mergeCell ref="B218:G218"/>
     <mergeCell ref="B219:G219"/>
     <mergeCell ref="B220:G220"/>
+    <mergeCell ref="M112:M113"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I3 J3 K3 L3 J17 L21 J22 K22:L22 J23 K23:L23 K30 I33 L39 L53 L54 J56 K56 L61 J62 K62 L62 L65 J69 K69 J78:K78 L78 J79:K79 J80:K80 I83 J83 K83 L83 J86 K86 L86 K87:L87 I103 J103 K103:L103 J106 K106 L106 J112 K112 L112 J113 K113 L113 L116 L117 J132 L132 J133 I134 J134 K134 J145 J146 J147 J148 J149 J150 L150 J151 L151 J152 L152 J163 L163 J164 L164 L167 J173:K173 J174 K174 I189 J189 K189 L189 I198 J198 K198:L198 I207 J207 K207:L207 I6:I14 I17:I21 I26:I30 I34:I36 I37:I41 I45:I50 I53:I56 I59:I62 I65:I69 I72:I80 I86:I89 I92:I100 I104:I106 I107:I109 I112:I113 I116:I119 I122:I127 I132:I133 I137:I142 I145:I152 I155:I160 I163:I164 I167:I170 I173:I174 I177:I180 I183:I186 J6:J10 J11:J14 J18:J21 J26:J30 J37:J41 J45:J50 J59:J61 J65:J68 J87:J89 J92:J100 J104:J105 J107:J109 J116:J119 J122:J127 J130:J131 J137:J142 J155:J160 J167:J170 J177:J180 J183:J186 J192:J195 J201:J204 J210:J213 J216:J220 K6:K10 K11:K14 K17:K21 K26:K29 K37:K41 K45:K50 K59:K61 K65:K68 K88:K89 K92:K100 K104:K105 K107:K109 K116:K119 K122:K127 K132:K133 K137:K142 K145:K152 K155:K160 K163:K164 K167:K170 K177:K180 K183:K186 K192:K195 K201:K204 L6:L14 L17:L20 L26:L30 L33:L34 L35:L36 L37:L38 L40:L41 L45:L48 L49:L50 L55:L56 L59:L60 L66:L69 L72:L73 L74:L77 L79:L80 L88:L89 L92:L100 L104:L105 L107:L109 L118:L119 L122:L127 L133:L134 L137:L140 L141:L142 L145:L149 L155:L160 L168:L170 L173:L174 L177:L180 L183:L186 L192:L195 L201:L204 J33:K36 J53:K55 J72:K77 K130:L131 K210:L213 K216:L220">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I3 J3 K3 L3 J17 L21 J22 K22:L22 J23 K23:L23 K30 I33 L39 L53 L54 J56 K56 L61 J62 K62 L62 L65 J69 K69 J78:K78 L78 J79:K79 J80:K80 I83 J83 K83 L83 J86 K86 L86 K87:L87 I103 J103 K103:L103 J106 K106 L106 J112 K112 J113 K113 L116 L117 J132 L132 J133 I134 J134 K134 J145 J146 J147 J148 J149 J150 L150 J151 L151 J152 L152 J163 L163 J164 L164 L167 J173:K173 J174 K174 I189 J189 K189 L189 I198 J198 K198:L198 I207 J207 K207:L207 I6:I14 I17:I21 I26:I30 I34:I36 I37:I41 I45:I50 I53:I56 I59:I62 I65:I69 I72:I80 I86:I89 I92:I100 I104:I106 I107:I109 I112:I113 I116:I119 I122:I127 I132:I133 I137:I142 I145:I152 I155:I160 I163:I164 I167:I170 I173:I174 I177:I180 I183:I186 J6:J10 J11:J14 J18:J21 J26:J30 J37:J41 J45:J50 J59:J61 J65:J68 J87:J89 J92:J100 J104:J105 J107:J109 J116:J119 J122:J127 J130:J131 J137:J142 J155:J160 J167:J170 J177:J180 J183:J186 J192:J195 J201:J204 J210:J213 J216:J220 K6:K10 K11:K14 K17:K21 K26:K29 K37:K41 K45:K50 K59:K61 K65:K68 K88:K89 K92:K100 K104:K105 K107:K109 K116:K119 K122:K127 K132:K133 K137:K142 K145:K152 K155:K160 K163:K164 K167:K170 K177:K180 K183:K186 K192:K195 K201:K204 L6:L14 L17:L20 L26:L30 L33:L34 L35:L36 L37:L38 L40:L41 L45:L48 L49:L50 L55:L56 L59:L60 L66:L69 L72:L73 L74:L77 L79:L80 L88:L89 L92:L100 L104:L105 L107:L109 L112:L113 L118:L119 L122:L127 L133:L134 L137:L140 L141:L142 L145:L149 L155:L160 L168:L170 L173:L174 L177:L180 L183:L186 L192:L195 L201:L204 J33:K36 J53:K55 J72:K77 K130:L131 K210:L213 K216:L220">
       <formula1>$S$3:$S$4</formula1>
     </dataValidation>
   </dataValidations>

--- a/课程跟踪.xlsx
+++ b/课程跟踪.xlsx
@@ -4,20 +4,20 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21200" windowHeight="12600"/>
+    <workbookView windowWidth="25660" windowHeight="15920"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$H$1:$L$220</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$H$1:$L$221</definedName>
   </definedNames>
   <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -560,6 +560,9 @@
   </si>
   <si>
     <t>【直播】代码审计实战与代码覆盖率统计实战（八）(4月14日 17:00-18:00)</t>
+  </si>
+  <si>
+    <t>【直播】代码审计实战与代码覆盖率统计实战（九）(5月12日 17:00-18:00)</t>
   </si>
   <si>
     <t>31 测试平台与质量监控</t>
@@ -606,10 +609,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -649,8 +652,116 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -665,122 +776,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -819,7 +822,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -831,7 +840,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -843,19 +906,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -867,7 +930,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -885,13 +978,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -903,91 +990,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1069,8 +1072,53 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1094,22 +1142,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1125,41 +1158,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1168,152 +1171,152 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1404,19 +1407,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1741,7 +1735,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:S220"/>
+  <dimension ref="A1:S221"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -5643,7 +5637,7 @@
         <v>9</v>
       </c>
       <c r="K192" s="13" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L192" s="19" t="s">
         <v>10</v>
@@ -5667,7 +5661,7 @@
         <v>9</v>
       </c>
       <c r="K193" s="13" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L193" s="19" t="s">
         <v>10</v>
@@ -5691,7 +5685,7 @@
         <v>9</v>
       </c>
       <c r="K194" s="13" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L194" s="19" t="s">
         <v>10</v>
@@ -5715,7 +5709,7 @@
         <v>9</v>
       </c>
       <c r="K195" s="13" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L195" s="19" t="s">
         <v>10</v>
@@ -5791,7 +5785,7 @@
         <v>9</v>
       </c>
       <c r="K201" s="13" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L201" s="19" t="s">
         <v>10</v>
@@ -5814,7 +5808,7 @@
         <v>9</v>
       </c>
       <c r="K202" s="13" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L202" s="19" t="s">
         <v>10</v>
@@ -5837,7 +5831,7 @@
         <v>9</v>
       </c>
       <c r="K203" s="13" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L203" s="19" t="s">
         <v>10</v>
@@ -5860,171 +5854,191 @@
         <v>9</v>
       </c>
       <c r="K204" s="13" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L204" s="19" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="206" spans="2:7">
-      <c r="B206" s="9" t="s">
+    <row r="205" ht="20.4" spans="2:12">
+      <c r="B205" s="20" t="s">
         <v>181</v>
       </c>
-      <c r="C206" s="10"/>
-      <c r="D206" s="10"/>
-      <c r="E206" s="10"/>
-      <c r="F206" s="10"/>
-      <c r="G206" s="15"/>
-    </row>
-    <row r="207" ht="20.4" spans="2:12">
-      <c r="B207" s="20" t="s">
+      <c r="C205" s="21"/>
+      <c r="D205" s="21"/>
+      <c r="E205" s="21"/>
+      <c r="F205" s="21"/>
+      <c r="G205" s="22"/>
+      <c r="H205" s="28">
+        <v>43626</v>
+      </c>
+      <c r="I205" s="13"/>
+      <c r="J205" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="K205" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="L205" s="19" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="207" spans="2:7">
+      <c r="B207" s="9" t="s">
         <v>182</v>
       </c>
-      <c r="C207" s="21"/>
-      <c r="D207" s="21"/>
-      <c r="E207" s="21"/>
-      <c r="F207" s="21"/>
-      <c r="G207" s="22"/>
-      <c r="H207" s="14">
+      <c r="C207" s="10"/>
+      <c r="D207" s="10"/>
+      <c r="E207" s="10"/>
+      <c r="F207" s="10"/>
+      <c r="G207" s="15"/>
+    </row>
+    <row r="208" ht="20.4" spans="2:12">
+      <c r="B208" s="20" t="s">
+        <v>183</v>
+      </c>
+      <c r="C208" s="21"/>
+      <c r="D208" s="21"/>
+      <c r="E208" s="21"/>
+      <c r="F208" s="21"/>
+      <c r="G208" s="22"/>
+      <c r="H208" s="14">
         <v>43451</v>
       </c>
-      <c r="I207" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="J207" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="K207" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="L207" s="19" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="209" spans="2:7">
-      <c r="B209" s="9" t="s">
-        <v>183</v>
-      </c>
-      <c r="C209" s="10"/>
-      <c r="D209" s="10"/>
-      <c r="E209" s="10"/>
-      <c r="F209" s="10"/>
-      <c r="G209" s="15"/>
-    </row>
-    <row r="210" spans="2:12">
-      <c r="B210" s="30" t="s">
+      <c r="I208" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="J208" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="K208" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="L208" s="19" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="210" spans="2:7">
+      <c r="B210" s="9" t="s">
         <v>184</v>
       </c>
-      <c r="C210" s="31"/>
-      <c r="D210" s="31"/>
-      <c r="E210" s="31"/>
-      <c r="F210" s="31"/>
-      <c r="G210" s="34"/>
-      <c r="H210" s="13"/>
-      <c r="I210" s="13"/>
-      <c r="J210" s="13"/>
-      <c r="K210" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="L210" s="13" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="211" spans="2:12">
-      <c r="B211" s="30" t="s">
+      <c r="C210" s="10"/>
+      <c r="D210" s="10"/>
+      <c r="E210" s="10"/>
+      <c r="F210" s="10"/>
+      <c r="G210" s="15"/>
+    </row>
+    <row r="211" ht="20.4" spans="2:12">
+      <c r="B211" s="20" t="s">
         <v>185</v>
       </c>
-      <c r="C211" s="31"/>
-      <c r="D211" s="31"/>
-      <c r="E211" s="31"/>
-      <c r="F211" s="31"/>
-      <c r="G211" s="34"/>
-      <c r="H211" s="13"/>
+      <c r="C211" s="21"/>
+      <c r="D211" s="21"/>
+      <c r="E211" s="21"/>
+      <c r="F211" s="21"/>
+      <c r="G211" s="22"/>
+      <c r="H211" s="28">
+        <v>43626</v>
+      </c>
       <c r="I211" s="13"/>
-      <c r="J211" s="13"/>
+      <c r="J211" s="13" t="s">
+        <v>9</v>
+      </c>
       <c r="K211" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="L211" s="13" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="212" spans="2:12">
-      <c r="B212" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="L211" s="19" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="212" ht="20.4" spans="2:12">
+      <c r="B212" s="20" t="s">
         <v>186</v>
       </c>
-      <c r="C212" s="31"/>
-      <c r="D212" s="31"/>
-      <c r="E212" s="31"/>
-      <c r="F212" s="31"/>
-      <c r="G212" s="34"/>
-      <c r="H212" s="13"/>
+      <c r="C212" s="21"/>
+      <c r="D212" s="21"/>
+      <c r="E212" s="21"/>
+      <c r="F212" s="21"/>
+      <c r="G212" s="22"/>
+      <c r="H212" s="28">
+        <v>43626</v>
+      </c>
       <c r="I212" s="13"/>
-      <c r="J212" s="13"/>
+      <c r="J212" s="13" t="s">
+        <v>9</v>
+      </c>
       <c r="K212" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="L212" s="13" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="213" spans="2:12">
-      <c r="B213" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="L212" s="19" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="213" ht="20.4" spans="2:12">
+      <c r="B213" s="20" t="s">
         <v>187</v>
       </c>
-      <c r="C213" s="31"/>
-      <c r="D213" s="31"/>
-      <c r="E213" s="31"/>
-      <c r="F213" s="31"/>
-      <c r="G213" s="34"/>
-      <c r="H213" s="13"/>
+      <c r="C213" s="21"/>
+      <c r="D213" s="21"/>
+      <c r="E213" s="21"/>
+      <c r="F213" s="21"/>
+      <c r="G213" s="22"/>
+      <c r="H213" s="28">
+        <v>43626</v>
+      </c>
       <c r="I213" s="13"/>
-      <c r="J213" s="13"/>
+      <c r="J213" s="13" t="s">
+        <v>9</v>
+      </c>
       <c r="K213" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="L213" s="13" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="215" spans="2:7">
-      <c r="B215" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="L213" s="19" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="214" ht="20.4" spans="2:12">
+      <c r="B214" s="20" t="s">
         <v>188</v>
       </c>
-      <c r="C215" s="10"/>
-      <c r="D215" s="10"/>
-      <c r="E215" s="10"/>
-      <c r="F215" s="10"/>
-      <c r="G215" s="15"/>
-    </row>
-    <row r="216" spans="2:12">
-      <c r="B216" s="32" t="s">
+      <c r="C214" s="21"/>
+      <c r="D214" s="21"/>
+      <c r="E214" s="21"/>
+      <c r="F214" s="21"/>
+      <c r="G214" s="22"/>
+      <c r="H214" s="28">
+        <v>43626</v>
+      </c>
+      <c r="I214" s="13"/>
+      <c r="J214" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="K214" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="L214" s="19" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="216" spans="2:7">
+      <c r="B216" s="9" t="s">
         <v>189</v>
       </c>
-      <c r="C216" s="33"/>
-      <c r="D216" s="33"/>
-      <c r="E216" s="33"/>
-      <c r="F216" s="33"/>
-      <c r="G216" s="35"/>
-      <c r="H216" s="13"/>
-      <c r="I216" s="13"/>
-      <c r="J216" s="13"/>
-      <c r="K216" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="L216" s="13" t="s">
-        <v>10</v>
-      </c>
+      <c r="C216" s="10"/>
+      <c r="D216" s="10"/>
+      <c r="E216" s="10"/>
+      <c r="F216" s="10"/>
+      <c r="G216" s="15"/>
     </row>
     <row r="217" spans="2:12">
-      <c r="B217" s="32" t="s">
+      <c r="B217" s="30" t="s">
         <v>190</v>
       </c>
-      <c r="C217" s="33"/>
-      <c r="D217" s="33"/>
-      <c r="E217" s="33"/>
-      <c r="F217" s="33"/>
-      <c r="G217" s="35"/>
+      <c r="C217" s="31"/>
+      <c r="D217" s="31"/>
+      <c r="E217" s="31"/>
+      <c r="F217" s="31"/>
+      <c r="G217" s="32"/>
       <c r="H217" s="13"/>
       <c r="I217" s="13"/>
       <c r="J217" s="13"/>
@@ -6036,14 +6050,14 @@
       </c>
     </row>
     <row r="218" spans="2:12">
-      <c r="B218" s="32" t="s">
+      <c r="B218" s="30" t="s">
         <v>191</v>
       </c>
-      <c r="C218" s="33"/>
-      <c r="D218" s="33"/>
-      <c r="E218" s="33"/>
-      <c r="F218" s="33"/>
-      <c r="G218" s="35"/>
+      <c r="C218" s="31"/>
+      <c r="D218" s="31"/>
+      <c r="E218" s="31"/>
+      <c r="F218" s="31"/>
+      <c r="G218" s="32"/>
       <c r="H218" s="13"/>
       <c r="I218" s="13"/>
       <c r="J218" s="13"/>
@@ -6055,14 +6069,14 @@
       </c>
     </row>
     <row r="219" spans="2:12">
-      <c r="B219" s="32" t="s">
+      <c r="B219" s="30" t="s">
         <v>192</v>
       </c>
-      <c r="C219" s="33"/>
-      <c r="D219" s="33"/>
-      <c r="E219" s="33"/>
-      <c r="F219" s="33"/>
-      <c r="G219" s="35"/>
+      <c r="C219" s="31"/>
+      <c r="D219" s="31"/>
+      <c r="E219" s="31"/>
+      <c r="F219" s="31"/>
+      <c r="G219" s="32"/>
       <c r="H219" s="13"/>
       <c r="I219" s="13"/>
       <c r="J219" s="13"/>
@@ -6074,14 +6088,14 @@
       </c>
     </row>
     <row r="220" spans="2:12">
-      <c r="B220" s="32" t="s">
+      <c r="B220" s="30" t="s">
         <v>193</v>
       </c>
-      <c r="C220" s="33"/>
-      <c r="D220" s="33"/>
-      <c r="E220" s="33"/>
-      <c r="F220" s="33"/>
-      <c r="G220" s="35"/>
+      <c r="C220" s="31"/>
+      <c r="D220" s="31"/>
+      <c r="E220" s="31"/>
+      <c r="F220" s="31"/>
+      <c r="G220" s="32"/>
       <c r="H220" s="13"/>
       <c r="I220" s="13"/>
       <c r="J220" s="13"/>
@@ -6092,9 +6106,28 @@
         <v>10</v>
       </c>
     </row>
+    <row r="221" spans="2:12">
+      <c r="B221" s="30" t="s">
+        <v>194</v>
+      </c>
+      <c r="C221" s="31"/>
+      <c r="D221" s="31"/>
+      <c r="E221" s="31"/>
+      <c r="F221" s="31"/>
+      <c r="G221" s="32"/>
+      <c r="H221" s="13"/>
+      <c r="I221" s="13"/>
+      <c r="J221" s="13"/>
+      <c r="K221" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="L221" s="13" t="s">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="H1:L220"/>
-  <mergeCells count="186">
+  <autoFilter ref="H1:L221"/>
+  <mergeCells count="187">
     <mergeCell ref="B1:G1"/>
     <mergeCell ref="B2:G2"/>
     <mergeCell ref="B3:G3"/>
@@ -6267,23 +6300,24 @@
     <mergeCell ref="B202:G202"/>
     <mergeCell ref="B203:G203"/>
     <mergeCell ref="B204:G204"/>
-    <mergeCell ref="B206:G206"/>
+    <mergeCell ref="B205:G205"/>
     <mergeCell ref="B207:G207"/>
-    <mergeCell ref="B209:G209"/>
+    <mergeCell ref="B208:G208"/>
     <mergeCell ref="B210:G210"/>
     <mergeCell ref="B211:G211"/>
     <mergeCell ref="B212:G212"/>
     <mergeCell ref="B213:G213"/>
-    <mergeCell ref="B215:G215"/>
+    <mergeCell ref="B214:G214"/>
     <mergeCell ref="B216:G216"/>
     <mergeCell ref="B217:G217"/>
     <mergeCell ref="B218:G218"/>
     <mergeCell ref="B219:G219"/>
     <mergeCell ref="B220:G220"/>
+    <mergeCell ref="B221:G221"/>
     <mergeCell ref="M112:M113"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I3 J3 K3 L3 J17 L21 J22 K22:L22 J23 K23:L23 K30 I33 L39 L53 L54 J56 K56 L61 J62 K62 L62 L65 J69 K69 J78:K78 L78 J79:K79 J80:K80 I83 J83 K83 L83 J86 K86 L86 K87:L87 I103 J103 K103:L103 J106 K106 L106 J112 K112 J113 K113 L116 L117 J132 L132 J133 I134 J134 K134 J145 J146 J147 J148 J149 J150 L150 J151 L151 J152 L152 J163 L163 J164 L164 L167 J173:K173 J174 K174 I189 J189 K189 L189 I198 J198 K198:L198 I207 J207 K207:L207 I6:I14 I17:I21 I26:I30 I34:I36 I37:I41 I45:I50 I53:I56 I59:I62 I65:I69 I72:I80 I86:I89 I92:I100 I104:I106 I107:I109 I112:I113 I116:I119 I122:I127 I132:I133 I137:I142 I145:I152 I155:I160 I163:I164 I167:I170 I173:I174 I177:I180 I183:I186 J6:J10 J11:J14 J18:J21 J26:J30 J37:J41 J45:J50 J59:J61 J65:J68 J87:J89 J92:J100 J104:J105 J107:J109 J116:J119 J122:J127 J130:J131 J137:J142 J155:J160 J167:J170 J177:J180 J183:J186 J192:J195 J201:J204 J210:J213 J216:J220 K6:K10 K11:K14 K17:K21 K26:K29 K37:K41 K45:K50 K59:K61 K65:K68 K88:K89 K92:K100 K104:K105 K107:K109 K116:K119 K122:K127 K132:K133 K137:K142 K145:K152 K155:K160 K163:K164 K167:K170 K177:K180 K183:K186 K192:K195 K201:K204 L6:L14 L17:L20 L26:L30 L33:L34 L35:L36 L37:L38 L40:L41 L45:L48 L49:L50 L55:L56 L59:L60 L66:L69 L72:L73 L74:L77 L79:L80 L88:L89 L92:L100 L104:L105 L107:L109 L112:L113 L118:L119 L122:L127 L133:L134 L137:L140 L141:L142 L145:L149 L155:L160 L168:L170 L173:L174 L177:L180 L183:L186 L192:L195 L201:L204 J33:K36 J53:K55 J72:K77 K130:L131 K210:L213 K216:L220">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I3 J3 K3 L3 J17 L21 J22 K22:L22 J23 K23:L23 K30 I33 L39 L53 L54 J56 K56 L61 J62 K62 L62 L65 J69 K69 J78:K78 L78 J79:K79 J80:K80 I83 J83 K83 L83 J86 K86 L86 K87:L87 I103 J103 K103:L103 J106 K106 L106 J112 K112 J113 K113 L116 L117 J132 L132 J133 I134 J134 K134 J145 J146 J147 J148 J149 J150 L150 J151 L151 J152 L152 J163 L163 J164 L164 L167 J173:K173 J174 K174 I189 J189 K189 L189 I198 J198 K198:L198 J205 L205 I208 J208 K208:L208 I6:I14 I17:I21 I26:I30 I34:I36 I37:I41 I45:I50 I53:I56 I59:I62 I65:I69 I72:I80 I86:I89 I92:I100 I104:I106 I107:I109 I112:I113 I116:I119 I122:I127 I132:I133 I137:I142 I145:I152 I155:I160 I163:I164 I167:I170 I173:I174 I177:I180 I183:I186 J6:J10 J11:J14 J18:J21 J26:J30 J37:J41 J45:J50 J59:J61 J65:J68 J87:J89 J92:J100 J104:J105 J107:J109 J116:J119 J122:J127 J130:J131 J137:J142 J155:J160 J167:J170 J177:J180 J183:J186 J192:J195 J201:J204 J211:J214 J217:J221 K6:K10 K11:K14 K17:K21 K26:K29 K37:K41 K45:K50 K59:K61 K65:K68 K88:K89 K92:K100 K104:K105 K107:K109 K116:K119 K122:K127 K132:K133 K137:K142 K145:K152 K155:K160 K163:K164 K167:K170 K177:K180 K183:K186 K192:K195 K201:K205 K211:K214 L6:L14 L17:L20 L26:L30 L33:L34 L35:L36 L37:L38 L40:L41 L45:L48 L49:L50 L55:L56 L59:L60 L66:L69 L72:L73 L74:L77 L79:L80 L88:L89 L92:L100 L104:L105 L107:L109 L112:L113 L118:L119 L122:L127 L133:L134 L137:L140 L141:L142 L145:L149 L155:L160 L168:L170 L173:L174 L177:L180 L183:L186 L192:L195 L201:L204 L211:L214 J33:K36 J53:K55 J72:K77 K130:L131 K217:L221">
       <formula1>$S$3:$S$4</formula1>
     </dataValidation>
   </dataValidations>
